--- a/raw/time_tables/B.Tech (btech)/2/1.xlsx
+++ b/raw/time_tables/B.Tech (btech)/2/1.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TT general\Time Table Even Sem 2025 _62\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C3917D9-968A-4BD4-8F99-2524C656B039}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:10001_{64CC159A-B700-40E6-BB3A-730956C58685}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="576">
   <si>
     <t>9-9.50</t>
   </si>
@@ -591,9 +591,6 @@
     <t>LB9,B10(CI121)- FF1/MEE</t>
   </si>
   <si>
-    <t>LA7,A8(MA211)- G1/HPT</t>
-  </si>
-  <si>
     <t xml:space="preserve">LA1,A2(PH211)-G3/RKG </t>
   </si>
   <si>
@@ -633,9 +630,6 @@
     <t xml:space="preserve">LA3,A4(PH211)-G3/MKC </t>
   </si>
   <si>
-    <t>LA7,A8(MA211)-G1 /HPT</t>
-  </si>
-  <si>
     <t xml:space="preserve">LA1,A2(PH211)-G2/RKG </t>
   </si>
   <si>
@@ -654,9 +648,6 @@
     <t>LB1,B2(CI121)-G3/PSO</t>
   </si>
   <si>
-    <t>LA7,A8(MA211)- FF1/HPT</t>
-  </si>
-  <si>
     <t xml:space="preserve">LA1,A2(PH211)-FF2/RKG </t>
   </si>
   <si>
@@ -957,36 +948,21 @@
     <t>TA3(B11HS111)-TS10/VSE</t>
   </si>
   <si>
-    <t>TC2(MA212)-TS6/AKK</t>
-  </si>
-  <si>
     <t>TB1(CI121)-TS7/APJ</t>
   </si>
   <si>
     <t>TB2(CI121)-TS8/AJS</t>
   </si>
   <si>
-    <t>TA1(MA211)-TS6/AKK</t>
-  </si>
-  <si>
     <t>TA10(MA211)-TS7/BPC</t>
   </si>
   <si>
     <t>TB14(MA211)-TS7/AN</t>
   </si>
   <si>
-    <t>TA17(MA211)-TS8/MPA</t>
-  </si>
-  <si>
     <t>TB11(CI121)-TS6/SHP</t>
   </si>
   <si>
-    <t>TB9(MA211)-TS8/AKK</t>
-  </si>
-  <si>
-    <t>TA5(MA211)-TS10/YG</t>
-  </si>
-  <si>
     <t>TB5(CI121)-TS6/SMT</t>
   </si>
   <si>
@@ -1032,9 +1008,6 @@
     <t>TA4(CI121)-TS7/MEE</t>
   </si>
   <si>
-    <t>TC3(MA212)-TS6/AKK</t>
-  </si>
-  <si>
     <t>TA7(CI121)-TS7/SHP</t>
   </si>
   <si>
@@ -1077,9 +1050,6 @@
     <t>TB4(CI121)-TS6/TAJ</t>
   </si>
   <si>
-    <t>TA15(MA211)-TS6/YG</t>
-  </si>
-  <si>
     <t>TA16(MA211)-TS7/AN</t>
   </si>
   <si>
@@ -1095,9 +1065,6 @@
     <t>TC2(B11CI121)-TS6/SJA</t>
   </si>
   <si>
-    <t>TB8(MA211)-TS7/AKK</t>
-  </si>
-  <si>
     <t>TA15(CI121)-TS6/NEH</t>
   </si>
   <si>
@@ -1750,6 +1717,39 @@
   </si>
   <si>
     <t>LB3,B4(PH211)-FF7/VRT</t>
+  </si>
+  <si>
+    <t>LA7,A8(MA211)- G1/MPA</t>
+  </si>
+  <si>
+    <t>LA7,A8(MA211)-G1 /MPA</t>
+  </si>
+  <si>
+    <t>LA7,A8(MA211)- FF2/MPA</t>
+  </si>
+  <si>
+    <t>TA1(MA211)-TS6/SG</t>
+  </si>
+  <si>
+    <t>TA17(MA211)-TS8/RSC</t>
+  </si>
+  <si>
+    <t>TB9(MA211)-TS8/SP</t>
+  </si>
+  <si>
+    <t>TA5(MA211)-TS10/HA</t>
+  </si>
+  <si>
+    <t>TB8(MA211)-TS7/AN</t>
+  </si>
+  <si>
+    <t>TA15(MA211)-TS6/AT</t>
+  </si>
+  <si>
+    <t>TC2(MA212)-TS6/NS</t>
+  </si>
+  <si>
+    <t>TC3(MA212)-TS6/RSH</t>
   </si>
 </sst>
 </file>
@@ -1893,7 +1893,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1924,6 +1924,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="52">
     <border>
@@ -2602,7 +2614,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2795,9 +2807,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2933,9 +2942,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3048,15 +3054,129 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3066,6 +3186,36 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3075,202 +3225,142 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3297,18 +3387,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3323,6 +3401,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3677,7 +3758,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E179" sqref="E179"/>
+      <selection pane="bottomRight" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3698,17 +3779,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="246" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="223"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="248"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
@@ -3738,11 +3819,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="183" t="s">
+      <c r="A3" s="211" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="108" t="s">
-        <v>575</v>
+      <c r="B3" s="107" t="s">
+        <v>564</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>117</v>
@@ -3750,7 +3831,7 @@
       <c r="D3" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="224" t="s">
+      <c r="E3" s="249" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="40" t="s">
@@ -3760,375 +3841,375 @@
         <v>130</v>
       </c>
       <c r="H3" s="40" t="s">
-        <v>234</v>
-      </c>
-      <c r="I3" s="75" t="s">
-        <v>222</v>
+        <v>231</v>
+      </c>
+      <c r="I3" s="74" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="184"/>
+      <c r="A4" s="212"/>
       <c r="B4" s="53" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C4" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="86" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="167"/>
-      <c r="F4" s="87" t="s">
+      <c r="E4" s="198"/>
+      <c r="F4" s="86" t="s">
         <v>127</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>236</v>
-      </c>
-      <c r="H4" s="87" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" s="158" t="s">
         <v>141</v>
       </c>
-      <c r="I4" s="89" t="s">
+      <c r="I4" s="88" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="184"/>
-      <c r="B5" s="109" t="s">
-        <v>510</v>
-      </c>
-      <c r="C5" s="87" t="s">
+      <c r="A5" s="212"/>
+      <c r="B5" s="108" t="s">
+        <v>499</v>
+      </c>
+      <c r="C5" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="167"/>
-      <c r="F5" s="86" t="s">
+      <c r="E5" s="198"/>
+      <c r="F5" s="85" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="152" t="s">
-        <v>226</v>
-      </c>
-      <c r="H5" s="119" t="s">
+      <c r="G5" s="158" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="I5" s="76"/>
+      <c r="I5" s="75"/>
     </row>
     <row r="6" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="184"/>
+      <c r="A6" s="212"/>
       <c r="B6" s="53" t="s">
-        <v>390</v>
-      </c>
-      <c r="C6" s="121" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="86" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="167"/>
-      <c r="F6" s="87" t="s">
+      <c r="E6" s="198"/>
+      <c r="F6" s="86" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="87" t="s">
+      <c r="G6" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="H6" s="87" t="s">
+      <c r="H6" s="158" t="s">
         <v>143</v>
       </c>
-      <c r="I6" s="77" t="s">
-        <v>303</v>
+      <c r="I6" s="76" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="184"/>
-      <c r="B7" s="66" t="s">
-        <v>389</v>
-      </c>
-      <c r="C7" s="86" t="s">
+      <c r="A7" s="212"/>
+      <c r="B7" s="65" t="s">
+        <v>378</v>
+      </c>
+      <c r="C7" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="86" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="167"/>
-      <c r="F7" s="87" t="s">
+      <c r="E7" s="198"/>
+      <c r="F7" s="86" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="86"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="77" t="s">
-        <v>304</v>
+      <c r="G7" s="85"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="76" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="184"/>
-      <c r="B8" s="110"/>
+      <c r="A8" s="212"/>
+      <c r="B8" s="109"/>
       <c r="C8" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="87" t="s">
-        <v>408</v>
-      </c>
-      <c r="E8" s="167"/>
-      <c r="F8" s="148" t="s">
-        <v>571</v>
-      </c>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86" t="s">
-        <v>301</v>
-      </c>
-      <c r="I8" s="77" t="s">
-        <v>305</v>
+      <c r="D8" s="86" t="s">
+        <v>397</v>
+      </c>
+      <c r="E8" s="198"/>
+      <c r="F8" s="178" t="s">
+        <v>560</v>
+      </c>
+      <c r="G8" s="85"/>
+      <c r="H8" s="180" t="s">
+        <v>298</v>
+      </c>
+      <c r="I8" s="76" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="184"/>
-      <c r="B9" s="53" t="s">
+      <c r="A9" s="212"/>
+      <c r="B9" s="179" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="198"/>
+      <c r="F9" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="180" t="s">
+        <v>299</v>
+      </c>
+      <c r="I9" s="76" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="212"/>
+      <c r="B10" s="179" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10" s="181" t="s">
+        <v>502</v>
+      </c>
+      <c r="D10" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="C9" s="86" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="167"/>
-      <c r="F9" s="86" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="86" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="86" t="s">
-        <v>302</v>
-      </c>
-      <c r="I9" s="77" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="184"/>
-      <c r="B10" s="53" t="s">
+      <c r="E10" s="198"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="180" t="s">
+        <v>297</v>
+      </c>
+      <c r="H10" s="85" t="s">
+        <v>229</v>
+      </c>
+      <c r="I10" s="75" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="212"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="85" t="s">
         <v>294</v>
       </c>
-      <c r="C10" s="46" t="s">
-        <v>513</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>296</v>
-      </c>
-      <c r="E10" s="167"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="86" t="s">
-        <v>300</v>
-      </c>
-      <c r="H10" s="86" t="s">
-        <v>232</v>
-      </c>
-      <c r="I10" s="76" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="184"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>297</v>
-      </c>
-      <c r="E11" s="167"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86" t="s">
+      <c r="E11" s="198"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="I11" s="76"/>
+      <c r="I11" s="75"/>
     </row>
     <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="184"/>
-      <c r="B12" s="66"/>
+      <c r="A12" s="212"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="86" t="s">
-        <v>298</v>
-      </c>
-      <c r="E12" s="167"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="192" t="s">
-        <v>287</v>
-      </c>
-      <c r="H12" s="192"/>
-      <c r="I12" s="76"/>
+      <c r="D12" s="85" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="198"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="234" t="s">
+        <v>284</v>
+      </c>
+      <c r="H12" s="234"/>
+      <c r="I12" s="75"/>
     </row>
     <row r="13" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="184"/>
-      <c r="B13" s="225" t="s">
-        <v>448</v>
-      </c>
-      <c r="C13" s="226"/>
-      <c r="D13" s="87" t="s">
-        <v>299</v>
-      </c>
-      <c r="E13" s="167"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="192" t="s">
+      <c r="A13" s="212"/>
+      <c r="B13" s="250" t="s">
+        <v>437</v>
+      </c>
+      <c r="C13" s="251"/>
+      <c r="D13" s="182" t="s">
+        <v>296</v>
+      </c>
+      <c r="E13" s="198"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="234" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="192"/>
-      <c r="I13" s="76"/>
+      <c r="H13" s="234"/>
+      <c r="I13" s="75"/>
     </row>
     <row r="14" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="184"/>
-      <c r="B14" s="211" t="s">
-        <v>455</v>
-      </c>
-      <c r="C14" s="174"/>
-      <c r="D14" s="86" t="s">
-        <v>295</v>
-      </c>
-      <c r="E14" s="167"/>
+      <c r="A14" s="212"/>
+      <c r="B14" s="235" t="s">
+        <v>444</v>
+      </c>
+      <c r="C14" s="189"/>
+      <c r="D14" s="267" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" s="198"/>
       <c r="F14" s="51"/>
-      <c r="G14" s="220" t="s">
-        <v>394</v>
-      </c>
-      <c r="H14" s="220"/>
-      <c r="I14" s="76"/>
+      <c r="G14" s="245" t="s">
+        <v>383</v>
+      </c>
+      <c r="H14" s="245"/>
+      <c r="I14" s="75"/>
     </row>
     <row r="15" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="184"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="171" t="s">
+      <c r="A15" s="212"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="202" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="202"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="243" t="s">
         <v>259</v>
       </c>
-      <c r="D15" s="171"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="218" t="s">
+      <c r="G15" s="243"/>
+      <c r="H15" s="190" t="s">
+        <v>438</v>
+      </c>
+      <c r="I15" s="242"/>
+    </row>
+    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="212"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="202" t="s">
+        <v>257</v>
+      </c>
+      <c r="D16" s="202"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="243" t="s">
+        <v>260</v>
+      </c>
+      <c r="G16" s="243"/>
+      <c r="H16" s="190" t="s">
+        <v>238</v>
+      </c>
+      <c r="I16" s="242"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="212"/>
+      <c r="B17" s="189" t="s">
+        <v>349</v>
+      </c>
+      <c r="C17" s="190"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="198"/>
+      <c r="F17" s="252" t="s">
+        <v>350</v>
+      </c>
+      <c r="G17" s="252"/>
+      <c r="H17" s="190" t="s">
         <v>262</v>
       </c>
-      <c r="G15" s="218"/>
-      <c r="H15" s="165" t="s">
-        <v>449</v>
-      </c>
-      <c r="I15" s="209"/>
-    </row>
-    <row r="16" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="184"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="171" t="s">
-        <v>260</v>
-      </c>
-      <c r="D16" s="171"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="218" t="s">
+      <c r="I17" s="242"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="212"/>
+      <c r="B18" s="189" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" s="190"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="198"/>
+      <c r="F18" s="252" t="s">
+        <v>261</v>
+      </c>
+      <c r="G18" s="252"/>
+      <c r="H18" s="190" t="s">
         <v>263</v>
       </c>
-      <c r="G16" s="218"/>
-      <c r="H16" s="165" t="s">
-        <v>241</v>
-      </c>
-      <c r="I16" s="209"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="184"/>
-      <c r="B17" s="174" t="s">
-        <v>360</v>
-      </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="175" t="s">
-        <v>361</v>
-      </c>
-      <c r="G17" s="175"/>
-      <c r="H17" s="165" t="s">
+      <c r="I18" s="242"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="212"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="202" t="s">
+        <v>264</v>
+      </c>
+      <c r="I19" s="239"/>
+    </row>
+    <row r="20" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="212"/>
+      <c r="B20" s="205" t="s">
+        <v>527</v>
+      </c>
+      <c r="C20" s="206"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="198"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="202" t="s">
         <v>265</v>
       </c>
-      <c r="I17" s="209"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="184"/>
-      <c r="B18" s="174" t="s">
-        <v>261</v>
-      </c>
-      <c r="C18" s="165"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="175" t="s">
-        <v>264</v>
-      </c>
-      <c r="G18" s="175"/>
-      <c r="H18" s="165" t="s">
-        <v>266</v>
-      </c>
-      <c r="I18" s="209"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="184"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="171" t="s">
-        <v>267</v>
-      </c>
-      <c r="I19" s="215"/>
-    </row>
-    <row r="20" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="184"/>
-      <c r="B20" s="159" t="s">
-        <v>538</v>
-      </c>
-      <c r="C20" s="160"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="171" t="s">
-        <v>268</v>
-      </c>
-      <c r="I20" s="215"/>
+      <c r="I20" s="239"/>
     </row>
     <row r="21" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="213"/>
-      <c r="B21" s="162" t="s">
+      <c r="A21" s="237"/>
+      <c r="B21" s="191" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="162"/>
-      <c r="D21" s="162"/>
-      <c r="E21" s="167"/>
-      <c r="F21" s="159" t="s">
-        <v>540</v>
-      </c>
-      <c r="G21" s="160"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="125"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="191"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="205" t="s">
+        <v>529</v>
+      </c>
+      <c r="G21" s="206"/>
+      <c r="H21" s="207"/>
+      <c r="I21" s="123"/>
     </row>
     <row r="22" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="214"/>
-      <c r="B22" s="212" t="s">
-        <v>539</v>
-      </c>
-      <c r="C22" s="212"/>
-      <c r="D22" s="212"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="162" t="s">
+      <c r="A22" s="238"/>
+      <c r="B22" s="236" t="s">
+        <v>528</v>
+      </c>
+      <c r="C22" s="236"/>
+      <c r="D22" s="236"/>
+      <c r="E22" s="198"/>
+      <c r="F22" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="125"/>
+      <c r="G22" s="191"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="123"/>
     </row>
     <row r="23" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="185"/>
-      <c r="E23" s="167"/>
-      <c r="F23" s="156" t="s">
-        <v>541</v>
-      </c>
-      <c r="G23" s="157"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="126"/>
+      <c r="A23" s="213"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="192" t="s">
+        <v>530</v>
+      </c>
+      <c r="G23" s="193"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="124"/>
     </row>
     <row r="24" spans="1:9" s="44" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
@@ -4142,100 +4223,100 @@
       <c r="I24" s="5"/>
     </row>
     <row r="25" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="183" t="s">
+      <c r="A25" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="66" t="s">
+      <c r="B25" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="86" t="s">
         <v>132</v>
       </c>
-      <c r="D25" s="87" t="s">
+      <c r="D25" s="86" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="166" t="s">
+      <c r="E25" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="87" t="s">
+      <c r="F25" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="G25" s="87" t="s">
+      <c r="G25" s="158" t="s">
         <v>152</v>
       </c>
-      <c r="H25" s="87" t="s">
+      <c r="H25" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="I25" s="89" t="s">
+      <c r="I25" s="88" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="184"/>
+      <c r="A26" s="212"/>
       <c r="B26" s="53" t="s">
-        <v>409</v>
-      </c>
-      <c r="C26" s="119" t="s">
+        <v>398</v>
+      </c>
+      <c r="C26" s="158" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="87" t="s">
+      <c r="D26" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="E26" s="167"/>
-      <c r="F26" s="87" t="s">
+      <c r="E26" s="198"/>
+      <c r="F26" s="86" t="s">
         <v>149</v>
       </c>
-      <c r="G26" s="87" t="s">
+      <c r="G26" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="H26" s="87" t="s">
+      <c r="H26" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="I26" s="89" t="s">
+      <c r="I26" s="88" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="184"/>
+      <c r="A27" s="212"/>
       <c r="B27" s="53" t="s">
-        <v>410</v>
-      </c>
-      <c r="C27" s="87" t="s">
-        <v>375</v>
-      </c>
-      <c r="D27" s="152" t="s">
-        <v>231</v>
-      </c>
-      <c r="E27" s="167"/>
-      <c r="F27" s="87" t="s">
+        <v>399</v>
+      </c>
+      <c r="C27" s="86" t="s">
+        <v>364</v>
+      </c>
+      <c r="D27" s="158" t="s">
+        <v>228</v>
+      </c>
+      <c r="E27" s="198"/>
+      <c r="F27" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="G27" s="86" t="s">
+      <c r="G27" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="H27" s="86" t="s">
+      <c r="H27" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="I27" s="89" t="s">
+      <c r="I27" s="88" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="184"/>
+      <c r="A28" s="212"/>
       <c r="B28" s="53" t="s">
-        <v>391</v>
-      </c>
-      <c r="C28" s="87" t="s">
+        <v>380</v>
+      </c>
+      <c r="C28" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="87" t="s">
+      <c r="D28" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="167"/>
-      <c r="F28" s="87" t="s">
+      <c r="E28" s="198"/>
+      <c r="F28" s="86" t="s">
         <v>151</v>
       </c>
-      <c r="G28" s="87" t="s">
+      <c r="G28" s="86" t="s">
         <v>155</v>
       </c>
       <c r="H28" s="51" t="s">
@@ -4244,270 +4325,270 @@
       <c r="I28" s="44"/>
     </row>
     <row r="29" spans="1:9" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="184"/>
+      <c r="A29" s="212"/>
       <c r="B29" s="53" t="s">
-        <v>392</v>
-      </c>
-      <c r="C29" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="C29" s="86" t="s">
         <v>139</v>
       </c>
       <c r="D29" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="E29" s="167"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="87" t="s">
+      <c r="E29" s="198"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="158" t="s">
         <v>156</v>
       </c>
-      <c r="H29" s="87" t="s">
-        <v>220</v>
-      </c>
-      <c r="I29" s="77" t="s">
-        <v>322</v>
+      <c r="H29" s="86" t="s">
+        <v>217</v>
+      </c>
+      <c r="I29" s="76" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="184"/>
-      <c r="B30" s="153" t="s">
-        <v>307</v>
+      <c r="A30" s="212"/>
+      <c r="B30" s="183" t="s">
+        <v>304</v>
       </c>
       <c r="C30" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="154" t="s">
-        <v>393</v>
-      </c>
-      <c r="E30" s="167"/>
+      <c r="D30" s="151" t="s">
+        <v>382</v>
+      </c>
+      <c r="E30" s="198"/>
       <c r="F30" s="56" t="s">
-        <v>537</v>
-      </c>
-      <c r="G30" s="87" t="s">
-        <v>395</v>
-      </c>
-      <c r="H30" s="86" t="s">
+        <v>526</v>
+      </c>
+      <c r="G30" s="86" t="s">
+        <v>384</v>
+      </c>
+      <c r="H30" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="76" t="s">
+      <c r="I30" s="75" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="184"/>
-      <c r="B31" s="111" t="s">
-        <v>308</v>
+      <c r="A31" s="212"/>
+      <c r="B31" s="110" t="s">
+        <v>305</v>
       </c>
       <c r="C31" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="86" t="s">
-        <v>311</v>
-      </c>
-      <c r="E31" s="167"/>
-      <c r="F31" s="86" t="s">
-        <v>314</v>
-      </c>
-      <c r="G31" s="116"/>
+      <c r="D31" s="267" t="s">
+        <v>574</v>
+      </c>
+      <c r="E31" s="198"/>
+      <c r="F31" s="180" t="s">
+        <v>568</v>
+      </c>
+      <c r="G31" s="114"/>
       <c r="H31" s="46" t="s">
-        <v>318</v>
-      </c>
-      <c r="I31" s="80" t="s">
-        <v>324</v>
+        <v>312</v>
+      </c>
+      <c r="I31" s="79" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="184"/>
-      <c r="B32" s="111" t="s">
+      <c r="A32" s="212"/>
+      <c r="B32" s="110" t="s">
+        <v>306</v>
+      </c>
+      <c r="C32" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="51" t="s">
+        <v>308</v>
+      </c>
+      <c r="E32" s="198"/>
+      <c r="F32" s="184" t="s">
+        <v>310</v>
+      </c>
+      <c r="G32" s="85" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="121"/>
+      <c r="I32" s="79" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="212"/>
+      <c r="B33" s="110" t="s">
+        <v>503</v>
+      </c>
+      <c r="C33" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="C32" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="51" t="s">
-        <v>312</v>
-      </c>
-      <c r="E32" s="167"/>
-      <c r="F32" s="79" t="s">
-        <v>315</v>
-      </c>
-      <c r="G32" s="86" t="s">
-        <v>76</v>
-      </c>
-      <c r="H32" s="123"/>
-      <c r="I32" s="80" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="184"/>
-      <c r="B33" s="111" t="s">
-        <v>514</v>
-      </c>
-      <c r="C33" s="86" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>313</v>
-      </c>
-      <c r="E33" s="167"/>
-      <c r="F33" s="86"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="85"/>
       <c r="G33" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>319</v>
-      </c>
-      <c r="I33" s="77" t="s">
-        <v>321</v>
+      <c r="H33" s="180" t="s">
+        <v>570</v>
+      </c>
+      <c r="I33" s="76" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="184"/>
-      <c r="B34" s="111" t="s">
-        <v>310</v>
-      </c>
-      <c r="C34" s="171" t="s">
-        <v>274</v>
-      </c>
-      <c r="D34" s="171"/>
-      <c r="E34" s="167"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="65" t="s">
-        <v>316</v>
-      </c>
-      <c r="H34" s="86" t="s">
-        <v>320</v>
-      </c>
-      <c r="I34" s="76"/>
+      <c r="A34" s="212"/>
+      <c r="B34" s="110" t="s">
+        <v>307</v>
+      </c>
+      <c r="C34" s="202" t="s">
+        <v>271</v>
+      </c>
+      <c r="D34" s="202"/>
+      <c r="E34" s="198"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="185" t="s">
+        <v>311</v>
+      </c>
+      <c r="H34" s="180" t="s">
+        <v>571</v>
+      </c>
+      <c r="I34" s="75"/>
     </row>
     <row r="35" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="184"/>
-      <c r="B35" s="174" t="s">
+      <c r="A35" s="212"/>
+      <c r="B35" s="189" t="s">
         <v>95</v>
       </c>
-      <c r="C35" s="165"/>
+      <c r="C35" s="190"/>
       <c r="D35" s="42"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86" t="s">
-        <v>317</v>
-      </c>
-      <c r="H35" s="216" t="s">
-        <v>454</v>
-      </c>
-      <c r="I35" s="217"/>
+      <c r="E35" s="198"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="180" t="s">
+        <v>569</v>
+      </c>
+      <c r="H35" s="240" t="s">
+        <v>443</v>
+      </c>
+      <c r="I35" s="241"/>
     </row>
     <row r="36" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="184"/>
-      <c r="B36" s="174" t="s">
-        <v>242</v>
-      </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="165" t="s">
-        <v>362</v>
-      </c>
-      <c r="G36" s="165"/>
-      <c r="H36" s="169" t="s">
+      <c r="A36" s="212"/>
+      <c r="B36" s="189" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="190"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="198"/>
+      <c r="F36" s="190" t="s">
+        <v>351</v>
+      </c>
+      <c r="G36" s="190"/>
+      <c r="H36" s="200" t="s">
+        <v>252</v>
+      </c>
+      <c r="I36" s="201"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="212"/>
+      <c r="B37" s="189" t="s">
+        <v>268</v>
+      </c>
+      <c r="C37" s="190"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="198"/>
+      <c r="F37" s="190" t="s">
+        <v>352</v>
+      </c>
+      <c r="G37" s="190"/>
+      <c r="H37" s="203" t="s">
+        <v>253</v>
+      </c>
+      <c r="I37" s="204"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="212"/>
+      <c r="B38" s="189" t="s">
+        <v>269</v>
+      </c>
+      <c r="C38" s="190"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="198"/>
+      <c r="F38" s="202" t="s">
+        <v>266</v>
+      </c>
+      <c r="G38" s="202"/>
+      <c r="H38" s="195" t="s">
+        <v>254</v>
+      </c>
+      <c r="I38" s="196"/>
+    </row>
+    <row r="39" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="212"/>
+      <c r="B39" s="111"/>
+      <c r="C39" s="202" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" s="202"/>
+      <c r="E39" s="198"/>
+      <c r="F39" s="202" t="s">
+        <v>267</v>
+      </c>
+      <c r="G39" s="202"/>
+      <c r="H39" s="200" t="s">
         <v>255</v>
       </c>
-      <c r="I36" s="170"/>
-    </row>
-    <row r="37" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="184"/>
-      <c r="B37" s="174" t="s">
-        <v>271</v>
-      </c>
-      <c r="C37" s="165"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="167"/>
-      <c r="F37" s="165" t="s">
-        <v>363</v>
-      </c>
-      <c r="G37" s="165"/>
-      <c r="H37" s="172" t="s">
-        <v>256</v>
-      </c>
-      <c r="I37" s="173"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="184"/>
-      <c r="B38" s="174" t="s">
-        <v>272</v>
-      </c>
-      <c r="C38" s="165"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="167"/>
-      <c r="F38" s="171" t="s">
-        <v>269</v>
-      </c>
-      <c r="G38" s="171"/>
-      <c r="H38" s="163" t="s">
-        <v>257</v>
-      </c>
-      <c r="I38" s="164"/>
-    </row>
-    <row r="39" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="184"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="171" t="s">
-        <v>273</v>
-      </c>
-      <c r="D39" s="171"/>
-      <c r="E39" s="167"/>
-      <c r="F39" s="171" t="s">
-        <v>270</v>
-      </c>
-      <c r="G39" s="171"/>
-      <c r="H39" s="169" t="s">
-        <v>258</v>
-      </c>
-      <c r="I39" s="170"/>
+      <c r="I39" s="201"/>
     </row>
     <row r="40" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="184"/>
-      <c r="B40" s="159" t="s">
-        <v>542</v>
-      </c>
-      <c r="C40" s="160"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="167"/>
-      <c r="F40" s="159" t="s">
-        <v>545</v>
-      </c>
-      <c r="G40" s="160"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="81"/>
+      <c r="A40" s="212"/>
+      <c r="B40" s="205" t="s">
+        <v>531</v>
+      </c>
+      <c r="C40" s="206"/>
+      <c r="D40" s="207"/>
+      <c r="E40" s="198"/>
+      <c r="F40" s="205" t="s">
+        <v>534</v>
+      </c>
+      <c r="G40" s="206"/>
+      <c r="H40" s="207"/>
+      <c r="I40" s="80"/>
     </row>
     <row r="41" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="184"/>
-      <c r="B41" s="162" t="s">
-        <v>543</v>
-      </c>
-      <c r="C41" s="162"/>
-      <c r="D41" s="162"/>
-      <c r="E41" s="167"/>
-      <c r="F41" s="162" t="s">
-        <v>546</v>
-      </c>
-      <c r="G41" s="162"/>
-      <c r="H41" s="162"/>
-      <c r="I41" s="126"/>
+      <c r="A41" s="212"/>
+      <c r="B41" s="191" t="s">
+        <v>532</v>
+      </c>
+      <c r="C41" s="191"/>
+      <c r="D41" s="191"/>
+      <c r="E41" s="198"/>
+      <c r="F41" s="191" t="s">
+        <v>535</v>
+      </c>
+      <c r="G41" s="191"/>
+      <c r="H41" s="191"/>
+      <c r="I41" s="124"/>
     </row>
     <row r="42" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="185"/>
-      <c r="B42" s="156" t="s">
-        <v>544</v>
-      </c>
-      <c r="C42" s="157"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="168"/>
-      <c r="F42" s="156" t="s">
-        <v>547</v>
-      </c>
-      <c r="G42" s="157"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="125"/>
+      <c r="A42" s="213"/>
+      <c r="B42" s="192" t="s">
+        <v>533</v>
+      </c>
+      <c r="C42" s="193"/>
+      <c r="D42" s="194"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="192" t="s">
+        <v>536</v>
+      </c>
+      <c r="G42" s="193"/>
+      <c r="H42" s="194"/>
+      <c r="I42" s="123"/>
     </row>
     <row r="43" spans="1:9" s="44" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
@@ -4521,7 +4602,7 @@
       <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="183" t="s">
+      <c r="A44" s="211" t="s">
         <v>11</v>
       </c>
       <c r="B44" s="52" t="s">
@@ -4533,7 +4614,7 @@
       <c r="D44" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="E44" s="219" t="s">
+      <c r="E44" s="244" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="41" t="s">
@@ -4543,69 +4624,69 @@
         <v>173</v>
       </c>
       <c r="H44" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="I44" s="82" t="s">
-        <v>402</v>
+        <v>232</v>
+      </c>
+      <c r="I44" s="81" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="184"/>
+      <c r="A45" s="212"/>
       <c r="B45" s="52" t="s">
         <v>164</v>
       </c>
       <c r="C45" s="48" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="148" t="s">
-        <v>573</v>
-      </c>
-      <c r="E45" s="219"/>
-      <c r="F45" s="87" t="s">
+      <c r="D45" s="146" t="s">
+        <v>562</v>
+      </c>
+      <c r="E45" s="244"/>
+      <c r="F45" s="86" t="s">
         <v>171</v>
       </c>
-      <c r="G45" s="155"/>
+      <c r="G45" s="152"/>
       <c r="H45" s="48" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="184"/>
+      <c r="A46" s="212"/>
       <c r="B46" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="C46" s="87" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" s="86" t="s">
         <v>166</v>
       </c>
       <c r="D46" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="E46" s="219"/>
+      <c r="E46" s="244"/>
       <c r="F46" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="G46" s="87" t="s">
+      <c r="G46" s="158" t="s">
         <v>174</v>
       </c>
       <c r="H46" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="I46" s="83" t="s">
+      <c r="I46" s="82" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="184"/>
+      <c r="A47" s="212"/>
       <c r="B47" s="53" t="s">
-        <v>399</v>
-      </c>
-      <c r="C47" s="116" t="s">
+        <v>388</v>
+      </c>
+      <c r="C47" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="D47" s="152" t="s">
-        <v>230</v>
-      </c>
-      <c r="E47" s="219"/>
+      <c r="D47" s="158" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" s="244"/>
       <c r="F47" s="49" t="s">
         <v>160</v>
       </c>
@@ -4615,292 +4696,292 @@
       <c r="H47" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="I47" s="89" t="s">
+      <c r="I47" s="88" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="184"/>
+      <c r="A48" s="212"/>
       <c r="B48" s="53" t="s">
-        <v>400</v>
-      </c>
-      <c r="C48" s="87" t="s">
-        <v>374</v>
-      </c>
-      <c r="D48" s="87" t="s">
+        <v>389</v>
+      </c>
+      <c r="C48" s="86" t="s">
+        <v>363</v>
+      </c>
+      <c r="D48" s="86" t="s">
         <v>170</v>
       </c>
-      <c r="E48" s="219"/>
-      <c r="F48" s="87" t="s">
-        <v>377</v>
+      <c r="E48" s="244"/>
+      <c r="F48" s="86" t="s">
+        <v>366</v>
       </c>
       <c r="G48" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="H48" s="43" t="s">
-        <v>332</v>
-      </c>
-      <c r="I48" s="89" t="s">
-        <v>239</v>
+      <c r="H48" s="186" t="s">
+        <v>324</v>
+      </c>
+      <c r="I48" s="88" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="184"/>
-      <c r="B49" s="113" t="s">
+      <c r="A49" s="212"/>
+      <c r="B49" s="112" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="43" t="s">
-        <v>327</v>
-      </c>
-      <c r="D49" s="152" t="s">
-        <v>393</v>
-      </c>
-      <c r="E49" s="219"/>
-      <c r="F49" s="43" t="s">
-        <v>331</v>
-      </c>
-      <c r="G49" s="87" t="s">
-        <v>401</v>
+      <c r="C49" s="186" t="s">
+        <v>319</v>
+      </c>
+      <c r="D49" s="150" t="s">
+        <v>382</v>
+      </c>
+      <c r="E49" s="244"/>
+      <c r="F49" s="186" t="s">
+        <v>323</v>
+      </c>
+      <c r="G49" s="86" t="s">
+        <v>390</v>
       </c>
       <c r="H49" s="45" t="s">
-        <v>452</v>
-      </c>
-      <c r="I49" s="81"/>
+        <v>441</v>
+      </c>
+      <c r="I49" s="80"/>
     </row>
     <row r="50" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="184"/>
-      <c r="B50" s="114" t="s">
-        <v>326</v>
-      </c>
-      <c r="C50" s="124"/>
+      <c r="A50" s="212"/>
+      <c r="B50" s="187" t="s">
+        <v>318</v>
+      </c>
+      <c r="C50" s="122"/>
       <c r="D50" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="E50" s="219"/>
+      <c r="E50" s="244"/>
       <c r="F50" s="43" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G50" s="54" t="s">
         <v>80</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="I50" s="118"/>
+        <v>325</v>
+      </c>
+      <c r="I50" s="116"/>
     </row>
     <row r="51" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="213"/>
-      <c r="B51" s="117"/>
-      <c r="C51" s="86" t="s">
-        <v>237</v>
-      </c>
-      <c r="D51" s="86" t="s">
-        <v>238</v>
-      </c>
-      <c r="E51" s="219"/>
-      <c r="F51" s="148" t="s">
-        <v>572</v>
+      <c r="A51" s="237"/>
+      <c r="B51" s="115"/>
+      <c r="C51" s="85" t="s">
+        <v>234</v>
+      </c>
+      <c r="D51" s="85" t="s">
+        <v>235</v>
+      </c>
+      <c r="E51" s="244"/>
+      <c r="F51" s="146" t="s">
+        <v>561</v>
       </c>
       <c r="G51" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="H51" s="88"/>
-      <c r="I51" s="118"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="116"/>
     </row>
     <row r="52" spans="1:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="213"/>
-      <c r="B52" s="117"/>
+      <c r="A52" s="237"/>
+      <c r="B52" s="115"/>
       <c r="C52" s="64" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D52" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="E52" s="219"/>
-      <c r="F52" s="117"/>
+      <c r="E52" s="244"/>
+      <c r="F52" s="115"/>
       <c r="G52" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="H52" s="204" t="s">
-        <v>286</v>
-      </c>
-      <c r="I52" s="204"/>
+      <c r="H52" s="228" t="s">
+        <v>283</v>
+      </c>
+      <c r="I52" s="228"/>
     </row>
     <row r="53" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="184"/>
-      <c r="B53" s="174" t="s">
+      <c r="A53" s="212"/>
+      <c r="B53" s="189" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="190"/>
+      <c r="D53" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="E53" s="244"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="114" t="s">
+        <v>114</v>
+      </c>
+      <c r="H53" s="228" t="s">
+        <v>243</v>
+      </c>
+      <c r="I53" s="228"/>
+    </row>
+    <row r="54" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="212"/>
+      <c r="B54" s="189" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="190"/>
+      <c r="D54" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="E54" s="244"/>
+      <c r="F54" s="218" t="s">
+        <v>248</v>
+      </c>
+      <c r="G54" s="218"/>
+      <c r="H54" s="218" t="s">
+        <v>246</v>
+      </c>
+      <c r="I54" s="218"/>
+    </row>
+    <row r="55" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="212"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="218" t="s">
+        <v>249</v>
+      </c>
+      <c r="D55" s="218"/>
+      <c r="E55" s="244"/>
+      <c r="F55" s="190" t="s">
+        <v>354</v>
+      </c>
+      <c r="G55" s="190"/>
+      <c r="H55" s="218" t="s">
+        <v>247</v>
+      </c>
+      <c r="I55" s="218"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="212"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="218" t="s">
+        <v>250</v>
+      </c>
+      <c r="D56" s="218"/>
+      <c r="E56" s="244"/>
+      <c r="F56" s="190" t="s">
+        <v>355</v>
+      </c>
+      <c r="G56" s="190"/>
+      <c r="H56" s="190" t="s">
+        <v>356</v>
+      </c>
+      <c r="I56" s="190"/>
+      <c r="L56" s="66"/>
+    </row>
+    <row r="57" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="212"/>
+      <c r="B57" s="189" t="s">
+        <v>353</v>
+      </c>
+      <c r="C57" s="190"/>
+      <c r="D57" s="149" t="s">
+        <v>563</v>
+      </c>
+      <c r="E57" s="244"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="118" t="s">
+        <v>559</v>
+      </c>
+      <c r="H57" s="190" t="s">
+        <v>500</v>
+      </c>
+      <c r="I57" s="190"/>
+      <c r="L57" s="66"/>
+    </row>
+    <row r="58" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="212"/>
+      <c r="B58" s="189" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="190"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="244"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="228" t="s">
         <v>245</v>
       </c>
-      <c r="C53" s="165"/>
-      <c r="D53" s="54" t="s">
-        <v>329</v>
-      </c>
-      <c r="E53" s="219"/>
-      <c r="F53" s="117"/>
-      <c r="G53" s="116" t="s">
-        <v>114</v>
-      </c>
-      <c r="H53" s="204" t="s">
-        <v>246</v>
-      </c>
-      <c r="I53" s="204"/>
-    </row>
-    <row r="54" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="184"/>
-      <c r="B54" s="174" t="s">
-        <v>96</v>
-      </c>
-      <c r="C54" s="165"/>
-      <c r="D54" s="54" t="s">
-        <v>330</v>
-      </c>
-      <c r="E54" s="219"/>
-      <c r="F54" s="189" t="s">
-        <v>251</v>
-      </c>
-      <c r="G54" s="189"/>
-      <c r="H54" s="189" t="s">
-        <v>249</v>
-      </c>
-      <c r="I54" s="189"/>
-    </row>
-    <row r="55" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="184"/>
-      <c r="B55" s="66"/>
-      <c r="C55" s="189" t="s">
-        <v>252</v>
-      </c>
-      <c r="D55" s="189"/>
-      <c r="E55" s="219"/>
-      <c r="F55" s="165" t="s">
-        <v>365</v>
-      </c>
-      <c r="G55" s="165"/>
-      <c r="H55" s="189" t="s">
-        <v>250</v>
-      </c>
-      <c r="I55" s="189"/>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="184"/>
-      <c r="B56" s="115"/>
-      <c r="C56" s="189" t="s">
-        <v>253</v>
-      </c>
-      <c r="D56" s="189"/>
-      <c r="E56" s="219"/>
-      <c r="F56" s="165" t="s">
-        <v>366</v>
-      </c>
-      <c r="G56" s="165"/>
-      <c r="H56" s="165" t="s">
-        <v>367</v>
-      </c>
-      <c r="I56" s="165"/>
-      <c r="L56" s="67"/>
-    </row>
-    <row r="57" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="184"/>
-      <c r="B57" s="174" t="s">
-        <v>364</v>
-      </c>
-      <c r="C57" s="165"/>
-      <c r="D57" s="151" t="s">
-        <v>574</v>
-      </c>
-      <c r="E57" s="219"/>
-      <c r="F57" s="117"/>
-      <c r="G57" s="120" t="s">
-        <v>570</v>
-      </c>
-      <c r="H57" s="165" t="s">
-        <v>511</v>
-      </c>
-      <c r="I57" s="165"/>
-      <c r="L57" s="67"/>
-    </row>
-    <row r="58" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="184"/>
-      <c r="B58" s="174" t="s">
-        <v>254</v>
-      </c>
-      <c r="C58" s="165"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="219"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="117"/>
-      <c r="H58" s="204" t="s">
-        <v>248</v>
-      </c>
-      <c r="I58" s="204"/>
+      <c r="I58" s="228"/>
       <c r="L58" s="9"/>
     </row>
     <row r="59" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="184"/>
+      <c r="A59" s="212"/>
       <c r="B59" s="50"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="219"/>
-      <c r="F59" s="189"/>
-      <c r="G59" s="189"/>
-      <c r="H59" s="204" t="s">
-        <v>450</v>
-      </c>
-      <c r="I59" s="204"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="244"/>
+      <c r="F59" s="218"/>
+      <c r="G59" s="218"/>
+      <c r="H59" s="228" t="s">
+        <v>439</v>
+      </c>
+      <c r="I59" s="228"/>
     </row>
     <row r="60" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="184"/>
-      <c r="B60" s="159" t="s">
+      <c r="A60" s="212"/>
+      <c r="B60" s="205" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="160"/>
-      <c r="D60" s="161"/>
-      <c r="E60" s="219"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="189" t="s">
-        <v>247</v>
-      </c>
-      <c r="H60" s="189"/>
-      <c r="I60" s="117"/>
+      <c r="C60" s="206"/>
+      <c r="D60" s="207"/>
+      <c r="E60" s="244"/>
+      <c r="F60" s="115"/>
+      <c r="G60" s="218" t="s">
+        <v>244</v>
+      </c>
+      <c r="H60" s="218"/>
+      <c r="I60" s="115"/>
     </row>
     <row r="61" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="184"/>
-      <c r="B61" s="162" t="s">
-        <v>550</v>
-      </c>
-      <c r="C61" s="162"/>
-      <c r="D61" s="162"/>
-      <c r="E61" s="219"/>
-      <c r="G61" s="233" t="s">
-        <v>549</v>
-      </c>
-      <c r="H61" s="234"/>
-      <c r="I61" s="235"/>
+      <c r="A61" s="212"/>
+      <c r="B61" s="191" t="s">
+        <v>539</v>
+      </c>
+      <c r="C61" s="191"/>
+      <c r="D61" s="191"/>
+      <c r="E61" s="244"/>
+      <c r="G61" s="259" t="s">
+        <v>538</v>
+      </c>
+      <c r="H61" s="260"/>
+      <c r="I61" s="261"/>
     </row>
     <row r="62" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="214"/>
-      <c r="B62" s="212" t="s">
-        <v>548</v>
-      </c>
-      <c r="C62" s="212"/>
-      <c r="D62" s="212"/>
-      <c r="E62" s="219"/>
-      <c r="F62" s="149"/>
-      <c r="G62" s="212" t="s">
-        <v>555</v>
-      </c>
-      <c r="H62" s="212"/>
-      <c r="I62" s="212"/>
+      <c r="A62" s="238"/>
+      <c r="B62" s="236" t="s">
+        <v>537</v>
+      </c>
+      <c r="C62" s="236"/>
+      <c r="D62" s="236"/>
+      <c r="E62" s="244"/>
+      <c r="F62" s="147"/>
+      <c r="G62" s="236" t="s">
+        <v>544</v>
+      </c>
+      <c r="H62" s="236"/>
+      <c r="I62" s="236"/>
     </row>
     <row r="63" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="185"/>
-      <c r="E63" s="219"/>
-      <c r="F63" s="127"/>
-      <c r="G63" s="162" t="s">
-        <v>554</v>
-      </c>
-      <c r="H63" s="162"/>
-      <c r="I63" s="162"/>
+      <c r="A63" s="213"/>
+      <c r="E63" s="244"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="191" t="s">
+        <v>543</v>
+      </c>
+      <c r="H63" s="191"/>
+      <c r="I63" s="191"/>
     </row>
     <row r="64" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="27"/>
@@ -4914,366 +4995,368 @@
       <c r="I64" s="15"/>
     </row>
     <row r="65" spans="1:10" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="183" t="s">
+      <c r="A65" s="211" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="87" t="s">
+      <c r="B65" s="86" t="s">
         <v>181</v>
       </c>
       <c r="D65" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="E65" s="242" t="s">
+      <c r="E65" s="264" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="G65" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="H65" s="86" t="s">
+        <v>565</v>
+      </c>
+      <c r="G65" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="H65" s="172" t="s">
         <v>152</v>
       </c>
-      <c r="I65" s="89" t="s">
-        <v>194</v>
+      <c r="I65" s="88" t="s">
+        <v>193</v>
       </c>
       <c r="J65" s="44"/>
     </row>
     <row r="66" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="184"/>
+      <c r="A66" s="212"/>
       <c r="B66" s="53" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="87" t="s">
+      <c r="C66" s="86" t="s">
         <v>183</v>
       </c>
       <c r="D66" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="E66" s="243"/>
-      <c r="F66" s="87" t="s">
+      <c r="E66" s="265"/>
+      <c r="F66" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="H66" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="I66" s="77" t="s">
-        <v>334</v>
+      <c r="H66" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="I66" s="76" t="s">
+        <v>326</v>
       </c>
       <c r="J66" s="44"/>
     </row>
     <row r="67" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="184"/>
+      <c r="A67" s="212"/>
       <c r="B67" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="C67" s="79" t="s">
+      <c r="C67" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="D67" s="87" t="s">
+      <c r="D67" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="E67" s="243"/>
-      <c r="F67" s="87" t="s">
-        <v>190</v>
-      </c>
-      <c r="G67" s="152" t="s">
-        <v>227</v>
+      <c r="E67" s="265"/>
+      <c r="F67" s="86" t="s">
+        <v>189</v>
+      </c>
+      <c r="G67" s="158" t="s">
+        <v>224</v>
       </c>
       <c r="H67" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="I67" s="76" t="s">
+        <v>327</v>
+      </c>
+      <c r="J67" s="44"/>
+    </row>
+    <row r="68" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="212"/>
+      <c r="B68" s="67" t="s">
+        <v>392</v>
+      </c>
+      <c r="C68" s="86" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="E68" s="265"/>
+      <c r="F68" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="G68" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="H68" s="117" t="s">
         <v>192</v>
       </c>
-      <c r="I67" s="77" t="s">
-        <v>335</v>
-      </c>
-      <c r="J67" s="44"/>
-    </row>
-    <row r="68" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="184"/>
-      <c r="B68" s="68" t="s">
-        <v>403</v>
-      </c>
-      <c r="C68" s="87" t="s">
-        <v>185</v>
-      </c>
-      <c r="D68" s="87" t="s">
-        <v>188</v>
-      </c>
-      <c r="E68" s="243"/>
-      <c r="F68" s="87" t="s">
-        <v>225</v>
-      </c>
-      <c r="G68" s="87" t="s">
-        <v>225</v>
-      </c>
-      <c r="H68" s="119" t="s">
-        <v>193</v>
-      </c>
-      <c r="I68" s="147" t="s">
+      <c r="I68" s="145" t="s">
         <v>75</v>
       </c>
       <c r="J68" s="44"/>
     </row>
     <row r="69" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="184"/>
-      <c r="B69" s="69" t="s">
-        <v>404</v>
-      </c>
-      <c r="C69" s="87" t="s">
-        <v>215</v>
-      </c>
-      <c r="D69" s="152" t="s">
-        <v>229</v>
-      </c>
-      <c r="E69" s="243"/>
-      <c r="F69" s="87" t="s">
-        <v>376</v>
-      </c>
-      <c r="G69" s="86" t="s">
-        <v>292</v>
-      </c>
-      <c r="H69" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="I69" s="76"/>
+      <c r="A69" s="212"/>
+      <c r="B69" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="C69" s="86" t="s">
+        <v>212</v>
+      </c>
+      <c r="D69" s="158" t="s">
+        <v>226</v>
+      </c>
+      <c r="E69" s="265"/>
+      <c r="F69" s="86" t="s">
+        <v>365</v>
+      </c>
+      <c r="G69" s="172" t="s">
+        <v>289</v>
+      </c>
+      <c r="H69" s="267" t="s">
+        <v>575</v>
+      </c>
+      <c r="I69" s="75"/>
       <c r="J69" s="44"/>
     </row>
     <row r="70" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="184"/>
-      <c r="B70" s="79"/>
-      <c r="C70" s="86" t="s">
-        <v>347</v>
-      </c>
-      <c r="D70" s="86" t="s">
-        <v>405</v>
-      </c>
-      <c r="E70" s="243"/>
-      <c r="F70" s="86" t="s">
+      <c r="A70" s="212"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="180" t="s">
+        <v>338</v>
+      </c>
+      <c r="D70" s="85" t="s">
+        <v>394</v>
+      </c>
+      <c r="E70" s="265"/>
+      <c r="F70" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="G70" s="86" t="s">
-        <v>341</v>
+      <c r="G70" s="180" t="s">
+        <v>332</v>
       </c>
       <c r="H70" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="I70" s="77"/>
+        <v>328</v>
+      </c>
+      <c r="I70" s="76"/>
       <c r="J70" s="44"/>
     </row>
     <row r="71" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="184"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="86" t="s">
+      <c r="A71" s="212"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="85" t="s">
         <v>100</v>
       </c>
       <c r="D71" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="E71" s="243"/>
-      <c r="F71" s="86" t="s">
+      <c r="E71" s="265"/>
+      <c r="F71" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="G71" s="86" t="s">
-        <v>342</v>
-      </c>
-      <c r="H71" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="I71" s="76"/>
+      <c r="G71" s="85" t="s">
+        <v>333</v>
+      </c>
+      <c r="H71" s="188" t="s">
+        <v>524</v>
+      </c>
+      <c r="I71" s="75"/>
       <c r="J71" s="44"/>
     </row>
     <row r="72" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="184"/>
-      <c r="B72" s="70"/>
+      <c r="A72" s="212"/>
+      <c r="B72" s="69"/>
       <c r="C72" s="46" t="s">
-        <v>447</v>
-      </c>
-      <c r="D72" s="86" t="s">
-        <v>346</v>
-      </c>
-      <c r="E72" s="243"/>
+        <v>436</v>
+      </c>
+      <c r="D72" s="180" t="s">
+        <v>337</v>
+      </c>
+      <c r="E72" s="265"/>
       <c r="F72" s="46" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="G72" s="42"/>
-      <c r="H72" s="64" t="s">
+      <c r="H72" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="I72" s="75"/>
+      <c r="J72" s="44"/>
+    </row>
+    <row r="73" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="212"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="I72" s="76"/>
-      <c r="J72" s="44"/>
-    </row>
-    <row r="73" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="184"/>
-      <c r="B73" s="79"/>
-      <c r="C73" s="46" t="s">
-        <v>348</v>
-      </c>
-      <c r="D73" s="86" t="s">
+      <c r="D73" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="E73" s="243"/>
+      <c r="E73" s="265"/>
       <c r="F73" s="46" t="s">
-        <v>344</v>
-      </c>
-      <c r="G73" s="78"/>
+        <v>335</v>
+      </c>
+      <c r="G73" s="77"/>
       <c r="H73" s="64" t="s">
-        <v>340</v>
-      </c>
-      <c r="I73" s="77"/>
+        <v>330</v>
+      </c>
+      <c r="I73" s="76"/>
       <c r="J73" s="44"/>
     </row>
     <row r="74" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="184"/>
-      <c r="B74" s="116"/>
-      <c r="C74" s="171" t="s">
-        <v>411</v>
-      </c>
-      <c r="D74" s="171"/>
-      <c r="E74" s="243"/>
-      <c r="F74" s="86" t="s">
-        <v>345</v>
-      </c>
-      <c r="G74" s="86"/>
-      <c r="H74" s="189" t="s">
+      <c r="A74" s="212"/>
+      <c r="B74" s="114"/>
+      <c r="C74" s="202" t="s">
+        <v>400</v>
+      </c>
+      <c r="D74" s="202"/>
+      <c r="E74" s="265"/>
+      <c r="F74" s="180" t="s">
+        <v>336</v>
+      </c>
+      <c r="G74" s="85"/>
+      <c r="H74" s="64" t="s">
+        <v>331</v>
+      </c>
+      <c r="I74" s="164"/>
+      <c r="J74" s="44"/>
+    </row>
+    <row r="75" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="212"/>
+      <c r="B75" s="114"/>
+      <c r="C75" s="202" t="s">
+        <v>401</v>
+      </c>
+      <c r="D75" s="202"/>
+      <c r="E75" s="265"/>
+      <c r="F75" s="218" t="s">
+        <v>274</v>
+      </c>
+      <c r="G75" s="218"/>
+      <c r="H75" s="163" t="s">
+        <v>272</v>
+      </c>
+      <c r="I75" s="164"/>
+      <c r="J75" s="44"/>
+    </row>
+    <row r="76" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="212"/>
+      <c r="B76" s="114"/>
+      <c r="C76" s="202" t="s">
+        <v>385</v>
+      </c>
+      <c r="D76" s="202"/>
+      <c r="E76" s="265"/>
+      <c r="F76" s="218" t="s">
         <v>275</v>
       </c>
-      <c r="I74" s="190"/>
-      <c r="J74" s="44"/>
-    </row>
-    <row r="75" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="184"/>
-      <c r="B75" s="116"/>
-      <c r="C75" s="171" t="s">
-        <v>412</v>
-      </c>
-      <c r="D75" s="171"/>
-      <c r="E75" s="243"/>
-      <c r="F75" s="189" t="s">
-        <v>277</v>
-      </c>
-      <c r="G75" s="189"/>
-      <c r="H75" s="189" t="s">
-        <v>276</v>
-      </c>
-      <c r="I75" s="190"/>
-      <c r="J75" s="44"/>
-    </row>
-    <row r="76" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="184"/>
-      <c r="B76" s="116"/>
-      <c r="C76" s="171" t="s">
-        <v>396</v>
-      </c>
-      <c r="D76" s="171"/>
-      <c r="E76" s="243"/>
-      <c r="F76" s="189" t="s">
-        <v>278</v>
-      </c>
-      <c r="G76" s="189"/>
-      <c r="H76" s="192" t="s">
-        <v>371</v>
-      </c>
-      <c r="I76" s="193"/>
+      <c r="G76" s="218"/>
+      <c r="H76" s="163" t="s">
+        <v>273</v>
+      </c>
+      <c r="I76" s="166"/>
       <c r="J76" s="44"/>
     </row>
     <row r="77" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="184"/>
-      <c r="B77" s="165" t="s">
+      <c r="A77" s="212"/>
+      <c r="B77" s="190" t="s">
         <v>94</v>
       </c>
-      <c r="C77" s="165"/>
+      <c r="C77" s="190"/>
       <c r="D77" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E77" s="243"/>
-      <c r="F77" s="192" t="s">
-        <v>369</v>
-      </c>
-      <c r="G77" s="192"/>
-      <c r="H77" s="192" t="s">
-        <v>512</v>
-      </c>
-      <c r="I77" s="193"/>
+      <c r="E77" s="265"/>
+      <c r="F77" s="234" t="s">
+        <v>358</v>
+      </c>
+      <c r="G77" s="234"/>
+      <c r="H77" s="165" t="s">
+        <v>360</v>
+      </c>
+      <c r="I77" s="166"/>
       <c r="J77" s="44" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="184"/>
-      <c r="B78" s="174" t="s">
-        <v>445</v>
-      </c>
-      <c r="C78" s="165"/>
+      <c r="A78" s="212"/>
+      <c r="B78" s="189" t="s">
+        <v>434</v>
+      </c>
+      <c r="C78" s="190"/>
       <c r="D78" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E78" s="243"/>
-      <c r="F78" s="192" t="s">
-        <v>370</v>
-      </c>
-      <c r="G78" s="192"/>
-      <c r="H78" s="78" t="s">
-        <v>535</v>
-      </c>
-      <c r="I78" s="81"/>
+      <c r="E78" s="265"/>
+      <c r="F78" s="234" t="s">
+        <v>359</v>
+      </c>
+      <c r="G78" s="234"/>
+      <c r="H78" s="165" t="s">
+        <v>501</v>
+      </c>
+      <c r="I78" s="80"/>
       <c r="J78" s="44"/>
     </row>
     <row r="79" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="184"/>
-      <c r="B79" s="197" t="s">
-        <v>279</v>
-      </c>
-      <c r="C79" s="198"/>
-      <c r="D79" s="78"/>
-      <c r="E79" s="243"/>
-      <c r="F79" s="159" t="s">
+      <c r="A79" s="212"/>
+      <c r="B79" s="222" t="s">
+        <v>276</v>
+      </c>
+      <c r="C79" s="223"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="265"/>
+      <c r="F79" s="153" t="s">
         <v>62</v>
       </c>
-      <c r="G79" s="160"/>
-      <c r="H79" s="161"/>
-      <c r="I79" s="125"/>
+      <c r="G79" s="154"/>
+      <c r="H79" s="77" t="s">
+        <v>524</v>
+      </c>
+      <c r="I79" s="123"/>
       <c r="J79" s="44"/>
     </row>
     <row r="80" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="184"/>
-      <c r="B80" s="197" t="s">
-        <v>368</v>
-      </c>
-      <c r="C80" s="198"/>
-      <c r="D80" s="87"/>
-      <c r="E80" s="243"/>
-      <c r="F80" s="162" t="s">
-        <v>553</v>
-      </c>
-      <c r="G80" s="162"/>
-      <c r="H80" s="162"/>
-      <c r="I80" s="128"/>
+      <c r="A80" s="212"/>
+      <c r="B80" s="222" t="s">
+        <v>357</v>
+      </c>
+      <c r="C80" s="223"/>
+      <c r="D80" s="86"/>
+      <c r="E80" s="265"/>
+      <c r="F80" s="156" t="s">
+        <v>542</v>
+      </c>
+      <c r="G80" s="156"/>
+      <c r="H80" s="155"/>
+      <c r="I80" s="126"/>
       <c r="J80" s="44"/>
     </row>
     <row r="81" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="184"/>
-      <c r="B81" s="159" t="s">
-        <v>551</v>
-      </c>
-      <c r="C81" s="160"/>
-      <c r="D81" s="161"/>
-      <c r="E81" s="244"/>
-      <c r="I81" s="85"/>
+      <c r="A81" s="212"/>
+      <c r="B81" s="205" t="s">
+        <v>540</v>
+      </c>
+      <c r="C81" s="206"/>
+      <c r="D81" s="207"/>
+      <c r="E81" s="266"/>
+      <c r="H81" s="156"/>
+      <c r="I81" s="84"/>
       <c r="J81" s="44"/>
     </row>
     <row r="82" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="185"/>
-      <c r="B82" s="162" t="s">
-        <v>552</v>
-      </c>
-      <c r="C82" s="162"/>
-      <c r="D82" s="162"/>
-      <c r="E82" s="243"/>
-      <c r="F82" s="78"/>
-      <c r="G82" s="78"/>
-      <c r="H82" s="78"/>
-      <c r="I82" s="81"/>
+      <c r="A82" s="213"/>
+      <c r="B82" s="191" t="s">
+        <v>541</v>
+      </c>
+      <c r="C82" s="191"/>
+      <c r="D82" s="191"/>
+      <c r="E82" s="265"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+      <c r="I82" s="80"/>
       <c r="J82" s="44"/>
     </row>
     <row r="83" spans="1:10" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5284,391 +5367,391 @@
       <c r="E83" s="19"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
+      <c r="H83" s="77"/>
       <c r="I83" s="20"/>
     </row>
     <row r="84" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="194" t="s">
+      <c r="A84" s="219" t="s">
         <v>14</v>
       </c>
       <c r="B84" s="53" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D84" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="E84" s="166" t="s">
+        <v>221</v>
+      </c>
+      <c r="E84" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="F84" s="87" t="s">
+      <c r="F84" s="158" t="s">
+        <v>566</v>
+      </c>
+      <c r="G84" s="256" t="s">
+        <v>60</v>
+      </c>
+      <c r="H84" s="17"/>
+      <c r="I84" s="88" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="220"/>
+      <c r="B85" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="C85" s="158" t="s">
+        <v>196</v>
+      </c>
+      <c r="D85" s="158" t="s">
+        <v>200</v>
+      </c>
+      <c r="E85" s="198"/>
+      <c r="F85" s="86" t="s">
+        <v>202</v>
+      </c>
+      <c r="G85" s="257"/>
+      <c r="H85" s="86" t="s">
+        <v>204</v>
+      </c>
+      <c r="I85" s="88" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="220"/>
+      <c r="B86" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="C86" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="D86" s="86" t="s">
+        <v>201</v>
+      </c>
+      <c r="E86" s="198"/>
+      <c r="F86" s="158" t="s">
         <v>203</v>
       </c>
-      <c r="G84" s="230" t="s">
-        <v>60</v>
-      </c>
-      <c r="H84" s="87" t="s">
-        <v>206</v>
-      </c>
-      <c r="I84" s="89" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="195"/>
-      <c r="B85" s="53" t="s">
+      <c r="G86" s="257"/>
+      <c r="H86" s="158" t="s">
+        <v>205</v>
+      </c>
+      <c r="I86" s="88" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="220"/>
+      <c r="B87" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="C85" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="D85" s="87" t="s">
-        <v>201</v>
-      </c>
-      <c r="E85" s="167"/>
-      <c r="F85" s="87" t="s">
-        <v>204</v>
-      </c>
-      <c r="G85" s="231"/>
-      <c r="H85" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="I85" s="89" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="195"/>
-      <c r="B86" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="C86" s="87" t="s">
+      <c r="C87" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="D86" s="87" t="s">
-        <v>202</v>
-      </c>
-      <c r="E86" s="167"/>
-      <c r="F86" s="87" t="s">
-        <v>205</v>
-      </c>
-      <c r="G86" s="231"/>
-      <c r="H86" s="87" t="s">
+      <c r="D87" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="E87" s="198"/>
+      <c r="F87" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="G87" s="257"/>
+      <c r="H87" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="I86" s="89" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="195"/>
-      <c r="B87" s="53" t="s">
-        <v>196</v>
-      </c>
-      <c r="C87" s="87" t="s">
+      <c r="I87" s="75"/>
+    </row>
+    <row r="88" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="220"/>
+      <c r="B88" s="69" t="s">
+        <v>340</v>
+      </c>
+      <c r="C88" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="D87" s="87" t="s">
-        <v>135</v>
-      </c>
-      <c r="E87" s="167"/>
-      <c r="F87" s="87" t="s">
-        <v>88</v>
-      </c>
-      <c r="G87" s="231"/>
-      <c r="H87" s="86" t="s">
-        <v>351</v>
-      </c>
-      <c r="I87" s="76"/>
-    </row>
-    <row r="88" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="195"/>
-      <c r="B88" s="70" t="s">
-        <v>349</v>
-      </c>
-      <c r="C88" s="87" t="s">
-        <v>200</v>
-      </c>
-      <c r="D88" s="152" t="s">
-        <v>228</v>
-      </c>
-      <c r="E88" s="167"/>
-      <c r="F88" s="116" t="s">
+      <c r="D88" s="158" t="s">
+        <v>225</v>
+      </c>
+      <c r="E88" s="198"/>
+      <c r="F88" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="G88" s="231"/>
-      <c r="H88" s="46" t="s">
-        <v>352</v>
-      </c>
-      <c r="I88" s="76"/>
+      <c r="G88" s="257"/>
+      <c r="H88" s="180" t="s">
+        <v>573</v>
+      </c>
+      <c r="I88" s="75"/>
     </row>
     <row r="89" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="195"/>
-      <c r="B89" s="70" t="s">
-        <v>446</v>
-      </c>
-      <c r="C89" s="87" t="s">
-        <v>399</v>
-      </c>
-      <c r="D89" s="87" t="s">
-        <v>406</v>
-      </c>
-      <c r="E89" s="167"/>
+      <c r="A89" s="220"/>
+      <c r="B89" s="69" t="s">
+        <v>435</v>
+      </c>
+      <c r="C89" s="86" t="s">
+        <v>388</v>
+      </c>
+      <c r="D89" s="86" t="s">
+        <v>395</v>
+      </c>
+      <c r="E89" s="198"/>
       <c r="F89" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="G89" s="231"/>
-      <c r="H89" s="86" t="s">
-        <v>353</v>
-      </c>
-      <c r="I89" s="76"/>
+      <c r="G89" s="257"/>
+      <c r="H89" s="181" t="s">
+        <v>342</v>
+      </c>
+      <c r="I89" s="75"/>
     </row>
     <row r="90" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="195"/>
+      <c r="A90" s="220"/>
       <c r="B90" s="48" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="C90" s="46" t="s">
-        <v>350</v>
-      </c>
-      <c r="D90" s="86" t="s">
+        <v>341</v>
+      </c>
+      <c r="D90" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="E90" s="167"/>
+      <c r="E90" s="198"/>
       <c r="F90" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="G90" s="231"/>
-      <c r="H90" s="86" t="s">
-        <v>354</v>
-      </c>
-      <c r="I90" s="76"/>
+      <c r="G90" s="257"/>
+      <c r="H90" s="180" t="s">
+        <v>343</v>
+      </c>
+      <c r="I90" s="75"/>
     </row>
     <row r="91" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="195"/>
-      <c r="B91" s="78"/>
+      <c r="A91" s="220"/>
+      <c r="B91" s="77"/>
       <c r="C91" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="86" t="s">
+      <c r="D91" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="E91" s="167"/>
-      <c r="F91" s="150" t="s">
-        <v>569</v>
-      </c>
-      <c r="G91" s="231"/>
-      <c r="H91" s="46" t="s">
+      <c r="E91" s="198"/>
+      <c r="F91" s="148" t="s">
+        <v>558</v>
+      </c>
+      <c r="G91" s="257"/>
+      <c r="H91" s="180" t="s">
+        <v>344</v>
+      </c>
+      <c r="I91" s="75"/>
+    </row>
+    <row r="92" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="220"/>
+      <c r="B92" s="77"/>
+      <c r="C92" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="E92" s="198"/>
+      <c r="F92" s="127"/>
+      <c r="G92" s="257"/>
+      <c r="H92" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="I91" s="76"/>
-    </row>
-    <row r="92" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="195"/>
-      <c r="B92" s="78"/>
-      <c r="C92" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="D92" s="86" t="s">
-        <v>86</v>
-      </c>
-      <c r="E92" s="167"/>
-      <c r="F92" s="129"/>
-      <c r="G92" s="231"/>
-      <c r="H92" s="64" t="s">
-        <v>355</v>
-      </c>
-      <c r="I92" s="76"/>
+      <c r="I92" s="75"/>
     </row>
     <row r="93" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="195"/>
-      <c r="B93" s="66"/>
-      <c r="C93" s="86" t="s">
+      <c r="A93" s="220"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="D93" s="86"/>
-      <c r="E93" s="167"/>
-      <c r="F93" s="129"/>
-      <c r="G93" s="231"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="198"/>
+      <c r="F93" s="127"/>
+      <c r="G93" s="257"/>
       <c r="H93" s="64" t="s">
-        <v>515</v>
-      </c>
-      <c r="I93" s="76"/>
+        <v>345</v>
+      </c>
+      <c r="I93" s="75"/>
     </row>
     <row r="94" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="195"/>
-      <c r="B94" s="240" t="s">
-        <v>288</v>
-      </c>
-      <c r="C94" s="208"/>
-      <c r="D94" s="86"/>
-      <c r="E94" s="167"/>
-      <c r="F94" s="116"/>
-      <c r="G94" s="231"/>
+      <c r="A94" s="220"/>
+      <c r="B94" s="262" t="s">
+        <v>285</v>
+      </c>
+      <c r="C94" s="233"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="198"/>
+      <c r="F94" s="114"/>
+      <c r="G94" s="257"/>
       <c r="H94" s="64" t="s">
-        <v>516</v>
-      </c>
-      <c r="I94" s="76"/>
+        <v>504</v>
+      </c>
+      <c r="I94" s="75"/>
     </row>
     <row r="95" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="195"/>
-      <c r="B95" s="66"/>
-      <c r="C95" s="207" t="s">
-        <v>397</v>
-      </c>
-      <c r="D95" s="208"/>
-      <c r="E95" s="167"/>
+      <c r="A95" s="220"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="232" t="s">
+        <v>386</v>
+      </c>
+      <c r="D95" s="233"/>
+      <c r="E95" s="198"/>
       <c r="F95" s="51"/>
-      <c r="G95" s="231"/>
-      <c r="H95" s="192" t="s">
-        <v>243</v>
-      </c>
-      <c r="I95" s="193"/>
+      <c r="G95" s="257"/>
+      <c r="H95" s="64" t="s">
+        <v>505</v>
+      </c>
+      <c r="I95" s="166"/>
     </row>
     <row r="96" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="195"/>
+      <c r="A96" s="220"/>
       <c r="B96" s="53"/>
-      <c r="C96" s="116"/>
-      <c r="D96" s="86"/>
-      <c r="E96" s="167"/>
-      <c r="F96" s="116"/>
-      <c r="G96" s="231"/>
-      <c r="H96" s="192" t="s">
-        <v>216</v>
-      </c>
-      <c r="I96" s="193"/>
+      <c r="C96" s="114"/>
+      <c r="D96" s="85"/>
+      <c r="E96" s="198"/>
+      <c r="F96" s="114"/>
+      <c r="G96" s="257"/>
+      <c r="H96" s="165" t="s">
+        <v>240</v>
+      </c>
+      <c r="I96" s="166"/>
     </row>
     <row r="97" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="195"/>
-      <c r="B97" s="211" t="s">
-        <v>372</v>
-      </c>
-      <c r="C97" s="174"/>
-      <c r="D97" s="87"/>
-      <c r="E97" s="167"/>
-      <c r="F97" s="116"/>
-      <c r="G97" s="231"/>
-      <c r="H97" s="189" t="s">
+      <c r="A97" s="220"/>
+      <c r="B97" s="235" t="s">
+        <v>361</v>
+      </c>
+      <c r="C97" s="189"/>
+      <c r="D97" s="86"/>
+      <c r="E97" s="198"/>
+      <c r="F97" s="114"/>
+      <c r="G97" s="257"/>
+      <c r="H97" s="165" t="s">
+        <v>213</v>
+      </c>
+      <c r="I97" s="164"/>
+    </row>
+    <row r="98" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="220"/>
+      <c r="B98" s="235" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98" s="189"/>
+      <c r="D98" s="86"/>
+      <c r="E98" s="198"/>
+      <c r="F98" s="117"/>
+      <c r="G98" s="257"/>
+      <c r="H98" s="163" t="s">
+        <v>278</v>
+      </c>
+      <c r="I98" s="164"/>
+    </row>
+    <row r="99" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="220"/>
+      <c r="B99" s="50"/>
+      <c r="C99" s="202" t="s">
         <v>281</v>
       </c>
-      <c r="I97" s="190"/>
-    </row>
-    <row r="98" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="195"/>
-      <c r="B98" s="211" t="s">
-        <v>69</v>
-      </c>
-      <c r="C98" s="174"/>
-      <c r="D98" s="87"/>
-      <c r="E98" s="167"/>
-      <c r="F98" s="119"/>
-      <c r="G98" s="231"/>
-      <c r="H98" s="189" t="s">
+      <c r="D99" s="202"/>
+      <c r="E99" s="198"/>
+      <c r="F99" s="114"/>
+      <c r="G99" s="257"/>
+      <c r="H99" s="163" t="s">
+        <v>279</v>
+      </c>
+      <c r="I99" s="166"/>
+    </row>
+    <row r="100" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="220"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="202" t="s">
         <v>282</v>
       </c>
-      <c r="I98" s="190"/>
-    </row>
-    <row r="99" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="195"/>
-      <c r="B99" s="50"/>
-      <c r="C99" s="171" t="s">
-        <v>284</v>
-      </c>
-      <c r="D99" s="171"/>
-      <c r="E99" s="167"/>
-      <c r="F99" s="116"/>
-      <c r="G99" s="231"/>
-      <c r="H99" s="192" t="s">
-        <v>453</v>
-      </c>
-      <c r="I99" s="193"/>
-    </row>
-    <row r="100" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="195"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="171" t="s">
-        <v>285</v>
-      </c>
-      <c r="D100" s="171"/>
-      <c r="E100" s="167"/>
-      <c r="F100" s="129"/>
-      <c r="G100" s="231"/>
-      <c r="H100" s="192" t="s">
+      <c r="D100" s="202"/>
+      <c r="E100" s="198"/>
+      <c r="F100" s="127"/>
+      <c r="G100" s="257"/>
+      <c r="H100" s="165" t="s">
+        <v>442</v>
+      </c>
+      <c r="I100" s="166"/>
+    </row>
+    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="220"/>
+      <c r="B101" s="50"/>
+      <c r="C101" s="87"/>
+      <c r="D101" s="87"/>
+      <c r="E101" s="198"/>
+      <c r="F101" s="127"/>
+      <c r="G101" s="257"/>
+      <c r="H101" s="165" t="s">
+        <v>277</v>
+      </c>
+      <c r="I101" s="170"/>
+    </row>
+    <row r="102" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="220"/>
+      <c r="B102" s="205" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="206"/>
+      <c r="D102" s="207"/>
+      <c r="E102" s="198"/>
+      <c r="F102" s="127"/>
+      <c r="G102" s="258"/>
+      <c r="H102" s="157" t="s">
         <v>280</v>
       </c>
-      <c r="I100" s="193"/>
-    </row>
-    <row r="101" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="195"/>
-      <c r="B101" s="50"/>
-      <c r="C101" s="88"/>
-      <c r="D101" s="88"/>
-      <c r="E101" s="167"/>
-      <c r="F101" s="129"/>
-      <c r="G101" s="231"/>
-      <c r="H101" s="165" t="s">
-        <v>283</v>
-      </c>
-      <c r="I101" s="209"/>
-    </row>
-    <row r="102" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="195"/>
-      <c r="B102" s="159" t="s">
-        <v>66</v>
-      </c>
-      <c r="C102" s="160"/>
-      <c r="D102" s="161"/>
-      <c r="E102" s="167"/>
-      <c r="F102" s="129"/>
-      <c r="G102" s="232"/>
-      <c r="H102" s="165" t="s">
-        <v>373</v>
-      </c>
-      <c r="I102" s="209"/>
+      <c r="I102" s="170"/>
     </row>
     <row r="103" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="195"/>
-      <c r="B103" s="162" t="s">
-        <v>556</v>
-      </c>
-      <c r="C103" s="162"/>
-      <c r="D103" s="162"/>
-      <c r="E103" s="241"/>
-      <c r="G103" s="236" t="s">
-        <v>558</v>
-      </c>
-      <c r="H103" s="234"/>
-      <c r="I103" s="234"/>
+      <c r="A103" s="220"/>
+      <c r="B103" s="191" t="s">
+        <v>545</v>
+      </c>
+      <c r="C103" s="191"/>
+      <c r="D103" s="191"/>
+      <c r="E103" s="263"/>
+      <c r="G103" s="174" t="s">
+        <v>547</v>
+      </c>
+      <c r="H103" s="157" t="s">
+        <v>362</v>
+      </c>
+      <c r="I103" s="173"/>
     </row>
     <row r="104" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="196"/>
-      <c r="B104" s="212" t="s">
-        <v>557</v>
-      </c>
-      <c r="C104" s="212"/>
-      <c r="D104" s="212"/>
-      <c r="E104" s="167"/>
+      <c r="A104" s="221"/>
+      <c r="B104" s="236" t="s">
+        <v>546</v>
+      </c>
+      <c r="C104" s="236"/>
+      <c r="D104" s="236"/>
+      <c r="E104" s="198"/>
       <c r="F104" s="40"/>
-      <c r="G104" s="162" t="s">
-        <v>559</v>
-      </c>
-      <c r="H104" s="162"/>
-      <c r="I104" s="162"/>
+      <c r="G104" s="156" t="s">
+        <v>548</v>
+      </c>
+      <c r="H104" s="173"/>
+      <c r="I104" s="156"/>
     </row>
     <row r="105" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="61"/>
-      <c r="B105" s="86"/>
-      <c r="C105" s="165"/>
-      <c r="D105" s="165"/>
-      <c r="E105" s="168"/>
-      <c r="F105" s="87"/>
-      <c r="G105" s="162" t="s">
-        <v>560</v>
-      </c>
-      <c r="H105" s="162"/>
-      <c r="I105" s="162"/>
+      <c r="B105" s="85"/>
+      <c r="C105" s="190"/>
+      <c r="D105" s="190"/>
+      <c r="E105" s="199"/>
+      <c r="F105" s="86"/>
+      <c r="G105" s="156" t="s">
+        <v>549</v>
+      </c>
+      <c r="H105" s="156"/>
+      <c r="I105" s="156"/>
     </row>
     <row r="106" spans="1:9" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="30"/>
@@ -5678,252 +5761,252 @@
       <c r="E106" s="21"/>
       <c r="F106" s="17"/>
       <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
+      <c r="H106" s="156"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="183" t="s">
+    <row r="107" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="211" t="s">
         <v>15</v>
       </c>
-      <c r="B107" s="66" t="s">
+      <c r="B107" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="C107" s="87" t="s">
-        <v>221</v>
-      </c>
-      <c r="D107" s="87" t="s">
+      <c r="C107" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="D107" s="86" t="s">
         <v>157</v>
       </c>
       <c r="E107" s="51" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="F107" s="50"/>
-      <c r="G107" s="72"/>
-      <c r="H107" s="72"/>
-      <c r="I107" s="73"/>
+      <c r="G107" s="71"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="72"/>
     </row>
     <row r="108" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="191"/>
+      <c r="A108" s="217"/>
       <c r="B108" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" s="86" t="s">
+        <v>209</v>
+      </c>
+      <c r="D108" s="86" t="s">
+        <v>210</v>
+      </c>
+      <c r="E108" s="51" t="s">
+        <v>348</v>
+      </c>
+      <c r="F108" s="50"/>
+      <c r="G108" s="73"/>
+      <c r="H108" s="71"/>
+      <c r="I108" s="74"/>
+    </row>
+    <row r="109" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="217"/>
+      <c r="B109" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C109" s="86" t="s">
+        <v>230</v>
+      </c>
+      <c r="D109" s="178" t="s">
+        <v>567</v>
+      </c>
+      <c r="E109" s="87"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="73"/>
+      <c r="H109" s="73"/>
+      <c r="I109" s="74"/>
+    </row>
+    <row r="110" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="212"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="85" t="s">
+        <v>346</v>
+      </c>
+      <c r="D110" s="228" t="s">
+        <v>402</v>
+      </c>
+      <c r="E110" s="228"/>
+      <c r="F110" s="65"/>
+      <c r="G110" s="47"/>
+      <c r="H110" s="73"/>
+      <c r="I110" s="70"/>
+    </row>
+    <row r="111" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="212"/>
+      <c r="B111" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="C108" s="87" t="s">
-        <v>212</v>
-      </c>
-      <c r="D108" s="87" t="s">
-        <v>213</v>
-      </c>
-      <c r="E108" s="51" t="s">
-        <v>359</v>
-      </c>
-      <c r="F108" s="50"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="74"/>
-      <c r="I108" s="75"/>
-    </row>
-    <row r="109" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="191"/>
-      <c r="B109" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="C109" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="D109" s="88"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="50"/>
-      <c r="G109" s="74"/>
-      <c r="H109" s="74"/>
-      <c r="I109" s="75"/>
-    </row>
-    <row r="110" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="184"/>
-      <c r="B110" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="C110" s="86" t="s">
-        <v>356</v>
-      </c>
-      <c r="D110" s="204" t="s">
-        <v>413</v>
-      </c>
-      <c r="E110" s="204"/>
-      <c r="F110" s="66"/>
-      <c r="G110" s="47"/>
-      <c r="H110" s="47"/>
-      <c r="I110" s="71"/>
-    </row>
-    <row r="111" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="184"/>
-      <c r="B111" s="66" t="s">
-        <v>211</v>
-      </c>
-      <c r="C111" s="87" t="s">
-        <v>357</v>
-      </c>
-      <c r="D111" s="204" t="s">
-        <v>414</v>
-      </c>
-      <c r="E111" s="204"/>
-      <c r="F111" s="66"/>
+      <c r="C111" s="182" t="s">
+        <v>572</v>
+      </c>
+      <c r="D111" s="228" t="s">
+        <v>403</v>
+      </c>
+      <c r="E111" s="228"/>
+      <c r="F111" s="65"/>
       <c r="G111" s="47"/>
       <c r="H111" s="47"/>
-      <c r="I111" s="71"/>
+      <c r="I111" s="70"/>
     </row>
     <row r="112" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="184"/>
-      <c r="B112" s="66"/>
+      <c r="A112" s="212"/>
+      <c r="B112" s="65"/>
       <c r="C112" s="44"/>
-      <c r="D112" s="116"/>
-      <c r="E112" s="116"/>
-      <c r="F112" s="66"/>
+      <c r="D112" s="114"/>
+      <c r="E112" s="114"/>
+      <c r="F112" s="65"/>
       <c r="G112" s="47"/>
       <c r="H112" s="47"/>
-      <c r="I112" s="71"/>
+      <c r="I112" s="70"/>
     </row>
     <row r="113" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="184"/>
-      <c r="B113" s="66"/>
-      <c r="C113" s="171" t="s">
-        <v>289</v>
-      </c>
-      <c r="D113" s="171"/>
-      <c r="E113" s="86"/>
-      <c r="F113" s="66"/>
+      <c r="A113" s="212"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="202" t="s">
+        <v>286</v>
+      </c>
+      <c r="D113" s="202"/>
+      <c r="E113" s="85"/>
+      <c r="F113" s="65"/>
       <c r="G113" s="47"/>
       <c r="H113" s="47"/>
-      <c r="I113" s="71"/>
+      <c r="I113" s="70"/>
     </row>
     <row r="114" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="184"/>
-      <c r="B114" s="66"/>
-      <c r="C114" s="171" t="s">
-        <v>290</v>
-      </c>
-      <c r="D114" s="171"/>
-      <c r="E114" s="86"/>
-      <c r="F114" s="66"/>
+      <c r="A114" s="212"/>
+      <c r="B114" s="65"/>
+      <c r="C114" s="202" t="s">
+        <v>287</v>
+      </c>
+      <c r="D114" s="202"/>
+      <c r="E114" s="85"/>
+      <c r="F114" s="65"/>
       <c r="G114" s="47"/>
       <c r="H114" s="47"/>
-      <c r="I114" s="71"/>
+      <c r="I114" s="70"/>
     </row>
     <row r="115" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="184"/>
-      <c r="B115" s="66"/>
-      <c r="C115" s="204" t="s">
-        <v>508</v>
-      </c>
-      <c r="D115" s="204"/>
-      <c r="E115" s="86"/>
-      <c r="F115" s="66"/>
+      <c r="A115" s="212"/>
+      <c r="B115" s="65"/>
+      <c r="C115" s="228" t="s">
+        <v>497</v>
+      </c>
+      <c r="D115" s="228"/>
+      <c r="E115" s="85"/>
+      <c r="F115" s="65"/>
       <c r="G115" s="47"/>
       <c r="H115" s="47"/>
-      <c r="I115" s="71"/>
+      <c r="I115" s="70"/>
     </row>
     <row r="116" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="184"/>
-      <c r="B116" s="174" t="s">
-        <v>219</v>
-      </c>
-      <c r="C116" s="165"/>
-      <c r="D116" s="171" t="s">
-        <v>398</v>
-      </c>
-      <c r="E116" s="171"/>
-      <c r="F116" s="66"/>
+      <c r="A116" s="212"/>
+      <c r="B116" s="189" t="s">
+        <v>216</v>
+      </c>
+      <c r="C116" s="190"/>
+      <c r="D116" s="202" t="s">
+        <v>387</v>
+      </c>
+      <c r="E116" s="202"/>
+      <c r="F116" s="65"/>
       <c r="G116" s="47"/>
       <c r="H116" s="47"/>
-      <c r="I116" s="71"/>
+      <c r="I116" s="70"/>
     </row>
     <row r="117" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="184"/>
-      <c r="B117" s="174" t="s">
-        <v>244</v>
-      </c>
-      <c r="C117" s="165"/>
-      <c r="D117" s="165" t="s">
-        <v>218</v>
-      </c>
-      <c r="E117" s="165"/>
+      <c r="A117" s="212"/>
+      <c r="B117" s="189" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117" s="190"/>
+      <c r="D117" s="190" t="s">
+        <v>215</v>
+      </c>
+      <c r="E117" s="190"/>
       <c r="F117" s="50"/>
       <c r="G117" s="47"/>
       <c r="H117" s="47"/>
-      <c r="I117" s="71"/>
+      <c r="I117" s="70"/>
     </row>
     <row r="118" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="184"/>
-      <c r="B118" s="174" t="s">
+      <c r="A118" s="212"/>
+      <c r="B118" s="189" t="s">
         <v>98</v>
       </c>
-      <c r="C118" s="165"/>
-      <c r="D118" s="165" t="s">
-        <v>323</v>
-      </c>
-      <c r="E118" s="165"/>
-      <c r="F118" s="78"/>
+      <c r="C118" s="190"/>
+      <c r="D118" s="190" t="s">
+        <v>315</v>
+      </c>
+      <c r="E118" s="190"/>
+      <c r="F118" s="77"/>
       <c r="G118" s="47"/>
       <c r="H118" s="47"/>
-      <c r="I118" s="71"/>
+      <c r="I118" s="70"/>
     </row>
     <row r="119" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="184"/>
-      <c r="B119" s="174" t="s">
-        <v>217</v>
-      </c>
-      <c r="C119" s="165"/>
+      <c r="A119" s="212"/>
+      <c r="B119" s="189" t="s">
+        <v>214</v>
+      </c>
+      <c r="C119" s="190"/>
       <c r="F119" s="53"/>
       <c r="G119" s="47"/>
       <c r="H119" s="47"/>
-      <c r="I119" s="71"/>
+      <c r="I119" s="70"/>
     </row>
     <row r="120" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="184"/>
-      <c r="B120" s="159" t="s">
+      <c r="A120" s="212"/>
+      <c r="B120" s="205" t="s">
         <v>63</v>
       </c>
-      <c r="C120" s="160"/>
-      <c r="D120" s="161"/>
+      <c r="C120" s="206"/>
+      <c r="D120" s="207"/>
       <c r="F120" s="53"/>
       <c r="G120" s="47"/>
       <c r="H120" s="47"/>
-      <c r="I120" s="71"/>
+      <c r="I120" s="70"/>
     </row>
     <row r="121" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="184"/>
-      <c r="B121" s="162" t="s">
-        <v>561</v>
-      </c>
-      <c r="C121" s="162"/>
-      <c r="D121" s="162"/>
-      <c r="E121" s="78"/>
-      <c r="F121" s="66"/>
+      <c r="A121" s="212"/>
+      <c r="B121" s="191" t="s">
+        <v>550</v>
+      </c>
+      <c r="C121" s="191"/>
+      <c r="D121" s="191"/>
+      <c r="E121" s="77"/>
+      <c r="F121" s="65"/>
       <c r="G121" s="47"/>
       <c r="H121" s="47"/>
-      <c r="I121" s="71"/>
+      <c r="I121" s="70"/>
     </row>
     <row r="122" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="184"/>
-      <c r="B122" s="212" t="s">
-        <v>562</v>
-      </c>
-      <c r="C122" s="212"/>
-      <c r="D122" s="212"/>
+      <c r="A122" s="212"/>
+      <c r="B122" s="236" t="s">
+        <v>551</v>
+      </c>
+      <c r="C122" s="236"/>
+      <c r="D122" s="236"/>
       <c r="E122" s="44"/>
       <c r="F122" s="53"/>
       <c r="G122" s="47"/>
       <c r="H122" s="47"/>
-      <c r="I122" s="71"/>
+      <c r="I122" s="70"/>
     </row>
     <row r="123" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="185"/>
-      <c r="B123" s="174"/>
-      <c r="C123" s="165"/>
-      <c r="D123" s="171"/>
-      <c r="E123" s="171"/>
+      <c r="A123" s="213"/>
+      <c r="B123" s="189"/>
+      <c r="C123" s="190"/>
+      <c r="D123" s="202"/>
+      <c r="E123" s="202"/>
       <c r="F123" s="53"/>
       <c r="G123" s="47"/>
       <c r="H123" s="47"/>
-      <c r="I123" s="71"/>
+      <c r="I123" s="70"/>
     </row>
     <row r="124" spans="1:9" s="44" customFormat="1" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="26"/>
@@ -5933,204 +6016,202 @@
       <c r="E124" s="23"/>
       <c r="F124" s="22"/>
       <c r="G124" s="22"/>
-      <c r="H124" s="22"/>
+      <c r="H124" s="47"/>
       <c r="I124" s="24"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="186">
+    <row r="125" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="214">
         <v>1</v>
       </c>
-      <c r="B125" s="179" t="s">
+      <c r="B125" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="C125" s="180"/>
-      <c r="D125" s="180"/>
-      <c r="E125" s="180"/>
-      <c r="F125" s="180"/>
-      <c r="G125" s="180"/>
-      <c r="H125" s="180"/>
-      <c r="I125" s="210"/>
+      <c r="C125" s="160"/>
+      <c r="D125" s="160"/>
+      <c r="E125" s="160"/>
+      <c r="F125" s="160"/>
+      <c r="G125" s="160"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="171"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="187"/>
-      <c r="B126" s="237" t="s">
+      <c r="A126" s="215"/>
+      <c r="B126" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="C126" s="238"/>
-      <c r="D126" s="238"/>
-      <c r="E126" s="238"/>
-      <c r="F126" s="238"/>
-      <c r="G126" s="238"/>
-      <c r="H126" s="238"/>
-      <c r="I126" s="239"/>
+      <c r="C126" s="176"/>
+      <c r="D126" s="176"/>
+      <c r="E126" s="176"/>
+      <c r="F126" s="176"/>
+      <c r="G126" s="176"/>
+      <c r="H126" s="160"/>
+      <c r="I126" s="177"/>
     </row>
     <row r="127" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="187"/>
-      <c r="B127" s="199" t="s">
+      <c r="A127" s="215"/>
+      <c r="B127" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="C127" s="200"/>
-      <c r="D127" s="200"/>
-      <c r="E127" s="200"/>
-      <c r="F127" s="200"/>
-      <c r="G127" s="200"/>
-      <c r="H127" s="200"/>
-      <c r="I127" s="201"/>
+      <c r="C127" s="168"/>
+      <c r="D127" s="168"/>
+      <c r="E127" s="168"/>
+      <c r="F127" s="168"/>
+      <c r="G127" s="168"/>
+      <c r="H127" s="176"/>
+      <c r="I127" s="169"/>
     </row>
     <row r="128" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="187"/>
-      <c r="B128" s="199" t="s">
+      <c r="A128" s="215"/>
+      <c r="B128" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="C128" s="200"/>
-      <c r="D128" s="200"/>
-      <c r="E128" s="200"/>
-      <c r="F128" s="200"/>
-      <c r="G128" s="200"/>
-      <c r="H128" s="200"/>
-      <c r="I128" s="201"/>
+      <c r="C128" s="168"/>
+      <c r="D128" s="168"/>
+      <c r="E128" s="168"/>
+      <c r="F128" s="168"/>
+      <c r="G128" s="168"/>
+      <c r="H128" s="168"/>
+      <c r="I128" s="169"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="187"/>
-      <c r="B129" s="199" t="s">
+      <c r="A129" s="215"/>
+      <c r="B129" s="224" t="s">
         <v>20</v>
       </c>
-      <c r="C129" s="200"/>
-      <c r="D129" s="200"/>
-      <c r="E129" s="200"/>
-      <c r="F129" s="200"/>
-      <c r="G129" s="200"/>
-      <c r="H129" s="58"/>
+      <c r="C129" s="225"/>
+      <c r="D129" s="225"/>
+      <c r="E129" s="225"/>
+      <c r="F129" s="225"/>
+      <c r="G129" s="225"/>
+      <c r="H129" s="168"/>
       <c r="I129" s="59"/>
     </row>
     <row r="130" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="188"/>
-      <c r="B130" s="202" t="s">
+      <c r="A130" s="216"/>
+      <c r="B130" s="226" t="s">
         <v>21</v>
       </c>
-      <c r="C130" s="203"/>
-      <c r="D130" s="203"/>
-      <c r="E130" s="203"/>
-      <c r="F130" s="203"/>
-      <c r="G130" s="203"/>
-      <c r="H130" s="60"/>
+      <c r="C130" s="227"/>
+      <c r="D130" s="227"/>
+      <c r="E130" s="227"/>
+      <c r="F130" s="227"/>
+      <c r="G130" s="227"/>
+      <c r="H130" s="58"/>
       <c r="I130" s="12"/>
     </row>
     <row r="131" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="176">
+      <c r="A131" s="208">
         <v>2</v>
       </c>
-      <c r="B131" s="179" t="s">
+      <c r="B131" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="C131" s="180"/>
-      <c r="D131" s="180"/>
-      <c r="E131" s="180"/>
-      <c r="F131" s="180"/>
-      <c r="G131" s="180"/>
-      <c r="H131" s="181"/>
-      <c r="I131" s="182"/>
-    </row>
-    <row r="132" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="177"/>
+      <c r="C131" s="160"/>
+      <c r="D131" s="160"/>
+      <c r="E131" s="160"/>
+      <c r="F131" s="160"/>
+      <c r="G131" s="160"/>
+      <c r="H131" s="60"/>
+      <c r="I131" s="162"/>
+    </row>
+    <row r="132" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="209"/>
       <c r="B132" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C132" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="D132" s="97" t="s">
-        <v>531</v>
-      </c>
-      <c r="E132" s="98" t="s">
-        <v>533</v>
-      </c>
-      <c r="F132" s="98" t="s">
-        <v>534</v>
-      </c>
-      <c r="G132" s="98"/>
-      <c r="H132" s="96" t="s">
+      <c r="D132" s="96" t="s">
+        <v>520</v>
+      </c>
+      <c r="E132" s="97" t="s">
+        <v>522</v>
+      </c>
+      <c r="F132" s="97" t="s">
+        <v>523</v>
+      </c>
+      <c r="G132" s="97"/>
+      <c r="H132" s="161"/>
+      <c r="I132" s="106" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="210"/>
+      <c r="B133" s="89"/>
+      <c r="C133" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="D133" s="98" t="s">
+        <v>521</v>
+      </c>
+      <c r="E133" s="99"/>
+      <c r="F133" s="99"/>
+      <c r="G133" s="99"/>
+      <c r="H133" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="I132" s="107" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="178"/>
-      <c r="B133" s="90"/>
-      <c r="C133" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="D133" s="99" t="s">
-        <v>532</v>
-      </c>
-      <c r="E133" s="100"/>
-      <c r="F133" s="100"/>
-      <c r="G133" s="100"/>
-      <c r="H133" s="130" t="s">
+      <c r="I133" s="129" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="253">
+        <v>3</v>
+      </c>
+      <c r="B134" s="230" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" s="229" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134" s="229" t="s">
+        <v>24</v>
+      </c>
+      <c r="E134" s="229" t="s">
+        <v>24</v>
+      </c>
+      <c r="F134" s="229" t="s">
+        <v>24</v>
+      </c>
+      <c r="G134" s="229" t="s">
+        <v>24</v>
+      </c>
+      <c r="H134" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="I133" s="131" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="227">
-        <v>3</v>
-      </c>
-      <c r="B134" s="205" t="s">
-        <v>24</v>
-      </c>
-      <c r="C134" s="180" t="s">
-        <v>24</v>
-      </c>
-      <c r="D134" s="180" t="s">
-        <v>24</v>
-      </c>
-      <c r="E134" s="180" t="s">
-        <v>24</v>
-      </c>
-      <c r="F134" s="180" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" s="180" t="s">
-        <v>24</v>
-      </c>
-      <c r="H134" s="137" t="s">
+      <c r="I134" s="136" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="254"/>
+      <c r="B135" s="231"/>
+      <c r="C135" s="225"/>
+      <c r="D135" s="225"/>
+      <c r="E135" s="225"/>
+      <c r="F135" s="225"/>
+      <c r="G135" s="225"/>
+      <c r="H135" s="135" t="s">
         <v>29</v>
-      </c>
-      <c r="I134" s="138" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="228"/>
-      <c r="B135" s="206"/>
-      <c r="C135" s="200"/>
-      <c r="D135" s="200"/>
-      <c r="E135" s="200"/>
-      <c r="F135" s="200"/>
-      <c r="G135" s="200"/>
-      <c r="H135" s="132" t="s">
-        <v>59</v>
       </c>
       <c r="I135" s="34" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="228"/>
-      <c r="B136" s="139" t="s">
+      <c r="A136" s="254"/>
+      <c r="B136" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="C136" s="134" t="s">
+      <c r="C136" s="132" t="s">
         <v>48</v>
       </c>
-      <c r="D136" s="133" t="s">
+      <c r="D136" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="E136" s="133" t="s">
+      <c r="E136" s="131" t="s">
         <v>50</v>
       </c>
       <c r="F136" s="33" t="s">
@@ -6139,511 +6220,508 @@
       <c r="G136" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H136" s="132" t="s">
-        <v>32</v>
+      <c r="H136" s="130" t="s">
+        <v>59</v>
       </c>
       <c r="I136" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="228"/>
-      <c r="B137" s="140" t="s">
-        <v>378</v>
-      </c>
-      <c r="C137" s="92" t="s">
-        <v>415</v>
-      </c>
-      <c r="D137" s="84" t="s">
-        <v>428</v>
-      </c>
-      <c r="E137" s="84" t="s">
-        <v>441</v>
-      </c>
-      <c r="F137" s="93" t="s">
-        <v>468</v>
-      </c>
-      <c r="G137" s="93" t="s">
-        <v>483</v>
-      </c>
-      <c r="H137" s="132" t="s">
-        <v>56</v>
+      <c r="A137" s="254"/>
+      <c r="B137" s="138" t="s">
+        <v>367</v>
+      </c>
+      <c r="C137" s="91" t="s">
+        <v>404</v>
+      </c>
+      <c r="D137" s="83" t="s">
+        <v>417</v>
+      </c>
+      <c r="E137" s="83" t="s">
+        <v>430</v>
+      </c>
+      <c r="F137" s="92" t="s">
+        <v>457</v>
+      </c>
+      <c r="G137" s="92" t="s">
+        <v>472</v>
+      </c>
+      <c r="H137" s="130" t="s">
+        <v>32</v>
       </c>
       <c r="I137" s="31" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="228"/>
-      <c r="B138" s="141" t="s">
-        <v>379</v>
-      </c>
-      <c r="C138" s="103" t="s">
-        <v>416</v>
-      </c>
-      <c r="D138" s="101" t="s">
-        <v>429</v>
-      </c>
-      <c r="E138" s="101" t="s">
-        <v>442</v>
+      <c r="A138" s="254"/>
+      <c r="B138" s="139" t="s">
+        <v>368</v>
+      </c>
+      <c r="C138" s="102" t="s">
+        <v>405</v>
+      </c>
+      <c r="D138" s="100" t="s">
+        <v>418</v>
+      </c>
+      <c r="E138" s="100" t="s">
+        <v>431</v>
       </c>
       <c r="F138" s="33" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="G138" s="33" t="s">
-        <v>484</v>
-      </c>
-      <c r="H138" s="135" t="s">
-        <v>34</v>
+        <v>473</v>
+      </c>
+      <c r="H138" s="130" t="s">
+        <v>56</v>
       </c>
       <c r="I138" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="228"/>
-      <c r="B139" s="141" t="s">
-        <v>380</v>
-      </c>
-      <c r="C139" s="103" t="s">
-        <v>417</v>
-      </c>
-      <c r="D139" s="101" t="s">
-        <v>416</v>
-      </c>
-      <c r="E139" s="101" t="s">
-        <v>443</v>
+      <c r="A139" s="254"/>
+      <c r="B139" s="139" t="s">
+        <v>369</v>
+      </c>
+      <c r="C139" s="102" t="s">
+        <v>406</v>
+      </c>
+      <c r="D139" s="100" t="s">
+        <v>405</v>
+      </c>
+      <c r="E139" s="100" t="s">
+        <v>432</v>
       </c>
       <c r="F139" s="33" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="G139" s="33" t="s">
-        <v>485</v>
-      </c>
-      <c r="H139" s="132" t="s">
-        <v>36</v>
+        <v>474</v>
+      </c>
+      <c r="H139" s="133" t="s">
+        <v>34</v>
       </c>
       <c r="I139" s="31" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="228"/>
-      <c r="B140" s="142" t="s">
-        <v>381</v>
-      </c>
-      <c r="C140" s="103" t="s">
-        <v>418</v>
-      </c>
-      <c r="D140" s="101" t="s">
-        <v>430</v>
+      <c r="A140" s="254"/>
+      <c r="B140" s="140" t="s">
+        <v>370</v>
+      </c>
+      <c r="C140" s="102" t="s">
+        <v>407</v>
+      </c>
+      <c r="D140" s="100" t="s">
+        <v>419</v>
       </c>
       <c r="E140" s="33" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="F140" s="33" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="G140" s="33" t="s">
-        <v>486</v>
-      </c>
-      <c r="H140" s="132" t="s">
-        <v>38</v>
+        <v>475</v>
+      </c>
+      <c r="H140" s="130" t="s">
+        <v>36</v>
       </c>
       <c r="I140" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="228"/>
-      <c r="B141" s="142" t="s">
-        <v>382</v>
-      </c>
-      <c r="C141" s="103" t="s">
-        <v>419</v>
-      </c>
-      <c r="D141" s="101" t="s">
-        <v>431</v>
+      <c r="A141" s="254"/>
+      <c r="B141" s="140" t="s">
+        <v>371</v>
+      </c>
+      <c r="C141" s="102" t="s">
+        <v>408</v>
+      </c>
+      <c r="D141" s="100" t="s">
+        <v>420</v>
       </c>
       <c r="E141" s="33" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="F141" s="33" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="G141" s="33" t="s">
-        <v>487</v>
-      </c>
-      <c r="H141" s="132" t="s">
-        <v>68</v>
+        <v>476</v>
+      </c>
+      <c r="H141" s="130" t="s">
+        <v>38</v>
       </c>
       <c r="I141" s="35" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A142" s="228"/>
-      <c r="B142" s="142" t="s">
-        <v>383</v>
-      </c>
-      <c r="C142" s="103" t="s">
-        <v>415</v>
-      </c>
-      <c r="D142" s="101" t="s">
-        <v>432</v>
+      <c r="A142" s="254"/>
+      <c r="B142" s="140" t="s">
+        <v>372</v>
+      </c>
+      <c r="C142" s="102" t="s">
+        <v>404</v>
+      </c>
+      <c r="D142" s="100" t="s">
+        <v>421</v>
       </c>
       <c r="E142" s="33" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="F142" s="33" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="G142" s="33" t="s">
-        <v>488</v>
-      </c>
-      <c r="H142" s="132" t="s">
-        <v>40</v>
+        <v>477</v>
+      </c>
+      <c r="H142" s="130" t="s">
+        <v>68</v>
       </c>
       <c r="I142" s="31" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A143" s="228"/>
-      <c r="B143" s="142" t="s">
-        <v>384</v>
-      </c>
-      <c r="C143" s="103" t="s">
-        <v>420</v>
-      </c>
-      <c r="D143" s="101" t="s">
-        <v>433</v>
+      <c r="A143" s="254"/>
+      <c r="B143" s="140" t="s">
+        <v>373</v>
+      </c>
+      <c r="C143" s="102" t="s">
+        <v>409</v>
+      </c>
+      <c r="D143" s="100" t="s">
+        <v>422</v>
       </c>
       <c r="E143" s="33" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="F143" s="33" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="G143" s="33" t="s">
-        <v>489</v>
-      </c>
-      <c r="H143" s="132" t="s">
-        <v>42</v>
+        <v>478</v>
+      </c>
+      <c r="H143" s="130" t="s">
+        <v>40</v>
       </c>
       <c r="I143" s="31" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A144" s="228"/>
-      <c r="B144" s="142" t="s">
-        <v>385</v>
-      </c>
-      <c r="C144" s="103" t="s">
-        <v>421</v>
-      </c>
-      <c r="D144" s="101" t="s">
-        <v>434</v>
+      <c r="A144" s="254"/>
+      <c r="B144" s="140" t="s">
+        <v>374</v>
+      </c>
+      <c r="C144" s="102" t="s">
+        <v>410</v>
+      </c>
+      <c r="D144" s="100" t="s">
+        <v>423</v>
       </c>
       <c r="E144" s="33" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="F144" s="33" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="G144" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="H144" s="132" t="s">
-        <v>44</v>
+        <v>479</v>
+      </c>
+      <c r="H144" s="130" t="s">
+        <v>42</v>
       </c>
       <c r="I144" s="31" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="228"/>
-      <c r="B145" s="142" t="s">
-        <v>386</v>
-      </c>
-      <c r="C145" s="103" t="s">
-        <v>422</v>
-      </c>
-      <c r="D145" s="101" t="s">
-        <v>419</v>
+      <c r="A145" s="254"/>
+      <c r="B145" s="140" t="s">
+        <v>375</v>
+      </c>
+      <c r="C145" s="102" t="s">
+        <v>411</v>
+      </c>
+      <c r="D145" s="100" t="s">
+        <v>408</v>
       </c>
       <c r="E145" s="33" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="F145" s="33" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="G145" s="33" t="s">
-        <v>491</v>
-      </c>
-      <c r="H145" s="132" t="s">
+        <v>480</v>
+      </c>
+      <c r="H145" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="I145" s="141" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="254"/>
+      <c r="B146" s="140" t="s">
+        <v>376</v>
+      </c>
+      <c r="C146" s="102" t="s">
+        <v>406</v>
+      </c>
+      <c r="D146" s="100" t="s">
+        <v>424</v>
+      </c>
+      <c r="E146" s="33" t="s">
+        <v>451</v>
+      </c>
+      <c r="F146" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="G146" s="33" t="s">
+        <v>481</v>
+      </c>
+      <c r="H146" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="I145" s="143" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="228"/>
-      <c r="B146" s="142" t="s">
-        <v>387</v>
-      </c>
-      <c r="C146" s="103" t="s">
-        <v>417</v>
-      </c>
-      <c r="D146" s="101" t="s">
-        <v>435</v>
-      </c>
-      <c r="E146" s="33" t="s">
-        <v>462</v>
-      </c>
-      <c r="F146" s="33" t="s">
-        <v>477</v>
-      </c>
-      <c r="G146" s="33" t="s">
-        <v>492</v>
-      </c>
-      <c r="H146" s="101" t="s">
-        <v>517</v>
-      </c>
-      <c r="I146" s="105" t="s">
-        <v>518</v>
+      <c r="I146" s="104" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="228"/>
-      <c r="B147" s="142" t="s">
-        <v>388</v>
-      </c>
-      <c r="C147" s="103" t="s">
-        <v>423</v>
-      </c>
-      <c r="D147" s="101" t="s">
-        <v>436</v>
+      <c r="A147" s="254"/>
+      <c r="B147" s="140" t="s">
+        <v>377</v>
+      </c>
+      <c r="C147" s="102" t="s">
+        <v>412</v>
+      </c>
+      <c r="D147" s="100" t="s">
+        <v>425</v>
       </c>
       <c r="E147" s="33" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="F147" s="33" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="G147" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="H147" s="101" t="s">
+      <c r="H147" s="100" t="s">
+        <v>506</v>
+      </c>
+      <c r="I147" s="104" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A148" s="254"/>
+      <c r="B148" s="142" t="s">
+        <v>433</v>
+      </c>
+      <c r="C148" s="102" t="s">
+        <v>413</v>
+      </c>
+      <c r="D148" s="100" t="s">
+        <v>426</v>
+      </c>
+      <c r="E148" s="33" t="s">
+        <v>453</v>
+      </c>
+      <c r="F148" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="G148" s="33" t="s">
+        <v>482</v>
+      </c>
+      <c r="H148" s="100" t="s">
+        <v>508</v>
+      </c>
+      <c r="I148" s="104" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A149" s="254"/>
+      <c r="B149" s="142" t="s">
+        <v>446</v>
+      </c>
+      <c r="C149" s="102" t="s">
+        <v>414</v>
+      </c>
+      <c r="D149" s="100" t="s">
+        <v>427</v>
+      </c>
+      <c r="E149" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="F149" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="G149" s="33" t="s">
+        <v>483</v>
+      </c>
+      <c r="H149" s="100" t="s">
+        <v>510</v>
+      </c>
+      <c r="I149" s="104" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A150" s="254"/>
+      <c r="B150" s="142" t="s">
+        <v>487</v>
+      </c>
+      <c r="C150" s="102" t="s">
+        <v>415</v>
+      </c>
+      <c r="D150" s="100" t="s">
+        <v>428</v>
+      </c>
+      <c r="E150" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="F150" s="33" t="s">
+        <v>470</v>
+      </c>
+      <c r="G150" s="33" t="s">
+        <v>484</v>
+      </c>
+      <c r="H150" s="100" t="s">
+        <v>512</v>
+      </c>
+      <c r="I150" s="104" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="254"/>
+      <c r="B151" s="142" t="s">
+        <v>488</v>
+      </c>
+      <c r="C151" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="D151" s="103" t="s">
+        <v>429</v>
+      </c>
+      <c r="E151" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="F151" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="G151" s="33" t="s">
+        <v>485</v>
+      </c>
+      <c r="H151" s="100" t="s">
+        <v>514</v>
+      </c>
+      <c r="I151" s="104" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A152" s="254"/>
+      <c r="B152" s="142" t="s">
+        <v>489</v>
+      </c>
+      <c r="C152" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="D152" s="33" t="s">
+        <v>491</v>
+      </c>
+      <c r="E152" s="33" t="s">
+        <v>492</v>
+      </c>
+      <c r="F152" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="G152" s="33" t="s">
+        <v>486</v>
+      </c>
+      <c r="H152" s="100" t="s">
+        <v>516</v>
+      </c>
+      <c r="I152" s="105" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="254"/>
+      <c r="B153" s="143" t="s">
+        <v>494</v>
+      </c>
+      <c r="C153" s="134" t="s">
+        <v>495</v>
+      </c>
+      <c r="D153" s="100" t="s">
         <v>519</v>
       </c>
-      <c r="I147" s="105" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A148" s="228"/>
-      <c r="B148" s="144" t="s">
-        <v>444</v>
-      </c>
-      <c r="C148" s="103" t="s">
-        <v>424</v>
-      </c>
-      <c r="D148" s="101" t="s">
-        <v>437</v>
-      </c>
-      <c r="E148" s="33" t="s">
-        <v>464</v>
-      </c>
-      <c r="F148" s="33" t="s">
-        <v>479</v>
-      </c>
-      <c r="G148" s="33" t="s">
+      <c r="E153" s="100" t="s">
+        <v>518</v>
+      </c>
+      <c r="F153" s="92" t="s">
+        <v>552</v>
+      </c>
+      <c r="G153" s="92" t="s">
+        <v>553</v>
+      </c>
+      <c r="H153" s="101" t="s">
         <v>493</v>
       </c>
-      <c r="H148" s="101" t="s">
-        <v>521</v>
-      </c>
-      <c r="I148" s="105" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A149" s="228"/>
-      <c r="B149" s="144" t="s">
-        <v>457</v>
-      </c>
-      <c r="C149" s="103" t="s">
-        <v>425</v>
-      </c>
-      <c r="D149" s="101" t="s">
-        <v>438</v>
-      </c>
-      <c r="E149" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="F149" s="33" t="s">
-        <v>480</v>
-      </c>
-      <c r="G149" s="33" t="s">
-        <v>494</v>
-      </c>
-      <c r="H149" s="101" t="s">
-        <v>523</v>
-      </c>
-      <c r="I149" s="105" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="228"/>
-      <c r="B150" s="144" t="s">
-        <v>498</v>
-      </c>
-      <c r="C150" s="103" t="s">
-        <v>426</v>
-      </c>
-      <c r="D150" s="101" t="s">
-        <v>439</v>
-      </c>
-      <c r="E150" s="33" t="s">
-        <v>466</v>
-      </c>
-      <c r="F150" s="33" t="s">
-        <v>481</v>
-      </c>
-      <c r="G150" s="33" t="s">
-        <v>495</v>
-      </c>
-      <c r="H150" s="101" t="s">
-        <v>525</v>
-      </c>
-      <c r="I150" s="105" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="228"/>
-      <c r="B151" s="144" t="s">
-        <v>499</v>
-      </c>
-      <c r="C151" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="D151" s="104" t="s">
-        <v>440</v>
-      </c>
-      <c r="E151" s="33" t="s">
-        <v>467</v>
-      </c>
-      <c r="F151" s="33" t="s">
-        <v>482</v>
-      </c>
-      <c r="G151" s="33" t="s">
-        <v>496</v>
-      </c>
-      <c r="H151" s="101" t="s">
-        <v>527</v>
-      </c>
-      <c r="I151" s="105" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="228"/>
-      <c r="B152" s="144" t="s">
-        <v>500</v>
-      </c>
-      <c r="C152" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="D152" s="33" t="s">
-        <v>502</v>
-      </c>
-      <c r="E152" s="33" t="s">
-        <v>503</v>
-      </c>
-      <c r="F152" s="33" t="s">
-        <v>478</v>
-      </c>
-      <c r="G152" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="H152" s="102" t="s">
-        <v>504</v>
-      </c>
-      <c r="I152" s="106" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="228"/>
-      <c r="B153" s="145" t="s">
-        <v>505</v>
-      </c>
-      <c r="C153" s="136" t="s">
-        <v>506</v>
-      </c>
-      <c r="D153" s="101" t="s">
-        <v>530</v>
-      </c>
-      <c r="E153" s="101" t="s">
-        <v>529</v>
-      </c>
-      <c r="F153" s="93" t="s">
-        <v>563</v>
-      </c>
-      <c r="G153" s="93" t="s">
-        <v>564</v>
-      </c>
-      <c r="H153" s="93" t="s">
-        <v>567</v>
-      </c>
-      <c r="I153" s="106" t="s">
-        <v>565</v>
+      <c r="I153" s="105" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="229"/>
-      <c r="B154" s="146" t="s">
-        <v>568</v>
-      </c>
-      <c r="C154" s="94"/>
-      <c r="D154" s="94"/>
-      <c r="E154" s="94"/>
-      <c r="F154" s="94"/>
-      <c r="G154" s="94"/>
-      <c r="H154" s="94"/>
-      <c r="I154" s="95"/>
+      <c r="A154" s="255"/>
+      <c r="B154" s="144" t="s">
+        <v>557</v>
+      </c>
+      <c r="C154" s="93"/>
+      <c r="D154" s="93"/>
+      <c r="E154" s="93"/>
+      <c r="F154" s="93"/>
+      <c r="G154" s="93"/>
+      <c r="H154" s="92" t="s">
+        <v>556</v>
+      </c>
+      <c r="I154" s="94"/>
+    </row>
+    <row r="155" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H155" s="93"/>
     </row>
     <row r="191" spans="5:5" ht="15" x14ac:dyDescent="0.25">
       <c r="E191"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="135">
     <mergeCell ref="A134:A154"/>
     <mergeCell ref="G84:G102"/>
     <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G103:I103"/>
     <mergeCell ref="B61:D61"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="G63:I63"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="B82:D82"/>
-    <mergeCell ref="F79:H79"/>
-    <mergeCell ref="F80:H80"/>
     <mergeCell ref="G62:I62"/>
-    <mergeCell ref="B126:I126"/>
-    <mergeCell ref="B127:I127"/>
     <mergeCell ref="D110:E110"/>
     <mergeCell ref="B116:C116"/>
-    <mergeCell ref="H98:I98"/>
     <mergeCell ref="B94:C94"/>
     <mergeCell ref="E84:E105"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="H75:I75"/>
     <mergeCell ref="E65:E82"/>
     <mergeCell ref="F77:G77"/>
     <mergeCell ref="C105:D105"/>
@@ -6667,6 +6745,8 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
     <mergeCell ref="A25:A42"/>
     <mergeCell ref="A44:A63"/>
     <mergeCell ref="C15:D15"/>
@@ -6696,59 +6776,39 @@
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B125:I125"/>
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="C115:D115"/>
     <mergeCell ref="B97:C97"/>
     <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B123:C123"/>
     <mergeCell ref="B102:D102"/>
     <mergeCell ref="B103:D103"/>
     <mergeCell ref="B104:D104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B122:D122"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="H56:I56"/>
     <mergeCell ref="H57:I57"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="H101:I101"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="D111:E111"/>
     <mergeCell ref="G134:G135"/>
     <mergeCell ref="B134:B135"/>
     <mergeCell ref="D134:D135"/>
     <mergeCell ref="E134:E135"/>
     <mergeCell ref="F134:F135"/>
     <mergeCell ref="C134:C135"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
     <mergeCell ref="A131:A133"/>
-    <mergeCell ref="B131:I131"/>
     <mergeCell ref="A65:A82"/>
     <mergeCell ref="A125:A130"/>
-    <mergeCell ref="H97:I97"/>
     <mergeCell ref="A107:A123"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="D117:E117"/>
@@ -6756,16 +6816,20 @@
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H76:I76"/>
     <mergeCell ref="A84:A104"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B118:C118"/>
     <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B128:I128"/>
     <mergeCell ref="B129:G129"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="F36:G36"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="F42:H42"/>
     <mergeCell ref="H38:I38"/>
@@ -6776,10 +6840,10 @@
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="H37:I37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="F40:H40"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="55" orientation="landscape" r:id="rId1"/>
@@ -6801,32 +6865,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/raw/time_tables/B.Tech (btech)/2/1.xlsx
+++ b/raw/time_tables/B.Tech (btech)/2/1.xlsx
@@ -2,10 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <fileSharing readOnlyRecommended="1"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="14340" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Phase 1" sheetId="2" r:id="rId1"/>
@@ -16,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="577">
   <si>
     <t>B.TECH II SEMESTER EVEN 2025</t>
   </si>
@@ -135,7 +134,7 @@
     <t>LB5,B6(MA211)- FF4/RSC</t>
   </si>
   <si>
-    <t>LB3,B4(CI121)-FF2/AMT</t>
+    <t>LB3,B4(CI121)-LT2/AMT</t>
   </si>
   <si>
     <t>LA15,A16(PH211)-FF2/SDC</t>
@@ -168,7 +167,7 @@
     <t>TB6(B11HS111)-TS7/AMN</t>
   </si>
   <si>
-    <t>TB3(B11HS111)-TS6/IJ</t>
+    <t>TB3(B11HS111)-TS6/AMN</t>
   </si>
   <si>
     <t>TB7(B11HS111)-TS6/VSE</t>
@@ -426,9 +425,6 @@
     <t>TB11(CI121)-TS6/SHP</t>
   </si>
   <si>
-    <t>TA7(B11HS111)-TS12/PRI</t>
-  </si>
-  <si>
     <t>TA1(B11HS111)-TS8/AMN</t>
   </si>
   <si>
@@ -741,6 +737,9 @@
     <t>PA6 (HS111)- CL12/ PSH</t>
   </si>
   <si>
+    <t xml:space="preserve">LB5,B6(PH211)-G9/ABH </t>
+  </si>
+  <si>
     <t>PB3(CI271)-CL02/HN,TAJ,AA</t>
   </si>
   <si>
@@ -771,9 +770,6 @@
     <t>THU</t>
   </si>
   <si>
-    <t xml:space="preserve">LB5,B6(PH211)-G1/ABH </t>
-  </si>
-  <si>
     <t xml:space="preserve">LA17,A18(PH211)-G1/INC </t>
   </si>
   <si>
@@ -972,6 +968,9 @@
     <t>PB2(GE111)- CAD2/ GGL</t>
   </si>
   <si>
+    <t>LG1,G2(PH211)-G9/DIN</t>
+  </si>
+  <si>
     <t>PB7(GE111)- CAD1/ SWET</t>
   </si>
   <si>
@@ -1116,7 +1115,7 @@
     <t>PC1(CI121)- CL05/ALK,SON,PK</t>
   </si>
   <si>
-    <t>TC2(B11HS111)- TS13/AMN</t>
+    <t>TC2(B11HS111)- TS13/IJ</t>
   </si>
   <si>
     <t>PC2(B15BT111)- BT3/EKT, PMG,SHD,AKT</t>
@@ -1125,16 +1124,19 @@
     <t>TC3(B11HS111)- TS14/PRI</t>
   </si>
   <si>
+    <t>TA7(B11HS111)-TS16/PRI</t>
+  </si>
+  <si>
     <t>PG1(CI271)-CL05/GZL,DEP,AMS</t>
   </si>
   <si>
-    <t>PB9(HS111)- / HK</t>
+    <t>PB9(HS111)- LL/ HK</t>
   </si>
   <si>
     <t>PG2(CI271)-CL06 /NSA,APR,PAG</t>
   </si>
   <si>
-    <t>PB10(HS111)- / EKS</t>
+    <t>PB10(HS111)- CL12/ EKS</t>
   </si>
   <si>
     <t>PA5(PH271)-PL1 /MKC/SDC</t>
@@ -1751,10 +1753,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -1829,15 +1831,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -1871,18 +1873,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1891,14 +1892,6 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1911,9 +1904,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1925,29 +1926,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1963,9 +1942,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1973,21 +1952,6 @@
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1999,12 +1963,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2017,22 +2035,6 @@
       <color indexed="23"/>
       <name val="Calibri"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -2080,19 +2082,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2104,7 +2106,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2122,6 +2124,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2134,7 +2142,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2146,19 +2160,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2170,49 +2214,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2224,13 +2244,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2242,25 +2256,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2944,15 +2946,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2987,11 +2980,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3010,23 +3009,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3037,154 +3039,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="16" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="55" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="54" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="17" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3384,6 +3386,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3612,6 +3617,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -3678,7 +3692,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3781,13 +3795,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3808,13 +3822,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3860,6 +3874,10 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3872,13 +3890,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3887,10 +3905,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4251,11 +4265,11 @@
   <dimension ref="A1:L191"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B127" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C120" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K153" sqref="K153"/>
+      <selection pane="bottomRight" activeCell="F154" sqref="F154:F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
@@ -4286,7 +4300,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" ht="15" spans="1:9">
       <c r="A2" s="5"/>
@@ -4299,10 +4313,10 @@
       <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="72" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -4311,7 +4325,7 @@
       <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="108" t="s">
+      <c r="I2" s="109" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4328,7 +4342,7 @@
       <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="73" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -4340,7 +4354,7 @@
       <c r="H3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="109" t="s">
+      <c r="I3" s="110" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4355,7 +4369,7 @@
       <c r="D4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="73"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
@@ -4365,7 +4379,7 @@
       <c r="H4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="110" t="s">
+      <c r="I4" s="111" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4380,7 +4394,7 @@
       <c r="D5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="73"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="18" t="s">
         <v>28</v>
       </c>
@@ -4390,7 +4404,7 @@
       <c r="H5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="111"/>
+      <c r="I5" s="112"/>
     </row>
     <row r="6" ht="33.75" customHeight="1" spans="1:9">
       <c r="A6" s="11"/>
@@ -4403,7 +4417,7 @@
       <c r="D6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="73"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="14" t="s">
         <v>34</v>
       </c>
@@ -4413,7 +4427,7 @@
       <c r="H6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="112" t="s">
+      <c r="I6" s="113" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4428,13 +4442,13 @@
       <c r="D7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="73"/>
+      <c r="E7" s="74"/>
       <c r="F7" s="14" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="112" t="s">
+      <c r="I7" s="113" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4447,15 +4461,15 @@
       <c r="D8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="74" t="s">
+      <c r="E8" s="74"/>
+      <c r="F8" s="75" t="s">
         <v>45</v>
       </c>
       <c r="G8" s="18"/>
-      <c r="H8" s="75" t="s">
+      <c r="H8" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="112" t="s">
+      <c r="I8" s="113" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4467,17 +4481,17 @@
       <c r="C9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="73"/>
+      <c r="E9" s="74"/>
       <c r="F9" s="18" t="s">
         <v>50</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="75" t="s">
+      <c r="H9" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="112" t="s">
+      <c r="I9" s="113" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4492,15 +4506,15 @@
       <c r="D10" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="73"/>
+      <c r="E10" s="74"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="75" t="s">
+      <c r="G10" s="76" t="s">
         <v>57</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="111" t="s">
+      <c r="I10" s="112" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4513,13 +4527,13 @@
       <c r="D11" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="73"/>
+      <c r="E11" s="74"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="111"/>
+      <c r="I11" s="112"/>
     </row>
     <row r="12" ht="33.75" customHeight="1" spans="1:9">
       <c r="A12" s="11"/>
@@ -4530,13 +4544,13 @@
       <c r="D12" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="73"/>
+      <c r="E12" s="74"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="76" t="s">
+      <c r="G12" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="111"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="112"/>
     </row>
     <row r="13" ht="33.75" customHeight="1" spans="1:9">
       <c r="A13" s="11"/>
@@ -4547,13 +4561,13 @@
       <c r="D13" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="73"/>
+      <c r="E13" s="74"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="76" t="s">
+      <c r="G13" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="76"/>
-      <c r="I13" s="111"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="112"/>
     </row>
     <row r="14" ht="36" customHeight="1" spans="1:9">
       <c r="A14" s="11"/>
@@ -4564,13 +4578,13 @@
       <c r="D14" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="73"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="46"/>
-      <c r="G14" s="77" t="s">
+      <c r="G14" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="77"/>
-      <c r="I14" s="111"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="112"/>
     </row>
     <row r="15" ht="32.25" customHeight="1" spans="1:9">
       <c r="A15" s="11"/>
@@ -4579,7 +4593,7 @@
         <v>72</v>
       </c>
       <c r="D15" s="30"/>
-      <c r="E15" s="73"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="18" t="s">
         <v>73</v>
       </c>
@@ -4587,7 +4601,7 @@
       <c r="H15" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="113"/>
+      <c r="I15" s="114"/>
     </row>
     <row r="16" ht="19.5" customHeight="1" spans="1:9">
       <c r="A16" s="11"/>
@@ -4596,7 +4610,7 @@
         <v>75</v>
       </c>
       <c r="D16" s="30"/>
-      <c r="E16" s="73"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="18" t="s">
         <v>76</v>
       </c>
@@ -4604,7 +4618,7 @@
       <c r="H16" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="113"/>
+      <c r="I16" s="114"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="11"/>
@@ -4613,7 +4627,7 @@
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="73"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="14" t="s">
         <v>79</v>
       </c>
@@ -4621,7 +4635,7 @@
       <c r="H17" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="113"/>
+      <c r="I17" s="114"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="11"/>
@@ -4630,7 +4644,7 @@
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="73"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="14" t="s">
         <v>82</v>
       </c>
@@ -4638,20 +4652,20 @@
       <c r="H18" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="113"/>
+      <c r="I18" s="114"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="11"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="73"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="114"/>
+      <c r="I19" s="115"/>
     </row>
     <row r="20" ht="29.25" customHeight="1" spans="1:9">
       <c r="A20" s="11"/>
@@ -4660,13 +4674,13 @@
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="73"/>
+      <c r="E20" s="74"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="114"/>
+      <c r="I20" s="115"/>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:9">
       <c r="A21" s="35"/>
@@ -4675,13 +4689,13 @@
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="73"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="32" t="s">
         <v>88</v>
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="34"/>
-      <c r="I21" s="115"/>
+      <c r="I21" s="116"/>
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:9">
       <c r="A22" s="37"/>
@@ -4690,34 +4704,34 @@
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="73"/>
+      <c r="E22" s="74"/>
       <c r="F22" s="36" t="s">
         <v>90</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
-      <c r="I22" s="115"/>
+      <c r="I22" s="116"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:9">
       <c r="A23" s="39"/>
-      <c r="E23" s="73"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="48" t="s">
         <v>91</v>
       </c>
       <c r="G23" s="49"/>
       <c r="H23" s="50"/>
-      <c r="I23" s="116"/>
+      <c r="I23" s="117"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="8.25" customHeight="1" spans="1:9">
       <c r="A24" s="40"/>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
-      <c r="E24" s="78"/>
+      <c r="E24" s="79"/>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="117"/>
+      <c r="I24" s="118"/>
     </row>
     <row r="25" ht="34.5" customHeight="1" spans="1:9">
       <c r="A25" s="8" t="s">
@@ -4732,7 +4746,7 @@
       <c r="D25" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="79" t="s">
+      <c r="E25" s="80" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="14" t="s">
@@ -4744,7 +4758,7 @@
       <c r="H25" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I25" s="110" t="s">
+      <c r="I25" s="111" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4759,7 +4773,7 @@
       <c r="D26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="73"/>
+      <c r="E26" s="74"/>
       <c r="F26" s="14" t="s">
         <v>102</v>
       </c>
@@ -4769,7 +4783,7 @@
       <c r="H26" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="I26" s="110" t="s">
+      <c r="I26" s="111" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4784,7 +4798,7 @@
       <c r="D27" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="73"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="14" t="s">
         <v>108</v>
       </c>
@@ -4794,7 +4808,7 @@
       <c r="H27" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="I27" s="110" t="s">
+      <c r="I27" s="111" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4809,7 +4823,7 @@
       <c r="D28" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="73"/>
+      <c r="E28" s="74"/>
       <c r="F28" s="14" t="s">
         <v>115</v>
       </c>
@@ -4832,15 +4846,15 @@
       <c r="D29" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="73"/>
-      <c r="F29" s="80"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="81"/>
       <c r="G29" s="14" t="s">
         <v>121</v>
       </c>
       <c r="H29" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="112" t="s">
+      <c r="I29" s="113" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4855,8 +4869,8 @@
       <c r="D30" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="81" t="s">
+      <c r="E30" s="74"/>
+      <c r="F30" s="82" t="s">
         <v>127</v>
       </c>
       <c r="G30" s="14" t="s">
@@ -4865,7 +4879,7 @@
       <c r="H30" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="I30" s="111" t="s">
+      <c r="I30" s="112" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4880,465 +4894,463 @@
       <c r="D31" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="E31" s="73"/>
-      <c r="F31" s="75" t="s">
+      <c r="E31" s="74"/>
+      <c r="F31" s="76" t="s">
         <v>134</v>
       </c>
       <c r="G31" s="18"/>
-      <c r="H31" s="82" t="s">
+      <c r="H31" s="83" t="s">
         <v>135</v>
       </c>
-      <c r="I31" s="118" t="s">
-        <v>136</v>
-      </c>
+      <c r="I31" s="119"/>
     </row>
     <row r="32" ht="39.75" customHeight="1" spans="1:9">
       <c r="A32" s="11"/>
       <c r="B32" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="D32" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="46" t="s">
+      <c r="E32" s="74"/>
+      <c r="F32" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="83" t="s">
+      <c r="G32" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="G32" s="18" t="s">
+      <c r="H32" s="85"/>
+      <c r="I32" s="119" t="s">
         <v>141</v>
-      </c>
-      <c r="H32" s="84"/>
-      <c r="I32" s="118" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="33" ht="39.75" customHeight="1" spans="1:9">
       <c r="A33" s="11"/>
       <c r="B33" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C33" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="D33" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="E33" s="73"/>
+      <c r="E33" s="74"/>
       <c r="F33" s="18"/>
       <c r="G33" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="H33" s="75" t="s">
+      <c r="I33" s="113" t="s">
         <v>147</v>
-      </c>
-      <c r="I33" s="112" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1" spans="1:9">
       <c r="A34" s="11"/>
       <c r="B34" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" s="30" t="s">
         <v>149</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="87" t="s">
         <v>150</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="73"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="86" t="s">
+      <c r="H34" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="H34" s="75" t="s">
-        <v>152</v>
-      </c>
-      <c r="I34" s="111"/>
+      <c r="I34" s="112"/>
     </row>
     <row r="35" ht="33" customHeight="1" spans="1:9">
       <c r="A35" s="11"/>
       <c r="B35" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C35" s="31"/>
       <c r="D35" s="13"/>
-      <c r="E35" s="73"/>
+      <c r="E35" s="74"/>
       <c r="F35" s="18"/>
-      <c r="G35" s="75" t="s">
+      <c r="G35" s="76" t="s">
+        <v>153</v>
+      </c>
+      <c r="H35" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="H35" s="87" t="s">
-        <v>155</v>
-      </c>
-      <c r="I35" s="119"/>
+      <c r="I35" s="120"/>
     </row>
     <row r="36" ht="29.25" customHeight="1" spans="1:9">
       <c r="A36" s="11"/>
       <c r="B36" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C36" s="31"/>
       <c r="D36" s="18"/>
-      <c r="E36" s="73"/>
+      <c r="E36" s="74"/>
       <c r="F36" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="G36" s="31"/>
+      <c r="H36" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="88" t="s">
-        <v>158</v>
-      </c>
-      <c r="I36" s="120"/>
+      <c r="I36" s="121"/>
     </row>
     <row r="37" customHeight="1" spans="1:9">
       <c r="A37" s="11"/>
       <c r="B37" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C37" s="31"/>
       <c r="D37" s="18"/>
-      <c r="E37" s="73"/>
+      <c r="E37" s="74"/>
       <c r="F37" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="G37" s="31"/>
+      <c r="H37" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="G37" s="31"/>
-      <c r="H37" s="89" t="s">
-        <v>161</v>
-      </c>
-      <c r="I37" s="121"/>
+      <c r="I37" s="122"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="11"/>
       <c r="B38" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C38" s="31"/>
       <c r="D38" s="18"/>
-      <c r="E38" s="73"/>
+      <c r="E38" s="74"/>
       <c r="F38" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="90" t="s">
-        <v>164</v>
-      </c>
-      <c r="I38" s="122"/>
+      <c r="I38" s="123"/>
     </row>
     <row r="39" ht="21.75" customHeight="1" spans="1:9">
       <c r="A39" s="11"/>
       <c r="B39" s="47"/>
       <c r="C39" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" s="30"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="30" t="s">
+      <c r="G39" s="30"/>
+      <c r="H39" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="88" t="s">
-        <v>167</v>
-      </c>
-      <c r="I39" s="120"/>
+      <c r="I39" s="121"/>
     </row>
     <row r="40" ht="28.5" customHeight="1" spans="1:9">
       <c r="A40" s="11"/>
       <c r="B40" s="32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C40" s="33"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="73"/>
+      <c r="E40" s="74"/>
       <c r="F40" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G40" s="33"/>
       <c r="H40" s="34"/>
-      <c r="I40" s="123"/>
+      <c r="I40" s="124"/>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:9">
       <c r="A41" s="11"/>
       <c r="B41" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C41" s="36"/>
       <c r="D41" s="36"/>
-      <c r="E41" s="73"/>
+      <c r="E41" s="74"/>
       <c r="F41" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G41" s="36"/>
       <c r="H41" s="36"/>
-      <c r="I41" s="116"/>
+      <c r="I41" s="117"/>
     </row>
     <row r="42" ht="26.25" customHeight="1" spans="1:9">
       <c r="A42" s="39"/>
       <c r="B42" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C42" s="49"/>
       <c r="D42" s="50"/>
-      <c r="E42" s="91"/>
+      <c r="E42" s="92"/>
       <c r="F42" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G42" s="49"/>
       <c r="H42" s="50"/>
-      <c r="I42" s="115"/>
+      <c r="I42" s="116"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="7.5" customHeight="1" spans="1:9">
       <c r="A43" s="51"/>
       <c r="B43" s="52"/>
       <c r="C43" s="53"/>
       <c r="D43" s="53"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="124"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="94"/>
+      <c r="G43" s="94"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="125"/>
     </row>
     <row r="44" ht="26.25" customHeight="1" spans="1:9">
       <c r="A44" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="54" t="s">
         <v>174</v>
-      </c>
-      <c r="B44" s="54" t="s">
-        <v>175</v>
       </c>
       <c r="C44" s="55" t="s">
         <v>96</v>
       </c>
       <c r="D44" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="E44" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="E44" s="94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="55" t="s">
+      <c r="H44" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="H44" s="55" t="s">
+      <c r="I44" s="126" t="s">
         <v>178</v>
-      </c>
-      <c r="I44" s="125" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="45" ht="33" customHeight="1" spans="1:8">
       <c r="A45" s="11"/>
       <c r="B45" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="D45" s="56" t="s">
         <v>181</v>
       </c>
-      <c r="D45" s="56" t="s">
+      <c r="E45" s="95"/>
+      <c r="F45" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="E45" s="94"/>
-      <c r="F45" s="14" t="s">
+      <c r="G45" s="97"/>
+      <c r="H45" s="55" t="s">
         <v>183</v>
-      </c>
-      <c r="G45" s="96"/>
-      <c r="H45" s="55" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="46" ht="32.25" customHeight="1" spans="1:9">
       <c r="A46" s="11"/>
       <c r="B46" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="D46" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="E46" s="95"/>
+      <c r="F46" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="E46" s="94"/>
-      <c r="F46" s="97" t="s">
+      <c r="G46" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="H46" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="H46" s="55" t="s">
+      <c r="I46" s="127" t="s">
         <v>190</v>
-      </c>
-      <c r="I46" s="126" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="47" ht="39" customHeight="1" spans="1:9">
       <c r="A47" s="11"/>
       <c r="B47" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C47" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="D47" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D47" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E47" s="94"/>
+      <c r="E47" s="95"/>
       <c r="F47" s="63" t="s">
         <v>117</v>
       </c>
       <c r="G47" s="55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H47" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="I47" s="110" t="s">
-        <v>196</v>
+      <c r="I47" s="111" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:9">
       <c r="A48" s="11"/>
       <c r="B48" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C48" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="D48" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="E48" s="95"/>
+      <c r="F48" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E48" s="94"/>
-      <c r="F48" s="14" t="s">
+      <c r="G48" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="H48" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="H48" s="58" t="s">
+      <c r="I48" s="111" t="s">
         <v>202</v>
-      </c>
-      <c r="I48" s="110" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="49" ht="29.25" customHeight="1" spans="1:9">
       <c r="A49" s="11"/>
       <c r="B49" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="58" t="s">
         <v>204</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>205</v>
       </c>
       <c r="D49" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="E49" s="94"/>
+      <c r="E49" s="95"/>
       <c r="F49" s="58" t="s">
+        <v>205</v>
+      </c>
+      <c r="G49" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="H49" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="H49" s="98" t="s">
-        <v>208</v>
-      </c>
-      <c r="I49" s="123"/>
+      <c r="I49" s="124"/>
     </row>
     <row r="50" ht="41.25" customHeight="1" spans="1:9">
       <c r="A50" s="11"/>
       <c r="B50" s="60" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C50" s="61"/>
       <c r="D50" s="46" t="s">
+        <v>209</v>
+      </c>
+      <c r="E50" s="95"/>
+      <c r="F50" s="98" t="s">
         <v>210</v>
       </c>
-      <c r="E50" s="94"/>
-      <c r="F50" s="97" t="s">
+      <c r="G50" s="64" t="s">
         <v>211</v>
       </c>
-      <c r="G50" s="64" t="s">
+      <c r="H50" s="99" t="s">
         <v>212</v>
       </c>
-      <c r="H50" s="98" t="s">
-        <v>213</v>
-      </c>
-      <c r="I50" s="127"/>
+      <c r="I50" s="128"/>
     </row>
     <row r="51" ht="41.25" customHeight="1" spans="1:9">
       <c r="A51" s="35"/>
       <c r="B51" s="62"/>
       <c r="C51" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D51" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="E51" s="95"/>
+      <c r="F51" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="E51" s="94"/>
-      <c r="F51" s="56" t="s">
+      <c r="G51" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="G51" s="99" t="s">
-        <v>217</v>
-      </c>
       <c r="H51" s="62"/>
-      <c r="I51" s="127"/>
+      <c r="I51" s="128"/>
     </row>
     <row r="52" ht="41.25" customHeight="1" spans="1:9">
       <c r="A52" s="35"/>
       <c r="B52" s="62"/>
       <c r="C52" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="D52" s="63" t="s">
-        <v>219</v>
-      </c>
-      <c r="E52" s="94"/>
+      <c r="E52" s="95"/>
       <c r="F52" s="62"/>
       <c r="G52" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H52" s="101" t="s">
         <v>220</v>
       </c>
-      <c r="H52" s="100" t="s">
-        <v>221</v>
-      </c>
-      <c r="I52" s="100"/>
+      <c r="I52" s="101"/>
     </row>
     <row r="53" ht="27.75" customHeight="1" spans="1:9">
       <c r="A53" s="11"/>
       <c r="B53" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C53" s="31"/>
       <c r="D53" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="E53" s="94"/>
+        <v>222</v>
+      </c>
+      <c r="E53" s="95"/>
       <c r="F53" s="62"/>
       <c r="G53" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="H53" s="101" t="s">
         <v>224</v>
       </c>
-      <c r="H53" s="100" t="s">
-        <v>225</v>
-      </c>
-      <c r="I53" s="100"/>
+      <c r="I53" s="101"/>
     </row>
     <row r="54" ht="26.25" customHeight="1" spans="1:9">
       <c r="A54" s="11"/>
       <c r="B54" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C54" s="31"/>
       <c r="D54" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="E54" s="95"/>
+      <c r="F54" s="62" t="s">
         <v>227</v>
-      </c>
-      <c r="E54" s="94"/>
-      <c r="F54" s="62" t="s">
-        <v>228</v>
       </c>
       <c r="G54" s="62"/>
       <c r="H54" s="62" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I54" s="62"/>
     </row>
@@ -5346,16 +5358,16 @@
       <c r="A55" s="11"/>
       <c r="B55" s="17"/>
       <c r="C55" s="62" t="s">
+        <v>229</v>
+      </c>
+      <c r="D55" s="62"/>
+      <c r="E55" s="95"/>
+      <c r="F55" s="31" t="s">
         <v>230</v>
-      </c>
-      <c r="D55" s="62"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="31" t="s">
-        <v>231</v>
       </c>
       <c r="G55" s="31"/>
       <c r="H55" s="62" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I55" s="62"/>
     </row>
@@ -5363,68 +5375,70 @@
       <c r="A56" s="11"/>
       <c r="B56" s="65"/>
       <c r="C56" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56" s="62"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="31" t="s">
         <v>233</v>
-      </c>
-      <c r="D56" s="62"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="31" t="s">
-        <v>234</v>
       </c>
       <c r="G56" s="31"/>
       <c r="H56" s="31" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I56" s="31"/>
-      <c r="L56" s="128"/>
+      <c r="L56" s="129"/>
     </row>
     <row r="57" ht="33.75" customHeight="1" spans="1:12">
       <c r="A57" s="11"/>
       <c r="B57" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C57" s="31"/>
       <c r="D57" s="66" t="s">
-        <v>237</v>
-      </c>
-      <c r="E57" s="94"/>
+        <v>236</v>
+      </c>
+      <c r="E57" s="95"/>
       <c r="F57" s="62"/>
       <c r="G57" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="H57" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="H57" s="31" t="s">
-        <v>239</v>
-      </c>
       <c r="I57" s="31"/>
-      <c r="L57" s="128"/>
-    </row>
-    <row r="58" customHeight="1" spans="1:12">
+      <c r="L57" s="129"/>
+    </row>
+    <row r="58" ht="26.25" customHeight="1" spans="1:12">
       <c r="A58" s="11"/>
       <c r="B58" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="C58" s="31"/>
+      <c r="D58" s="67" t="s">
         <v>240</v>
       </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="94"/>
+      <c r="E58" s="95"/>
       <c r="F58" s="62"/>
       <c r="G58" s="62"/>
-      <c r="H58" s="100" t="s">
+      <c r="H58" s="101" t="s">
         <v>241</v>
       </c>
-      <c r="I58" s="100"/>
-      <c r="L58" s="129"/>
+      <c r="I58" s="101"/>
+      <c r="L58" s="130"/>
     </row>
     <row r="59" ht="20.25" customHeight="1" spans="1:9">
       <c r="A59" s="11"/>
-      <c r="B59" s="67"/>
+      <c r="B59" s="68"/>
       <c r="C59" s="62"/>
       <c r="D59" s="62"/>
-      <c r="E59" s="94"/>
+      <c r="E59" s="95"/>
       <c r="F59" s="62"/>
       <c r="G59" s="62"/>
-      <c r="H59" s="100" t="s">
+      <c r="H59" s="101" t="s">
         <v>242</v>
       </c>
-      <c r="I59" s="100"/>
+      <c r="I59" s="101"/>
     </row>
     <row r="60" ht="17.25" customHeight="1" spans="1:9">
       <c r="A60" s="11"/>
@@ -5433,7 +5447,7 @@
       </c>
       <c r="C60" s="33"/>
       <c r="D60" s="34"/>
-      <c r="E60" s="94"/>
+      <c r="E60" s="95"/>
       <c r="F60" s="62"/>
       <c r="G60" s="62" t="s">
         <v>244</v>
@@ -5448,12 +5462,12 @@
       </c>
       <c r="C61" s="36"/>
       <c r="D61" s="36"/>
-      <c r="E61" s="94"/>
-      <c r="G61" s="101" t="s">
+      <c r="E61" s="95"/>
+      <c r="G61" s="102" t="s">
         <v>246</v>
       </c>
-      <c r="H61" s="102"/>
-      <c r="I61" s="130"/>
+      <c r="H61" s="103"/>
+      <c r="I61" s="131"/>
     </row>
     <row r="62" ht="22.5" customHeight="1" spans="1:9">
       <c r="A62" s="37"/>
@@ -5462,8 +5476,8 @@
       </c>
       <c r="C62" s="38"/>
       <c r="D62" s="38"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="103"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="104"/>
       <c r="G62" s="38" t="s">
         <v>248</v>
       </c>
@@ -5472,8 +5486,8 @@
     </row>
     <row r="63" ht="24.75" customHeight="1" spans="1:9">
       <c r="A63" s="39"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="104"/>
+      <c r="E63" s="95"/>
+      <c r="F63" s="105"/>
       <c r="G63" s="36" t="s">
         <v>249</v>
       </c>
@@ -5482,353 +5496,350 @@
     </row>
     <row r="64" ht="16.5" customHeight="1" spans="1:9">
       <c r="A64" s="40"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="105"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="106"/>
       <c r="F64" s="53"/>
-      <c r="G64" s="106"/>
+      <c r="G64" s="107"/>
       <c r="H64" s="53"/>
-      <c r="I64" s="131"/>
+      <c r="I64" s="132"/>
     </row>
     <row r="65" ht="42.75" customHeight="1" spans="1:10">
       <c r="A65" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="D65" s="82" t="s">
         <v>251</v>
       </c>
-      <c r="D65" s="81" t="s">
+      <c r="E65" s="162" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="E65" s="158" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="81" t="s">
-        <v>253</v>
-      </c>
       <c r="G65" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H65" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="I65" s="110" t="s">
-        <v>254</v>
+      <c r="I65" s="111" t="s">
+        <v>253</v>
       </c>
       <c r="J65" s="1"/>
     </row>
     <row r="66" ht="38.25" customHeight="1" spans="1:10">
       <c r="A66" s="11"/>
       <c r="B66" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C66" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="D66" s="82" t="s">
         <v>256</v>
       </c>
-      <c r="D66" s="81" t="s">
-        <v>257</v>
-      </c>
-      <c r="E66" s="159"/>
+      <c r="E66" s="163"/>
       <c r="F66" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H66" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="I66" s="113" t="s">
         <v>258</v>
-      </c>
-      <c r="I66" s="112" t="s">
-        <v>259</v>
       </c>
       <c r="J66" s="1"/>
     </row>
     <row r="67" ht="33" customHeight="1" spans="1:10">
       <c r="A67" s="11"/>
       <c r="B67" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C67" s="86" t="s">
         <v>260</v>
-      </c>
-      <c r="C67" s="85" t="s">
-        <v>261</v>
       </c>
       <c r="D67" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E67" s="159"/>
+      <c r="E67" s="163"/>
       <c r="F67" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="G67" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="H67" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="I67" s="113" t="s">
         <v>264</v>
-      </c>
-      <c r="I67" s="112" t="s">
-        <v>265</v>
       </c>
       <c r="J67" s="1"/>
     </row>
     <row r="68" ht="37.5" customHeight="1" spans="1:10">
       <c r="A68" s="11"/>
-      <c r="B68" s="132" t="s">
+      <c r="B68" s="133" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="D68" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="E68" s="163"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="E68" s="159"/>
-      <c r="F68" s="14" t="s">
+      <c r="H68" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="G68" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="H68" s="14" t="s">
+      <c r="I68" s="178" t="s">
         <v>270</v>
-      </c>
-      <c r="I68" s="174" t="s">
-        <v>271</v>
       </c>
       <c r="J68" s="1"/>
     </row>
     <row r="69" ht="36.75" customHeight="1" spans="1:10">
       <c r="A69" s="11"/>
-      <c r="B69" s="133" t="s">
+      <c r="B69" s="134" t="s">
+        <v>271</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="D69" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="E69" s="163"/>
+      <c r="F69" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="E69" s="159"/>
-      <c r="F69" s="14" t="s">
+      <c r="G69" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="G69" s="18" t="s">
+      <c r="H69" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="H69" s="28" t="s">
-        <v>277</v>
-      </c>
-      <c r="I69" s="111"/>
+      <c r="I69" s="112"/>
       <c r="J69" s="1"/>
     </row>
     <row r="70" ht="30.75" customHeight="1" spans="1:10">
       <c r="A70" s="11"/>
-      <c r="B70" s="85"/>
-      <c r="C70" s="75" t="s">
+      <c r="B70" s="86"/>
+      <c r="C70" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="D70" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="E70" s="163"/>
+      <c r="F70" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="E70" s="159"/>
-      <c r="F70" s="18" t="s">
+      <c r="G70" s="76" t="s">
         <v>280</v>
       </c>
-      <c r="G70" s="75" t="s">
+      <c r="H70" s="83" t="s">
         <v>281</v>
       </c>
-      <c r="H70" s="82" t="s">
-        <v>282</v>
-      </c>
-      <c r="I70" s="112"/>
+      <c r="I70" s="113"/>
       <c r="J70" s="1"/>
     </row>
     <row r="71" ht="28.5" customHeight="1" spans="1:10">
       <c r="A71" s="11"/>
       <c r="B71" s="17"/>
       <c r="C71" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D71" s="83" t="s">
         <v>283</v>
       </c>
-      <c r="D71" s="82" t="s">
+      <c r="E71" s="163"/>
+      <c r="F71" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="E71" s="159"/>
-      <c r="F71" s="18" t="s">
+      <c r="G71" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="G71" s="18" t="s">
+      <c r="H71" s="164" t="s">
         <v>286</v>
       </c>
-      <c r="H71" s="160" t="s">
-        <v>287</v>
-      </c>
-      <c r="I71" s="111"/>
+      <c r="I71" s="112"/>
       <c r="J71" s="1"/>
     </row>
     <row r="72" ht="31.5" customHeight="1" spans="1:10">
       <c r="A72" s="11"/>
-      <c r="B72" s="134"/>
-      <c r="C72" s="82" t="s">
+      <c r="B72" s="135"/>
+      <c r="C72" s="83" t="s">
+        <v>287</v>
+      </c>
+      <c r="D72" s="76" t="s">
         <v>288</v>
       </c>
-      <c r="D72" s="75" t="s">
+      <c r="E72" s="163"/>
+      <c r="F72" s="83" t="s">
         <v>289</v>
       </c>
-      <c r="E72" s="159"/>
-      <c r="F72" s="82" t="s">
+      <c r="G72" s="13"/>
+      <c r="H72" s="83" t="s">
         <v>290</v>
       </c>
-      <c r="G72" s="13"/>
-      <c r="H72" s="82" t="s">
-        <v>291</v>
-      </c>
-      <c r="I72" s="111"/>
+      <c r="I72" s="112"/>
       <c r="J72" s="1"/>
     </row>
     <row r="73" ht="36.75" customHeight="1" spans="1:10">
       <c r="A73" s="11"/>
-      <c r="B73" s="85"/>
-      <c r="C73" s="82" t="s">
+      <c r="B73" s="86"/>
+      <c r="C73" s="83" t="s">
+        <v>291</v>
+      </c>
+      <c r="D73" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="E73" s="163"/>
+      <c r="F73" s="83" t="s">
         <v>293</v>
-      </c>
-      <c r="E73" s="159"/>
-      <c r="F73" s="82" t="s">
-        <v>294</v>
       </c>
       <c r="G73" s="29"/>
       <c r="H73" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="I73" s="112"/>
+        <v>294</v>
+      </c>
+      <c r="I73" s="113"/>
       <c r="J73" s="1"/>
     </row>
     <row r="74" ht="27.75" customHeight="1" spans="1:10">
       <c r="A74" s="11"/>
       <c r="B74" s="18"/>
       <c r="C74" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="D74" s="30"/>
+      <c r="E74" s="163"/>
+      <c r="F74" s="76" t="s">
         <v>296</v>
-      </c>
-      <c r="D74" s="30"/>
-      <c r="E74" s="159"/>
-      <c r="F74" s="75" t="s">
-        <v>297</v>
       </c>
       <c r="G74" s="18"/>
       <c r="H74" s="20" t="s">
-        <v>298</v>
-      </c>
-      <c r="I74" s="127"/>
+        <v>297</v>
+      </c>
+      <c r="I74" s="128"/>
       <c r="J74" s="1"/>
     </row>
     <row r="75" ht="21" customHeight="1" spans="1:10">
       <c r="A75" s="11"/>
       <c r="B75" s="18"/>
       <c r="C75" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="D75" s="30"/>
+      <c r="E75" s="163"/>
+      <c r="F75" s="62" t="s">
         <v>299</v>
-      </c>
-      <c r="D75" s="30"/>
-      <c r="E75" s="159"/>
-      <c r="F75" s="62" t="s">
-        <v>300</v>
       </c>
       <c r="G75" s="62"/>
       <c r="H75" s="62" t="s">
-        <v>301</v>
-      </c>
-      <c r="I75" s="127"/>
+        <v>300</v>
+      </c>
+      <c r="I75" s="128"/>
       <c r="J75" s="1"/>
     </row>
     <row r="76" ht="33" customHeight="1" spans="1:10">
       <c r="A76" s="11"/>
       <c r="B76" s="18"/>
       <c r="C76" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="D76" s="30"/>
+      <c r="E76" s="163"/>
+      <c r="F76" s="62" t="s">
         <v>302</v>
-      </c>
-      <c r="D76" s="30"/>
-      <c r="E76" s="159"/>
-      <c r="F76" s="62" t="s">
-        <v>303</v>
       </c>
       <c r="G76" s="62"/>
       <c r="H76" s="62" t="s">
-        <v>304</v>
-      </c>
-      <c r="I76" s="175"/>
+        <v>303</v>
+      </c>
+      <c r="I76" s="179"/>
       <c r="J76" s="1"/>
     </row>
     <row r="77" ht="27.75" customHeight="1" spans="1:10">
       <c r="A77" s="11"/>
       <c r="B77" s="31" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C77" s="31"/>
       <c r="D77" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E77" s="163"/>
+      <c r="F77" s="77" t="s">
         <v>306</v>
       </c>
-      <c r="E77" s="159"/>
-      <c r="F77" s="76" t="s">
+      <c r="G77" s="77"/>
+      <c r="H77" s="88" t="s">
         <v>307</v>
       </c>
-      <c r="G77" s="76"/>
-      <c r="H77" s="76" t="s">
+      <c r="I77" s="120"/>
+      <c r="J77" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="I77" s="175"/>
-      <c r="J77" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="78" ht="33" customHeight="1" spans="1:10">
       <c r="A78" s="11"/>
       <c r="B78" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C78" s="31"/>
       <c r="D78" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="E78" s="163"/>
+      <c r="F78" s="77" t="s">
         <v>311</v>
       </c>
-      <c r="E78" s="159"/>
-      <c r="F78" s="76" t="s">
+      <c r="G78" s="77"/>
+      <c r="H78" s="88" t="s">
         <v>312</v>
       </c>
-      <c r="G78" s="76"/>
-      <c r="H78" s="76" t="s">
-        <v>313</v>
-      </c>
-      <c r="I78" s="123"/>
+      <c r="I78" s="120"/>
       <c r="J78" s="1"/>
     </row>
     <row r="79" ht="28.5" customHeight="1" spans="1:10">
       <c r="A79" s="11"/>
-      <c r="B79" s="135" t="s">
+      <c r="B79" s="136" t="s">
+        <v>313</v>
+      </c>
+      <c r="C79" s="137"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="163"/>
+      <c r="F79" s="32" t="s">
         <v>314</v>
-      </c>
-      <c r="C79" s="136"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="159"/>
-      <c r="F79" s="32" t="s">
-        <v>315</v>
       </c>
       <c r="G79" s="33"/>
       <c r="H79" s="29" t="s">
-        <v>287</v>
-      </c>
-      <c r="I79" s="115"/>
+        <v>286</v>
+      </c>
+      <c r="I79" s="116"/>
       <c r="J79" s="1"/>
     </row>
     <row r="80" ht="18" customHeight="1" spans="1:10">
       <c r="A80" s="11"/>
-      <c r="B80" s="135" t="s">
+      <c r="B80" s="136" t="s">
+        <v>315</v>
+      </c>
+      <c r="C80" s="137"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="163"/>
+      <c r="F80" s="36" t="s">
         <v>316</v>
       </c>
-      <c r="C80" s="136"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="159"/>
-      <c r="F80" s="36" t="s">
+      <c r="G80" s="36"/>
+      <c r="H80" s="134" t="s">
         <v>317</v>
       </c>
-      <c r="G80" s="36"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="176"/>
+      <c r="I80" s="180"/>
       <c r="J80" s="1"/>
     </row>
     <row r="81" ht="27.75" customHeight="1" spans="1:10">
@@ -5838,9 +5849,9 @@
       </c>
       <c r="C81" s="33"/>
       <c r="D81" s="34"/>
-      <c r="E81" s="161"/>
+      <c r="E81" s="165"/>
       <c r="H81" s="36"/>
-      <c r="I81" s="177"/>
+      <c r="I81" s="181"/>
       <c r="J81" s="1"/>
     </row>
     <row r="82" ht="15" spans="1:10">
@@ -5850,25 +5861,25 @@
       </c>
       <c r="C82" s="36"/>
       <c r="D82" s="36"/>
-      <c r="E82" s="159"/>
+      <c r="E82" s="163"/>
       <c r="F82" s="29"/>
       <c r="G82" s="29"/>
-      <c r="I82" s="123"/>
+      <c r="I82" s="124"/>
       <c r="J82" s="1"/>
     </row>
     <row r="83" ht="9" customHeight="1" spans="1:9">
-      <c r="A83" s="137"/>
-      <c r="B83" s="68"/>
-      <c r="C83" s="69"/>
-      <c r="D83" s="69"/>
-      <c r="E83" s="162"/>
-      <c r="F83" s="69"/>
-      <c r="G83" s="69"/>
+      <c r="A83" s="138"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="70"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="166"/>
+      <c r="F83" s="70"/>
+      <c r="G83" s="70"/>
       <c r="H83" s="29"/>
-      <c r="I83" s="178"/>
+      <c r="I83" s="182"/>
     </row>
     <row r="84" ht="37.5" customHeight="1" spans="1:9">
-      <c r="A84" s="138" t="s">
+      <c r="A84" s="139" t="s">
         <v>320</v>
       </c>
       <c r="B84" s="12" t="s">
@@ -5880,22 +5891,22 @@
       <c r="D84" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="E84" s="79" t="s">
+      <c r="E84" s="80" t="s">
         <v>13</v>
       </c>
       <c r="F84" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="G84" s="163" t="s">
+      <c r="G84" s="167" t="s">
         <v>325</v>
       </c>
-      <c r="H84" s="69"/>
-      <c r="I84" s="110" t="s">
-        <v>254</v>
+      <c r="H84" s="70"/>
+      <c r="I84" s="111" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="85" ht="44.25" customHeight="1" spans="1:9">
-      <c r="A85" s="139"/>
+      <c r="A85" s="140"/>
       <c r="B85" s="12" t="s">
         <v>326</v>
       </c>
@@ -5905,20 +5916,20 @@
       <c r="D85" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="E85" s="73"/>
+      <c r="E85" s="74"/>
       <c r="F85" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="G85" s="164"/>
+      <c r="G85" s="168"/>
       <c r="H85" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="I85" s="110" t="s">
+      <c r="I85" s="111" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="86" ht="36" customHeight="1" spans="1:9">
-      <c r="A86" s="139"/>
+      <c r="A86" s="140"/>
       <c r="B86" s="12" t="s">
         <v>331</v>
       </c>
@@ -5928,20 +5939,20 @@
       <c r="D86" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="E86" s="73"/>
+      <c r="E86" s="74"/>
       <c r="F86" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="G86" s="164"/>
+      <c r="G86" s="168"/>
       <c r="H86" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="I86" s="110" t="s">
+      <c r="I86" s="111" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="87" ht="30" customHeight="1" spans="1:9">
-      <c r="A87" s="139"/>
+      <c r="A87" s="140"/>
       <c r="B87" s="12" t="s">
         <v>337</v>
       </c>
@@ -5951,19 +5962,19 @@
       <c r="D87" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="E87" s="73"/>
+      <c r="E87" s="74"/>
       <c r="F87" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="G87" s="164"/>
+      <c r="G87" s="168"/>
       <c r="H87" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="I87" s="111"/>
+      <c r="I87" s="112"/>
     </row>
     <row r="88" ht="26.25" customHeight="1" spans="1:9">
-      <c r="A88" s="139"/>
-      <c r="B88" s="134" t="s">
+      <c r="A88" s="140"/>
+      <c r="B88" s="135" t="s">
         <v>342</v>
       </c>
       <c r="C88" s="14" t="s">
@@ -5972,60 +5983,60 @@
       <c r="D88" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="E88" s="73"/>
+      <c r="E88" s="74"/>
       <c r="F88" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="G88" s="164"/>
-      <c r="H88" s="75" t="s">
+      <c r="G88" s="168"/>
+      <c r="H88" s="76" t="s">
         <v>346</v>
       </c>
-      <c r="I88" s="111"/>
+      <c r="I88" s="112"/>
     </row>
     <row r="89" ht="36" customHeight="1" spans="1:9">
-      <c r="A89" s="139"/>
-      <c r="B89" s="134" t="s">
+      <c r="A89" s="140"/>
+      <c r="B89" s="135" t="s">
         <v>347</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D89" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="E89" s="73"/>
+      <c r="E89" s="74"/>
       <c r="F89" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="G89" s="164"/>
+      <c r="G89" s="168"/>
       <c r="H89" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="I89" s="111"/>
+      <c r="I89" s="112"/>
     </row>
     <row r="90" ht="39.75" customHeight="1" spans="1:9">
-      <c r="A90" s="139"/>
+      <c r="A90" s="140"/>
       <c r="B90" s="55" t="s">
         <v>351</v>
       </c>
-      <c r="C90" s="82" t="s">
+      <c r="C90" s="83" t="s">
         <v>352</v>
       </c>
       <c r="D90" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="E90" s="73"/>
+      <c r="E90" s="74"/>
       <c r="F90" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="G90" s="164"/>
-      <c r="H90" s="75" t="s">
+      <c r="G90" s="168"/>
+      <c r="H90" s="76" t="s">
         <v>355</v>
       </c>
-      <c r="I90" s="111"/>
+      <c r="I90" s="112"/>
     </row>
     <row r="91" ht="33.75" customHeight="1" spans="1:9">
-      <c r="A91" s="139"/>
+      <c r="A91" s="140"/>
       <c r="B91" s="29"/>
       <c r="C91" s="20" t="s">
         <v>356</v>
@@ -6033,18 +6044,18 @@
       <c r="D91" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="E91" s="73"/>
-      <c r="F91" s="165" t="s">
+      <c r="E91" s="74"/>
+      <c r="F91" s="169" t="s">
         <v>358</v>
       </c>
-      <c r="G91" s="164"/>
-      <c r="H91" s="75" t="s">
+      <c r="G91" s="168"/>
+      <c r="H91" s="76" t="s">
         <v>359</v>
       </c>
-      <c r="I91" s="111"/>
+      <c r="I91" s="112"/>
     </row>
     <row r="92" ht="39" customHeight="1" spans="1:9">
-      <c r="A92" s="139"/>
+      <c r="A92" s="140"/>
       <c r="B92" s="29"/>
       <c r="C92" s="18" t="s">
         <v>360</v>
@@ -6052,303 +6063,305 @@
       <c r="D92" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="E92" s="73"/>
-      <c r="F92" s="166"/>
-      <c r="G92" s="164"/>
-      <c r="H92" s="82" t="s">
+      <c r="E92" s="74"/>
+      <c r="F92" s="170"/>
+      <c r="G92" s="168"/>
+      <c r="H92" s="83" t="s">
         <v>362</v>
       </c>
-      <c r="I92" s="111"/>
+      <c r="I92" s="112"/>
     </row>
     <row r="93" ht="32.25" customHeight="1" spans="1:9">
-      <c r="A93" s="139"/>
+      <c r="A93" s="140"/>
       <c r="B93" s="17"/>
       <c r="C93" s="18" t="s">
         <v>363</v>
       </c>
       <c r="D93" s="18"/>
-      <c r="E93" s="73"/>
-      <c r="F93" s="166"/>
-      <c r="G93" s="164"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="170"/>
+      <c r="G93" s="168"/>
       <c r="H93" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="I93" s="111"/>
+      <c r="I93" s="112"/>
     </row>
     <row r="94" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A94" s="139"/>
-      <c r="B94" s="140" t="s">
+      <c r="A94" s="140"/>
+      <c r="B94" s="141" t="s">
         <v>365</v>
       </c>
-      <c r="C94" s="141"/>
+      <c r="C94" s="142"/>
       <c r="D94" s="18"/>
-      <c r="E94" s="73"/>
+      <c r="E94" s="74"/>
       <c r="F94" s="18"/>
-      <c r="G94" s="164"/>
+      <c r="G94" s="168"/>
       <c r="H94" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="I94" s="111"/>
+      <c r="I94" s="112"/>
     </row>
     <row r="95" ht="32.25" customHeight="1" spans="1:9">
-      <c r="A95" s="139"/>
+      <c r="A95" s="140"/>
       <c r="B95" s="17"/>
-      <c r="C95" s="142" t="s">
+      <c r="C95" s="143" t="s">
         <v>367</v>
       </c>
-      <c r="D95" s="141"/>
-      <c r="E95" s="73"/>
+      <c r="D95" s="142"/>
+      <c r="E95" s="74"/>
       <c r="F95" s="46"/>
-      <c r="G95" s="164"/>
+      <c r="G95" s="168"/>
       <c r="H95" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="I95" s="175"/>
+      <c r="I95" s="179"/>
     </row>
     <row r="96" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A96" s="139"/>
+      <c r="A96" s="140"/>
       <c r="B96" s="12"/>
-      <c r="C96" s="18"/>
+      <c r="C96" s="144" t="s">
+        <v>369</v>
+      </c>
       <c r="D96" s="18"/>
-      <c r="E96" s="73"/>
+      <c r="E96" s="74"/>
       <c r="F96" s="18"/>
-      <c r="G96" s="164"/>
-      <c r="H96" s="76" t="s">
-        <v>369</v>
-      </c>
-      <c r="I96" s="175"/>
+      <c r="G96" s="168"/>
+      <c r="H96" s="77" t="s">
+        <v>370</v>
+      </c>
+      <c r="I96" s="179"/>
     </row>
     <row r="97" ht="23.25" customHeight="1" spans="1:9">
-      <c r="A97" s="139"/>
-      <c r="B97" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="C97" s="27"/>
+      <c r="A97" s="140"/>
+      <c r="B97" s="145" t="s">
+        <v>371</v>
+      </c>
+      <c r="C97" s="146"/>
       <c r="D97" s="14"/>
-      <c r="E97" s="73"/>
+      <c r="E97" s="74"/>
       <c r="F97" s="18"/>
-      <c r="G97" s="164"/>
-      <c r="H97" s="76" t="s">
-        <v>371</v>
-      </c>
-      <c r="I97" s="127"/>
+      <c r="G97" s="168"/>
+      <c r="H97" s="77" t="s">
+        <v>372</v>
+      </c>
+      <c r="I97" s="128"/>
     </row>
     <row r="98" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A98" s="139"/>
-      <c r="B98" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="C98" s="27"/>
+      <c r="A98" s="140"/>
+      <c r="B98" s="145" t="s">
+        <v>373</v>
+      </c>
+      <c r="C98" s="146"/>
       <c r="D98" s="14"/>
-      <c r="E98" s="73"/>
+      <c r="E98" s="74"/>
       <c r="F98" s="14"/>
-      <c r="G98" s="164"/>
+      <c r="G98" s="168"/>
       <c r="H98" s="62" t="s">
-        <v>373</v>
-      </c>
-      <c r="I98" s="127"/>
+        <v>374</v>
+      </c>
+      <c r="I98" s="128"/>
     </row>
     <row r="99" ht="24" customHeight="1" spans="1:9">
-      <c r="A99" s="139"/>
-      <c r="B99" s="67"/>
+      <c r="A99" s="140"/>
+      <c r="B99" s="68"/>
       <c r="C99" s="30" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D99" s="30"/>
-      <c r="E99" s="73"/>
+      <c r="E99" s="74"/>
       <c r="F99" s="18"/>
-      <c r="G99" s="164"/>
+      <c r="G99" s="168"/>
       <c r="H99" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="I99" s="175"/>
+        <v>376</v>
+      </c>
+      <c r="I99" s="179"/>
     </row>
     <row r="100" ht="37.5" customHeight="1" spans="1:9">
-      <c r="A100" s="139"/>
+      <c r="A100" s="140"/>
       <c r="B100" s="12"/>
       <c r="C100" s="30" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D100" s="30"/>
-      <c r="E100" s="73"/>
-      <c r="F100" s="166"/>
-      <c r="G100" s="164"/>
-      <c r="H100" s="76" t="s">
-        <v>377</v>
-      </c>
-      <c r="I100" s="175"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="170"/>
+      <c r="G100" s="168"/>
+      <c r="H100" s="77" t="s">
+        <v>378</v>
+      </c>
+      <c r="I100" s="179"/>
     </row>
     <row r="101" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A101" s="139"/>
-      <c r="B101" s="67"/>
+      <c r="A101" s="140"/>
+      <c r="B101" s="68"/>
       <c r="C101" s="62"/>
       <c r="D101" s="62"/>
-      <c r="E101" s="73"/>
-      <c r="F101" s="166"/>
-      <c r="G101" s="164"/>
-      <c r="H101" s="76" t="s">
-        <v>378</v>
-      </c>
-      <c r="I101" s="113"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="170"/>
+      <c r="G101" s="168"/>
+      <c r="H101" s="77" t="s">
+        <v>379</v>
+      </c>
+      <c r="I101" s="114"/>
     </row>
     <row r="102" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A102" s="139"/>
+      <c r="A102" s="140"/>
       <c r="B102" s="32" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C102" s="33"/>
       <c r="D102" s="34"/>
-      <c r="E102" s="73"/>
-      <c r="F102" s="166"/>
-      <c r="G102" s="167"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="170"/>
+      <c r="G102" s="171"/>
       <c r="H102" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="I102" s="113"/>
+        <v>381</v>
+      </c>
+      <c r="I102" s="114"/>
     </row>
     <row r="103" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A103" s="139"/>
+      <c r="A103" s="140"/>
       <c r="B103" s="36" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C103" s="36"/>
       <c r="D103" s="36"/>
-      <c r="E103" s="168"/>
-      <c r="G103" s="169" t="s">
-        <v>382</v>
+      <c r="E103" s="172"/>
+      <c r="G103" s="173" t="s">
+        <v>383</v>
       </c>
       <c r="H103" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="I103" s="102"/>
+        <v>384</v>
+      </c>
+      <c r="I103" s="103"/>
     </row>
     <row r="104" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A104" s="143"/>
+      <c r="A104" s="147"/>
       <c r="B104" s="38" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C104" s="38"/>
       <c r="D104" s="38"/>
-      <c r="E104" s="73"/>
+      <c r="E104" s="74"/>
       <c r="F104" s="10"/>
       <c r="G104" s="36" t="s">
-        <v>385</v>
-      </c>
-      <c r="H104" s="102"/>
+        <v>386</v>
+      </c>
+      <c r="H104" s="103"/>
       <c r="I104" s="36"/>
     </row>
     <row r="105" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A105" s="144"/>
+      <c r="A105" s="148"/>
       <c r="B105" s="18"/>
       <c r="C105" s="31"/>
       <c r="D105" s="31"/>
-      <c r="E105" s="91"/>
+      <c r="E105" s="92"/>
       <c r="F105" s="14"/>
       <c r="G105" s="36" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H105" s="36"/>
       <c r="I105" s="36"/>
     </row>
     <row r="106" ht="11.25" customHeight="1" spans="1:9">
-      <c r="A106" s="145"/>
-      <c r="B106" s="68"/>
-      <c r="C106" s="69"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="170"/>
-      <c r="F106" s="69"/>
-      <c r="G106" s="69"/>
+      <c r="A106" s="149"/>
+      <c r="B106" s="69"/>
+      <c r="C106" s="70"/>
+      <c r="D106" s="70"/>
+      <c r="E106" s="174"/>
+      <c r="F106" s="70"/>
+      <c r="G106" s="70"/>
       <c r="H106" s="36"/>
-      <c r="I106" s="178"/>
+      <c r="I106" s="182"/>
     </row>
     <row r="107" ht="33.75" customHeight="1" spans="1:9">
       <c r="A107" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B107" s="17" t="s">
         <v>93</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D107" s="14" t="s">
         <v>97</v>
       </c>
       <c r="E107" s="46" t="s">
-        <v>389</v>
-      </c>
-      <c r="F107" s="67"/>
-      <c r="G107" s="171"/>
-      <c r="H107" s="69"/>
-      <c r="I107" s="179"/>
+        <v>390</v>
+      </c>
+      <c r="F107" s="68"/>
+      <c r="G107" s="175"/>
+      <c r="H107" s="70"/>
+      <c r="I107" s="183"/>
     </row>
     <row r="108" ht="33.75" customHeight="1" spans="1:9">
-      <c r="A108" s="146"/>
+      <c r="A108" s="150"/>
       <c r="B108" s="12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E108" s="46" t="s">
-        <v>393</v>
-      </c>
-      <c r="F108" s="67"/>
-      <c r="G108" s="172"/>
-      <c r="H108" s="171"/>
-      <c r="I108" s="109"/>
+        <v>394</v>
+      </c>
+      <c r="F108" s="68"/>
+      <c r="G108" s="176"/>
+      <c r="H108" s="175"/>
+      <c r="I108" s="110"/>
     </row>
     <row r="109" ht="33.75" customHeight="1" spans="1:9">
-      <c r="A109" s="146"/>
+      <c r="A109" s="150"/>
       <c r="B109" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C109" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="74" t="s">
-        <v>395</v>
+      <c r="D109" s="75" t="s">
+        <v>396</v>
       </c>
       <c r="E109" s="62"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="172"/>
-      <c r="H109" s="172"/>
-      <c r="I109" s="109"/>
+      <c r="F109" s="68"/>
+      <c r="G109" s="176"/>
+      <c r="H109" s="176"/>
+      <c r="I109" s="110"/>
     </row>
     <row r="110" ht="33.75" customHeight="1" spans="1:9">
       <c r="A110" s="11"/>
       <c r="B110" s="12"/>
       <c r="C110" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="D110" s="100" t="s">
         <v>397</v>
       </c>
-      <c r="E110" s="100"/>
+      <c r="D110" s="101" t="s">
+        <v>398</v>
+      </c>
+      <c r="E110" s="101"/>
       <c r="F110" s="17"/>
       <c r="G110" s="18"/>
-      <c r="H110" s="172"/>
-      <c r="I110" s="110"/>
+      <c r="H110" s="176"/>
+      <c r="I110" s="111"/>
     </row>
     <row r="111" ht="33.75" customHeight="1" spans="1:9">
       <c r="A111" s="11"/>
       <c r="B111" s="17" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C111" s="25" t="s">
-        <v>399</v>
-      </c>
-      <c r="D111" s="100" t="s">
         <v>400</v>
       </c>
-      <c r="E111" s="100"/>
+      <c r="D111" s="101" t="s">
+        <v>401</v>
+      </c>
+      <c r="E111" s="101"/>
       <c r="F111" s="17"/>
       <c r="G111" s="18"/>
       <c r="H111" s="18"/>
-      <c r="I111" s="110"/>
+      <c r="I111" s="111"/>
     </row>
     <row r="112" ht="33.75" customHeight="1" spans="1:9">
       <c r="A112" s="11"/>
@@ -6359,119 +6372,119 @@
       <c r="F112" s="17"/>
       <c r="G112" s="18"/>
       <c r="H112" s="18"/>
-      <c r="I112" s="110"/>
+      <c r="I112" s="111"/>
     </row>
     <row r="113" ht="25.5" customHeight="1" spans="1:9">
       <c r="A113" s="11"/>
       <c r="B113" s="17"/>
       <c r="C113" s="30" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D113" s="30"/>
       <c r="E113" s="18"/>
       <c r="F113" s="17"/>
       <c r="G113" s="18"/>
       <c r="H113" s="18"/>
-      <c r="I113" s="110"/>
+      <c r="I113" s="111"/>
     </row>
     <row r="114" ht="24.75" customHeight="1" spans="1:9">
       <c r="A114" s="11"/>
       <c r="B114" s="17"/>
       <c r="C114" s="30" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D114" s="30"/>
       <c r="E114" s="18"/>
       <c r="F114" s="17"/>
       <c r="G114" s="18"/>
       <c r="H114" s="18"/>
-      <c r="I114" s="110"/>
+      <c r="I114" s="111"/>
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="11"/>
       <c r="B115" s="17"/>
-      <c r="C115" s="100" t="s">
-        <v>403</v>
-      </c>
-      <c r="D115" s="100"/>
+      <c r="C115" s="101" t="s">
+        <v>404</v>
+      </c>
+      <c r="D115" s="101"/>
       <c r="E115" s="18"/>
       <c r="F115" s="17"/>
       <c r="G115" s="18"/>
       <c r="H115" s="18"/>
-      <c r="I115" s="110"/>
+      <c r="I115" s="111"/>
     </row>
     <row r="116" ht="36.75" customHeight="1" spans="1:9">
       <c r="A116" s="11"/>
       <c r="B116" s="27" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C116" s="31"/>
       <c r="D116" s="30" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E116" s="30"/>
       <c r="F116" s="17"/>
       <c r="G116" s="18"/>
       <c r="H116" s="18"/>
-      <c r="I116" s="110"/>
+      <c r="I116" s="111"/>
     </row>
     <row r="117" ht="27" customHeight="1" spans="1:9">
       <c r="A117" s="11"/>
       <c r="B117" s="27" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C117" s="31"/>
       <c r="D117" s="31" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E117" s="31"/>
-      <c r="F117" s="67"/>
+      <c r="F117" s="68"/>
       <c r="G117" s="18"/>
       <c r="H117" s="18"/>
-      <c r="I117" s="110"/>
+      <c r="I117" s="111"/>
     </row>
     <row r="118" ht="21.75" customHeight="1" spans="1:9">
       <c r="A118" s="11"/>
       <c r="B118" s="27" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C118" s="31"/>
       <c r="D118" s="31" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E118" s="31"/>
       <c r="F118" s="29"/>
       <c r="G118" s="18"/>
       <c r="H118" s="18"/>
-      <c r="I118" s="110"/>
+      <c r="I118" s="111"/>
     </row>
     <row r="119" ht="22.5" customHeight="1" spans="1:9">
       <c r="A119" s="11"/>
       <c r="B119" s="27" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C119" s="31"/>
       <c r="F119" s="12"/>
       <c r="G119" s="18"/>
       <c r="H119" s="18"/>
-      <c r="I119" s="110"/>
+      <c r="I119" s="111"/>
     </row>
     <row r="120" ht="26.25" customHeight="1" spans="1:9">
       <c r="A120" s="11"/>
       <c r="B120" s="32" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C120" s="33"/>
       <c r="D120" s="34"/>
       <c r="F120" s="12"/>
       <c r="G120" s="18"/>
       <c r="H120" s="18"/>
-      <c r="I120" s="110"/>
+      <c r="I120" s="111"/>
     </row>
     <row r="121" customHeight="1" spans="1:9">
       <c r="A121" s="11"/>
       <c r="B121" s="36" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C121" s="36"/>
       <c r="D121" s="36"/>
@@ -6479,12 +6492,12 @@
       <c r="F121" s="17"/>
       <c r="G121" s="18"/>
       <c r="H121" s="18"/>
-      <c r="I121" s="110"/>
+      <c r="I121" s="111"/>
     </row>
     <row r="122" ht="17.25" customHeight="1" spans="1:9">
       <c r="A122" s="11"/>
       <c r="B122" s="38" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C122" s="38"/>
       <c r="D122" s="38"/>
@@ -6492,7 +6505,7 @@
       <c r="F122" s="12"/>
       <c r="G122" s="18"/>
       <c r="H122" s="18"/>
-      <c r="I122" s="110"/>
+      <c r="I122" s="111"/>
     </row>
     <row r="123" ht="15" spans="1:9">
       <c r="A123" s="39"/>
@@ -6503,708 +6516,766 @@
       <c r="F123" s="12"/>
       <c r="G123" s="18"/>
       <c r="H123" s="18"/>
-      <c r="I123" s="110"/>
+      <c r="I123" s="111"/>
     </row>
     <row r="124" s="1" customFormat="1" ht="6.75" customHeight="1" spans="1:9">
-      <c r="A124" s="147"/>
-      <c r="B124" s="148"/>
-      <c r="C124" s="149"/>
-      <c r="D124" s="149"/>
-      <c r="E124" s="173"/>
-      <c r="F124" s="149"/>
-      <c r="G124" s="149"/>
+      <c r="A124" s="151"/>
+      <c r="B124" s="152"/>
+      <c r="C124" s="153"/>
+      <c r="D124" s="153"/>
+      <c r="E124" s="177"/>
+      <c r="F124" s="153"/>
+      <c r="G124" s="153"/>
       <c r="H124" s="18"/>
-      <c r="I124" s="180"/>
+      <c r="I124" s="184"/>
     </row>
     <row r="125" ht="15" spans="1:9">
-      <c r="A125" s="150">
+      <c r="A125" s="154">
         <v>1</v>
       </c>
-      <c r="B125" s="151" t="s">
-        <v>414</v>
-      </c>
-      <c r="C125" s="152"/>
-      <c r="D125" s="152"/>
-      <c r="E125" s="152"/>
-      <c r="F125" s="152"/>
-      <c r="G125" s="152"/>
-      <c r="H125" s="149"/>
-      <c r="I125" s="181"/>
+      <c r="B125" s="155" t="s">
+        <v>415</v>
+      </c>
+      <c r="C125" s="156"/>
+      <c r="D125" s="156"/>
+      <c r="E125" s="156"/>
+      <c r="F125" s="156"/>
+      <c r="G125" s="156"/>
+      <c r="H125" s="153"/>
+      <c r="I125" s="185"/>
     </row>
     <row r="126" spans="1:9">
-      <c r="A126" s="153"/>
-      <c r="B126" s="154" t="s">
-        <v>415</v>
-      </c>
-      <c r="C126" s="155"/>
-      <c r="D126" s="155"/>
-      <c r="E126" s="155"/>
-      <c r="F126" s="155"/>
-      <c r="G126" s="155"/>
-      <c r="H126" s="152"/>
-      <c r="I126" s="182"/>
+      <c r="A126" s="157"/>
+      <c r="B126" s="158" t="s">
+        <v>416</v>
+      </c>
+      <c r="C126" s="159"/>
+      <c r="D126" s="159"/>
+      <c r="E126" s="159"/>
+      <c r="F126" s="159"/>
+      <c r="G126" s="159"/>
+      <c r="H126" s="156"/>
+      <c r="I126" s="186"/>
     </row>
     <row r="127" customHeight="1" spans="1:9">
-      <c r="A127" s="153"/>
-      <c r="B127" s="156" t="s">
-        <v>416</v>
-      </c>
-      <c r="C127" s="157"/>
-      <c r="D127" s="157"/>
-      <c r="E127" s="157"/>
-      <c r="F127" s="157"/>
-      <c r="G127" s="157"/>
-      <c r="H127" s="155"/>
-      <c r="I127" s="183"/>
+      <c r="A127" s="157"/>
+      <c r="B127" s="160" t="s">
+        <v>417</v>
+      </c>
+      <c r="C127" s="161"/>
+      <c r="D127" s="161"/>
+      <c r="E127" s="161"/>
+      <c r="F127" s="161"/>
+      <c r="G127" s="161"/>
+      <c r="H127" s="159"/>
+      <c r="I127" s="187"/>
     </row>
     <row r="128" customHeight="1" spans="1:9">
-      <c r="A128" s="153"/>
-      <c r="B128" s="156" t="s">
-        <v>417</v>
-      </c>
-      <c r="C128" s="157"/>
-      <c r="D128" s="157"/>
-      <c r="E128" s="157"/>
-      <c r="F128" s="157"/>
-      <c r="G128" s="157"/>
-      <c r="H128" s="157"/>
-      <c r="I128" s="183"/>
+      <c r="A128" s="157"/>
+      <c r="B128" s="160" t="s">
+        <v>418</v>
+      </c>
+      <c r="C128" s="161"/>
+      <c r="D128" s="161"/>
+      <c r="E128" s="161"/>
+      <c r="F128" s="161"/>
+      <c r="G128" s="161"/>
+      <c r="H128" s="161"/>
+      <c r="I128" s="187"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="153"/>
-      <c r="B129" s="156" t="s">
-        <v>418</v>
-      </c>
-      <c r="C129" s="157"/>
-      <c r="D129" s="157"/>
-      <c r="E129" s="157"/>
-      <c r="F129" s="157"/>
-      <c r="G129" s="157"/>
-      <c r="H129" s="157"/>
-      <c r="I129" s="183"/>
+      <c r="A129" s="157"/>
+      <c r="B129" s="160" t="s">
+        <v>419</v>
+      </c>
+      <c r="C129" s="161"/>
+      <c r="D129" s="161"/>
+      <c r="E129" s="161"/>
+      <c r="F129" s="161"/>
+      <c r="G129" s="161"/>
+      <c r="H129" s="161"/>
+      <c r="I129" s="187"/>
     </row>
     <row r="130" ht="15" spans="1:9">
-      <c r="A130" s="184"/>
-      <c r="B130" s="185" t="s">
-        <v>419</v>
-      </c>
-      <c r="C130" s="186"/>
-      <c r="D130" s="186"/>
-      <c r="E130" s="186"/>
-      <c r="F130" s="186"/>
-      <c r="G130" s="186"/>
-      <c r="H130" s="157"/>
-      <c r="I130" s="229"/>
+      <c r="A130" s="188"/>
+      <c r="B130" s="189" t="s">
+        <v>420</v>
+      </c>
+      <c r="C130" s="190"/>
+      <c r="D130" s="190"/>
+      <c r="E130" s="190"/>
+      <c r="F130" s="190"/>
+      <c r="G130" s="190"/>
+      <c r="H130" s="161"/>
+      <c r="I130" s="235"/>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="187">
+      <c r="A131" s="191">
         <v>2</v>
       </c>
-      <c r="B131" s="151" t="s">
-        <v>420</v>
-      </c>
-      <c r="C131" s="152"/>
-      <c r="D131" s="152"/>
-      <c r="E131" s="152"/>
-      <c r="F131" s="152"/>
-      <c r="G131" s="152"/>
-      <c r="H131" s="186"/>
-      <c r="I131" s="230"/>
+      <c r="B131" s="155" t="s">
+        <v>421</v>
+      </c>
+      <c r="C131" s="156"/>
+      <c r="D131" s="156"/>
+      <c r="E131" s="156"/>
+      <c r="F131" s="156"/>
+      <c r="G131" s="156"/>
+      <c r="H131" s="190"/>
+      <c r="I131" s="236"/>
     </row>
     <row r="132" customHeight="1" spans="1:8">
-      <c r="A132" s="188"/>
-      <c r="B132" s="189" t="s">
-        <v>421</v>
-      </c>
-      <c r="C132" s="190" t="s">
+      <c r="A132" s="192"/>
+      <c r="B132" s="193" t="s">
         <v>422</v>
       </c>
-      <c r="D132" s="191" t="s">
+      <c r="C132" s="194" t="s">
         <v>423</v>
       </c>
-      <c r="E132" s="219" t="s">
+      <c r="D132" s="195" t="s">
         <v>424</v>
       </c>
-      <c r="F132" s="219" t="s">
+      <c r="E132" s="223" t="s">
         <v>425</v>
       </c>
-      <c r="G132" s="219"/>
-      <c r="H132" s="220"/>
+      <c r="F132" s="223" t="s">
+        <v>426</v>
+      </c>
+      <c r="G132" s="223"/>
+      <c r="H132" s="224"/>
     </row>
     <row r="133" ht="32.25" customHeight="1" spans="1:9">
-      <c r="A133" s="192"/>
-      <c r="B133" s="193"/>
-      <c r="C133" s="194" t="s">
-        <v>426</v>
-      </c>
-      <c r="D133" s="195" t="s">
+      <c r="A133" s="196"/>
+      <c r="B133" s="197"/>
+      <c r="C133" s="198" t="s">
         <v>427</v>
       </c>
-      <c r="E133" s="221"/>
-      <c r="F133" s="221"/>
-      <c r="G133" s="221"/>
-      <c r="H133" s="222" t="s">
+      <c r="D133" s="199" t="s">
         <v>428</v>
       </c>
-      <c r="I133" s="231" t="s">
+      <c r="E133" s="225"/>
+      <c r="F133" s="225"/>
+      <c r="G133" s="225"/>
+      <c r="H133" s="226" t="s">
         <v>429</v>
       </c>
+      <c r="I133" s="237" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="134" ht="30.75" spans="1:9">
-      <c r="A134" s="196">
+      <c r="A134" s="200">
         <v>3</v>
       </c>
-      <c r="B134" s="197" t="s">
-        <v>430</v>
-      </c>
-      <c r="C134" s="152" t="s">
-        <v>430</v>
-      </c>
-      <c r="D134" s="152" t="s">
-        <v>430</v>
-      </c>
-      <c r="E134" s="152" t="s">
-        <v>430</v>
-      </c>
-      <c r="F134" s="152" t="s">
-        <v>430</v>
-      </c>
-      <c r="G134" s="152" t="s">
-        <v>430</v>
-      </c>
-      <c r="H134" s="223" t="s">
+      <c r="B134" s="201" t="s">
         <v>431</v>
       </c>
-      <c r="I134" s="232" t="s">
+      <c r="C134" s="156" t="s">
+        <v>431</v>
+      </c>
+      <c r="D134" s="156" t="s">
+        <v>431</v>
+      </c>
+      <c r="E134" s="156" t="s">
+        <v>431</v>
+      </c>
+      <c r="F134" s="156" t="s">
+        <v>431</v>
+      </c>
+      <c r="G134" s="156" t="s">
+        <v>431</v>
+      </c>
+      <c r="H134" s="227" t="s">
         <v>432</v>
       </c>
+      <c r="I134" s="238" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="135" ht="15" customHeight="1" spans="1:9">
-      <c r="A135" s="198"/>
-      <c r="B135" s="199"/>
-      <c r="C135" s="157"/>
-      <c r="D135" s="157"/>
-      <c r="E135" s="157"/>
-      <c r="F135" s="157"/>
-      <c r="G135" s="157"/>
-      <c r="H135" s="224" t="s">
-        <v>433</v>
-      </c>
-      <c r="I135" s="233" t="s">
+      <c r="A135" s="202"/>
+      <c r="B135" s="203"/>
+      <c r="C135" s="161"/>
+      <c r="D135" s="161"/>
+      <c r="E135" s="161"/>
+      <c r="F135" s="161"/>
+      <c r="G135" s="161"/>
+      <c r="H135" s="228" t="s">
         <v>434</v>
       </c>
+      <c r="I135" s="239" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="136" ht="15" customHeight="1" spans="1:9">
-      <c r="A136" s="198"/>
-      <c r="B136" s="200" t="s">
-        <v>435</v>
-      </c>
-      <c r="C136" s="201" t="s">
+      <c r="A136" s="202"/>
+      <c r="B136" s="204" t="s">
         <v>436</v>
       </c>
-      <c r="D136" s="202" t="s">
+      <c r="C136" s="205" t="s">
         <v>437</v>
       </c>
-      <c r="E136" s="202" t="s">
+      <c r="D136" s="206" t="s">
         <v>438</v>
       </c>
-      <c r="F136" s="213" t="s">
+      <c r="E136" s="206" t="s">
         <v>439</v>
       </c>
-      <c r="G136" s="211" t="s">
+      <c r="F136" s="217" t="s">
         <v>440</v>
       </c>
-      <c r="H136" s="225" t="s">
+      <c r="G136" s="215" t="s">
         <v>441</v>
       </c>
-      <c r="I136" s="234" t="s">
+      <c r="H136" s="229" t="s">
         <v>442</v>
       </c>
+      <c r="I136" s="240" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="137" ht="28.5" spans="1:9">
-      <c r="A137" s="198"/>
-      <c r="B137" s="203" t="s">
-        <v>443</v>
-      </c>
-      <c r="C137" s="204" t="s">
+      <c r="A137" s="202"/>
+      <c r="B137" s="207" t="s">
         <v>444</v>
       </c>
-      <c r="D137" s="205" t="s">
+      <c r="C137" s="208" t="s">
         <v>445</v>
       </c>
-      <c r="E137" s="205" t="s">
+      <c r="D137" s="209" t="s">
         <v>446</v>
       </c>
-      <c r="F137" s="226" t="s">
+      <c r="E137" s="209" t="s">
         <v>447</v>
       </c>
-      <c r="G137" s="226" t="s">
+      <c r="F137" s="230" t="s">
         <v>448</v>
       </c>
-      <c r="H137" s="225" t="s">
+      <c r="G137" s="230" t="s">
         <v>449</v>
       </c>
-      <c r="I137" s="234" t="s">
+      <c r="H137" s="229" t="s">
         <v>450</v>
       </c>
+      <c r="I137" s="240" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="138" ht="16.5" spans="1:9">
-      <c r="A138" s="198"/>
-      <c r="B138" s="206" t="s">
-        <v>451</v>
-      </c>
-      <c r="C138" s="207" t="s">
+      <c r="A138" s="202"/>
+      <c r="B138" s="210" t="s">
         <v>452</v>
       </c>
-      <c r="D138" s="208" t="s">
+      <c r="C138" s="211" t="s">
         <v>453</v>
       </c>
-      <c r="E138" s="208" t="s">
+      <c r="D138" s="212" t="s">
         <v>454</v>
       </c>
-      <c r="F138" s="213" t="s">
+      <c r="E138" s="212" t="s">
         <v>455</v>
       </c>
-      <c r="G138" s="213" t="s">
+      <c r="F138" s="217" t="s">
         <v>456</v>
       </c>
-      <c r="H138" s="225" t="s">
+      <c r="G138" s="217" t="s">
         <v>457</v>
       </c>
-      <c r="I138" s="235" t="s">
+      <c r="H138" s="229" t="s">
         <v>458</v>
       </c>
+      <c r="I138" s="241" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="139" ht="16.5" spans="1:9">
-      <c r="A139" s="198"/>
-      <c r="B139" s="206" t="s">
-        <v>459</v>
-      </c>
-      <c r="C139" s="207" t="s">
+      <c r="A139" s="202"/>
+      <c r="B139" s="210" t="s">
         <v>460</v>
       </c>
-      <c r="D139" s="208" t="s">
-        <v>452</v>
-      </c>
-      <c r="E139" s="208" t="s">
+      <c r="C139" s="211" t="s">
         <v>461</v>
       </c>
-      <c r="F139" s="213" t="s">
+      <c r="D139" s="212" t="s">
+        <v>453</v>
+      </c>
+      <c r="E139" s="212" t="s">
         <v>462</v>
       </c>
-      <c r="G139" s="213" t="s">
+      <c r="F139" s="217" t="s">
         <v>463</v>
       </c>
-      <c r="H139" s="227" t="s">
+      <c r="G139" s="217" t="s">
         <v>464</v>
       </c>
-      <c r="I139" s="234" t="s">
+      <c r="H139" s="231" t="s">
         <v>465</v>
       </c>
+      <c r="I139" s="240" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="140" ht="15" spans="1:9">
-      <c r="A140" s="198"/>
-      <c r="B140" s="209" t="s">
-        <v>466</v>
-      </c>
-      <c r="C140" s="207" t="s">
+      <c r="A140" s="202"/>
+      <c r="B140" s="213" t="s">
         <v>467</v>
       </c>
-      <c r="D140" s="208" t="s">
+      <c r="C140" s="211" t="s">
         <v>468</v>
       </c>
-      <c r="E140" s="213" t="s">
+      <c r="D140" s="212" t="s">
         <v>469</v>
       </c>
-      <c r="F140" s="213" t="s">
+      <c r="E140" s="217" t="s">
         <v>470</v>
       </c>
-      <c r="G140" s="213" t="s">
+      <c r="F140" s="217" t="s">
         <v>471</v>
       </c>
-      <c r="H140" s="225" t="s">
+      <c r="G140" s="217" t="s">
         <v>472</v>
       </c>
-      <c r="I140" s="235" t="s">
+      <c r="H140" s="229" t="s">
         <v>473</v>
       </c>
+      <c r="I140" s="241" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="141" ht="15" spans="1:9">
-      <c r="A141" s="198"/>
-      <c r="B141" s="209" t="s">
-        <v>474</v>
-      </c>
-      <c r="C141" s="207" t="s">
+      <c r="A141" s="202"/>
+      <c r="B141" s="213" t="s">
         <v>475</v>
       </c>
-      <c r="D141" s="208" t="s">
+      <c r="C141" s="211" t="s">
         <v>476</v>
       </c>
-      <c r="E141" s="213" t="s">
+      <c r="D141" s="212" t="s">
         <v>477</v>
       </c>
-      <c r="F141" s="213" t="s">
+      <c r="E141" s="217" t="s">
         <v>478</v>
       </c>
-      <c r="G141" s="213" t="s">
+      <c r="F141" s="217" t="s">
         <v>479</v>
       </c>
-      <c r="H141" s="225" t="s">
+      <c r="G141" s="217" t="s">
         <v>480</v>
       </c>
-      <c r="I141" s="235" t="s">
+      <c r="H141" s="229" t="s">
         <v>481</v>
       </c>
+      <c r="I141" s="241" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="142" ht="25.5" spans="1:9">
-      <c r="A142" s="198"/>
-      <c r="B142" s="209" t="s">
-        <v>482</v>
-      </c>
-      <c r="C142" s="207" t="s">
-        <v>444</v>
-      </c>
-      <c r="D142" s="208" t="s">
+      <c r="A142" s="202"/>
+      <c r="B142" s="213" t="s">
         <v>483</v>
       </c>
-      <c r="E142" s="213" t="s">
+      <c r="C142" s="211" t="s">
+        <v>445</v>
+      </c>
+      <c r="D142" s="212" t="s">
         <v>484</v>
       </c>
-      <c r="F142" s="213" t="s">
+      <c r="E142" s="217" t="s">
         <v>485</v>
       </c>
-      <c r="G142" s="213" t="s">
+      <c r="F142" s="217" t="s">
         <v>486</v>
       </c>
-      <c r="H142" s="225" t="s">
+      <c r="G142" s="217" t="s">
         <v>487</v>
       </c>
-      <c r="I142" s="236" t="s">
+      <c r="H142" s="229" t="s">
         <v>488</v>
       </c>
+      <c r="I142" s="242" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="143" ht="15" spans="1:9">
-      <c r="A143" s="198"/>
-      <c r="B143" s="209" t="s">
-        <v>489</v>
-      </c>
-      <c r="C143" s="207" t="s">
+      <c r="A143" s="202"/>
+      <c r="B143" s="213" t="s">
         <v>490</v>
       </c>
-      <c r="D143" s="208" t="s">
+      <c r="C143" s="211" t="s">
         <v>491</v>
       </c>
-      <c r="E143" s="213" t="s">
+      <c r="D143" s="212" t="s">
         <v>492</v>
       </c>
-      <c r="F143" s="213" t="s">
+      <c r="E143" s="217" t="s">
         <v>493</v>
       </c>
-      <c r="G143" s="213" t="s">
+      <c r="F143" s="217" t="s">
         <v>494</v>
       </c>
-      <c r="H143" s="225" t="s">
+      <c r="G143" s="217" t="s">
         <v>495</v>
       </c>
-      <c r="I143" s="235" t="s">
+      <c r="H143" s="229" t="s">
         <v>496</v>
       </c>
+      <c r="I143" s="241" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="144" ht="15" spans="1:9">
-      <c r="A144" s="198"/>
-      <c r="B144" s="209" t="s">
-        <v>497</v>
-      </c>
-      <c r="C144" s="207" t="s">
+      <c r="A144" s="202"/>
+      <c r="B144" s="213" t="s">
         <v>498</v>
       </c>
-      <c r="D144" s="208" t="s">
+      <c r="C144" s="211" t="s">
         <v>499</v>
       </c>
-      <c r="E144" s="213" t="s">
+      <c r="D144" s="212" t="s">
         <v>500</v>
       </c>
-      <c r="F144" s="213" t="s">
+      <c r="E144" s="217" t="s">
         <v>501</v>
       </c>
-      <c r="G144" s="213" t="s">
+      <c r="F144" s="217" t="s">
         <v>502</v>
       </c>
-      <c r="H144" s="225" t="s">
+      <c r="G144" s="217" t="s">
         <v>503</v>
       </c>
-      <c r="I144" s="235" t="s">
+      <c r="H144" s="229" t="s">
         <v>504</v>
       </c>
+      <c r="I144" s="241" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="145" ht="21.75" customHeight="1" spans="1:9">
-      <c r="A145" s="198"/>
-      <c r="B145" s="209" t="s">
-        <v>505</v>
-      </c>
-      <c r="C145" s="207" t="s">
+      <c r="A145" s="202"/>
+      <c r="B145" s="213" t="s">
         <v>506</v>
       </c>
-      <c r="D145" s="208" t="s">
-        <v>475</v>
-      </c>
-      <c r="E145" s="213" t="s">
+      <c r="C145" s="211" t="s">
         <v>507</v>
       </c>
-      <c r="F145" s="213" t="s">
+      <c r="D145" s="212" t="s">
+        <v>476</v>
+      </c>
+      <c r="E145" s="217" t="s">
         <v>508</v>
       </c>
-      <c r="G145" s="213" t="s">
+      <c r="F145" s="217" t="s">
         <v>509</v>
       </c>
-      <c r="H145" s="225" t="s">
+      <c r="G145" s="217" t="s">
         <v>510</v>
       </c>
-      <c r="I145" s="235" t="s">
+      <c r="H145" s="229" t="s">
         <v>511</v>
       </c>
+      <c r="I145" s="241" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="146" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A146" s="198"/>
-      <c r="B146" s="209" t="s">
-        <v>512</v>
-      </c>
-      <c r="C146" s="207" t="s">
-        <v>460</v>
-      </c>
-      <c r="D146" s="208" t="s">
+      <c r="A146" s="202"/>
+      <c r="B146" s="213" t="s">
         <v>513</v>
       </c>
-      <c r="E146" s="213" t="s">
+      <c r="C146" s="211" t="s">
+        <v>461</v>
+      </c>
+      <c r="D146" s="212" t="s">
         <v>514</v>
       </c>
-      <c r="F146" s="213" t="s">
+      <c r="E146" s="217" t="s">
         <v>515</v>
       </c>
-      <c r="G146" s="213" t="s">
+      <c r="F146" s="217" t="s">
         <v>516</v>
       </c>
-      <c r="H146" s="225" t="s">
+      <c r="G146" s="217" t="s">
         <v>517</v>
       </c>
-      <c r="I146" s="237" t="s">
+      <c r="H146" s="229" t="s">
         <v>518</v>
       </c>
+      <c r="I146" s="243" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="147" spans="1:9">
-      <c r="A147" s="198"/>
-      <c r="B147" s="209" t="s">
-        <v>519</v>
-      </c>
-      <c r="C147" s="207" t="s">
+      <c r="A147" s="202"/>
+      <c r="B147" s="213" t="s">
         <v>520</v>
       </c>
-      <c r="D147" s="208" t="s">
+      <c r="C147" s="211" t="s">
         <v>521</v>
       </c>
-      <c r="E147" s="213" t="s">
+      <c r="D147" s="212" t="s">
         <v>522</v>
       </c>
-      <c r="F147" s="213" t="s">
+      <c r="E147" s="217" t="s">
         <v>523</v>
       </c>
-      <c r="G147" s="213" t="s">
-        <v>437</v>
-      </c>
-      <c r="H147" s="208" t="s">
+      <c r="F147" s="217" t="s">
         <v>524</v>
       </c>
-      <c r="I147" s="238" t="s">
+      <c r="G147" s="217" t="s">
+        <v>438</v>
+      </c>
+      <c r="H147" s="212" t="s">
         <v>525</v>
       </c>
+      <c r="I147" s="233" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="148" spans="1:9">
-      <c r="A148" s="198"/>
-      <c r="B148" s="210" t="s">
+      <c r="A148" s="202"/>
+      <c r="B148" s="214" t="s">
+        <v>527</v>
+      </c>
+      <c r="C148" s="211" t="s">
+        <v>528</v>
+      </c>
+      <c r="D148" s="212" t="s">
+        <v>529</v>
+      </c>
+      <c r="E148" s="217" t="s">
+        <v>530</v>
+      </c>
+      <c r="F148" s="217" t="s">
+        <v>531</v>
+      </c>
+      <c r="G148" s="217" t="s">
+        <v>532</v>
+      </c>
+      <c r="H148" s="212" t="s">
+        <v>533</v>
+      </c>
+      <c r="I148" s="233" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="202"/>
+      <c r="B149" s="214" t="s">
+        <v>478</v>
+      </c>
+      <c r="C149" s="211" t="s">
+        <v>535</v>
+      </c>
+      <c r="D149" s="212" t="s">
+        <v>536</v>
+      </c>
+      <c r="E149" s="217" t="s">
+        <v>537</v>
+      </c>
+      <c r="F149" s="217" t="s">
+        <v>538</v>
+      </c>
+      <c r="G149" s="217" t="s">
+        <v>539</v>
+      </c>
+      <c r="H149" s="212" t="s">
+        <v>540</v>
+      </c>
+      <c r="I149" s="233" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="202"/>
+      <c r="B150" s="214" t="s">
+        <v>542</v>
+      </c>
+      <c r="C150" s="211" t="s">
+        <v>543</v>
+      </c>
+      <c r="D150" s="212" t="s">
+        <v>544</v>
+      </c>
+      <c r="E150" s="217" t="s">
+        <v>545</v>
+      </c>
+      <c r="F150" s="217" t="s">
+        <v>546</v>
+      </c>
+      <c r="G150" s="217" t="s">
+        <v>547</v>
+      </c>
+      <c r="H150" s="212" t="s">
+        <v>548</v>
+      </c>
+      <c r="I150" s="233" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="151" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A151" s="202"/>
+      <c r="B151" s="214" t="s">
+        <v>550</v>
+      </c>
+      <c r="C151" s="215" t="s">
+        <v>551</v>
+      </c>
+      <c r="D151" s="216" t="s">
+        <v>552</v>
+      </c>
+      <c r="E151" s="217" t="s">
+        <v>553</v>
+      </c>
+      <c r="F151" s="217" t="s">
+        <v>554</v>
+      </c>
+      <c r="G151" s="217" t="s">
+        <v>555</v>
+      </c>
+      <c r="H151" s="212" t="s">
+        <v>556</v>
+      </c>
+      <c r="I151" s="233" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="202"/>
+      <c r="B152" s="214" t="s">
+        <v>558</v>
+      </c>
+      <c r="C152" s="217" t="s">
+        <v>559</v>
+      </c>
+      <c r="D152" s="217" t="s">
+        <v>560</v>
+      </c>
+      <c r="E152" s="217" t="s">
+        <v>561</v>
+      </c>
+      <c r="F152" s="217" t="s">
+        <v>524</v>
+      </c>
+      <c r="G152" s="217" t="s">
+        <v>562</v>
+      </c>
+      <c r="H152" s="212" t="s">
+        <v>563</v>
+      </c>
+      <c r="I152" s="233" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="153" ht="28.5" spans="1:9">
+      <c r="A153" s="202"/>
+      <c r="B153" s="218" t="s">
+        <v>565</v>
+      </c>
+      <c r="C153" s="219" t="s">
+        <v>566</v>
+      </c>
+      <c r="D153" s="212" t="s">
+        <v>567</v>
+      </c>
+      <c r="E153" s="212" t="s">
+        <v>568</v>
+      </c>
+      <c r="F153" s="230" t="s">
+        <v>569</v>
+      </c>
+      <c r="G153" s="230" t="s">
+        <v>570</v>
+      </c>
+      <c r="H153" s="232" t="s">
+        <v>571</v>
+      </c>
+      <c r="I153" s="234" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="154" ht="15" spans="1:9">
+      <c r="A154" s="220"/>
+      <c r="B154" s="221" t="s">
+        <v>573</v>
+      </c>
+      <c r="C154" s="222"/>
+      <c r="D154" s="222"/>
+      <c r="E154" s="222"/>
+      <c r="F154" s="233" t="s">
         <v>526</v>
       </c>
-      <c r="C148" s="207" t="s">
-        <v>527</v>
-      </c>
-      <c r="D148" s="208" t="s">
-        <v>528</v>
-      </c>
-      <c r="E148" s="213" t="s">
-        <v>529</v>
-      </c>
-      <c r="F148" s="213" t="s">
-        <v>530</v>
-      </c>
-      <c r="G148" s="213" t="s">
-        <v>531</v>
-      </c>
-      <c r="H148" s="208" t="s">
-        <v>532</v>
-      </c>
-      <c r="I148" s="238" t="s">
+      <c r="G154" s="222" t="s">
+        <v>525</v>
+      </c>
+      <c r="H154" s="230" t="s">
+        <v>574</v>
+      </c>
+      <c r="I154" s="234" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="155" ht="15" spans="6:8">
+      <c r="F155" s="233" t="s">
+        <v>534</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="198"/>
-      <c r="B149" s="210" t="s">
-        <v>477</v>
-      </c>
-      <c r="C149" s="207" t="s">
-        <v>534</v>
-      </c>
-      <c r="D149" s="208" t="s">
-        <v>535</v>
-      </c>
-      <c r="E149" s="213" t="s">
-        <v>536</v>
-      </c>
-      <c r="F149" s="213" t="s">
-        <v>537</v>
-      </c>
-      <c r="G149" s="213" t="s">
-        <v>538</v>
-      </c>
-      <c r="H149" s="208" t="s">
-        <v>539</v>
-      </c>
-      <c r="I149" s="238" t="s">
+      <c r="H155" s="222"/>
+    </row>
+    <row r="156" spans="6:7">
+      <c r="F156" s="233" t="s">
+        <v>541</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="198"/>
-      <c r="B150" s="210" t="s">
-        <v>541</v>
-      </c>
-      <c r="C150" s="207" t="s">
-        <v>542</v>
-      </c>
-      <c r="D150" s="208" t="s">
-        <v>543</v>
-      </c>
-      <c r="E150" s="213" t="s">
-        <v>544</v>
-      </c>
-      <c r="F150" s="213" t="s">
-        <v>545</v>
-      </c>
-      <c r="G150" s="213" t="s">
-        <v>546</v>
-      </c>
-      <c r="H150" s="208" t="s">
-        <v>547</v>
-      </c>
-      <c r="I150" s="238" t="s">
+    <row r="157" spans="6:7">
+      <c r="F157" s="233" t="s">
+        <v>549</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A151" s="198"/>
-      <c r="B151" s="210" t="s">
-        <v>549</v>
-      </c>
-      <c r="C151" s="211" t="s">
-        <v>550</v>
-      </c>
-      <c r="D151" s="212" t="s">
-        <v>551</v>
-      </c>
-      <c r="E151" s="213" t="s">
-        <v>552</v>
-      </c>
-      <c r="F151" s="213" t="s">
-        <v>553</v>
-      </c>
-      <c r="G151" s="213" t="s">
-        <v>554</v>
-      </c>
-      <c r="H151" s="208" t="s">
-        <v>555</v>
-      </c>
-      <c r="I151" s="238" t="s">
+    <row r="158" ht="28.5" spans="6:7">
+      <c r="F158" s="233" t="s">
+        <v>557</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="198"/>
-      <c r="B152" s="210" t="s">
-        <v>557</v>
-      </c>
-      <c r="C152" s="213" t="s">
-        <v>558</v>
-      </c>
-      <c r="D152" s="213" t="s">
-        <v>559</v>
-      </c>
-      <c r="E152" s="213" t="s">
-        <v>560</v>
-      </c>
-      <c r="F152" s="213" t="s">
-        <v>523</v>
-      </c>
-      <c r="G152" s="213" t="s">
-        <v>561</v>
-      </c>
-      <c r="H152" s="208" t="s">
-        <v>562</v>
-      </c>
-      <c r="I152" s="238" t="s">
+    <row r="159" spans="6:7">
+      <c r="F159" s="233" t="s">
+        <v>564</v>
+      </c>
+      <c r="G159" s="2" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="153" ht="28.5" spans="1:9">
-      <c r="A153" s="198"/>
-      <c r="B153" s="214" t="s">
-        <v>564</v>
-      </c>
-      <c r="C153" s="215" t="s">
-        <v>565</v>
-      </c>
-      <c r="D153" s="208" t="s">
-        <v>566</v>
-      </c>
-      <c r="E153" s="208" t="s">
-        <v>567</v>
-      </c>
-      <c r="F153" s="226" t="s">
-        <v>568</v>
-      </c>
-      <c r="G153" s="226" t="s">
-        <v>569</v>
-      </c>
-      <c r="H153" s="228" t="s">
-        <v>570</v>
-      </c>
-      <c r="I153" s="239" t="s">
+    <row r="160" spans="6:7">
+      <c r="F160" s="234" t="s">
+        <v>572</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="154" ht="15" spans="1:9">
-      <c r="A154" s="216"/>
-      <c r="B154" s="217" t="s">
-        <v>572</v>
-      </c>
-      <c r="C154" s="218"/>
-      <c r="D154" s="218"/>
-      <c r="E154" s="218"/>
-      <c r="F154" s="218"/>
-      <c r="G154" s="218"/>
-      <c r="H154" s="226" t="s">
-        <v>573</v>
-      </c>
-      <c r="I154" s="239" t="s">
+    <row r="161" ht="28.5" spans="6:7">
+      <c r="F161" s="234" t="s">
+        <v>575</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="155" spans="8:8">
-      <c r="H155" s="218"/>
     </row>
     <row r="191" spans="5:5">
       <c r="E191"/>
     </row>
   </sheetData>
-  <mergeCells count="135">
+  <mergeCells count="137">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="B13:C13"/>
@@ -7284,8 +7355,10 @@
     <mergeCell ref="F76:G76"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B81:D81"/>
@@ -7363,32 +7436,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/raw/time_tables/B.Tech (btech)/2/1.xlsx
+++ b/raw/time_tables/B.Tech (btech)/2/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14340" windowHeight="12240"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Phase 1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="577">
   <si>
     <t>B.TECH II SEMESTER EVEN 2025</t>
   </si>
@@ -1595,154 +1595,154 @@
     <t>AT:Prof. Alka Tripathi</t>
   </si>
   <si>
+    <t>YG:Dr. Yogesh Gupta</t>
+  </si>
+  <si>
+    <t>GUP:Dr Gunjam Purohit</t>
+  </si>
+  <si>
+    <t>IPS:Prof. Indira Sarethy</t>
+  </si>
+  <si>
+    <t>RPS:Dr. Rajnish P Singh</t>
+  </si>
+  <si>
+    <t>ANP: Ms. Anupama Padha</t>
+  </si>
+  <si>
+    <t>MEE: Dr. Meenal</t>
+  </si>
+  <si>
+    <t>SMT: Dr. Sangeeta Mittal</t>
+  </si>
+  <si>
+    <t>PAT:Dr. Pato Kumari</t>
+  </si>
+  <si>
+    <t>NS:Dr. Neha Singhal</t>
+  </si>
+  <si>
+    <t>KS:Prof. Krishna Sundari</t>
+  </si>
+  <si>
+    <t>NV:Dr. Nivedita Mishra</t>
+  </si>
+  <si>
+    <t>APJ: Dr. Arpita Jadav Bhatt</t>
+  </si>
+  <si>
+    <t>MGR: Dr. Megha Rathi</t>
+  </si>
+  <si>
+    <t>SON: Dr. Sonal</t>
+  </si>
+  <si>
+    <t>AN:Dr. Anuj Bhardwaj</t>
+  </si>
+  <si>
+    <t>SP:Dr. Shikha Pandey</t>
+  </si>
+  <si>
+    <t>PSO: Mr. Prateek Kr. Soni</t>
+  </si>
+  <si>
+    <t>PC:Dr. Pooja Choudhary</t>
+  </si>
+  <si>
+    <t>RD:Dr. Reetika Debroy</t>
+  </si>
+  <si>
+    <t>APR: Dr. Amanpreet Kaur</t>
+  </si>
+  <si>
+    <t>MSH: Dr. Mradula Sharma</t>
+  </si>
+  <si>
+    <t>SUD: Dr. Suma Dawn</t>
+  </si>
+  <si>
+    <t>NSK:Dr. Nisha Shukla</t>
+  </si>
+  <si>
+    <t>GA:Dr. Gaurav Aggarwal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SYN: Dr. Sayani </t>
+  </si>
+  <si>
+    <t>RAC:Prof. Rachana</t>
+  </si>
+  <si>
+    <t>MAS:Dr Manisha Singh</t>
+  </si>
+  <si>
+    <t>ASI: Ms. Astha Singh</t>
+  </si>
+  <si>
+    <t>NEH: Ms. Neha</t>
+  </si>
+  <si>
+    <t>TAJ: Dr. Taj Alam</t>
+  </si>
+  <si>
+    <t>RSC:Dr. Ram Surat Chauhan</t>
+  </si>
+  <si>
+    <t>AKK:Dr. Ankit Kumar</t>
+  </si>
+  <si>
+    <t>SLK: Dr. Silky</t>
+  </si>
+  <si>
+    <t>SOS: Sonal Saurabh</t>
+  </si>
+  <si>
+    <t>MSI: Dr. Megh Singhal</t>
+  </si>
+  <si>
+    <t>SJA: Dr Somya Jain</t>
+  </si>
+  <si>
+    <t>TNV: Dr. Tanvee Gautam</t>
+  </si>
+  <si>
+    <t>HPT:Dr. Himani  Pant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VS: Prof. Vikas Saxena </t>
+  </si>
+  <si>
+    <t>ALK: Dr. Alka Singhal</t>
+  </si>
+  <si>
+    <t>PK: Dr Prakash Kumar</t>
+  </si>
+  <si>
+    <t>RSH:Dr. Richa Sharma</t>
+  </si>
+  <si>
+    <t>MPA:Dr Mohd  Prawesh Alam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NKR:Nitesh Kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDN: Chandan Kumar </t>
+  </si>
+  <si>
+    <t>SON: Dr Sonal</t>
+  </si>
+  <si>
+    <t>GGL: Gorav Gugliani</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NEJ :Neetu Joshi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SNP: Satyanarayan Patel </t>
+  </si>
+  <si>
     <t>BPC:Prof. B. P. Chamola</t>
-  </si>
-  <si>
-    <t>GUP:Dr Gunjam Purohit</t>
-  </si>
-  <si>
-    <t>IPS:Prof. Indira Sarethy</t>
-  </si>
-  <si>
-    <t>RPS:Dr. Rajnish P Singh</t>
-  </si>
-  <si>
-    <t>ANP: Ms. Anupama Padha</t>
-  </si>
-  <si>
-    <t>MEE: Dr. Meenal</t>
-  </si>
-  <si>
-    <t>SMT: Dr. Sangeeta Mittal</t>
-  </si>
-  <si>
-    <t>PAT:Dr. Pato Kumari</t>
-  </si>
-  <si>
-    <t>YG:Dr. Yogesh Gupta</t>
-  </si>
-  <si>
-    <t>KS:Prof. Krishna Sundari</t>
-  </si>
-  <si>
-    <t>NV:Dr. Nivedita Mishra</t>
-  </si>
-  <si>
-    <t>APJ: Dr. Arpita Jadav Bhatt</t>
-  </si>
-  <si>
-    <t>MGR: Dr. Megha Rathi</t>
-  </si>
-  <si>
-    <t>SON: Dr. Sonal</t>
-  </si>
-  <si>
-    <t>AN:Dr. Anuj Bhardwaj</t>
-  </si>
-  <si>
-    <t>NS:Dr. Neha Singhal</t>
-  </si>
-  <si>
-    <t>PSO: Mr. Prateek Kr. Soni</t>
-  </si>
-  <si>
-    <t>PC:Dr. Pooja Choudhary</t>
-  </si>
-  <si>
-    <t>RD:Dr. Reetika Debroy</t>
-  </si>
-  <si>
-    <t>APR: Dr. Amanpreet Kaur</t>
-  </si>
-  <si>
-    <t>MSH: Dr. Mradula Sharma</t>
-  </si>
-  <si>
-    <t>SUD: Dr. Suma Dawn</t>
-  </si>
-  <si>
-    <t>NSK:Dr. Nisha Shukla</t>
-  </si>
-  <si>
-    <t>SP:Dr. Shikha Pandey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SYN: Dr. Sayani </t>
-  </si>
-  <si>
-    <t>RAC:Prof. Rachana</t>
-  </si>
-  <si>
-    <t>MAS:Dr Manisha Singh</t>
-  </si>
-  <si>
-    <t>ASI: Ms. Astha Singh</t>
-  </si>
-  <si>
-    <t>NEH: Ms. Neha</t>
-  </si>
-  <si>
-    <t>TAJ: Dr. Taj Alam</t>
-  </si>
-  <si>
-    <t>RSC:Dr. Ram Surat Chauhan</t>
-  </si>
-  <si>
-    <t>GA:Dr. Gaurav Aggarwal</t>
-  </si>
-  <si>
-    <t>SLK: Dr. Silky</t>
-  </si>
-  <si>
-    <t>SOS: Sonal Saurabh</t>
-  </si>
-  <si>
-    <t>MSI: Dr. Megh Singhal</t>
-  </si>
-  <si>
-    <t>SJA: Dr Somya Jain</t>
-  </si>
-  <si>
-    <t>TNV: Dr. Tanvee Gautam</t>
-  </si>
-  <si>
-    <t>HPT:Dr. Himani  Pant</t>
-  </si>
-  <si>
-    <t>AKK:Dr. Ankit Kumar</t>
-  </si>
-  <si>
-    <t>ALK: Dr. Alka Singhal</t>
-  </si>
-  <si>
-    <t>PK: Dr Prakash Kumar</t>
-  </si>
-  <si>
-    <t>RSH:Dr. Richa Sharma</t>
-  </si>
-  <si>
-    <t>MPA:Dr Mohd  Prawesh Alam</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NKR:Nitesh Kumar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDN: Chandan Kumar </t>
-  </si>
-  <si>
-    <t>SON: Dr Sonal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VS: Prof. Vikas Saxena </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NEJ :Neetu Joshi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SNP: Satyanarayan Patel </t>
-  </si>
-  <si>
-    <t>GGL: Gorav Gugliani</t>
   </si>
   <si>
     <t xml:space="preserve">SWET: Shwetabh Singh </t>
@@ -1753,10 +1753,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -1880,82 +1880,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1971,15 +1903,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1993,8 +1957,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2008,21 +1980,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2030,11 +2017,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="39">
@@ -2082,7 +2082,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2094,7 +2094,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2112,7 +2190,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2124,7 +2202,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2136,115 +2226,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2262,7 +2250,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2931,6 +2931,15 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2966,21 +2975,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -3009,17 +3003,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3039,120 +3039,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="54" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="58" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="14" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="17" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3161,32 +3161,32 @@
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3843,10 +3843,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3869,7 +3877,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3904,6 +3911,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
@@ -4262,14 +4275,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L191"/>
+  <dimension ref="A1:L209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C120" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F154" sqref="F154:F161"/>
+      <selection pane="bottomRight" activeCell="L141" sqref="L141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
@@ -6607,7 +6620,7 @@
       <c r="F130" s="190"/>
       <c r="G130" s="190"/>
       <c r="H130" s="161"/>
-      <c r="I130" s="235"/>
+      <c r="I130" s="238"/>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="191">
@@ -6622,7 +6635,7 @@
       <c r="F131" s="156"/>
       <c r="G131" s="156"/>
       <c r="H131" s="190"/>
-      <c r="I131" s="236"/>
+      <c r="I131" s="239"/>
     </row>
     <row r="132" customHeight="1" spans="1:8">
       <c r="A132" s="192"/>
@@ -6635,14 +6648,14 @@
       <c r="D132" s="195" t="s">
         <v>424</v>
       </c>
-      <c r="E132" s="223" t="s">
+      <c r="E132" s="227" t="s">
         <v>425</v>
       </c>
-      <c r="F132" s="223" t="s">
+      <c r="F132" s="227" t="s">
         <v>426</v>
       </c>
-      <c r="G132" s="223"/>
-      <c r="H132" s="224"/>
+      <c r="G132" s="227"/>
+      <c r="H132" s="228"/>
     </row>
     <row r="133" ht="32.25" customHeight="1" spans="1:9">
       <c r="A133" s="196"/>
@@ -6653,13 +6666,13 @@
       <c r="D133" s="199" t="s">
         <v>428</v>
       </c>
-      <c r="E133" s="225"/>
-      <c r="F133" s="225"/>
-      <c r="G133" s="225"/>
-      <c r="H133" s="226" t="s">
+      <c r="E133" s="229"/>
+      <c r="F133" s="229"/>
+      <c r="G133" s="229"/>
+      <c r="H133" s="230" t="s">
         <v>429</v>
       </c>
-      <c r="I133" s="237" t="s">
+      <c r="I133" s="240" t="s">
         <v>430</v>
       </c>
     </row>
@@ -6685,10 +6698,10 @@
       <c r="G134" s="156" t="s">
         <v>431</v>
       </c>
-      <c r="H134" s="227" t="s">
+      <c r="H134" s="231" t="s">
         <v>432</v>
       </c>
-      <c r="I134" s="238" t="s">
+      <c r="I134" s="241" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6700,10 +6713,10 @@
       <c r="E135" s="161"/>
       <c r="F135" s="161"/>
       <c r="G135" s="161"/>
-      <c r="H135" s="228" t="s">
+      <c r="H135" s="232" t="s">
         <v>434</v>
       </c>
-      <c r="I135" s="239" t="s">
+      <c r="I135" s="242" t="s">
         <v>435</v>
       </c>
     </row>
@@ -6727,10 +6740,10 @@
       <c r="G136" s="215" t="s">
         <v>441</v>
       </c>
-      <c r="H136" s="229" t="s">
+      <c r="H136" s="233" t="s">
         <v>442</v>
       </c>
-      <c r="I136" s="240" t="s">
+      <c r="I136" s="243" t="s">
         <v>443</v>
       </c>
     </row>
@@ -6748,16 +6761,16 @@
       <c r="E137" s="209" t="s">
         <v>447</v>
       </c>
-      <c r="F137" s="230" t="s">
+      <c r="F137" s="222" t="s">
         <v>448</v>
       </c>
-      <c r="G137" s="230" t="s">
+      <c r="G137" s="222" t="s">
         <v>449</v>
       </c>
-      <c r="H137" s="229" t="s">
+      <c r="H137" s="233" t="s">
         <v>450</v>
       </c>
-      <c r="I137" s="240" t="s">
+      <c r="I137" s="243" t="s">
         <v>451</v>
       </c>
     </row>
@@ -6781,10 +6794,10 @@
       <c r="G138" s="217" t="s">
         <v>457</v>
       </c>
-      <c r="H138" s="229" t="s">
+      <c r="H138" s="233" t="s">
         <v>458</v>
       </c>
-      <c r="I138" s="241" t="s">
+      <c r="I138" s="244" t="s">
         <v>459</v>
       </c>
     </row>
@@ -6808,10 +6821,10 @@
       <c r="G139" s="217" t="s">
         <v>464</v>
       </c>
-      <c r="H139" s="231" t="s">
+      <c r="H139" s="234" t="s">
         <v>465</v>
       </c>
-      <c r="I139" s="240" t="s">
+      <c r="I139" s="243" t="s">
         <v>466</v>
       </c>
     </row>
@@ -6835,10 +6848,10 @@
       <c r="G140" s="217" t="s">
         <v>472</v>
       </c>
-      <c r="H140" s="229" t="s">
+      <c r="H140" s="233" t="s">
         <v>473</v>
       </c>
-      <c r="I140" s="241" t="s">
+      <c r="I140" s="244" t="s">
         <v>474</v>
       </c>
     </row>
@@ -6862,10 +6875,10 @@
       <c r="G141" s="217" t="s">
         <v>480</v>
       </c>
-      <c r="H141" s="229" t="s">
+      <c r="H141" s="233" t="s">
         <v>481</v>
       </c>
-      <c r="I141" s="241" t="s">
+      <c r="I141" s="244" t="s">
         <v>482</v>
       </c>
     </row>
@@ -6889,10 +6902,10 @@
       <c r="G142" s="217" t="s">
         <v>487</v>
       </c>
-      <c r="H142" s="229" t="s">
+      <c r="H142" s="233" t="s">
         <v>488</v>
       </c>
-      <c r="I142" s="242" t="s">
+      <c r="I142" s="245" t="s">
         <v>489</v>
       </c>
     </row>
@@ -6916,10 +6929,10 @@
       <c r="G143" s="217" t="s">
         <v>495</v>
       </c>
-      <c r="H143" s="229" t="s">
+      <c r="H143" s="233" t="s">
         <v>496</v>
       </c>
-      <c r="I143" s="241" t="s">
+      <c r="I143" s="244" t="s">
         <v>497</v>
       </c>
     </row>
@@ -6943,10 +6956,10 @@
       <c r="G144" s="217" t="s">
         <v>503</v>
       </c>
-      <c r="H144" s="229" t="s">
+      <c r="H144" s="233" t="s">
         <v>504</v>
       </c>
-      <c r="I144" s="241" t="s">
+      <c r="I144" s="244" t="s">
         <v>505</v>
       </c>
     </row>
@@ -6970,10 +6983,10 @@
       <c r="G145" s="217" t="s">
         <v>510</v>
       </c>
-      <c r="H145" s="229" t="s">
+      <c r="H145" s="233" t="s">
         <v>511</v>
       </c>
-      <c r="I145" s="241" t="s">
+      <c r="I145" s="244" t="s">
         <v>512</v>
       </c>
     </row>
@@ -6997,10 +7010,10 @@
       <c r="G146" s="217" t="s">
         <v>517</v>
       </c>
-      <c r="H146" s="229" t="s">
+      <c r="H146" s="233" t="s">
         <v>518</v>
       </c>
-      <c r="I146" s="243" t="s">
+      <c r="I146" s="246" t="s">
         <v>519</v>
       </c>
     </row>
@@ -7027,7 +7040,7 @@
       <c r="H147" s="212" t="s">
         <v>525</v>
       </c>
-      <c r="I147" s="233" t="s">
+      <c r="I147" s="236" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7054,7 +7067,7 @@
       <c r="H148" s="212" t="s">
         <v>533</v>
       </c>
-      <c r="I148" s="233" t="s">
+      <c r="I148" s="236" t="s">
         <v>534</v>
       </c>
     </row>
@@ -7081,7 +7094,7 @@
       <c r="H149" s="212" t="s">
         <v>540</v>
       </c>
-      <c r="I149" s="233" t="s">
+      <c r="I149" s="236" t="s">
         <v>541</v>
       </c>
     </row>
@@ -7108,7 +7121,7 @@
       <c r="H150" s="212" t="s">
         <v>548</v>
       </c>
-      <c r="I150" s="233" t="s">
+      <c r="I150" s="236" t="s">
         <v>549</v>
       </c>
     </row>
@@ -7135,7 +7148,7 @@
       <c r="H151" s="212" t="s">
         <v>556</v>
       </c>
-      <c r="I151" s="233" t="s">
+      <c r="I151" s="236" t="s">
         <v>557</v>
       </c>
     </row>
@@ -7162,7 +7175,7 @@
       <c r="H152" s="212" t="s">
         <v>563</v>
       </c>
-      <c r="I152" s="233" t="s">
+      <c r="I152" s="237" t="s">
         <v>564</v>
       </c>
     </row>
@@ -7180,16 +7193,16 @@
       <c r="E153" s="212" t="s">
         <v>568</v>
       </c>
-      <c r="F153" s="230" t="s">
+      <c r="F153" s="222" t="s">
         <v>569</v>
       </c>
-      <c r="G153" s="230" t="s">
+      <c r="G153" s="222" t="s">
         <v>570</v>
       </c>
-      <c r="H153" s="232" t="s">
+      <c r="H153" s="235" t="s">
         <v>571</v>
       </c>
-      <c r="I153" s="234" t="s">
+      <c r="I153" s="237" t="s">
         <v>572</v>
       </c>
     </row>
@@ -7198,81 +7211,175 @@
       <c r="B154" s="221" t="s">
         <v>573</v>
       </c>
-      <c r="C154" s="222"/>
-      <c r="D154" s="222"/>
-      <c r="E154" s="222"/>
-      <c r="F154" s="233" t="s">
+      <c r="C154" s="222" t="s">
+        <v>574</v>
+      </c>
+      <c r="D154" s="223"/>
+      <c r="E154" s="223"/>
+      <c r="F154" s="236" t="s">
+        <v>575</v>
+      </c>
+      <c r="G154" s="212" t="s">
+        <v>525</v>
+      </c>
+      <c r="H154" s="222"/>
+      <c r="I154" s="247"/>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="220"/>
+      <c r="B155" s="224"/>
+      <c r="C155" s="223"/>
+      <c r="D155" s="223"/>
+      <c r="E155" s="223"/>
+      <c r="F155" s="236" t="s">
         <v>526</v>
       </c>
-      <c r="G154" s="222" t="s">
-        <v>525</v>
-      </c>
-      <c r="H154" s="230" t="s">
-        <v>574</v>
-      </c>
-      <c r="I154" s="234" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="155" ht="15" spans="6:8">
-      <c r="F155" s="233" t="s">
+      <c r="G155" s="212" t="s">
+        <v>533</v>
+      </c>
+      <c r="H155" s="222"/>
+      <c r="I155" s="247"/>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="220"/>
+      <c r="B156" s="224"/>
+      <c r="C156" s="223"/>
+      <c r="D156" s="223"/>
+      <c r="E156" s="223"/>
+      <c r="F156" s="236" t="s">
         <v>534</v>
       </c>
-      <c r="G155" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="H155" s="222"/>
-    </row>
-    <row r="156" spans="6:7">
-      <c r="F156" s="233" t="s">
+      <c r="G156" s="212" t="s">
+        <v>540</v>
+      </c>
+      <c r="H156" s="222"/>
+      <c r="I156" s="247"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="220"/>
+      <c r="B157" s="224"/>
+      <c r="C157" s="223"/>
+      <c r="D157" s="223"/>
+      <c r="E157" s="223"/>
+      <c r="F157" s="236" t="s">
         <v>541</v>
       </c>
-      <c r="G156" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="157" spans="6:7">
-      <c r="F157" s="233" t="s">
+      <c r="G157" s="212" t="s">
+        <v>548</v>
+      </c>
+      <c r="H157" s="222"/>
+      <c r="I157" s="247"/>
+    </row>
+    <row r="158" ht="28.5" spans="1:9">
+      <c r="A158" s="220"/>
+      <c r="B158" s="224"/>
+      <c r="C158" s="223"/>
+      <c r="D158" s="223"/>
+      <c r="E158" s="223"/>
+      <c r="F158" s="236" t="s">
         <v>549</v>
       </c>
-      <c r="G157" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="158" ht="28.5" spans="6:7">
-      <c r="F158" s="233" t="s">
+      <c r="G158" s="212" t="s">
+        <v>556</v>
+      </c>
+      <c r="H158" s="222"/>
+      <c r="I158" s="247"/>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="220"/>
+      <c r="B159" s="224"/>
+      <c r="C159" s="223"/>
+      <c r="D159" s="223"/>
+      <c r="E159" s="223"/>
+      <c r="F159" s="236" t="s">
         <v>557</v>
       </c>
-      <c r="G158" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="159" spans="6:7">
-      <c r="F159" s="233" t="s">
+      <c r="G159" s="212" t="s">
+        <v>563</v>
+      </c>
+      <c r="H159" s="222"/>
+      <c r="I159" s="247"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="220"/>
+      <c r="B160" s="224"/>
+      <c r="C160" s="223"/>
+      <c r="D160" s="223"/>
+      <c r="E160" s="223"/>
+      <c r="F160" s="237" t="s">
         <v>564</v>
       </c>
-      <c r="G159" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="160" spans="6:7">
-      <c r="F160" s="234" t="s">
+      <c r="G160" s="235" t="s">
+        <v>571</v>
+      </c>
+      <c r="H160" s="222"/>
+      <c r="I160" s="247"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="220"/>
+      <c r="B161" s="224"/>
+      <c r="C161" s="223"/>
+      <c r="D161" s="223"/>
+      <c r="E161" s="223"/>
+      <c r="F161" s="237" t="s">
         <v>572</v>
       </c>
-      <c r="G160" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="161" ht="28.5" spans="6:7">
-      <c r="F161" s="234" t="s">
-        <v>575</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="191" spans="5:5">
-      <c r="E191"/>
+      <c r="G161" s="223"/>
+      <c r="H161" s="222"/>
+      <c r="I161" s="247"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="220"/>
+      <c r="B162" s="224"/>
+      <c r="C162" s="223"/>
+      <c r="D162" s="223"/>
+      <c r="E162" s="223"/>
+      <c r="F162" s="223"/>
+      <c r="G162" s="223"/>
+      <c r="H162" s="222"/>
+      <c r="I162" s="247"/>
+    </row>
+    <row r="163" ht="15" spans="1:9">
+      <c r="A163" s="225"/>
+      <c r="C163" s="226"/>
+      <c r="D163" s="226"/>
+      <c r="E163" s="226"/>
+      <c r="F163" s="226"/>
+      <c r="G163" s="226"/>
+      <c r="I163" s="248"/>
+    </row>
+    <row r="164" spans="8:8">
+      <c r="H164" s="223"/>
+    </row>
+    <row r="165" spans="8:8">
+      <c r="H165" s="223"/>
+    </row>
+    <row r="166" spans="8:8">
+      <c r="H166" s="223"/>
+    </row>
+    <row r="167" spans="8:8">
+      <c r="H167" s="223"/>
+    </row>
+    <row r="168" spans="8:8">
+      <c r="H168" s="223"/>
+    </row>
+    <row r="169" spans="8:8">
+      <c r="H169" s="223"/>
+    </row>
+    <row r="170" spans="8:8">
+      <c r="H170" s="223"/>
+    </row>
+    <row r="171" spans="8:8">
+      <c r="H171" s="223"/>
+    </row>
+    <row r="172" spans="8:8">
+      <c r="H172" s="223"/>
+    </row>
+    <row r="173" spans="8:8">
+      <c r="H173" s="226"/>
+    </row>
+    <row r="209" spans="5:5">
+      <c r="E209"/>
     </row>
   </sheetData>
   <mergeCells count="137">
@@ -7400,7 +7507,7 @@
     <mergeCell ref="A107:A123"/>
     <mergeCell ref="A125:A130"/>
     <mergeCell ref="A131:A133"/>
-    <mergeCell ref="A134:A154"/>
+    <mergeCell ref="A134:A163"/>
     <mergeCell ref="B134:B135"/>
     <mergeCell ref="C134:C135"/>
     <mergeCell ref="D134:D135"/>
@@ -7451,7 +7558,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5" spans="1:1">

--- a/raw/time_tables/B.Tech (btech)/2/1.xlsx
+++ b/raw/time_tables/B.Tech (btech)/2/1.xlsx
@@ -134,7 +134,7 @@
     <t>LB5,B6(MA211)- FF4/RSC</t>
   </si>
   <si>
-    <t>LB3,B4(CI121)-LT2/AMT</t>
+    <t>LB3,B4(CI121)-LT2/AJS</t>
   </si>
   <si>
     <t>LA15,A16(PH211)-FF2/SDC</t>
@@ -212,7 +212,7 @@
     <t>TB6(PH211)-TS10/MKC</t>
   </si>
   <si>
-    <t>PA10(CI271)-CL01 /DCH,AJP,BS,SUD</t>
+    <t>PA10(CI271)-CL01 /DCH,AJP,BS</t>
   </si>
   <si>
     <t>PA15(CI271)-CL01 /APR,NIY,SAA</t>
@@ -221,7 +221,7 @@
     <t>TB10(MA211)-TS11/MPA</t>
   </si>
   <si>
-    <t>PB14(CI271)- CL02/KM,SAA,DSI</t>
+    <t>PB14(CI271)- CL02/SUD,SAA,DSI</t>
   </si>
   <si>
     <t>PA16(CI271)- CL02/BS,ANP,DCH</t>
@@ -248,7 +248,7 @@
     <t>PB12(PH271)- PL2/ANU/MTR</t>
   </si>
   <si>
-    <t>PA2(CI271)-CL06 /GZL,HN,PSO</t>
+    <t>PA2(CI271)-CL06 /GZL,NSA,PSO</t>
   </si>
   <si>
     <t>PB1 (HS111)- LL/HK</t>
@@ -263,7 +263,7 @@
     <t>PB2 (HS111)- CL12/EKS</t>
   </si>
   <si>
-    <t>PA16 (HS111)- CL12/ KMB</t>
+    <t>PA16 (HS111)- TR326/ KMB</t>
   </si>
   <si>
     <t>PC2 (HS111)- CL12/ NES</t>
@@ -344,7 +344,7 @@
     <t>LB3,B4(MA211)- G3/PAT</t>
   </si>
   <si>
-    <t>LB3,B4(CI121)-G3/AMT</t>
+    <t>LB3,B4(CI121)-G3/AJS</t>
   </si>
   <si>
     <t>LA7,A8(CI121)-G3 /SMT</t>
@@ -386,9 +386,6 @@
     <t>LA17,A18(B11HS111)-FF2/VRT</t>
   </si>
   <si>
-    <t>TB6(CI121)-TS7/AMT</t>
-  </si>
-  <si>
     <t>TG1(MA211)-TS6/PAT</t>
   </si>
   <si>
@@ -449,7 +446,7 @@
     <t>TA1(PH211)-TS12/ABH</t>
   </si>
   <si>
-    <t>TB2(CI121)-TS8/AJS</t>
+    <t>TB2(CI121)-TS8/SHP</t>
   </si>
   <si>
     <t>TC1(PH212)-TS6/RKG</t>
@@ -473,13 +470,13 @@
     <t>TA5(MA211)-TS10/HA</t>
   </si>
   <si>
-    <t>PB11(CI271)-CL05 /NIY,AMT,DSI</t>
+    <t>PB11(CI271)-CL05 /AJP,AMT,DSI</t>
   </si>
   <si>
     <t>TA17(MA211)-TS8/RSC</t>
   </si>
   <si>
-    <t>PB7(CI271)-CL21 /APR,MSH,SOS,AM</t>
+    <t>PB7(CI271)-CL21 /APR,MSH,SOS</t>
   </si>
   <si>
     <t>PB12(CI271)-CL06 /ASK,KP,NSA</t>
@@ -488,7 +485,7 @@
     <t>PB11 (HS111)- LL/ PSH</t>
   </si>
   <si>
-    <t>PB8(CI271)-CL23 /HN,SLK,PSO</t>
+    <t>PB8(CI271)-CL23 /AM,HN,PSO</t>
   </si>
   <si>
     <t>PB3 (HS111)-LL / KMB</t>
@@ -593,7 +590,7 @@
     <t>LA15,A16(B11HS111)-FF4/SHS</t>
   </si>
   <si>
-    <t>LB3,B4(CI121)-FF1 /AMT</t>
+    <t>LB3,B4(CI121)-FF1 /AJS</t>
   </si>
   <si>
     <t>LG1,G2(MA211)-FF1/AT</t>
@@ -653,7 +650,7 @@
     <t>TA7(PH211)-TS11/INC</t>
   </si>
   <si>
-    <t>TB8(CI121)-TS8/AMT</t>
+    <t>TB8(CI121)-TS8/APJ</t>
   </si>
   <si>
     <t>TA10(PH211)-TS11/DIN</t>
@@ -677,19 +674,19 @@
     <t>TA10(B11HS111)-TS7/IJ</t>
   </si>
   <si>
-    <t>PA3(CI271)- CL21/MEE,MSH,MSI,DCH</t>
-  </si>
-  <si>
-    <t>PA7(CI271)-CL01 /SHP,AJP,SMT</t>
-  </si>
-  <si>
-    <t>TA5(CI121)-TS6/AJS</t>
+    <t>PA3(CI271)- CL21/MSH,MSI,DCH</t>
+  </si>
+  <si>
+    <t>PA7(CI271)-CL01 /SHP,NIY,SMT</t>
+  </si>
+  <si>
+    <t>TA5(CI121)-TS6/AM</t>
   </si>
   <si>
     <t>TB9(B11HS111)-TS8/AMN</t>
   </si>
   <si>
-    <t>PA4(CI271)-CL22 /MGR,SLK,ASY</t>
+    <t>PA4(CI271)-CL14 /MGR,SLK,ASY</t>
   </si>
   <si>
     <t>PA8(CI271)-CL05 /ANP,BS,SYN</t>
@@ -770,6 +767,12 @@
     <t>THU</t>
   </si>
   <si>
+    <t>LB5,B6(CI121)- G7/SUD</t>
+  </si>
+  <si>
+    <t>TA16(CI121)-TS11/SUD</t>
+  </si>
+  <si>
     <t xml:space="preserve">LA17,A18(PH211)-G1/INC </t>
   </si>
   <si>
@@ -824,9 +827,6 @@
     <t>LA3,A4(B11HS111)-FF1/CKJ</t>
   </si>
   <si>
-    <t>LB5,B6(CI121)- FF1/SUD</t>
-  </si>
-  <si>
     <t>TB11(PH211)-TS11/DIN</t>
   </si>
   <si>
@@ -878,7 +878,7 @@
     <t>TA6(MA201)-TS12/PSI</t>
   </si>
   <si>
-    <t>TA10(CI121)-TS8/SOS</t>
+    <t>TA10(CI121)-TS8/SOS,VS</t>
   </si>
   <si>
     <t>TB2(MA211)-TS10/SG</t>
@@ -944,13 +944,13 @@
     <t>.</t>
   </si>
   <si>
-    <t>PB9(CI271)- CL05/KP,SYN,MEE,MAY</t>
+    <t>PB9(CI271)- CL05/KP,SYN,MAY</t>
   </si>
   <si>
     <t>TA16(B11HS111)-TS8/VSE</t>
   </si>
   <si>
-    <t>PB8 (HS111)- CL12/ KMB</t>
+    <t>PB8 (HS111)- TR326/ KMB</t>
   </si>
   <si>
     <t>PA10 (HS111)- CL12/ NES</t>
@@ -1073,7 +1073,7 @@
     <t>LA17,A18(MA211)- G9/AKK</t>
   </si>
   <si>
-    <t>TB4(CI121)-TS6/TAJ</t>
+    <t>TB4(CI121)-TS6/TAJ,VS</t>
   </si>
   <si>
     <t>TA18(PH211)-TS7/SND</t>
@@ -1103,6 +1103,9 @@
     <t>TA5(PH211)-TS12/ABH</t>
   </si>
   <si>
+    <t>TB6(CI121)-TS10/SUD</t>
+  </si>
+  <si>
     <t>TB14(PH211)-TS11/RKG</t>
   </si>
   <si>
@@ -1199,9 +1202,6 @@
     <t>LA5,A6(B11HS111)-G2/MKB</t>
   </si>
   <si>
-    <t>TA16(CI121)-TS7/SUD</t>
-  </si>
-  <si>
     <t>LB1,B2(CI121)-G3/PSO</t>
   </si>
   <si>
@@ -1247,10 +1247,10 @@
     <t>PB5(CI271)- CL05/AJP,SHB,ASK</t>
   </si>
   <si>
-    <t>PB2(CI271)- CL02/NSA,TNV,PKU</t>
-  </si>
-  <si>
-    <t>PB6(CI271)- CL06/ANP,AA,GZL,MAY</t>
+    <t>PB2(CI271)- CL02/SLK,TNV,PKU</t>
+  </si>
+  <si>
+    <t>PB6(CI271)- CL06/ANP,AA,GZL</t>
   </si>
   <si>
     <t>PA3(GE111)- CAD1/ CDN</t>
@@ -1739,10 +1739,10 @@
     <t xml:space="preserve"> NEJ :Neetu Joshi</t>
   </si>
   <si>
+    <t>BPC:Prof. B. P. Chamola</t>
+  </si>
+  <si>
     <t xml:space="preserve">SNP: Satyanarayan Patel </t>
-  </si>
-  <si>
-    <t>BPC:Prof. B. P. Chamola</t>
   </si>
   <si>
     <t xml:space="preserve">SWET: Shwetabh Singh </t>
@@ -1754,8 +1754,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="40">
@@ -1881,7 +1881,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1903,19 +1926,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1927,33 +1941,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1966,15 +1958,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1996,7 +1980,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2004,9 +2002,17 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2023,21 +2029,15 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2076,7 +2076,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2088,7 +2100,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2100,25 +2112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2130,7 +2124,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2142,7 +2148,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2154,31 +2190,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2196,13 +2214,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2214,19 +2238,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2238,31 +2250,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2534,7 +2540,37 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -2549,45 +2585,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -2688,15 +2685,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2784,6 +2777,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -2931,15 +2937,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2959,6 +2956,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2974,21 +2980,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2996,15 +2987,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3027,8 +3009,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3039,154 +3045,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="58" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="56" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3326,6 +3332,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3392,22 +3404,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3416,319 +3422,361 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3743,10 +3791,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3758,22 +3806,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3783,7 +3831,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3807,7 +3855,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3816,7 +3864,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3847,12 +3895,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3871,7 +3924,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3880,39 +3933,34 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4275,14 +4323,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L209"/>
+  <dimension ref="A1:L204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L141" sqref="L141"/>
+      <selection pane="bottomRight" activeCell="I134" sqref="I134:I147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
@@ -4313,7 +4361,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="108"/>
+      <c r="I1" s="110"/>
     </row>
     <row r="2" ht="15" spans="1:9">
       <c r="A2" s="5"/>
@@ -4338,7 +4386,7 @@
       <c r="H2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="109" t="s">
+      <c r="I2" s="111" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4367,7 +4415,7 @@
       <c r="H3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="110" t="s">
+      <c r="I3" s="112" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4392,7 +4440,7 @@
       <c r="H4" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="111" t="s">
+      <c r="I4" s="113" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4417,7 +4465,7 @@
       <c r="H5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="112"/>
+      <c r="I5" s="114"/>
     </row>
     <row r="6" ht="33.75" customHeight="1" spans="1:9">
       <c r="A6" s="11"/>
@@ -4440,7 +4488,7 @@
       <c r="H6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="113" t="s">
+      <c r="I6" s="115" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4461,7 +4509,7 @@
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="113" t="s">
+      <c r="I7" s="115" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4482,7 +4530,7 @@
       <c r="H8" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="113" t="s">
+      <c r="I8" s="115" t="s">
         <v>47</v>
       </c>
     </row>
@@ -4504,7 +4552,7 @@
       <c r="H9" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="113" t="s">
+      <c r="I9" s="115" t="s">
         <v>53</v>
       </c>
     </row>
@@ -4527,7 +4575,7 @@
       <c r="H10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="112" t="s">
+      <c r="I10" s="114" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4546,7 +4594,7 @@
       <c r="H11" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="112"/>
+      <c r="I11" s="114"/>
     </row>
     <row r="12" ht="33.75" customHeight="1" spans="1:9">
       <c r="A12" s="11"/>
@@ -4563,7 +4611,7 @@
         <v>65</v>
       </c>
       <c r="H12" s="77"/>
-      <c r="I12" s="112"/>
+      <c r="I12" s="114"/>
     </row>
     <row r="13" ht="33.75" customHeight="1" spans="1:9">
       <c r="A13" s="11"/>
@@ -4580,7 +4628,7 @@
         <v>68</v>
       </c>
       <c r="H13" s="77"/>
-      <c r="I13" s="112"/>
+      <c r="I13" s="114"/>
     </row>
     <row r="14" ht="36" customHeight="1" spans="1:9">
       <c r="A14" s="11"/>
@@ -4597,7 +4645,7 @@
         <v>71</v>
       </c>
       <c r="H14" s="78"/>
-      <c r="I14" s="112"/>
+      <c r="I14" s="114"/>
     </row>
     <row r="15" ht="32.25" customHeight="1" spans="1:9">
       <c r="A15" s="11"/>
@@ -4614,7 +4662,7 @@
       <c r="H15" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="114"/>
+      <c r="I15" s="116"/>
     </row>
     <row r="16" ht="19.5" customHeight="1" spans="1:9">
       <c r="A16" s="11"/>
@@ -4628,10 +4676,10 @@
         <v>76</v>
       </c>
       <c r="G16" s="18"/>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="114"/>
+      <c r="I16" s="117"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="11"/>
@@ -4648,7 +4696,7 @@
       <c r="H17" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="114"/>
+      <c r="I17" s="116"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="11"/>
@@ -4665,7 +4713,7 @@
       <c r="H18" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="114"/>
+      <c r="I18" s="116"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="11"/>
@@ -4678,7 +4726,7 @@
       <c r="H19" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="115"/>
+      <c r="I19" s="118"/>
     </row>
     <row r="20" ht="29.25" customHeight="1" spans="1:9">
       <c r="A20" s="11"/>
@@ -4693,7 +4741,7 @@
       <c r="H20" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="115"/>
+      <c r="I20" s="118"/>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:9">
       <c r="A21" s="35"/>
@@ -4708,7 +4756,7 @@
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="34"/>
-      <c r="I21" s="116"/>
+      <c r="I21" s="119"/>
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:9">
       <c r="A22" s="37"/>
@@ -4723,28 +4771,28 @@
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
-      <c r="I22" s="116"/>
+      <c r="I22" s="119"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:9">
       <c r="A23" s="39"/>
       <c r="E23" s="74"/>
-      <c r="F23" s="48" t="s">
+      <c r="F23" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="117"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="120"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="8.25" customHeight="1" spans="1:9">
       <c r="A24" s="40"/>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
-      <c r="E24" s="79"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="118"/>
+      <c r="I24" s="121"/>
     </row>
     <row r="25" ht="34.5" customHeight="1" spans="1:9">
       <c r="A25" s="8" t="s">
@@ -4759,7 +4807,7 @@
       <c r="D25" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="80" t="s">
+      <c r="E25" s="81" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="14" t="s">
@@ -4771,7 +4819,7 @@
       <c r="H25" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I25" s="111" t="s">
+      <c r="I25" s="14" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4796,7 +4844,7 @@
       <c r="H26" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="I26" s="111" t="s">
+      <c r="I26" s="14" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4821,7 +4869,7 @@
       <c r="H27" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="I27" s="111" t="s">
+      <c r="I27" s="14" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4846,7 +4894,7 @@
       <c r="H28" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="I28" s="1"/>
+      <c r="I28" s="64"/>
     </row>
     <row r="29" ht="36" customHeight="1" spans="1:9">
       <c r="A29" s="11"/>
@@ -4860,2526 +4908,2546 @@
         <v>120</v>
       </c>
       <c r="E29" s="74"/>
-      <c r="F29" s="81"/>
+      <c r="F29" s="82"/>
       <c r="G29" s="14" t="s">
         <v>121</v>
       </c>
       <c r="H29" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="113" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" ht="39.75" customHeight="1" spans="1:9">
+      <c r="I29" s="115"/>
+    </row>
+    <row r="30" ht="36" customHeight="1" spans="1:9">
       <c r="A30" s="11"/>
-      <c r="B30" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="44" t="s">
-        <v>126</v>
-      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="74"/>
-      <c r="F30" s="82" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="I30" s="112" t="s">
-        <v>130</v>
-      </c>
+      <c r="F30" s="83"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="115"/>
     </row>
     <row r="31" ht="39.75" customHeight="1" spans="1:9">
       <c r="A31" s="11"/>
-      <c r="B31" s="45" t="s">
-        <v>131</v>
+      <c r="B31" s="43" t="s">
+        <v>123</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>133</v>
+        <v>124</v>
+      </c>
+      <c r="D31" s="44" t="s">
+        <v>125</v>
       </c>
       <c r="E31" s="74"/>
-      <c r="F31" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="I31" s="119"/>
+      <c r="F31" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="I31" s="114" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="32" ht="39.75" customHeight="1" spans="1:9">
       <c r="A32" s="11"/>
       <c r="B32" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>138</v>
+        <v>130</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>132</v>
       </c>
       <c r="E32" s="74"/>
-      <c r="F32" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="G32" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="H32" s="85"/>
-      <c r="I32" s="119" t="s">
-        <v>141</v>
-      </c>
+      <c r="F32" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="I32" s="122"/>
     </row>
     <row r="33" ht="39.75" customHeight="1" spans="1:9">
       <c r="A33" s="11"/>
       <c r="B33" s="45" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E33" s="74"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="H33" s="76" t="s">
-        <v>146</v>
-      </c>
-      <c r="I33" s="113" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="34" ht="25.5" customHeight="1" spans="1:9">
+      <c r="F33" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H33" s="87"/>
+      <c r="I33" s="122" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" ht="39.75" customHeight="1" spans="1:9">
       <c r="A34" s="11"/>
       <c r="B34" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="74"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="H34" s="76" t="s">
+        <v>145</v>
+      </c>
+      <c r="I34" s="115" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A35" s="11"/>
+      <c r="B35" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="C34" s="30" t="s">
+      <c r="D35" s="30"/>
+      <c r="E35" s="74"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="89" t="s">
         <v>149</v>
       </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="74"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="87" t="s">
+      <c r="H35" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="H34" s="76" t="s">
+      <c r="I35" s="114"/>
+    </row>
+    <row r="36" ht="33" customHeight="1" spans="1:9">
+      <c r="A36" s="11"/>
+      <c r="B36" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="I34" s="112"/>
-    </row>
-    <row r="35" ht="33" customHeight="1" spans="1:9">
-      <c r="A35" s="11"/>
-      <c r="B35" s="27" t="s">
+      <c r="C36" s="48"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="76" t="s">
+      <c r="H36" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="H35" s="88" t="s">
-        <v>154</v>
-      </c>
-      <c r="I35" s="120"/>
-    </row>
-    <row r="36" ht="29.25" customHeight="1" spans="1:9">
-      <c r="A36" s="11"/>
-      <c r="B36" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="31"/>
-      <c r="H36" s="89" t="s">
-        <v>157</v>
-      </c>
-      <c r="I36" s="121"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:9">
+      <c r="I36" s="123"/>
+    </row>
+    <row r="37" ht="29.25" customHeight="1" spans="1:9">
       <c r="A37" s="11"/>
       <c r="B37" s="27" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C37" s="31"/>
       <c r="D37" s="18"/>
       <c r="E37" s="74"/>
       <c r="F37" s="31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G37" s="31"/>
-      <c r="H37" s="90" t="s">
-        <v>160</v>
-      </c>
-      <c r="I37" s="122"/>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="H37" s="91" t="s">
+        <v>156</v>
+      </c>
+      <c r="I37" s="124"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:9">
       <c r="A38" s="11"/>
       <c r="B38" s="27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C38" s="31"/>
       <c r="D38" s="18"/>
       <c r="E38" s="74"/>
-      <c r="F38" s="30" t="s">
-        <v>162</v>
-      </c>
-      <c r="G38" s="30"/>
-      <c r="H38" s="91" t="s">
-        <v>163</v>
-      </c>
-      <c r="I38" s="123"/>
-    </row>
-    <row r="39" ht="21.75" customHeight="1" spans="1:9">
+      <c r="F38" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="G38" s="31"/>
+      <c r="H38" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="I38" s="125"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="11"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="D39" s="30"/>
+      <c r="B39" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="C39" s="31"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="74"/>
       <c r="F39" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="93" t="s">
+        <v>162</v>
+      </c>
+      <c r="I39" s="126"/>
+    </row>
+    <row r="40" ht="21.75" customHeight="1" spans="1:9">
+      <c r="A40" s="11"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="30"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="30"/>
+      <c r="H40" s="94" t="s">
         <v>165</v>
       </c>
-      <c r="G39" s="30"/>
-      <c r="H39" s="89" t="s">
+      <c r="I40" s="127"/>
+    </row>
+    <row r="41" ht="28.5" customHeight="1" spans="1:9">
+      <c r="A41" s="11"/>
+      <c r="B41" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="I39" s="121"/>
-    </row>
-    <row r="40" ht="28.5" customHeight="1" spans="1:9">
-      <c r="A40" s="11"/>
-      <c r="B40" s="32" t="s">
+      <c r="C41" s="33"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="32" t="s">
+      <c r="G41" s="33"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="128"/>
+    </row>
+    <row r="42" ht="30" customHeight="1" spans="1:9">
+      <c r="A42" s="11"/>
+      <c r="B42" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="G40" s="33"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="124"/>
-    </row>
-    <row r="41" ht="30" customHeight="1" spans="1:9">
-      <c r="A41" s="11"/>
-      <c r="B41" s="36" t="s">
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="36" t="s">
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="120"/>
+    </row>
+    <row r="43" ht="26.25" customHeight="1" spans="1:9">
+      <c r="A43" s="39"/>
+      <c r="B43" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="117"/>
-    </row>
-    <row r="42" ht="26.25" customHeight="1" spans="1:9">
-      <c r="A42" s="39"/>
-      <c r="B42" s="48" t="s">
+      <c r="C43" s="51"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="48" t="s">
+      <c r="G43" s="51"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="119"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="7.5" customHeight="1" spans="1:9">
+      <c r="A44" s="53"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="129"/>
+    </row>
+    <row r="45" ht="26.25" customHeight="1" spans="1:9">
+      <c r="A45" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G42" s="49"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="116"/>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="7.5" customHeight="1" spans="1:9">
-      <c r="A43" s="51"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="94"/>
-      <c r="G43" s="94"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="125"/>
-    </row>
-    <row r="44" ht="26.25" customHeight="1" spans="1:9">
-      <c r="A44" s="8" t="s">
+      <c r="B45" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="B44" s="54" t="s">
+      <c r="C45" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="C44" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="D44" s="55" t="s">
+      <c r="E45" s="98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="E44" s="95" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" s="55" t="s">
+      <c r="H45" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="H44" s="55" t="s">
+      <c r="I45" s="130" t="s">
         <v>177</v>
       </c>
-      <c r="I44" s="126" t="s">
+    </row>
+    <row r="46" ht="33" customHeight="1" spans="1:8">
+      <c r="A46" s="11"/>
+      <c r="B46" s="56" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="45" ht="33" customHeight="1" spans="1:8">
-      <c r="A45" s="11"/>
-      <c r="B45" s="54" t="s">
+      <c r="C46" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="D46" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="D45" s="56" t="s">
+      <c r="E46" s="98"/>
+      <c r="F46" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="E45" s="95"/>
-      <c r="F45" s="14" t="s">
+      <c r="G46" s="100"/>
+      <c r="H46" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="G45" s="97"/>
-      <c r="H45" s="55" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="46" ht="32.25" customHeight="1" spans="1:9">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D46" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="E46" s="95"/>
-      <c r="F46" s="98" t="s">
-        <v>187</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="H46" s="55" t="s">
-        <v>189</v>
-      </c>
-      <c r="I46" s="127" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="47" ht="39" customHeight="1" spans="1:9">
+    </row>
+    <row r="47" ht="32.25" customHeight="1" spans="1:9">
       <c r="A47" s="11"/>
       <c r="B47" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E47" s="95"/>
-      <c r="F47" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="G47" s="55" t="s">
-        <v>194</v>
-      </c>
-      <c r="H47" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="I47" s="111" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="48" ht="30" customHeight="1" spans="1:9">
+        <v>183</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="57" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="98"/>
+      <c r="F47" s="101" t="s">
+        <v>186</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H47" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="I47" s="131" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" ht="39" customHeight="1" spans="1:9">
       <c r="A48" s="11"/>
       <c r="B48" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E48" s="98"/>
+      <c r="F48" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="H48" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" s="113" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" ht="30" customHeight="1" spans="1:9">
+      <c r="A49" s="11"/>
+      <c r="B49" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="D49" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="E49" s="98"/>
+      <c r="F49" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="E48" s="95"/>
-      <c r="F48" s="14" t="s">
+      <c r="G49" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="H49" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="H48" s="58" t="s">
+      <c r="I49" s="113" t="s">
         <v>201</v>
       </c>
-      <c r="I48" s="111" t="s">
+    </row>
+    <row r="50" ht="29.25" customHeight="1" spans="1:9">
+      <c r="A50" s="11"/>
+      <c r="B50" s="59" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="49" ht="29.25" customHeight="1" spans="1:9">
-      <c r="A49" s="11"/>
-      <c r="B49" s="57" t="s">
+      <c r="C50" s="60" t="s">
         <v>203</v>
       </c>
-      <c r="C49" s="58" t="s">
+      <c r="D50" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="98"/>
+      <c r="F50" s="60" t="s">
         <v>204</v>
       </c>
-      <c r="D49" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" s="95"/>
-      <c r="F49" s="58" t="s">
+      <c r="G50" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="H50" s="102" t="s">
         <v>206</v>
       </c>
-      <c r="H49" s="99" t="s">
+      <c r="I50" s="128"/>
+    </row>
+    <row r="51" ht="41.25" customHeight="1" spans="1:9">
+      <c r="A51" s="11"/>
+      <c r="B51" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="I49" s="124"/>
-    </row>
-    <row r="50" ht="41.25" customHeight="1" spans="1:9">
-      <c r="A50" s="11"/>
-      <c r="B50" s="60" t="s">
+      <c r="C51" s="63"/>
+      <c r="D51" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="C50" s="61"/>
-      <c r="D50" s="46" t="s">
+      <c r="E51" s="98"/>
+      <c r="F51" s="101" t="s">
         <v>209</v>
       </c>
-      <c r="E50" s="95"/>
-      <c r="F50" s="98" t="s">
+      <c r="G51" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="G50" s="64" t="s">
+      <c r="H51" s="102" t="s">
         <v>211</v>
       </c>
-      <c r="H50" s="99" t="s">
-        <v>212</v>
-      </c>
-      <c r="I50" s="128"/>
-    </row>
-    <row r="51" ht="41.25" customHeight="1" spans="1:9">
-      <c r="A51" s="35"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="E51" s="95"/>
-      <c r="F51" s="56" t="s">
-        <v>215</v>
-      </c>
-      <c r="G51" s="100" t="s">
-        <v>216</v>
-      </c>
-      <c r="H51" s="62"/>
-      <c r="I51" s="128"/>
+      <c r="I51" s="132"/>
     </row>
     <row r="52" ht="41.25" customHeight="1" spans="1:9">
       <c r="A52" s="35"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="20" t="s">
+      <c r="B52" s="64"/>
+      <c r="C52" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E52" s="98"/>
+      <c r="F52" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="G52" s="103" t="s">
+        <v>215</v>
+      </c>
+      <c r="H52" s="64"/>
+      <c r="I52" s="132"/>
+    </row>
+    <row r="53" ht="41.25" customHeight="1" spans="1:9">
+      <c r="A53" s="35"/>
+      <c r="B53" s="64"/>
+      <c r="C53" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D53" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="D52" s="63" t="s">
+      <c r="E53" s="98"/>
+      <c r="F53" s="64"/>
+      <c r="G53" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="E52" s="95"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="13" t="s">
+      <c r="H53" s="104" t="s">
         <v>219</v>
       </c>
-      <c r="H52" s="101" t="s">
+      <c r="I53" s="104"/>
+    </row>
+    <row r="54" ht="27.75" customHeight="1" spans="1:9">
+      <c r="A54" s="11"/>
+      <c r="B54" s="47" t="s">
         <v>220</v>
       </c>
-      <c r="I52" s="101"/>
-    </row>
-    <row r="53" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A53" s="11"/>
-      <c r="B53" s="27" t="s">
+      <c r="C54" s="48"/>
+      <c r="D54" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="C53" s="31"/>
-      <c r="D53" s="64" t="s">
+      <c r="E54" s="98"/>
+      <c r="F54" s="64"/>
+      <c r="G54" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="E53" s="95"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="18" t="s">
+      <c r="H54" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="H53" s="101" t="s">
+      <c r="I54" s="104"/>
+    </row>
+    <row r="55" ht="26.25" customHeight="1" spans="1:9">
+      <c r="A55" s="11"/>
+      <c r="B55" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="I53" s="101"/>
-    </row>
-    <row r="54" ht="26.25" customHeight="1" spans="1:9">
-      <c r="A54" s="11"/>
-      <c r="B54" s="27" t="s">
+      <c r="C55" s="31"/>
+      <c r="D55" s="66" t="s">
         <v>225</v>
       </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="64" t="s">
+      <c r="E55" s="98"/>
+      <c r="F55" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="E54" s="95"/>
-      <c r="F54" s="62" t="s">
+      <c r="G55" s="64"/>
+      <c r="H55" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="G54" s="62"/>
-      <c r="H54" s="62" t="s">
+      <c r="I55" s="64"/>
+    </row>
+    <row r="56" ht="21.75" customHeight="1" spans="1:9">
+      <c r="A56" s="11"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="64" t="s">
         <v>228</v>
       </c>
-      <c r="I54" s="62"/>
-    </row>
-    <row r="55" ht="21.75" customHeight="1" spans="1:9">
-      <c r="A55" s="11"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="62" t="s">
+      <c r="D56" s="64"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="D55" s="62"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="31" t="s">
+      <c r="G56" s="31"/>
+      <c r="H56" s="64" t="s">
         <v>230</v>
       </c>
-      <c r="G55" s="31"/>
-      <c r="H55" s="62" t="s">
+      <c r="I56" s="64"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" s="11"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="64" t="s">
         <v>231</v>
       </c>
-      <c r="I55" s="62"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="11"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="62" t="s">
+      <c r="D57" s="64"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="31" t="s">
         <v>232</v>
       </c>
-      <c r="D56" s="62"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="31" t="s">
+      <c r="G57" s="31"/>
+      <c r="H57" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="I56" s="31"/>
-      <c r="L56" s="129"/>
-    </row>
-    <row r="57" ht="33.75" customHeight="1" spans="1:12">
-      <c r="A57" s="11"/>
-      <c r="B57" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="C57" s="31"/>
-      <c r="D57" s="66" t="s">
-        <v>236</v>
-      </c>
-      <c r="E57" s="95"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="H57" s="31" t="s">
-        <v>238</v>
-      </c>
       <c r="I57" s="31"/>
-      <c r="L57" s="129"/>
-    </row>
-    <row r="58" ht="26.25" customHeight="1" spans="1:12">
+      <c r="L57" s="133"/>
+    </row>
+    <row r="58" ht="33.75" customHeight="1" spans="1:12">
       <c r="A58" s="11"/>
       <c r="B58" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" s="31"/>
+      <c r="D58" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="E58" s="98"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="H58" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="I58" s="31"/>
+      <c r="L58" s="133"/>
+    </row>
+    <row r="59" ht="26.25" customHeight="1" spans="1:12">
+      <c r="A59" s="11"/>
+      <c r="B59" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" s="31"/>
+      <c r="D59" s="69" t="s">
         <v>239</v>
       </c>
-      <c r="C58" s="31"/>
-      <c r="D58" s="67" t="s">
+      <c r="E59" s="98"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="64"/>
+      <c r="H59" s="105" t="s">
         <v>240</v>
       </c>
-      <c r="E58" s="95"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="101" t="s">
+      <c r="I59" s="105"/>
+      <c r="L59" s="134"/>
+    </row>
+    <row r="60" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A60" s="11"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="105" t="s">
         <v>241</v>
       </c>
-      <c r="I58" s="101"/>
-      <c r="L58" s="130"/>
-    </row>
-    <row r="59" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A59" s="11"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="95"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="62"/>
-      <c r="H59" s="101" t="s">
+      <c r="I60" s="105"/>
+    </row>
+    <row r="61" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A61" s="11"/>
+      <c r="B61" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="I59" s="101"/>
-    </row>
-    <row r="60" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A60" s="11"/>
-      <c r="B60" s="32" t="s">
+      <c r="C61" s="33"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="C60" s="33"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="95"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="62" t="s">
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+    </row>
+    <row r="62" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A62" s="11"/>
+      <c r="B62" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62"/>
-    </row>
-    <row r="61" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A61" s="11"/>
-      <c r="B61" s="36" t="s">
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="98"/>
+      <c r="G62" s="106" t="s">
         <v>245</v>
       </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="95"/>
-      <c r="G61" s="102" t="s">
+      <c r="H62" s="107"/>
+      <c r="I62" s="135"/>
+    </row>
+    <row r="63" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A63" s="37"/>
+      <c r="B63" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="H61" s="103"/>
-      <c r="I61" s="131"/>
-    </row>
-    <row r="62" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A62" s="37"/>
-      <c r="B62" s="38" t="s">
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="108"/>
+      <c r="G63" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="95"/>
-      <c r="F62" s="104"/>
-      <c r="G62" s="38" t="s">
+      <c r="H63" s="38"/>
+      <c r="I63" s="38"/>
+    </row>
+    <row r="64" ht="24.75" customHeight="1" spans="1:9">
+      <c r="A64" s="39"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="36" t="s">
         <v>248</v>
       </c>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-    </row>
-    <row r="63" ht="24.75" customHeight="1" spans="1:9">
-      <c r="A63" s="39"/>
-      <c r="E63" s="95"/>
-      <c r="F63" s="105"/>
-      <c r="G63" s="36" t="s">
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1" spans="1:9">
+      <c r="A65" s="40"/>
+      <c r="B65" s="136"/>
+      <c r="C65" s="137"/>
+      <c r="D65" s="137"/>
+      <c r="E65" s="169"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="170"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="190"/>
+    </row>
+    <row r="66" ht="42.75" customHeight="1" spans="1:10">
+      <c r="A66" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-    </row>
-    <row r="64" ht="16.5" customHeight="1" spans="1:9">
-      <c r="A64" s="40"/>
-      <c r="B64" s="69"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="106"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="107"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="132"/>
-    </row>
-    <row r="65" ht="42.75" customHeight="1" spans="1:10">
-      <c r="A65" s="8" t="s">
+      <c r="B66" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="D65" s="82" t="s">
+      <c r="C66" s="138" t="s">
         <v>251</v>
       </c>
-      <c r="E65" s="162" t="s">
+      <c r="D66" s="84" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="F65" s="82" t="s">
-        <v>252</v>
-      </c>
-      <c r="G65" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="H65" s="18" t="s">
+      <c r="F66" s="84" t="s">
+        <v>253</v>
+      </c>
+      <c r="G66" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="H66" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="I65" s="111" t="s">
-        <v>253</v>
-      </c>
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" ht="38.25" customHeight="1" spans="1:10">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12" t="s">
+      <c r="I66" s="113" t="s">
         <v>254</v>
       </c>
-      <c r="C66" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="D66" s="82" t="s">
-        <v>256</v>
-      </c>
-      <c r="E66" s="163"/>
-      <c r="F66" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H66" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="I66" s="113" t="s">
-        <v>258</v>
-      </c>
       <c r="J66" s="1"/>
     </row>
-    <row r="67" ht="33" customHeight="1" spans="1:10">
+    <row r="67" ht="38.25" customHeight="1" spans="1:10">
       <c r="A67" s="11"/>
       <c r="B67" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D67" s="84" t="s">
+        <v>257</v>
+      </c>
+      <c r="E67" s="172"/>
+      <c r="F67" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="I67" s="115" t="s">
         <v>259</v>
       </c>
-      <c r="C67" s="86" t="s">
+      <c r="J67" s="1"/>
+    </row>
+    <row r="68" ht="33" customHeight="1" spans="1:10">
+      <c r="A68" s="11"/>
+      <c r="B68" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="C68" s="88" t="s">
+        <v>261</v>
+      </c>
+      <c r="D68" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E67" s="163"/>
-      <c r="F67" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="G67" s="14" t="s">
+      <c r="E68" s="172"/>
+      <c r="F68" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="G68" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="I67" s="113" t="s">
+      <c r="H68" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" ht="37.5" customHeight="1" spans="1:10">
-      <c r="A68" s="11"/>
-      <c r="B68" s="133" t="s">
+      <c r="I68" s="115" t="s">
         <v>265</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" ht="37.5" customHeight="1" spans="1:10">
+      <c r="A69" s="11"/>
+      <c r="B69" s="139" t="s">
         <v>266</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="C69" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="E68" s="163"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14" t="s">
+      <c r="D69" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="H68" s="14" t="s">
+      <c r="E69" s="172"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="I68" s="178" t="s">
+      <c r="H69" s="14"/>
+      <c r="I69" s="191" t="s">
         <v>270</v>
       </c>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" ht="36.75" customHeight="1" spans="1:10">
-      <c r="A69" s="11"/>
-      <c r="B69" s="134" t="s">
+      <c r="J69" s="1"/>
+    </row>
+    <row r="70" ht="36.75" customHeight="1" spans="1:10">
+      <c r="A70" s="11"/>
+      <c r="B70" s="140" t="s">
         <v>271</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C70" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D70" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="E69" s="163"/>
-      <c r="F69" s="14" t="s">
+      <c r="E70" s="172"/>
+      <c r="F70" s="14" t="s">
         <v>274</v>
       </c>
-      <c r="G69" s="18" t="s">
+      <c r="G70" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="H69" s="28" t="s">
+      <c r="H70" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="I69" s="112"/>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" ht="30.75" customHeight="1" spans="1:10">
-      <c r="A70" s="11"/>
-      <c r="B70" s="86"/>
-      <c r="C70" s="76" t="s">
+      <c r="I70" s="114"/>
+      <c r="J70" s="1"/>
+    </row>
+    <row r="71" ht="30.75" customHeight="1" spans="1:10">
+      <c r="A71" s="11"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="76" t="s">
         <v>277</v>
       </c>
-      <c r="D70" s="18" t="s">
+      <c r="D71" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="E70" s="163"/>
-      <c r="F70" s="18" t="s">
+      <c r="E71" s="172"/>
+      <c r="F71" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="G70" s="76" t="s">
+      <c r="G71" s="76" t="s">
         <v>280</v>
       </c>
-      <c r="H70" s="83" t="s">
+      <c r="H71" s="85" t="s">
         <v>281</v>
       </c>
-      <c r="I70" s="113"/>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A71" s="11"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="18" t="s">
+      <c r="I71" s="115"/>
+      <c r="J71" s="1"/>
+    </row>
+    <row r="72" ht="28.5" customHeight="1" spans="1:10">
+      <c r="A72" s="11"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="D71" s="83" t="s">
+      <c r="D72" s="85" t="s">
         <v>283</v>
       </c>
-      <c r="E71" s="163"/>
-      <c r="F71" s="18" t="s">
+      <c r="E72" s="172"/>
+      <c r="F72" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="G71" s="18" t="s">
+      <c r="G72" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="H71" s="164" t="s">
+      <c r="H72" s="173" t="s">
         <v>286</v>
       </c>
-      <c r="I71" s="112"/>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" ht="31.5" customHeight="1" spans="1:10">
-      <c r="A72" s="11"/>
-      <c r="B72" s="135"/>
-      <c r="C72" s="83" t="s">
+      <c r="I72" s="114"/>
+      <c r="J72" s="1"/>
+    </row>
+    <row r="73" ht="31.5" customHeight="1" spans="1:10">
+      <c r="A73" s="11"/>
+      <c r="B73" s="141"/>
+      <c r="C73" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="D72" s="76" t="s">
+      <c r="D73" s="76" t="s">
         <v>288</v>
       </c>
-      <c r="E72" s="163"/>
-      <c r="F72" s="83" t="s">
+      <c r="E73" s="172"/>
+      <c r="F73" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="G72" s="13"/>
-      <c r="H72" s="83" t="s">
+      <c r="G73" s="13"/>
+      <c r="H73" s="85" t="s">
         <v>290</v>
       </c>
-      <c r="I72" s="112"/>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" ht="36.75" customHeight="1" spans="1:10">
-      <c r="A73" s="11"/>
-      <c r="B73" s="86"/>
-      <c r="C73" s="83" t="s">
+      <c r="I73" s="114"/>
+      <c r="J73" s="1"/>
+    </row>
+    <row r="74" ht="36.75" customHeight="1" spans="1:10">
+      <c r="A74" s="11"/>
+      <c r="B74" s="88"/>
+      <c r="C74" s="85" t="s">
         <v>291</v>
       </c>
-      <c r="D73" s="18" t="s">
+      <c r="D74" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="E73" s="163"/>
-      <c r="F73" s="83" t="s">
+      <c r="E74" s="172"/>
+      <c r="F74" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="G73" s="29"/>
-      <c r="H73" s="20" t="s">
+      <c r="G74" s="29"/>
+      <c r="H74" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="I73" s="113"/>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" ht="27.75" customHeight="1" spans="1:10">
-      <c r="A74" s="11"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="D74" s="30"/>
-      <c r="E74" s="163"/>
-      <c r="F74" s="76" t="s">
-        <v>296</v>
-      </c>
-      <c r="G74" s="18"/>
-      <c r="H74" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I74" s="128"/>
+      <c r="I74" s="115"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" ht="21" customHeight="1" spans="1:10">
+    <row r="75" ht="27.75" customHeight="1" spans="1:10">
       <c r="A75" s="11"/>
       <c r="B75" s="18"/>
       <c r="C75" s="30" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D75" s="30"/>
-      <c r="E75" s="163"/>
-      <c r="F75" s="62" t="s">
-        <v>299</v>
-      </c>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62" t="s">
-        <v>300</v>
-      </c>
-      <c r="I75" s="128"/>
+      <c r="E75" s="172"/>
+      <c r="F75" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="G75" s="18"/>
+      <c r="H75" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="I75" s="132"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" ht="33" customHeight="1" spans="1:10">
+    <row r="76" ht="21" customHeight="1" spans="1:10">
       <c r="A76" s="11"/>
       <c r="B76" s="18"/>
       <c r="C76" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" s="30"/>
+      <c r="E76" s="172"/>
+      <c r="F76" s="64" t="s">
+        <v>299</v>
+      </c>
+      <c r="G76" s="64"/>
+      <c r="H76" s="64" t="s">
+        <v>300</v>
+      </c>
+      <c r="I76" s="132"/>
+      <c r="J76" s="1"/>
+    </row>
+    <row r="77" ht="33" customHeight="1" spans="1:10">
+      <c r="A77" s="11"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="D76" s="30"/>
-      <c r="E76" s="163"/>
-      <c r="F76" s="62" t="s">
+      <c r="D77" s="30"/>
+      <c r="E77" s="172"/>
+      <c r="F77" s="64" t="s">
         <v>302</v>
       </c>
-      <c r="G76" s="62"/>
-      <c r="H76" s="62" t="s">
+      <c r="G77" s="64"/>
+      <c r="H77" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="I76" s="179"/>
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" ht="27.75" customHeight="1" spans="1:10">
-      <c r="A77" s="11"/>
-      <c r="B77" s="31" t="s">
+      <c r="I77" s="192"/>
+      <c r="J77" s="1"/>
+    </row>
+    <row r="78" ht="27.75" customHeight="1" spans="1:10">
+      <c r="A78" s="11"/>
+      <c r="B78" s="31" t="s">
         <v>304</v>
-      </c>
-      <c r="C77" s="31"/>
-      <c r="D77" s="13" t="s">
-        <v>305</v>
-      </c>
-      <c r="E77" s="163"/>
-      <c r="F77" s="77" t="s">
-        <v>306</v>
-      </c>
-      <c r="G77" s="77"/>
-      <c r="H77" s="88" t="s">
-        <v>307</v>
-      </c>
-      <c r="I77" s="120"/>
-      <c r="J77" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="78" ht="33" customHeight="1" spans="1:10">
-      <c r="A78" s="11"/>
-      <c r="B78" s="27" t="s">
-        <v>309</v>
       </c>
       <c r="C78" s="31"/>
       <c r="D78" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="E78" s="172"/>
+      <c r="F78" s="174" t="s">
+        <v>306</v>
+      </c>
+      <c r="G78" s="174"/>
+      <c r="H78" s="175" t="s">
+        <v>307</v>
+      </c>
+      <c r="I78" s="193"/>
+      <c r="J78" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="79" ht="33" customHeight="1" spans="1:10">
+      <c r="A79" s="11"/>
+      <c r="B79" s="142" t="s">
+        <v>309</v>
+      </c>
+      <c r="C79" s="79"/>
+      <c r="D79" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="E78" s="163"/>
-      <c r="F78" s="77" t="s">
+      <c r="E79" s="172"/>
+      <c r="F79" s="174" t="s">
         <v>311</v>
       </c>
-      <c r="G78" s="77"/>
-      <c r="H78" s="88" t="s">
+      <c r="G79" s="174"/>
+      <c r="H79" s="175" t="s">
         <v>312</v>
       </c>
-      <c r="I78" s="120"/>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" ht="28.5" customHeight="1" spans="1:10">
-      <c r="A79" s="11"/>
-      <c r="B79" s="136" t="s">
+      <c r="I79" s="193"/>
+      <c r="J79" s="1"/>
+    </row>
+    <row r="80" ht="28.5" customHeight="1" spans="1:10">
+      <c r="A80" s="11"/>
+      <c r="B80" s="143" t="s">
         <v>313</v>
       </c>
-      <c r="C79" s="137"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="163"/>
-      <c r="F79" s="32" t="s">
+      <c r="C80" s="144"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="172"/>
+      <c r="F80" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="G79" s="33"/>
-      <c r="H79" s="29" t="s">
+      <c r="G80" s="33"/>
+      <c r="H80" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="I79" s="116"/>
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" ht="18" customHeight="1" spans="1:10">
-      <c r="A80" s="11"/>
-      <c r="B80" s="136" t="s">
+      <c r="I80" s="119"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" ht="18" customHeight="1" spans="1:10">
+      <c r="A81" s="11"/>
+      <c r="B81" s="143" t="s">
         <v>315</v>
       </c>
-      <c r="C80" s="137"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="163"/>
-      <c r="F80" s="36" t="s">
+      <c r="C81" s="144"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="172"/>
+      <c r="F81" s="36" t="s">
         <v>316</v>
       </c>
-      <c r="G80" s="36"/>
-      <c r="H80" s="134" t="s">
+      <c r="G81" s="36"/>
+      <c r="H81" s="140" t="s">
         <v>317</v>
       </c>
-      <c r="I80" s="180"/>
-      <c r="J80" s="1"/>
-    </row>
-    <row r="81" ht="27.75" customHeight="1" spans="1:10">
-      <c r="A81" s="11"/>
-      <c r="B81" s="32" t="s">
+      <c r="I81" s="194"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" ht="27.75" customHeight="1" spans="1:10">
+      <c r="A82" s="11"/>
+      <c r="B82" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="165"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="181"/>
-      <c r="J81" s="1"/>
-    </row>
-    <row r="82" ht="15" spans="1:10">
-      <c r="A82" s="39"/>
-      <c r="B82" s="36" t="s">
+      <c r="C82" s="33"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="176"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="195"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" ht="15" spans="1:10">
+      <c r="A83" s="39"/>
+      <c r="B83" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="163"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="I82" s="124"/>
-      <c r="J82" s="1"/>
-    </row>
-    <row r="83" ht="9" customHeight="1" spans="1:9">
-      <c r="A83" s="138"/>
-      <c r="B83" s="69"/>
-      <c r="C83" s="70"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="166"/>
-      <c r="F83" s="70"/>
-      <c r="G83" s="70"/>
-      <c r="H83" s="29"/>
-      <c r="I83" s="182"/>
-    </row>
-    <row r="84" ht="37.5" customHeight="1" spans="1:9">
-      <c r="A84" s="139" t="s">
+      <c r="C83" s="36"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="172"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="I83" s="128"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" ht="9" customHeight="1" spans="1:9">
+      <c r="A84" s="145"/>
+      <c r="B84" s="136"/>
+      <c r="C84" s="137"/>
+      <c r="D84" s="137"/>
+      <c r="E84" s="177"/>
+      <c r="F84" s="137"/>
+      <c r="G84" s="137"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="196"/>
+    </row>
+    <row r="85" ht="37.5" customHeight="1" spans="1:9">
+      <c r="A85" s="146" t="s">
         <v>320</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B85" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="D84" s="46" t="s">
+      <c r="D85" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="E84" s="80" t="s">
+      <c r="E85" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="F84" s="14" t="s">
+      <c r="F85" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="G84" s="167" t="s">
+      <c r="G85" s="178" t="s">
         <v>325</v>
       </c>
-      <c r="H84" s="70"/>
-      <c r="I84" s="111" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="85" ht="44.25" customHeight="1" spans="1:9">
-      <c r="A85" s="140"/>
-      <c r="B85" s="12" t="s">
+      <c r="H85" s="137"/>
+      <c r="I85" s="113" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="86" ht="44.25" customHeight="1" spans="1:9">
+      <c r="A86" s="147"/>
+      <c r="B86" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C86" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D86" s="14" t="s">
         <v>328</v>
-      </c>
-      <c r="E85" s="74"/>
-      <c r="F85" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="G85" s="168"/>
-      <c r="H85" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="I85" s="111" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" ht="36" customHeight="1" spans="1:9">
-      <c r="A86" s="140"/>
-      <c r="B86" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>333</v>
       </c>
       <c r="E86" s="74"/>
       <c r="F86" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="G86" s="168"/>
+        <v>329</v>
+      </c>
+      <c r="G86" s="179"/>
       <c r="H86" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="I86" s="111" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="87" ht="30" customHeight="1" spans="1:9">
-      <c r="A87" s="140"/>
+        <v>330</v>
+      </c>
+      <c r="I86" s="113" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" ht="36" customHeight="1" spans="1:9">
+      <c r="A87" s="147"/>
       <c r="B87" s="12" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E87" s="74"/>
       <c r="F87" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="G87" s="179"/>
+      <c r="H87" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="I87" s="113" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="88" ht="30" customHeight="1" spans="1:9">
+      <c r="A88" s="147"/>
+      <c r="B88" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="E88" s="74"/>
+      <c r="F88" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="G87" s="168"/>
-      <c r="H87" s="14" t="s">
+      <c r="G88" s="179"/>
+      <c r="H88" s="14" t="s">
         <v>341</v>
       </c>
-      <c r="I87" s="112"/>
-    </row>
-    <row r="88" ht="26.25" customHeight="1" spans="1:9">
-      <c r="A88" s="140"/>
-      <c r="B88" s="135" t="s">
+      <c r="I88" s="114"/>
+    </row>
+    <row r="89" ht="26.25" customHeight="1" spans="1:9">
+      <c r="A89" s="147"/>
+      <c r="B89" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="C89" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="D88" s="14" t="s">
+      <c r="D89" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="E88" s="74"/>
-      <c r="F88" s="18" t="s">
+      <c r="E89" s="74"/>
+      <c r="F89" s="18" t="s">
         <v>345</v>
       </c>
-      <c r="G88" s="168"/>
-      <c r="H88" s="76" t="s">
+      <c r="G89" s="179"/>
+      <c r="H89" s="76" t="s">
         <v>346</v>
       </c>
-      <c r="I88" s="112"/>
-    </row>
-    <row r="89" ht="36" customHeight="1" spans="1:9">
-      <c r="A89" s="140"/>
-      <c r="B89" s="135" t="s">
+      <c r="I89" s="114"/>
+    </row>
+    <row r="90" ht="36" customHeight="1" spans="1:9">
+      <c r="A90" s="147"/>
+      <c r="B90" s="141" t="s">
         <v>347</v>
       </c>
-      <c r="C89" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="D89" s="14" t="s">
+      <c r="C90" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D90" s="14" t="s">
         <v>348</v>
-      </c>
-      <c r="E89" s="74"/>
-      <c r="F89" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="G89" s="168"/>
-      <c r="H89" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="I89" s="112"/>
-    </row>
-    <row r="90" ht="39.75" customHeight="1" spans="1:9">
-      <c r="A90" s="140"/>
-      <c r="B90" s="55" t="s">
-        <v>351</v>
-      </c>
-      <c r="C90" s="83" t="s">
-        <v>352</v>
-      </c>
-      <c r="D90" s="18" t="s">
-        <v>353</v>
       </c>
       <c r="E90" s="74"/>
       <c r="F90" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="G90" s="179"/>
+      <c r="H90" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="I90" s="114"/>
+    </row>
+    <row r="91" ht="39.75" customHeight="1" spans="1:9">
+      <c r="A91" s="147"/>
+      <c r="B91" s="57" t="s">
+        <v>351</v>
+      </c>
+      <c r="C91" s="85" t="s">
+        <v>352</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="E91" s="74"/>
+      <c r="F91" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="G90" s="168"/>
-      <c r="H90" s="76" t="s">
+      <c r="G91" s="179"/>
+      <c r="H91" s="76" t="s">
         <v>355</v>
       </c>
-      <c r="I90" s="112"/>
-    </row>
-    <row r="91" ht="33.75" customHeight="1" spans="1:9">
-      <c r="A91" s="140"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="20" t="s">
+      <c r="I91" s="114"/>
+    </row>
+    <row r="92" ht="33.75" customHeight="1" spans="1:9">
+      <c r="A92" s="147"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="D92" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="E91" s="74"/>
-      <c r="F91" s="169" t="s">
+      <c r="E92" s="74"/>
+      <c r="F92" s="180" t="s">
         <v>358</v>
       </c>
-      <c r="G91" s="168"/>
-      <c r="H91" s="76" t="s">
+      <c r="G92" s="179"/>
+      <c r="H92" s="76" t="s">
         <v>359</v>
       </c>
-      <c r="I91" s="112"/>
-    </row>
-    <row r="92" ht="39" customHeight="1" spans="1:9">
-      <c r="A92" s="140"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="18" t="s">
+      <c r="I92" s="114"/>
+    </row>
+    <row r="93" ht="39" customHeight="1" spans="1:9">
+      <c r="A93" s="147"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="D93" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="E92" s="74"/>
-      <c r="F92" s="170"/>
-      <c r="G92" s="168"/>
-      <c r="H92" s="83" t="s">
+      <c r="E93" s="74"/>
+      <c r="F93" s="181" t="s">
         <v>362</v>
       </c>
-      <c r="I92" s="112"/>
-    </row>
-    <row r="93" ht="32.25" customHeight="1" spans="1:9">
-      <c r="A93" s="140"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="18" t="s">
+      <c r="G93" s="179"/>
+      <c r="H93" s="85" t="s">
         <v>363</v>
       </c>
-      <c r="D93" s="18"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="170"/>
-      <c r="G93" s="168"/>
-      <c r="H93" s="20" t="s">
+      <c r="I93" s="114"/>
+    </row>
+    <row r="94" ht="32.25" customHeight="1" spans="1:9">
+      <c r="A94" s="147"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="I93" s="112"/>
-    </row>
-    <row r="94" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A94" s="140"/>
-      <c r="B94" s="141" t="s">
-        <v>365</v>
-      </c>
-      <c r="C94" s="142"/>
       <c r="D94" s="18"/>
       <c r="E94" s="74"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="168"/>
+      <c r="F94" s="182"/>
+      <c r="G94" s="179"/>
       <c r="H94" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="I94" s="114"/>
+    </row>
+    <row r="95" ht="40.5" customHeight="1" spans="1:9">
+      <c r="A95" s="147"/>
+      <c r="B95" s="148" t="s">
         <v>366</v>
       </c>
-      <c r="I94" s="112"/>
-    </row>
-    <row r="95" ht="32.25" customHeight="1" spans="1:9">
-      <c r="A95" s="140"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="143" t="s">
+      <c r="C95" s="149"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="179"/>
+      <c r="H95" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="D95" s="142"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="46"/>
-      <c r="G95" s="168"/>
-      <c r="H95" s="20" t="s">
+      <c r="I95" s="114"/>
+    </row>
+    <row r="96" ht="32.25" customHeight="1" spans="1:9">
+      <c r="A96" s="147"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="150" t="s">
         <v>368</v>
       </c>
-      <c r="I95" s="179"/>
-    </row>
-    <row r="96" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A96" s="140"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="144" t="s">
+      <c r="D96" s="149"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="179"/>
+      <c r="H96" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="D96" s="18"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="168"/>
-      <c r="H96" s="77" t="s">
+      <c r="I96" s="192"/>
+    </row>
+    <row r="97" ht="27.75" customHeight="1" spans="1:9">
+      <c r="A97" s="147"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="151" t="s">
         <v>370</v>
       </c>
-      <c r="I96" s="179"/>
-    </row>
-    <row r="97" ht="23.25" customHeight="1" spans="1:9">
-      <c r="A97" s="140"/>
-      <c r="B97" s="145" t="s">
-        <v>371</v>
-      </c>
-      <c r="C97" s="146"/>
-      <c r="D97" s="14"/>
+      <c r="D97" s="18"/>
       <c r="E97" s="74"/>
       <c r="F97" s="18"/>
-      <c r="G97" s="168"/>
-      <c r="H97" s="77" t="s">
+      <c r="G97" s="179"/>
+      <c r="H97" s="174" t="s">
+        <v>371</v>
+      </c>
+      <c r="I97" s="192"/>
+    </row>
+    <row r="98" ht="23.25" customHeight="1" spans="1:9">
+      <c r="A98" s="147"/>
+      <c r="B98" s="152" t="s">
         <v>372</v>
       </c>
-      <c r="I97" s="128"/>
-    </row>
-    <row r="98" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A98" s="140"/>
-      <c r="B98" s="145" t="s">
-        <v>373</v>
-      </c>
-      <c r="C98" s="146"/>
+      <c r="C98" s="153"/>
       <c r="D98" s="14"/>
       <c r="E98" s="74"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="168"/>
-      <c r="H98" s="62" t="s">
+      <c r="F98" s="18"/>
+      <c r="G98" s="179"/>
+      <c r="H98" s="174" t="s">
+        <v>373</v>
+      </c>
+      <c r="I98" s="132"/>
+    </row>
+    <row r="99" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A99" s="147"/>
+      <c r="B99" s="152" t="s">
         <v>374</v>
       </c>
-      <c r="I98" s="128"/>
-    </row>
-    <row r="99" ht="24" customHeight="1" spans="1:9">
-      <c r="A99" s="140"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="30" t="s">
+      <c r="C99" s="153"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="74"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="179"/>
+      <c r="H99" s="64" t="s">
         <v>375</v>
       </c>
-      <c r="D99" s="30"/>
-      <c r="E99" s="74"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="168"/>
-      <c r="H99" s="62" t="s">
+      <c r="I99" s="132"/>
+    </row>
+    <row r="100" ht="24" customHeight="1" spans="1:9">
+      <c r="A100" s="147"/>
+      <c r="B100" s="70"/>
+      <c r="C100" s="30" t="s">
         <v>376</v>
-      </c>
-      <c r="I99" s="179"/>
-    </row>
-    <row r="100" ht="37.5" customHeight="1" spans="1:9">
-      <c r="A100" s="140"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="30" t="s">
-        <v>377</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="74"/>
-      <c r="F100" s="170"/>
-      <c r="G100" s="168"/>
-      <c r="H100" s="77" t="s">
+      <c r="F100" s="18"/>
+      <c r="G100" s="179"/>
+      <c r="H100" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="I100" s="192"/>
+    </row>
+    <row r="101" ht="37.5" customHeight="1" spans="1:9">
+      <c r="A101" s="147"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="I100" s="179"/>
-    </row>
-    <row r="101" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A101" s="140"/>
-      <c r="B101" s="68"/>
-      <c r="C101" s="62"/>
-      <c r="D101" s="62"/>
+      <c r="D101" s="30"/>
       <c r="E101" s="74"/>
-      <c r="F101" s="170"/>
-      <c r="G101" s="168"/>
-      <c r="H101" s="77" t="s">
+      <c r="F101" s="182"/>
+      <c r="G101" s="179"/>
+      <c r="H101" s="174" t="s">
         <v>379</v>
       </c>
-      <c r="I101" s="114"/>
-    </row>
-    <row r="102" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A102" s="140"/>
-      <c r="B102" s="32" t="s">
+      <c r="I101" s="192"/>
+    </row>
+    <row r="102" ht="18.75" customHeight="1" spans="1:9">
+      <c r="A102" s="147"/>
+      <c r="B102" s="70"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="182"/>
+      <c r="G102" s="179"/>
+      <c r="H102" s="174" t="s">
         <v>380</v>
       </c>
-      <c r="C102" s="33"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="170"/>
-      <c r="G102" s="171"/>
-      <c r="H102" s="31" t="s">
+      <c r="I102" s="116"/>
+    </row>
+    <row r="103" ht="19.5" customHeight="1" spans="1:9">
+      <c r="A103" s="147"/>
+      <c r="B103" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="I102" s="114"/>
-    </row>
-    <row r="103" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A103" s="140"/>
-      <c r="B103" s="36" t="s">
+      <c r="C103" s="33"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="74"/>
+      <c r="F103" s="182"/>
+      <c r="G103" s="183"/>
+      <c r="H103" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
-      <c r="E103" s="172"/>
-      <c r="G103" s="173" t="s">
+      <c r="I103" s="116"/>
+    </row>
+    <row r="104" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A104" s="147"/>
+      <c r="B104" s="36" t="s">
         <v>383</v>
       </c>
-      <c r="H103" s="31" t="s">
+      <c r="C104" s="36"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="184"/>
+      <c r="G104" s="185" t="s">
         <v>384</v>
       </c>
-      <c r="I103" s="103"/>
-    </row>
-    <row r="104" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A104" s="147"/>
-      <c r="B104" s="38" t="s">
+      <c r="H104" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="C104" s="38"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="36" t="s">
+      <c r="I104" s="107"/>
+    </row>
+    <row r="105" ht="19.5" customHeight="1" spans="1:9">
+      <c r="A105" s="154"/>
+      <c r="B105" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="H104" s="103"/>
-      <c r="I104" s="36"/>
-    </row>
-    <row r="105" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A105" s="148"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="92"/>
-      <c r="F105" s="14"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
+      <c r="E105" s="74"/>
+      <c r="F105" s="10"/>
       <c r="G105" s="36" t="s">
         <v>387</v>
       </c>
-      <c r="H105" s="36"/>
+      <c r="H105" s="107"/>
       <c r="I105" s="36"/>
     </row>
-    <row r="106" ht="11.25" customHeight="1" spans="1:9">
-      <c r="A106" s="149"/>
-      <c r="B106" s="69"/>
-      <c r="C106" s="70"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="174"/>
-      <c r="F106" s="70"/>
-      <c r="G106" s="70"/>
+    <row r="106" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A106" s="155"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="31"/>
+      <c r="D106" s="31"/>
+      <c r="E106" s="95"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="36" t="s">
+        <v>388</v>
+      </c>
       <c r="H106" s="36"/>
-      <c r="I106" s="182"/>
-    </row>
-    <row r="107" ht="33.75" customHeight="1" spans="1:9">
-      <c r="A107" s="8" t="s">
-        <v>388</v>
-      </c>
-      <c r="B107" s="17" t="s">
+      <c r="I106" s="36"/>
+    </row>
+    <row r="107" ht="11.25" customHeight="1" spans="1:9">
+      <c r="A107" s="156"/>
+      <c r="B107" s="136"/>
+      <c r="C107" s="137"/>
+      <c r="D107" s="137"/>
+      <c r="E107" s="186"/>
+      <c r="F107" s="137"/>
+      <c r="G107" s="137"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="196"/>
+    </row>
+    <row r="108" ht="33.75" customHeight="1" spans="1:9">
+      <c r="A108" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="B108" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C107" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="D107" s="14" t="s">
+      <c r="C108" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="D108" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E107" s="46" t="s">
-        <v>390</v>
-      </c>
-      <c r="F107" s="68"/>
-      <c r="G107" s="175"/>
-      <c r="H107" s="70"/>
-      <c r="I107" s="183"/>
-    </row>
-    <row r="108" ht="33.75" customHeight="1" spans="1:9">
-      <c r="A108" s="150"/>
-      <c r="B108" s="12" t="s">
+      <c r="E108" s="46" t="s">
         <v>391</v>
       </c>
-      <c r="C108" s="14" t="s">
+      <c r="F108" s="70"/>
+      <c r="G108" s="187"/>
+      <c r="H108" s="137"/>
+      <c r="I108" s="197"/>
+    </row>
+    <row r="109" ht="33.75" customHeight="1" spans="1:9">
+      <c r="A109" s="157"/>
+      <c r="B109" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="D108" s="14" t="s">
+      <c r="C109" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="E108" s="46" t="s">
+      <c r="D109" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="F108" s="68"/>
-      <c r="G108" s="176"/>
-      <c r="H108" s="175"/>
-      <c r="I108" s="110"/>
-    </row>
-    <row r="109" ht="33.75" customHeight="1" spans="1:9">
-      <c r="A109" s="150"/>
-      <c r="B109" s="12" t="s">
+      <c r="E109" s="46"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="188"/>
+      <c r="H109" s="187"/>
+      <c r="I109" s="112"/>
+    </row>
+    <row r="110" ht="33.75" customHeight="1" spans="1:9">
+      <c r="A110" s="157"/>
+      <c r="B110" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="C109" s="14" t="s">
+      <c r="C110" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="D109" s="75" t="s">
+      <c r="D110" s="75" t="s">
         <v>396</v>
       </c>
-      <c r="E109" s="62"/>
-      <c r="F109" s="68"/>
-      <c r="G109" s="176"/>
-      <c r="H109" s="176"/>
-      <c r="I109" s="110"/>
-    </row>
-    <row r="110" ht="33.75" customHeight="1" spans="1:9">
-      <c r="A110" s="11"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="D110" s="101" t="s">
-        <v>398</v>
-      </c>
-      <c r="E110" s="101"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="176"/>
-      <c r="I110" s="111"/>
+      <c r="E110" s="64"/>
+      <c r="F110" s="70"/>
+      <c r="G110" s="188"/>
+      <c r="H110" s="188"/>
+      <c r="I110" s="112"/>
     </row>
     <row r="111" ht="33.75" customHeight="1" spans="1:9">
       <c r="A111" s="11"/>
-      <c r="B111" s="17" t="s">
-        <v>399</v>
-      </c>
-      <c r="C111" s="25" t="s">
-        <v>400</v>
-      </c>
-      <c r="D111" s="101" t="s">
-        <v>401</v>
-      </c>
-      <c r="E111" s="101"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="D111" s="105" t="s">
+        <v>398</v>
+      </c>
+      <c r="E111" s="105"/>
       <c r="F111" s="17"/>
       <c r="G111" s="18"/>
-      <c r="H111" s="18"/>
-      <c r="I111" s="111"/>
+      <c r="H111" s="188"/>
+      <c r="I111" s="113"/>
     </row>
     <row r="112" ht="33.75" customHeight="1" spans="1:9">
       <c r="A112" s="11"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="18"/>
-      <c r="E112" s="18"/>
+      <c r="B112" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="D112" s="105" t="s">
+        <v>401</v>
+      </c>
+      <c r="E112" s="105"/>
       <c r="F112" s="17"/>
       <c r="G112" s="18"/>
       <c r="H112" s="18"/>
-      <c r="I112" s="111"/>
-    </row>
-    <row r="113" ht="25.5" customHeight="1" spans="1:9">
+      <c r="I112" s="113"/>
+    </row>
+    <row r="113" ht="33.75" customHeight="1" spans="1:9">
       <c r="A113" s="11"/>
       <c r="B113" s="17"/>
-      <c r="C113" s="30" t="s">
-        <v>402</v>
-      </c>
-      <c r="D113" s="30"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="18"/>
       <c r="E113" s="18"/>
       <c r="F113" s="17"/>
       <c r="G113" s="18"/>
       <c r="H113" s="18"/>
-      <c r="I113" s="111"/>
-    </row>
-    <row r="114" ht="24.75" customHeight="1" spans="1:9">
+      <c r="I113" s="113"/>
+    </row>
+    <row r="114" ht="25.5" customHeight="1" spans="1:9">
       <c r="A114" s="11"/>
       <c r="B114" s="17"/>
       <c r="C114" s="30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D114" s="30"/>
       <c r="E114" s="18"/>
       <c r="F114" s="17"/>
       <c r="G114" s="18"/>
       <c r="H114" s="18"/>
-      <c r="I114" s="111"/>
+      <c r="I114" s="113"/>
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="11"/>
       <c r="B115" s="17"/>
-      <c r="C115" s="101" t="s">
-        <v>404</v>
-      </c>
-      <c r="D115" s="101"/>
+      <c r="C115" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="D115" s="30"/>
       <c r="E115" s="18"/>
       <c r="F115" s="17"/>
       <c r="G115" s="18"/>
       <c r="H115" s="18"/>
-      <c r="I115" s="111"/>
-    </row>
-    <row r="116" ht="36.75" customHeight="1" spans="1:9">
+      <c r="I115" s="113"/>
+    </row>
+    <row r="116" ht="24.75" customHeight="1" spans="1:9">
       <c r="A116" s="11"/>
-      <c r="B116" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="C116" s="31"/>
-      <c r="D116" s="30" t="s">
-        <v>406</v>
-      </c>
-      <c r="E116" s="30"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="105" t="s">
+        <v>404</v>
+      </c>
+      <c r="D116" s="105"/>
+      <c r="E116" s="18"/>
       <c r="F116" s="17"/>
       <c r="G116" s="18"/>
       <c r="H116" s="18"/>
-      <c r="I116" s="111"/>
-    </row>
-    <row r="117" ht="27" customHeight="1" spans="1:9">
+      <c r="I116" s="113"/>
+    </row>
+    <row r="117" ht="36.75" customHeight="1" spans="1:9">
       <c r="A117" s="11"/>
       <c r="B117" s="27" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C117" s="31"/>
-      <c r="D117" s="31" t="s">
-        <v>408</v>
-      </c>
-      <c r="E117" s="31"/>
-      <c r="F117" s="68"/>
+      <c r="D117" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="E117" s="30"/>
+      <c r="F117" s="17"/>
       <c r="G117" s="18"/>
       <c r="H117" s="18"/>
-      <c r="I117" s="111"/>
-    </row>
-    <row r="118" ht="21.75" customHeight="1" spans="1:9">
+      <c r="I117" s="113"/>
+    </row>
+    <row r="118" ht="27" customHeight="1" spans="1:9">
       <c r="A118" s="11"/>
       <c r="B118" s="27" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C118" s="31"/>
       <c r="D118" s="31" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E118" s="31"/>
-      <c r="F118" s="29"/>
+      <c r="F118" s="70"/>
       <c r="G118" s="18"/>
       <c r="H118" s="18"/>
-      <c r="I118" s="111"/>
-    </row>
-    <row r="119" ht="22.5" customHeight="1" spans="1:9">
+      <c r="I118" s="113"/>
+    </row>
+    <row r="119" ht="21.75" customHeight="1" spans="1:9">
       <c r="A119" s="11"/>
       <c r="B119" s="27" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C119" s="31"/>
-      <c r="F119" s="12"/>
+      <c r="D119" s="79" t="s">
+        <v>410</v>
+      </c>
+      <c r="E119" s="79"/>
+      <c r="F119" s="29"/>
       <c r="G119" s="18"/>
       <c r="H119" s="18"/>
-      <c r="I119" s="111"/>
-    </row>
-    <row r="120" ht="26.25" customHeight="1" spans="1:9">
+      <c r="I119" s="113"/>
+    </row>
+    <row r="120" ht="22.5" customHeight="1" spans="1:9">
       <c r="A120" s="11"/>
-      <c r="B120" s="32" t="s">
-        <v>412</v>
-      </c>
-      <c r="C120" s="33"/>
-      <c r="D120" s="34"/>
+      <c r="B120" s="142" t="s">
+        <v>411</v>
+      </c>
+      <c r="C120" s="79"/>
       <c r="F120" s="12"/>
       <c r="G120" s="18"/>
       <c r="H120" s="18"/>
-      <c r="I120" s="111"/>
-    </row>
-    <row r="121" customHeight="1" spans="1:9">
+      <c r="I120" s="113"/>
+    </row>
+    <row r="121" ht="26.25" customHeight="1" spans="1:9">
       <c r="A121" s="11"/>
-      <c r="B121" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="C121" s="36"/>
-      <c r="D121" s="36"/>
-      <c r="E121" s="29"/>
-      <c r="F121" s="17"/>
+      <c r="B121" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="C121" s="33"/>
+      <c r="D121" s="34"/>
+      <c r="F121" s="12"/>
       <c r="G121" s="18"/>
       <c r="H121" s="18"/>
-      <c r="I121" s="111"/>
-    </row>
-    <row r="122" ht="17.25" customHeight="1" spans="1:9">
+      <c r="I121" s="113"/>
+    </row>
+    <row r="122" customHeight="1" spans="1:9">
       <c r="A122" s="11"/>
-      <c r="B122" s="38" t="s">
-        <v>414</v>
-      </c>
-      <c r="C122" s="38"/>
-      <c r="D122" s="38"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="12"/>
+      <c r="B122" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="C122" s="36"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="17"/>
       <c r="G122" s="18"/>
       <c r="H122" s="18"/>
-      <c r="I122" s="111"/>
-    </row>
-    <row r="123" ht="15" spans="1:9">
-      <c r="A123" s="39"/>
-      <c r="B123" s="27"/>
-      <c r="C123" s="31"/>
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
+      <c r="I122" s="113"/>
+    </row>
+    <row r="123" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A123" s="11"/>
+      <c r="B123" s="38" t="s">
+        <v>414</v>
+      </c>
+      <c r="C123" s="38"/>
+      <c r="D123" s="38"/>
+      <c r="E123" s="1"/>
       <c r="F123" s="12"/>
       <c r="G123" s="18"/>
       <c r="H123" s="18"/>
-      <c r="I123" s="111"/>
-    </row>
-    <row r="124" s="1" customFormat="1" ht="6.75" customHeight="1" spans="1:9">
-      <c r="A124" s="151"/>
-      <c r="B124" s="152"/>
-      <c r="C124" s="153"/>
-      <c r="D124" s="153"/>
-      <c r="E124" s="177"/>
-      <c r="F124" s="153"/>
-      <c r="G124" s="153"/>
+      <c r="I123" s="113"/>
+    </row>
+    <row r="124" ht="15" spans="1:9">
+      <c r="A124" s="39"/>
+      <c r="B124" s="27"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="18"/>
       <c r="H124" s="18"/>
-      <c r="I124" s="184"/>
-    </row>
-    <row r="125" ht="15" spans="1:9">
-      <c r="A125" s="154">
+      <c r="I124" s="113"/>
+    </row>
+    <row r="125" s="1" customFormat="1" ht="6.75" customHeight="1" spans="1:9">
+      <c r="A125" s="158"/>
+      <c r="B125" s="159"/>
+      <c r="C125" s="160"/>
+      <c r="D125" s="160"/>
+      <c r="E125" s="189"/>
+      <c r="F125" s="160"/>
+      <c r="G125" s="160"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="198"/>
+    </row>
+    <row r="126" ht="15" spans="1:9">
+      <c r="A126" s="161">
         <v>1</v>
       </c>
-      <c r="B125" s="155" t="s">
+      <c r="B126" s="162" t="s">
         <v>415</v>
       </c>
-      <c r="C125" s="156"/>
-      <c r="D125" s="156"/>
-      <c r="E125" s="156"/>
-      <c r="F125" s="156"/>
-      <c r="G125" s="156"/>
-      <c r="H125" s="153"/>
-      <c r="I125" s="185"/>
-    </row>
-    <row r="126" spans="1:9">
-      <c r="A126" s="157"/>
-      <c r="B126" s="158" t="s">
+      <c r="C126" s="163"/>
+      <c r="D126" s="163"/>
+      <c r="E126" s="163"/>
+      <c r="F126" s="163"/>
+      <c r="G126" s="163"/>
+      <c r="H126" s="160"/>
+      <c r="I126" s="199"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="164"/>
+      <c r="B127" s="165" t="s">
         <v>416</v>
       </c>
-      <c r="C126" s="159"/>
-      <c r="D126" s="159"/>
-      <c r="E126" s="159"/>
-      <c r="F126" s="159"/>
-      <c r="G126" s="159"/>
-      <c r="H126" s="156"/>
-      <c r="I126" s="186"/>
-    </row>
-    <row r="127" customHeight="1" spans="1:9">
-      <c r="A127" s="157"/>
-      <c r="B127" s="160" t="s">
+      <c r="C127" s="166"/>
+      <c r="D127" s="166"/>
+      <c r="E127" s="166"/>
+      <c r="F127" s="166"/>
+      <c r="G127" s="166"/>
+      <c r="H127" s="163"/>
+      <c r="I127" s="200"/>
+    </row>
+    <row r="128" customHeight="1" spans="1:9">
+      <c r="A128" s="164"/>
+      <c r="B128" s="167" t="s">
         <v>417</v>
       </c>
-      <c r="C127" s="161"/>
-      <c r="D127" s="161"/>
-      <c r="E127" s="161"/>
-      <c r="F127" s="161"/>
-      <c r="G127" s="161"/>
-      <c r="H127" s="159"/>
-      <c r="I127" s="187"/>
-    </row>
-    <row r="128" customHeight="1" spans="1:9">
-      <c r="A128" s="157"/>
-      <c r="B128" s="160" t="s">
+      <c r="C128" s="168"/>
+      <c r="D128" s="168"/>
+      <c r="E128" s="168"/>
+      <c r="F128" s="168"/>
+      <c r="G128" s="168"/>
+      <c r="H128" s="166"/>
+      <c r="I128" s="201"/>
+    </row>
+    <row r="129" customHeight="1" spans="1:9">
+      <c r="A129" s="164"/>
+      <c r="B129" s="167" t="s">
         <v>418</v>
       </c>
-      <c r="C128" s="161"/>
-      <c r="D128" s="161"/>
-      <c r="E128" s="161"/>
-      <c r="F128" s="161"/>
-      <c r="G128" s="161"/>
-      <c r="H128" s="161"/>
-      <c r="I128" s="187"/>
-    </row>
-    <row r="129" spans="1:9">
-      <c r="A129" s="157"/>
-      <c r="B129" s="160" t="s">
+      <c r="C129" s="168"/>
+      <c r="D129" s="168"/>
+      <c r="E129" s="168"/>
+      <c r="F129" s="168"/>
+      <c r="G129" s="168"/>
+      <c r="H129" s="168"/>
+      <c r="I129" s="201"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="164"/>
+      <c r="B130" s="167" t="s">
         <v>419</v>
       </c>
-      <c r="C129" s="161"/>
-      <c r="D129" s="161"/>
-      <c r="E129" s="161"/>
-      <c r="F129" s="161"/>
-      <c r="G129" s="161"/>
-      <c r="H129" s="161"/>
-      <c r="I129" s="187"/>
-    </row>
-    <row r="130" ht="15" spans="1:9">
-      <c r="A130" s="188"/>
-      <c r="B130" s="189" t="s">
+      <c r="C130" s="168"/>
+      <c r="D130" s="168"/>
+      <c r="E130" s="168"/>
+      <c r="F130" s="168"/>
+      <c r="G130" s="168"/>
+      <c r="H130" s="168"/>
+      <c r="I130" s="201"/>
+    </row>
+    <row r="131" ht="15" spans="1:9">
+      <c r="A131" s="202"/>
+      <c r="B131" s="203" t="s">
         <v>420</v>
       </c>
-      <c r="C130" s="190"/>
-      <c r="D130" s="190"/>
-      <c r="E130" s="190"/>
-      <c r="F130" s="190"/>
-      <c r="G130" s="190"/>
-      <c r="H130" s="161"/>
-      <c r="I130" s="238"/>
-    </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="191">
+      <c r="C131" s="204"/>
+      <c r="D131" s="204"/>
+      <c r="E131" s="204"/>
+      <c r="F131" s="204"/>
+      <c r="G131" s="204"/>
+      <c r="H131" s="168"/>
+      <c r="I131" s="252"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="205">
         <v>2</v>
       </c>
-      <c r="B131" s="155" t="s">
+      <c r="B132" s="162" t="s">
         <v>421</v>
       </c>
-      <c r="C131" s="156"/>
-      <c r="D131" s="156"/>
-      <c r="E131" s="156"/>
-      <c r="F131" s="156"/>
-      <c r="G131" s="156"/>
-      <c r="H131" s="190"/>
-      <c r="I131" s="239"/>
-    </row>
-    <row r="132" customHeight="1" spans="1:8">
-      <c r="A132" s="192"/>
-      <c r="B132" s="193" t="s">
+      <c r="C132" s="163"/>
+      <c r="D132" s="163"/>
+      <c r="E132" s="163"/>
+      <c r="F132" s="163"/>
+      <c r="G132" s="163"/>
+      <c r="H132" s="204"/>
+      <c r="I132" s="253"/>
+    </row>
+    <row r="133" customHeight="1" spans="1:8">
+      <c r="A133" s="206"/>
+      <c r="B133" s="207" t="s">
         <v>422</v>
       </c>
-      <c r="C132" s="194" t="s">
+      <c r="C133" s="208" t="s">
         <v>423</v>
       </c>
-      <c r="D132" s="195" t="s">
+      <c r="D133" s="209" t="s">
         <v>424</v>
       </c>
-      <c r="E132" s="227" t="s">
+      <c r="E133" s="244" t="s">
         <v>425</v>
       </c>
-      <c r="F132" s="227" t="s">
+      <c r="F133" s="244" t="s">
         <v>426</v>
       </c>
-      <c r="G132" s="227"/>
-      <c r="H132" s="228"/>
-    </row>
-    <row r="133" ht="32.25" customHeight="1" spans="1:9">
-      <c r="A133" s="196"/>
-      <c r="B133" s="197"/>
-      <c r="C133" s="198" t="s">
+      <c r="G133" s="244"/>
+      <c r="H133" s="245"/>
+    </row>
+    <row r="134" ht="32.25" customHeight="1" spans="1:9">
+      <c r="A134" s="210"/>
+      <c r="B134" s="211"/>
+      <c r="C134" s="212" t="s">
         <v>427</v>
       </c>
-      <c r="D133" s="199" t="s">
+      <c r="D134" s="213" t="s">
         <v>428</v>
       </c>
-      <c r="E133" s="229"/>
-      <c r="F133" s="229"/>
-      <c r="G133" s="229"/>
-      <c r="H133" s="230" t="s">
+      <c r="E134" s="246"/>
+      <c r="F134" s="246"/>
+      <c r="G134" s="246"/>
+      <c r="H134" s="247" t="s">
         <v>429</v>
       </c>
-      <c r="I133" s="240" t="s">
+      <c r="I134" s="254" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="134" ht="30.75" spans="1:9">
-      <c r="A134" s="200">
+    <row r="135" ht="30.75" spans="1:9">
+      <c r="A135" s="214">
         <v>3</v>
       </c>
-      <c r="B134" s="201" t="s">
+      <c r="B135" s="215" t="s">
         <v>431</v>
       </c>
-      <c r="C134" s="156" t="s">
+      <c r="C135" s="163" t="s">
         <v>431</v>
       </c>
-      <c r="D134" s="156" t="s">
+      <c r="D135" s="163" t="s">
         <v>431</v>
       </c>
-      <c r="E134" s="156" t="s">
+      <c r="E135" s="163" t="s">
         <v>431</v>
       </c>
-      <c r="F134" s="156" t="s">
+      <c r="F135" s="163" t="s">
         <v>431</v>
       </c>
-      <c r="G134" s="156" t="s">
+      <c r="G135" s="163" t="s">
         <v>431</v>
       </c>
-      <c r="H134" s="231" t="s">
+      <c r="H135" s="248" t="s">
         <v>432</v>
       </c>
-      <c r="I134" s="241" t="s">
+      <c r="I135" s="255" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="135" ht="15" customHeight="1" spans="1:9">
-      <c r="A135" s="202"/>
-      <c r="B135" s="203"/>
-      <c r="C135" s="161"/>
-      <c r="D135" s="161"/>
-      <c r="E135" s="161"/>
-      <c r="F135" s="161"/>
-      <c r="G135" s="161"/>
-      <c r="H135" s="232" t="s">
+    <row r="136" ht="15" customHeight="1" spans="1:9">
+      <c r="A136" s="216"/>
+      <c r="B136" s="217"/>
+      <c r="C136" s="168"/>
+      <c r="D136" s="168"/>
+      <c r="E136" s="168"/>
+      <c r="F136" s="168"/>
+      <c r="G136" s="168"/>
+      <c r="H136" s="249" t="s">
         <v>434</v>
       </c>
-      <c r="I135" s="242" t="s">
+      <c r="I136" s="256" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="136" ht="15" customHeight="1" spans="1:9">
-      <c r="A136" s="202"/>
-      <c r="B136" s="204" t="s">
+    <row r="137" ht="15" customHeight="1" spans="1:9">
+      <c r="A137" s="216"/>
+      <c r="B137" s="218" t="s">
         <v>436</v>
       </c>
-      <c r="C136" s="205" t="s">
+      <c r="C137" s="219" t="s">
         <v>437</v>
       </c>
-      <c r="D136" s="206" t="s">
+      <c r="D137" s="220" t="s">
         <v>438</v>
       </c>
-      <c r="E136" s="206" t="s">
+      <c r="E137" s="220" t="s">
         <v>439</v>
       </c>
-      <c r="F136" s="217" t="s">
+      <c r="F137" s="231" t="s">
         <v>440</v>
       </c>
-      <c r="G136" s="215" t="s">
+      <c r="G137" s="229" t="s">
         <v>441</v>
       </c>
-      <c r="H136" s="233" t="s">
+      <c r="H137" s="250" t="s">
         <v>442</v>
       </c>
-      <c r="I136" s="243" t="s">
+      <c r="I137" s="257" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="137" ht="28.5" spans="1:9">
-      <c r="A137" s="202"/>
-      <c r="B137" s="207" t="s">
+    <row r="138" ht="28.5" spans="1:9">
+      <c r="A138" s="216"/>
+      <c r="B138" s="221" t="s">
         <v>444</v>
       </c>
-      <c r="C137" s="208" t="s">
+      <c r="C138" s="222" t="s">
         <v>445</v>
       </c>
-      <c r="D137" s="209" t="s">
+      <c r="D138" s="223" t="s">
         <v>446</v>
       </c>
-      <c r="E137" s="209" t="s">
+      <c r="E138" s="223" t="s">
         <v>447</v>
       </c>
-      <c r="F137" s="222" t="s">
+      <c r="F138" s="237" t="s">
         <v>448</v>
       </c>
-      <c r="G137" s="222" t="s">
+      <c r="G138" s="237" t="s">
         <v>449</v>
       </c>
-      <c r="H137" s="233" t="s">
+      <c r="H138" s="250" t="s">
         <v>450</v>
       </c>
-      <c r="I137" s="243" t="s">
+      <c r="I138" s="257" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:9">
-      <c r="A138" s="202"/>
-      <c r="B138" s="210" t="s">
+    <row r="139" ht="16.5" spans="1:9">
+      <c r="A139" s="216"/>
+      <c r="B139" s="224" t="s">
         <v>452</v>
       </c>
-      <c r="C138" s="211" t="s">
+      <c r="C139" s="225" t="s">
         <v>453</v>
       </c>
-      <c r="D138" s="212" t="s">
+      <c r="D139" s="226" t="s">
         <v>454</v>
       </c>
-      <c r="E138" s="212" t="s">
+      <c r="E139" s="226" t="s">
         <v>455</v>
       </c>
-      <c r="F138" s="217" t="s">
+      <c r="F139" s="231" t="s">
         <v>456</v>
       </c>
-      <c r="G138" s="217" t="s">
+      <c r="G139" s="231" t="s">
         <v>457</v>
       </c>
-      <c r="H138" s="233" t="s">
+      <c r="H139" s="250" t="s">
         <v>458</v>
       </c>
-      <c r="I138" s="244" t="s">
+      <c r="I139" s="258" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:9">
-      <c r="A139" s="202"/>
-      <c r="B139" s="210" t="s">
+    <row r="140" ht="16.5" spans="1:9">
+      <c r="A140" s="216"/>
+      <c r="B140" s="224" t="s">
         <v>460</v>
       </c>
-      <c r="C139" s="211" t="s">
+      <c r="C140" s="225" t="s">
         <v>461</v>
       </c>
-      <c r="D139" s="212" t="s">
+      <c r="D140" s="226" t="s">
         <v>453</v>
       </c>
-      <c r="E139" s="212" t="s">
+      <c r="E140" s="226" t="s">
         <v>462</v>
       </c>
-      <c r="F139" s="217" t="s">
+      <c r="F140" s="231" t="s">
         <v>463</v>
       </c>
-      <c r="G139" s="217" t="s">
+      <c r="G140" s="231" t="s">
         <v>464</v>
       </c>
-      <c r="H139" s="234" t="s">
+      <c r="H140" s="251" t="s">
         <v>465</v>
       </c>
-      <c r="I139" s="243" t="s">
+      <c r="I140" s="257" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="140" ht="15" spans="1:9">
-      <c r="A140" s="202"/>
-      <c r="B140" s="213" t="s">
+    <row r="141" ht="15" spans="1:9">
+      <c r="A141" s="216"/>
+      <c r="B141" s="227" t="s">
         <v>467</v>
       </c>
-      <c r="C140" s="211" t="s">
+      <c r="C141" s="225" t="s">
         <v>468</v>
       </c>
-      <c r="D140" s="212" t="s">
+      <c r="D141" s="226" t="s">
         <v>469</v>
       </c>
-      <c r="E140" s="217" t="s">
+      <c r="E141" s="231" t="s">
         <v>470</v>
       </c>
-      <c r="F140" s="217" t="s">
+      <c r="F141" s="231" t="s">
         <v>471</v>
       </c>
-      <c r="G140" s="217" t="s">
+      <c r="G141" s="231" t="s">
         <v>472</v>
       </c>
-      <c r="H140" s="233" t="s">
+      <c r="H141" s="250" t="s">
         <v>473</v>
       </c>
-      <c r="I140" s="244" t="s">
+      <c r="I141" s="258" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="141" ht="15" spans="1:9">
-      <c r="A141" s="202"/>
-      <c r="B141" s="213" t="s">
+    <row r="142" ht="15" spans="1:9">
+      <c r="A142" s="216"/>
+      <c r="B142" s="227" t="s">
         <v>475</v>
       </c>
-      <c r="C141" s="211" t="s">
+      <c r="C142" s="225" t="s">
         <v>476</v>
       </c>
-      <c r="D141" s="212" t="s">
+      <c r="D142" s="226" t="s">
         <v>477</v>
       </c>
-      <c r="E141" s="217" t="s">
+      <c r="E142" s="231" t="s">
         <v>478</v>
       </c>
-      <c r="F141" s="217" t="s">
+      <c r="F142" s="231" t="s">
         <v>479</v>
       </c>
-      <c r="G141" s="217" t="s">
+      <c r="G142" s="231" t="s">
         <v>480</v>
       </c>
-      <c r="H141" s="233" t="s">
+      <c r="H142" s="250" t="s">
         <v>481</v>
       </c>
-      <c r="I141" s="244" t="s">
+      <c r="I142" s="258" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="142" ht="25.5" spans="1:9">
-      <c r="A142" s="202"/>
-      <c r="B142" s="213" t="s">
+    <row r="143" ht="25.5" spans="1:9">
+      <c r="A143" s="216"/>
+      <c r="B143" s="227" t="s">
         <v>483</v>
       </c>
-      <c r="C142" s="211" t="s">
+      <c r="C143" s="225" t="s">
         <v>445</v>
       </c>
-      <c r="D142" s="212" t="s">
+      <c r="D143" s="226" t="s">
         <v>484</v>
       </c>
-      <c r="E142" s="217" t="s">
+      <c r="E143" s="231" t="s">
         <v>485</v>
       </c>
-      <c r="F142" s="217" t="s">
+      <c r="F143" s="231" t="s">
         <v>486</v>
       </c>
-      <c r="G142" s="217" t="s">
+      <c r="G143" s="231" t="s">
         <v>487</v>
       </c>
-      <c r="H142" s="233" t="s">
+      <c r="H143" s="250" t="s">
         <v>488</v>
       </c>
-      <c r="I142" s="245" t="s">
+      <c r="I143" s="259" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="143" ht="15" spans="1:9">
-      <c r="A143" s="202"/>
-      <c r="B143" s="213" t="s">
+    <row r="144" ht="15" spans="1:9">
+      <c r="A144" s="216"/>
+      <c r="B144" s="227" t="s">
         <v>490</v>
       </c>
-      <c r="C143" s="211" t="s">
+      <c r="C144" s="225" t="s">
         <v>491</v>
       </c>
-      <c r="D143" s="212" t="s">
+      <c r="D144" s="226" t="s">
         <v>492</v>
       </c>
-      <c r="E143" s="217" t="s">
+      <c r="E144" s="231" t="s">
         <v>493</v>
       </c>
-      <c r="F143" s="217" t="s">
+      <c r="F144" s="231" t="s">
         <v>494</v>
       </c>
-      <c r="G143" s="217" t="s">
+      <c r="G144" s="231" t="s">
         <v>495</v>
       </c>
-      <c r="H143" s="233" t="s">
+      <c r="H144" s="250" t="s">
         <v>496</v>
       </c>
-      <c r="I143" s="244" t="s">
+      <c r="I144" s="258" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="144" ht="15" spans="1:9">
-      <c r="A144" s="202"/>
-      <c r="B144" s="213" t="s">
+    <row r="145" ht="15" spans="1:9">
+      <c r="A145" s="216"/>
+      <c r="B145" s="227" t="s">
         <v>498</v>
       </c>
-      <c r="C144" s="211" t="s">
+      <c r="C145" s="225" t="s">
         <v>499</v>
       </c>
-      <c r="D144" s="212" t="s">
+      <c r="D145" s="226" t="s">
         <v>500</v>
       </c>
-      <c r="E144" s="217" t="s">
+      <c r="E145" s="231" t="s">
         <v>501</v>
       </c>
-      <c r="F144" s="217" t="s">
+      <c r="F145" s="231" t="s">
         <v>502</v>
       </c>
-      <c r="G144" s="217" t="s">
+      <c r="G145" s="231" t="s">
         <v>503</v>
       </c>
-      <c r="H144" s="233" t="s">
+      <c r="H145" s="250" t="s">
         <v>504</v>
       </c>
-      <c r="I144" s="244" t="s">
+      <c r="I145" s="258" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="145" ht="21.75" customHeight="1" spans="1:9">
-      <c r="A145" s="202"/>
-      <c r="B145" s="213" t="s">
+    <row r="146" ht="21.75" customHeight="1" spans="1:9">
+      <c r="A146" s="216"/>
+      <c r="B146" s="227" t="s">
         <v>506</v>
       </c>
-      <c r="C145" s="211" t="s">
+      <c r="C146" s="225" t="s">
         <v>507</v>
       </c>
-      <c r="D145" s="212" t="s">
+      <c r="D146" s="226" t="s">
         <v>476</v>
       </c>
-      <c r="E145" s="217" t="s">
+      <c r="E146" s="231" t="s">
         <v>508</v>
       </c>
-      <c r="F145" s="217" t="s">
+      <c r="F146" s="231" t="s">
         <v>509</v>
       </c>
-      <c r="G145" s="217" t="s">
+      <c r="G146" s="231" t="s">
         <v>510</v>
       </c>
-      <c r="H145" s="233" t="s">
+      <c r="H146" s="250" t="s">
         <v>511</v>
       </c>
-      <c r="I145" s="244" t="s">
+      <c r="I146" s="258" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="146" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A146" s="202"/>
-      <c r="B146" s="213" t="s">
+    <row r="147" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A147" s="216"/>
+      <c r="B147" s="227" t="s">
         <v>513</v>
       </c>
-      <c r="C146" s="211" t="s">
+      <c r="C147" s="225" t="s">
         <v>461</v>
       </c>
-      <c r="D146" s="212" t="s">
+      <c r="D147" s="226" t="s">
         <v>514</v>
       </c>
-      <c r="E146" s="217" t="s">
+      <c r="E147" s="231" t="s">
         <v>515</v>
       </c>
-      <c r="F146" s="217" t="s">
+      <c r="F147" s="231" t="s">
         <v>516</v>
       </c>
-      <c r="G146" s="217" t="s">
+      <c r="G147" s="231" t="s">
         <v>517</v>
       </c>
-      <c r="H146" s="233" t="s">
+      <c r="H147" s="250" t="s">
         <v>518</v>
       </c>
-      <c r="I146" s="246" t="s">
+      <c r="I147" s="260" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
-      <c r="A147" s="202"/>
-      <c r="B147" s="213" t="s">
+    <row r="148" spans="1:9">
+      <c r="A148" s="216"/>
+      <c r="B148" s="227" t="s">
         <v>520</v>
       </c>
-      <c r="C147" s="211" t="s">
+      <c r="C148" s="225" t="s">
         <v>521</v>
       </c>
-      <c r="D147" s="212" t="s">
+      <c r="D148" s="226" t="s">
         <v>522</v>
       </c>
-      <c r="E147" s="217" t="s">
+      <c r="E148" s="231" t="s">
         <v>523</v>
       </c>
-      <c r="F147" s="217" t="s">
+      <c r="F148" s="231" t="s">
         <v>524</v>
       </c>
-      <c r="G147" s="217" t="s">
+      <c r="G148" s="231" t="s">
         <v>438</v>
       </c>
-      <c r="H147" s="212" t="s">
+      <c r="H148" s="226" t="s">
         <v>525</v>
       </c>
-      <c r="I147" s="236" t="s">
+      <c r="I148" s="236" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="202"/>
-      <c r="B148" s="214" t="s">
+    <row r="149" spans="1:9">
+      <c r="A149" s="216"/>
+      <c r="B149" s="228" t="s">
         <v>527</v>
       </c>
-      <c r="C148" s="211" t="s">
+      <c r="C149" s="225" t="s">
         <v>528</v>
       </c>
-      <c r="D148" s="212" t="s">
+      <c r="D149" s="226" t="s">
         <v>529</v>
       </c>
-      <c r="E148" s="217" t="s">
+      <c r="E149" s="231" t="s">
         <v>530</v>
       </c>
-      <c r="F148" s="217" t="s">
+      <c r="F149" s="231" t="s">
         <v>531</v>
       </c>
-      <c r="G148" s="217" t="s">
+      <c r="G149" s="231" t="s">
         <v>532</v>
       </c>
-      <c r="H148" s="212" t="s">
+      <c r="H149" s="226" t="s">
         <v>533</v>
       </c>
-      <c r="I148" s="236" t="s">
+      <c r="I149" s="236" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="202"/>
-      <c r="B149" s="214" t="s">
+    <row r="150" spans="1:9">
+      <c r="A150" s="216"/>
+      <c r="B150" s="228" t="s">
         <v>478</v>
       </c>
-      <c r="C149" s="211" t="s">
+      <c r="C150" s="225" t="s">
         <v>535</v>
       </c>
-      <c r="D149" s="212" t="s">
+      <c r="D150" s="226" t="s">
         <v>536</v>
       </c>
-      <c r="E149" s="217" t="s">
+      <c r="E150" s="231" t="s">
         <v>537</v>
       </c>
-      <c r="F149" s="217" t="s">
+      <c r="F150" s="231" t="s">
         <v>538</v>
       </c>
-      <c r="G149" s="217" t="s">
+      <c r="G150" s="231" t="s">
         <v>539</v>
       </c>
-      <c r="H149" s="212" t="s">
+      <c r="H150" s="226" t="s">
         <v>540</v>
       </c>
-      <c r="I149" s="236" t="s">
+      <c r="I150" s="236" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="202"/>
-      <c r="B150" s="214" t="s">
+    <row r="151" spans="1:9">
+      <c r="A151" s="216"/>
+      <c r="B151" s="228" t="s">
         <v>542</v>
       </c>
-      <c r="C150" s="211" t="s">
+      <c r="C151" s="225" t="s">
         <v>543</v>
       </c>
-      <c r="D150" s="212" t="s">
+      <c r="D151" s="226" t="s">
         <v>544</v>
       </c>
-      <c r="E150" s="217" t="s">
+      <c r="E151" s="231" t="s">
         <v>545</v>
       </c>
-      <c r="F150" s="217" t="s">
+      <c r="F151" s="231" t="s">
         <v>546</v>
       </c>
-      <c r="G150" s="217" t="s">
+      <c r="G151" s="231" t="s">
         <v>547</v>
       </c>
-      <c r="H150" s="212" t="s">
+      <c r="H151" s="226" t="s">
         <v>548</v>
       </c>
-      <c r="I150" s="236" t="s">
+      <c r="I151" s="236" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="151" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A151" s="202"/>
-      <c r="B151" s="214" t="s">
+    <row r="152" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A152" s="216"/>
+      <c r="B152" s="228" t="s">
         <v>550</v>
       </c>
-      <c r="C151" s="215" t="s">
+      <c r="C152" s="229" t="s">
         <v>551</v>
       </c>
-      <c r="D151" s="216" t="s">
+      <c r="D152" s="230" t="s">
         <v>552</v>
       </c>
-      <c r="E151" s="217" t="s">
+      <c r="E152" s="231" t="s">
         <v>553</v>
       </c>
-      <c r="F151" s="217" t="s">
+      <c r="F152" s="231" t="s">
         <v>554</v>
       </c>
-      <c r="G151" s="217" t="s">
+      <c r="G152" s="231" t="s">
         <v>555</v>
       </c>
-      <c r="H151" s="212" t="s">
+      <c r="H152" s="226" t="s">
         <v>556</v>
       </c>
-      <c r="I151" s="236" t="s">
+      <c r="I152" s="236" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
-      <c r="A152" s="202"/>
-      <c r="B152" s="214" t="s">
+    <row r="153" spans="1:9">
+      <c r="A153" s="216"/>
+      <c r="B153" s="228" t="s">
         <v>558</v>
       </c>
-      <c r="C152" s="217" t="s">
+      <c r="C153" s="231" t="s">
         <v>559</v>
       </c>
-      <c r="D152" s="217" t="s">
+      <c r="D153" s="231" t="s">
         <v>560</v>
       </c>
-      <c r="E152" s="217" t="s">
+      <c r="E153" s="231" t="s">
         <v>561</v>
       </c>
-      <c r="F152" s="217" t="s">
+      <c r="F153" s="231" t="s">
         <v>524</v>
       </c>
-      <c r="G152" s="217" t="s">
+      <c r="G153" s="231" t="s">
         <v>562</v>
       </c>
-      <c r="H152" s="212" t="s">
+      <c r="H153" s="226" t="s">
         <v>563</v>
       </c>
-      <c r="I152" s="237" t="s">
+      <c r="I153" s="239" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="153" ht="28.5" spans="1:9">
-      <c r="A153" s="202"/>
-      <c r="B153" s="218" t="s">
+    <row r="154" ht="28.5" spans="1:9">
+      <c r="A154" s="216"/>
+      <c r="B154" s="232" t="s">
         <v>565</v>
       </c>
-      <c r="C153" s="219" t="s">
+      <c r="C154" s="233" t="s">
         <v>566</v>
       </c>
-      <c r="D153" s="212" t="s">
+      <c r="D154" s="226" t="s">
         <v>567</v>
       </c>
-      <c r="E153" s="212" t="s">
+      <c r="E154" s="226" t="s">
         <v>568</v>
       </c>
-      <c r="F153" s="222" t="s">
+      <c r="F154" s="237" t="s">
         <v>569</v>
       </c>
-      <c r="G153" s="222" t="s">
+      <c r="G154" s="237" t="s">
         <v>570</v>
       </c>
-      <c r="H153" s="235" t="s">
+      <c r="H154" s="240" t="s">
         <v>571</v>
       </c>
-      <c r="I153" s="237" t="s">
+      <c r="I154" s="239" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="154" ht="15" spans="1:9">
-      <c r="A154" s="220"/>
-      <c r="B154" s="221" t="s">
+    <row r="155" ht="29.25" spans="1:9">
+      <c r="A155" s="234"/>
+      <c r="B155" s="235" t="s">
         <v>573</v>
       </c>
-      <c r="C154" s="222" t="s">
+      <c r="C155" s="226" t="s">
+        <v>525</v>
+      </c>
+      <c r="D155" s="236" t="s">
+        <v>526</v>
+      </c>
+      <c r="E155" s="236" t="s">
         <v>574</v>
       </c>
-      <c r="D154" s="223"/>
-      <c r="E154" s="223"/>
-      <c r="F154" s="236" t="s">
+      <c r="F155" s="241"/>
+      <c r="G155" s="241"/>
+      <c r="H155" s="237"/>
+      <c r="I155" s="261"/>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="234"/>
+      <c r="B156" s="237" t="s">
         <v>575</v>
       </c>
-      <c r="G154" s="212" t="s">
-        <v>525</v>
-      </c>
-      <c r="H154" s="222"/>
-      <c r="I154" s="247"/>
-    </row>
-    <row r="155" spans="1:9">
-      <c r="A155" s="220"/>
-      <c r="B155" s="224"/>
-      <c r="C155" s="223"/>
-      <c r="D155" s="223"/>
-      <c r="E155" s="223"/>
-      <c r="F155" s="236" t="s">
-        <v>526</v>
-      </c>
-      <c r="G155" s="212" t="s">
+      <c r="C156" s="226" t="s">
         <v>533</v>
       </c>
-      <c r="H155" s="222"/>
-      <c r="I155" s="247"/>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="220"/>
-      <c r="B156" s="224"/>
-      <c r="C156" s="223"/>
-      <c r="D156" s="223"/>
-      <c r="E156" s="223"/>
-      <c r="F156" s="236" t="s">
+      <c r="D156" s="236" t="s">
         <v>534</v>
       </c>
-      <c r="G156" s="212" t="s">
+      <c r="E156" s="241"/>
+      <c r="F156" s="241"/>
+      <c r="G156" s="241"/>
+      <c r="H156" s="237"/>
+      <c r="I156" s="261"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="234"/>
+      <c r="B157" s="238"/>
+      <c r="C157" s="226" t="s">
         <v>540</v>
       </c>
-      <c r="H156" s="222"/>
-      <c r="I156" s="247"/>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="220"/>
-      <c r="B157" s="224"/>
-      <c r="C157" s="223"/>
-      <c r="D157" s="223"/>
-      <c r="E157" s="223"/>
-      <c r="F157" s="236" t="s">
+      <c r="D157" s="236" t="s">
         <v>541</v>
       </c>
-      <c r="G157" s="212" t="s">
+      <c r="E157" s="241"/>
+      <c r="F157" s="241"/>
+      <c r="G157" s="241"/>
+      <c r="H157" s="237"/>
+      <c r="I157" s="261"/>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="234"/>
+      <c r="B158" s="238"/>
+      <c r="C158" s="226" t="s">
         <v>548</v>
       </c>
-      <c r="H157" s="222"/>
-      <c r="I157" s="247"/>
-    </row>
-    <row r="158" ht="28.5" spans="1:9">
-      <c r="A158" s="220"/>
-      <c r="B158" s="224"/>
-      <c r="C158" s="223"/>
-      <c r="D158" s="223"/>
-      <c r="E158" s="223"/>
-      <c r="F158" s="236" t="s">
+      <c r="D158" s="236" t="s">
         <v>549</v>
       </c>
-      <c r="G158" s="212" t="s">
+      <c r="E158" s="241"/>
+      <c r="F158" s="241"/>
+      <c r="G158" s="241"/>
+      <c r="H158" s="237"/>
+      <c r="I158" s="261"/>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="234"/>
+      <c r="B159" s="238"/>
+      <c r="C159" s="226" t="s">
         <v>556</v>
       </c>
-      <c r="H158" s="222"/>
-      <c r="I158" s="247"/>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="220"/>
-      <c r="B159" s="224"/>
-      <c r="C159" s="223"/>
-      <c r="D159" s="223"/>
-      <c r="E159" s="223"/>
-      <c r="F159" s="236" t="s">
+      <c r="D159" s="236" t="s">
         <v>557</v>
       </c>
-      <c r="G159" s="212" t="s">
+      <c r="E159" s="241"/>
+      <c r="F159" s="241"/>
+      <c r="G159" s="241"/>
+      <c r="H159" s="237"/>
+      <c r="I159" s="261"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="234"/>
+      <c r="B160" s="238"/>
+      <c r="C160" s="226" t="s">
         <v>563</v>
       </c>
-      <c r="H159" s="222"/>
-      <c r="I159" s="247"/>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="220"/>
-      <c r="B160" s="224"/>
-      <c r="C160" s="223"/>
-      <c r="D160" s="223"/>
-      <c r="E160" s="223"/>
-      <c r="F160" s="237" t="s">
+      <c r="D160" s="239" t="s">
         <v>564</v>
       </c>
-      <c r="G160" s="235" t="s">
+      <c r="E160" s="241"/>
+      <c r="F160" s="241"/>
+      <c r="G160" s="241"/>
+      <c r="H160" s="237"/>
+      <c r="I160" s="261"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="234"/>
+      <c r="B161" s="238"/>
+      <c r="C161" s="240" t="s">
         <v>571</v>
       </c>
-      <c r="H160" s="222"/>
-      <c r="I160" s="247"/>
-    </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="220"/>
-      <c r="B161" s="224"/>
-      <c r="C161" s="223"/>
-      <c r="D161" s="223"/>
-      <c r="E161" s="223"/>
-      <c r="F161" s="237" t="s">
+      <c r="D161" s="239" t="s">
         <v>572</v>
       </c>
-      <c r="G161" s="223"/>
-      <c r="H161" s="222"/>
-      <c r="I161" s="247"/>
+      <c r="E161" s="241"/>
+      <c r="F161" s="241"/>
+      <c r="G161" s="241"/>
+      <c r="H161" s="237"/>
+      <c r="I161" s="261"/>
     </row>
     <row r="162" spans="1:9">
-      <c r="A162" s="220"/>
-      <c r="B162" s="224"/>
-      <c r="C162" s="223"/>
-      <c r="D162" s="223"/>
-      <c r="E162" s="223"/>
-      <c r="F162" s="223"/>
-      <c r="G162" s="223"/>
-      <c r="H162" s="222"/>
-      <c r="I162" s="247"/>
-    </row>
-    <row r="163" ht="15" spans="1:9">
-      <c r="A163" s="225"/>
-      <c r="C163" s="226"/>
-      <c r="D163" s="226"/>
-      <c r="E163" s="226"/>
-      <c r="F163" s="226"/>
-      <c r="G163" s="226"/>
-      <c r="I163" s="248"/>
-    </row>
-    <row r="164" spans="8:8">
-      <c r="H164" s="223"/>
-    </row>
-    <row r="165" spans="8:8">
-      <c r="H165" s="223"/>
-    </row>
-    <row r="166" spans="8:8">
-      <c r="H166" s="223"/>
-    </row>
-    <row r="167" spans="8:8">
-      <c r="H167" s="223"/>
+      <c r="A162" s="234"/>
+      <c r="B162" s="238"/>
+      <c r="C162" s="241"/>
+      <c r="D162" s="241"/>
+      <c r="E162" s="241"/>
+      <c r="F162" s="241"/>
+      <c r="G162" s="241"/>
+      <c r="H162" s="237"/>
+      <c r="I162" s="261"/>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="234"/>
+      <c r="B163" s="238"/>
+      <c r="C163" s="241"/>
+      <c r="D163" s="241"/>
+      <c r="E163" s="241"/>
+      <c r="F163" s="241"/>
+      <c r="G163" s="241"/>
+      <c r="H163" s="237"/>
+      <c r="I163" s="261"/>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="234"/>
+      <c r="B164" s="238"/>
+      <c r="C164" s="241"/>
+      <c r="D164" s="241"/>
+      <c r="E164" s="241"/>
+      <c r="F164" s="241"/>
+      <c r="G164" s="241"/>
+      <c r="H164" s="237"/>
+      <c r="I164" s="261"/>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="234"/>
+      <c r="B165" s="238"/>
+      <c r="C165" s="241"/>
+      <c r="D165" s="241"/>
+      <c r="E165" s="241"/>
+      <c r="F165" s="241"/>
+      <c r="G165" s="241"/>
+      <c r="H165" s="237"/>
+      <c r="I165" s="261"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="234"/>
+      <c r="B166" s="238"/>
+      <c r="C166" s="241"/>
+      <c r="D166" s="241"/>
+      <c r="E166" s="241"/>
+      <c r="F166" s="241"/>
+      <c r="G166" s="241"/>
+      <c r="H166" s="237"/>
+      <c r="I166" s="261"/>
+    </row>
+    <row r="167" ht="15" spans="1:9">
+      <c r="A167" s="242"/>
+      <c r="C167" s="243"/>
+      <c r="D167" s="243"/>
+      <c r="E167" s="243"/>
+      <c r="F167" s="243"/>
+      <c r="G167" s="243"/>
+      <c r="H167" s="237"/>
+      <c r="I167" s="262"/>
     </row>
     <row r="168" spans="8:8">
-      <c r="H168" s="223"/>
-    </row>
-    <row r="169" spans="8:8">
-      <c r="H169" s="223"/>
-    </row>
-    <row r="170" spans="8:8">
-      <c r="H170" s="223"/>
-    </row>
-    <row r="171" spans="8:8">
-      <c r="H171" s="223"/>
-    </row>
-    <row r="172" spans="8:8">
-      <c r="H172" s="223"/>
-    </row>
-    <row r="173" spans="8:8">
-      <c r="H173" s="226"/>
-    </row>
-    <row r="209" spans="5:5">
-      <c r="E209"/>
+      <c r="H168" s="243"/>
+    </row>
+    <row r="204" spans="5:5">
+      <c r="E204"/>
     </row>
   </sheetData>
   <mergeCells count="137">
@@ -7409,11 +7477,8 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="F36:G36"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="F37:G37"/>
@@ -7421,105 +7486,108 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="F38:G38"/>
     <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="F39:G39"/>
     <mergeCell ref="H39:I39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
     <mergeCell ref="B41:D41"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="F42:H42"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="F43:H43"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="F54:G54"/>
     <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="B55:C55"/>
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="H55:I55"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="H56:I56"/>
-    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:G57"/>
     <mergeCell ref="H57:I57"/>
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="H58:I58"/>
-    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="B59:C59"/>
     <mergeCell ref="H59:I59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="H60:I60"/>
     <mergeCell ref="B61:D61"/>
-    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G61:H61"/>
     <mergeCell ref="B62:D62"/>
     <mergeCell ref="G62:I62"/>
+    <mergeCell ref="B63:D63"/>
     <mergeCell ref="G63:I63"/>
-    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="G64:I64"/>
     <mergeCell ref="C75:D75"/>
-    <mergeCell ref="F75:G75"/>
     <mergeCell ref="C76:D76"/>
     <mergeCell ref="F76:G76"/>
-    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="C77:D77"/>
     <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
     <mergeCell ref="B78:C78"/>
     <mergeCell ref="F78:G78"/>
     <mergeCell ref="H78:I78"/>
     <mergeCell ref="B79:C79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
     <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B81:C81"/>
     <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="C96:D96"/>
     <mergeCell ref="B98:C98"/>
-    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="B99:C99"/>
     <mergeCell ref="C100:D100"/>
-    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="C101:D101"/>
     <mergeCell ref="B103:D103"/>
     <mergeCell ref="B104:D104"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="C106:D106"/>
     <mergeCell ref="D111:E111"/>
-    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="D112:E112"/>
     <mergeCell ref="C114:D114"/>
     <mergeCell ref="C115:D115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="C116:D116"/>
     <mergeCell ref="B117:C117"/>
     <mergeCell ref="D117:E117"/>
     <mergeCell ref="B118:C118"/>
     <mergeCell ref="D118:E118"/>
     <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="B120:C120"/>
     <mergeCell ref="B121:D121"/>
     <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="D124:E124"/>
     <mergeCell ref="B130:G130"/>
+    <mergeCell ref="B131:G131"/>
     <mergeCell ref="A3:A23"/>
-    <mergeCell ref="A25:A42"/>
-    <mergeCell ref="A44:A63"/>
-    <mergeCell ref="A65:A82"/>
-    <mergeCell ref="A84:A104"/>
-    <mergeCell ref="A107:A123"/>
-    <mergeCell ref="A125:A130"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="A134:A163"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="D134:D135"/>
+    <mergeCell ref="A25:A43"/>
+    <mergeCell ref="A45:A64"/>
+    <mergeCell ref="A66:A83"/>
+    <mergeCell ref="A85:A105"/>
+    <mergeCell ref="A108:A124"/>
+    <mergeCell ref="A126:A131"/>
+    <mergeCell ref="A132:A134"/>
+    <mergeCell ref="A135:A167"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="C135:C136"/>
+    <mergeCell ref="D135:D136"/>
     <mergeCell ref="E3:E23"/>
-    <mergeCell ref="E25:E42"/>
-    <mergeCell ref="E44:E63"/>
-    <mergeCell ref="E65:E82"/>
-    <mergeCell ref="E84:E105"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:F135"/>
-    <mergeCell ref="G84:G102"/>
-    <mergeCell ref="G134:G135"/>
+    <mergeCell ref="E25:E43"/>
+    <mergeCell ref="E45:E64"/>
+    <mergeCell ref="E66:E83"/>
+    <mergeCell ref="E85:E106"/>
+    <mergeCell ref="E135:E136"/>
+    <mergeCell ref="F135:F136"/>
+    <mergeCell ref="G85:G103"/>
+    <mergeCell ref="G135:G136"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" scale="55" orientation="landscape"/>
@@ -7563,7 +7631,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:1">

--- a/raw/time_tables/B.Tech (btech)/2/1.xlsx
+++ b/raw/time_tables/B.Tech (btech)/2/1.xlsx
@@ -92,7 +92,7 @@
     <t>LA15,A16(CI121)- FF1/TAJ</t>
   </si>
   <si>
-    <t>LB7,B8(PH211)- CR425/RAV</t>
+    <t>LB7,B8(PH211)- G8/RAV</t>
   </si>
   <si>
     <t>LA10,B14(CI121)- G3/DEP</t>
@@ -362,10 +362,10 @@
     <t>LB7,B8(MA211)- FF1/RSC</t>
   </si>
   <si>
-    <t>LB7,B8(PH211)-FF1/RAV</t>
-  </si>
-  <si>
-    <t>LB7,B8(B11HS111)-FF1/BCJ</t>
+    <t>LB7,B8(PH211)-G8/RAV</t>
+  </si>
+  <si>
+    <t>LB7,B8(B11HS111)-G8/BCJ</t>
   </si>
   <si>
     <t>LB5,B6(MA211)-FF1/RSC</t>
@@ -377,7 +377,7 @@
     <t>LB5,B6(B11HS111)-FF2/PU</t>
   </si>
   <si>
-    <t xml:space="preserve">LB11,B12(PH211)-FF2/RKD </t>
+    <t xml:space="preserve">LB11,B12(PH211)-G7/RKD </t>
   </si>
   <si>
     <t>LA15,A16(MA211)- FF2/NSK</t>
@@ -818,7 +818,7 @@
     <t>LB3,B4(MA211)-G6/PAT</t>
   </si>
   <si>
-    <t xml:space="preserve">LB11,B12(PH211)-FF1/RKD </t>
+    <t xml:space="preserve">LB11,B12(PH211)-FF4/RKD </t>
   </si>
   <si>
     <t>LB9,B10(CI121)- FF1/MEE</t>
@@ -1753,8 +1753,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -1873,6 +1873,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1881,22 +1896,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1911,15 +1911,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1933,17 +1949,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1958,7 +1965,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1979,22 +1986,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2002,7 +2003,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2017,7 +2018,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2029,9 +2030,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2088,7 +2088,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2100,25 +2238,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2130,145 +2262,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2937,21 +2937,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2980,17 +2965,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3002,24 +2976,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3038,6 +2994,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3046,149 +3046,149 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="56" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="54" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3895,16 +3895,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3933,6 +3928,11 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4323,10 +4323,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L204"/>
+  <dimension ref="A1:L203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -6709,14 +6709,14 @@
       <c r="D133" s="209" t="s">
         <v>424</v>
       </c>
-      <c r="E133" s="244" t="s">
+      <c r="E133" s="241" t="s">
         <v>425</v>
       </c>
-      <c r="F133" s="244" t="s">
+      <c r="F133" s="241" t="s">
         <v>426</v>
       </c>
-      <c r="G133" s="244"/>
-      <c r="H133" s="245"/>
+      <c r="G133" s="241"/>
+      <c r="H133" s="242"/>
     </row>
     <row r="134" ht="32.25" customHeight="1" spans="1:9">
       <c r="A134" s="210"/>
@@ -6727,10 +6727,10 @@
       <c r="D134" s="213" t="s">
         <v>428</v>
       </c>
-      <c r="E134" s="246"/>
-      <c r="F134" s="246"/>
-      <c r="G134" s="246"/>
-      <c r="H134" s="247" t="s">
+      <c r="E134" s="243"/>
+      <c r="F134" s="243"/>
+      <c r="G134" s="243"/>
+      <c r="H134" s="244" t="s">
         <v>429</v>
       </c>
       <c r="I134" s="254" t="s">
@@ -6759,7 +6759,7 @@
       <c r="G135" s="163" t="s">
         <v>431</v>
       </c>
-      <c r="H135" s="248" t="s">
+      <c r="H135" s="245" t="s">
         <v>432</v>
       </c>
       <c r="I135" s="255" t="s">
@@ -6774,7 +6774,7 @@
       <c r="E136" s="168"/>
       <c r="F136" s="168"/>
       <c r="G136" s="168"/>
-      <c r="H136" s="249" t="s">
+      <c r="H136" s="246" t="s">
         <v>434</v>
       </c>
       <c r="I136" s="256" t="s">
@@ -6801,7 +6801,7 @@
       <c r="G137" s="229" t="s">
         <v>441</v>
       </c>
-      <c r="H137" s="250" t="s">
+      <c r="H137" s="247" t="s">
         <v>442</v>
       </c>
       <c r="I137" s="257" t="s">
@@ -6828,7 +6828,7 @@
       <c r="G138" s="237" t="s">
         <v>449</v>
       </c>
-      <c r="H138" s="250" t="s">
+      <c r="H138" s="247" t="s">
         <v>450</v>
       </c>
       <c r="I138" s="257" t="s">
@@ -6855,7 +6855,7 @@
       <c r="G139" s="231" t="s">
         <v>457</v>
       </c>
-      <c r="H139" s="250" t="s">
+      <c r="H139" s="247" t="s">
         <v>458</v>
       </c>
       <c r="I139" s="258" t="s">
@@ -6882,7 +6882,7 @@
       <c r="G140" s="231" t="s">
         <v>464</v>
       </c>
-      <c r="H140" s="251" t="s">
+      <c r="H140" s="248" t="s">
         <v>465</v>
       </c>
       <c r="I140" s="257" t="s">
@@ -6909,7 +6909,7 @@
       <c r="G141" s="231" t="s">
         <v>472</v>
       </c>
-      <c r="H141" s="250" t="s">
+      <c r="H141" s="247" t="s">
         <v>473</v>
       </c>
       <c r="I141" s="258" t="s">
@@ -6936,7 +6936,7 @@
       <c r="G142" s="231" t="s">
         <v>480</v>
       </c>
-      <c r="H142" s="250" t="s">
+      <c r="H142" s="247" t="s">
         <v>481</v>
       </c>
       <c r="I142" s="258" t="s">
@@ -6963,7 +6963,7 @@
       <c r="G143" s="231" t="s">
         <v>487</v>
       </c>
-      <c r="H143" s="250" t="s">
+      <c r="H143" s="247" t="s">
         <v>488</v>
       </c>
       <c r="I143" s="259" t="s">
@@ -6990,7 +6990,7 @@
       <c r="G144" s="231" t="s">
         <v>495</v>
       </c>
-      <c r="H144" s="250" t="s">
+      <c r="H144" s="247" t="s">
         <v>496</v>
       </c>
       <c r="I144" s="258" t="s">
@@ -7017,7 +7017,7 @@
       <c r="G145" s="231" t="s">
         <v>503</v>
       </c>
-      <c r="H145" s="250" t="s">
+      <c r="H145" s="247" t="s">
         <v>504</v>
       </c>
       <c r="I145" s="258" t="s">
@@ -7044,7 +7044,7 @@
       <c r="G146" s="231" t="s">
         <v>510</v>
       </c>
-      <c r="H146" s="250" t="s">
+      <c r="H146" s="247" t="s">
         <v>511</v>
       </c>
       <c r="I146" s="258" t="s">
@@ -7071,7 +7071,7 @@
       <c r="G147" s="231" t="s">
         <v>517</v>
       </c>
-      <c r="H147" s="250" t="s">
+      <c r="H147" s="247" t="s">
         <v>518</v>
       </c>
       <c r="I147" s="260" t="s">
@@ -7101,7 +7101,7 @@
       <c r="H148" s="226" t="s">
         <v>525</v>
       </c>
-      <c r="I148" s="236" t="s">
+      <c r="I148" s="250" t="s">
         <v>526</v>
       </c>
     </row>
@@ -7128,7 +7128,7 @@
       <c r="H149" s="226" t="s">
         <v>533</v>
       </c>
-      <c r="I149" s="236" t="s">
+      <c r="I149" s="250" t="s">
         <v>534</v>
       </c>
     </row>
@@ -7155,7 +7155,7 @@
       <c r="H150" s="226" t="s">
         <v>540</v>
       </c>
-      <c r="I150" s="236" t="s">
+      <c r="I150" s="250" t="s">
         <v>541</v>
       </c>
     </row>
@@ -7182,7 +7182,7 @@
       <c r="H151" s="226" t="s">
         <v>548</v>
       </c>
-      <c r="I151" s="236" t="s">
+      <c r="I151" s="250" t="s">
         <v>549</v>
       </c>
     </row>
@@ -7209,7 +7209,7 @@
       <c r="H152" s="226" t="s">
         <v>556</v>
       </c>
-      <c r="I152" s="236" t="s">
+      <c r="I152" s="250" t="s">
         <v>557</v>
       </c>
     </row>
@@ -7236,7 +7236,7 @@
       <c r="H153" s="226" t="s">
         <v>563</v>
       </c>
-      <c r="I153" s="239" t="s">
+      <c r="I153" s="251" t="s">
         <v>564</v>
       </c>
     </row>
@@ -7260,10 +7260,10 @@
       <c r="G154" s="237" t="s">
         <v>570</v>
       </c>
-      <c r="H154" s="240" t="s">
+      <c r="H154" s="249" t="s">
         <v>571</v>
       </c>
-      <c r="I154" s="239" t="s">
+      <c r="I154" s="251" t="s">
         <v>572</v>
       </c>
     </row>
@@ -7272,17 +7272,15 @@
       <c r="B155" s="235" t="s">
         <v>573</v>
       </c>
-      <c r="C155" s="226" t="s">
+      <c r="C155" s="236"/>
+      <c r="D155" s="236"/>
+      <c r="E155" s="250" t="s">
+        <v>574</v>
+      </c>
+      <c r="F155" s="226" t="s">
         <v>525</v>
       </c>
-      <c r="D155" s="236" t="s">
-        <v>526</v>
-      </c>
-      <c r="E155" s="236" t="s">
-        <v>574</v>
-      </c>
-      <c r="F155" s="241"/>
-      <c r="G155" s="241"/>
+      <c r="G155" s="236"/>
       <c r="H155" s="237"/>
       <c r="I155" s="261"/>
     </row>
@@ -7291,163 +7289,154 @@
       <c r="B156" s="237" t="s">
         <v>575</v>
       </c>
-      <c r="C156" s="226" t="s">
+      <c r="C156" s="236"/>
+      <c r="D156" s="236"/>
+      <c r="E156" s="250" t="s">
+        <v>526</v>
+      </c>
+      <c r="F156" s="226" t="s">
         <v>533</v>
       </c>
-      <c r="D156" s="236" t="s">
-        <v>534</v>
-      </c>
-      <c r="E156" s="241"/>
-      <c r="F156" s="241"/>
-      <c r="G156" s="241"/>
+      <c r="G156" s="236"/>
       <c r="H156" s="237"/>
       <c r="I156" s="261"/>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="234"/>
       <c r="B157" s="238"/>
-      <c r="C157" s="226" t="s">
+      <c r="C157" s="236"/>
+      <c r="D157" s="236"/>
+      <c r="E157" s="250" t="s">
+        <v>534</v>
+      </c>
+      <c r="F157" s="226" t="s">
         <v>540</v>
       </c>
-      <c r="D157" s="236" t="s">
-        <v>541</v>
-      </c>
-      <c r="E157" s="241"/>
-      <c r="F157" s="241"/>
-      <c r="G157" s="241"/>
+      <c r="G157" s="236"/>
       <c r="H157" s="237"/>
       <c r="I157" s="261"/>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="234"/>
       <c r="B158" s="238"/>
-      <c r="C158" s="226" t="s">
+      <c r="C158" s="236"/>
+      <c r="D158" s="236"/>
+      <c r="E158" s="250" t="s">
+        <v>541</v>
+      </c>
+      <c r="F158" s="226" t="s">
         <v>548</v>
       </c>
-      <c r="D158" s="236" t="s">
-        <v>549</v>
-      </c>
-      <c r="E158" s="241"/>
-      <c r="F158" s="241"/>
-      <c r="G158" s="241"/>
+      <c r="G158" s="236"/>
       <c r="H158" s="237"/>
       <c r="I158" s="261"/>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" ht="28.5" spans="1:9">
       <c r="A159" s="234"/>
       <c r="B159" s="238"/>
-      <c r="C159" s="226" t="s">
+      <c r="C159" s="236"/>
+      <c r="D159" s="236"/>
+      <c r="E159" s="250" t="s">
+        <v>549</v>
+      </c>
+      <c r="F159" s="226" t="s">
         <v>556</v>
       </c>
-      <c r="D159" s="236" t="s">
-        <v>557</v>
-      </c>
-      <c r="E159" s="241"/>
-      <c r="F159" s="241"/>
-      <c r="G159" s="241"/>
+      <c r="G159" s="236"/>
       <c r="H159" s="237"/>
       <c r="I159" s="261"/>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="234"/>
       <c r="B160" s="238"/>
-      <c r="C160" s="226" t="s">
+      <c r="C160" s="236"/>
+      <c r="D160" s="236"/>
+      <c r="E160" s="250" t="s">
+        <v>557</v>
+      </c>
+      <c r="F160" s="226" t="s">
         <v>563</v>
       </c>
-      <c r="D160" s="239" t="s">
-        <v>564</v>
-      </c>
-      <c r="E160" s="241"/>
-      <c r="F160" s="241"/>
-      <c r="G160" s="241"/>
+      <c r="G160" s="236"/>
       <c r="H160" s="237"/>
       <c r="I160" s="261"/>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="234"/>
       <c r="B161" s="238"/>
-      <c r="C161" s="240" t="s">
+      <c r="C161" s="236"/>
+      <c r="D161" s="236"/>
+      <c r="E161" s="251" t="s">
+        <v>564</v>
+      </c>
+      <c r="F161" s="249" t="s">
         <v>571</v>
       </c>
-      <c r="D161" s="239" t="s">
-        <v>572</v>
-      </c>
-      <c r="E161" s="241"/>
-      <c r="F161" s="241"/>
-      <c r="G161" s="241"/>
+      <c r="G161" s="236"/>
       <c r="H161" s="237"/>
       <c r="I161" s="261"/>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="234"/>
       <c r="B162" s="238"/>
-      <c r="C162" s="241"/>
-      <c r="D162" s="241"/>
-      <c r="E162" s="241"/>
-      <c r="F162" s="241"/>
-      <c r="G162" s="241"/>
+      <c r="C162" s="236"/>
+      <c r="D162" s="236"/>
+      <c r="E162" s="251" t="s">
+        <v>572</v>
+      </c>
+      <c r="F162" s="236"/>
+      <c r="G162" s="236"/>
       <c r="H162" s="237"/>
       <c r="I162" s="261"/>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="234"/>
       <c r="B163" s="238"/>
-      <c r="C163" s="241"/>
-      <c r="D163" s="241"/>
-      <c r="E163" s="241"/>
-      <c r="F163" s="241"/>
-      <c r="G163" s="241"/>
+      <c r="C163" s="236"/>
+      <c r="D163" s="236"/>
+      <c r="E163" s="236"/>
+      <c r="F163" s="236"/>
+      <c r="G163" s="236"/>
       <c r="H163" s="237"/>
       <c r="I163" s="261"/>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="234"/>
       <c r="B164" s="238"/>
-      <c r="C164" s="241"/>
-      <c r="D164" s="241"/>
-      <c r="E164" s="241"/>
-      <c r="F164" s="241"/>
-      <c r="G164" s="241"/>
+      <c r="C164" s="236"/>
+      <c r="D164" s="236"/>
+      <c r="E164" s="236"/>
+      <c r="F164" s="236"/>
+      <c r="G164" s="236"/>
       <c r="H164" s="237"/>
       <c r="I164" s="261"/>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="234"/>
       <c r="B165" s="238"/>
-      <c r="C165" s="241"/>
-      <c r="D165" s="241"/>
-      <c r="E165" s="241"/>
-      <c r="F165" s="241"/>
-      <c r="G165" s="241"/>
+      <c r="C165" s="236"/>
+      <c r="D165" s="236"/>
+      <c r="E165" s="236"/>
+      <c r="F165" s="236"/>
+      <c r="G165" s="236"/>
       <c r="H165" s="237"/>
       <c r="I165" s="261"/>
     </row>
-    <row r="166" spans="1:9">
-      <c r="A166" s="234"/>
-      <c r="B166" s="238"/>
-      <c r="C166" s="241"/>
-      <c r="D166" s="241"/>
-      <c r="E166" s="241"/>
-      <c r="F166" s="241"/>
-      <c r="G166" s="241"/>
+    <row r="166" ht="15" spans="1:9">
+      <c r="A166" s="239"/>
+      <c r="C166" s="240"/>
+      <c r="D166" s="240"/>
+      <c r="E166" s="240"/>
+      <c r="F166" s="240"/>
+      <c r="G166" s="240"/>
       <c r="H166" s="237"/>
-      <c r="I166" s="261"/>
-    </row>
-    <row r="167" ht="15" spans="1:9">
-      <c r="A167" s="242"/>
-      <c r="C167" s="243"/>
-      <c r="D167" s="243"/>
-      <c r="E167" s="243"/>
-      <c r="F167" s="243"/>
-      <c r="G167" s="243"/>
-      <c r="H167" s="237"/>
-      <c r="I167" s="262"/>
-    </row>
-    <row r="168" spans="8:8">
-      <c r="H168" s="243"/>
-    </row>
-    <row r="204" spans="5:5">
-      <c r="E204"/>
+      <c r="I166" s="262"/>
+    </row>
+    <row r="167" spans="8:8">
+      <c r="H167" s="240"/>
+    </row>
+    <row r="203" spans="5:5">
+      <c r="E203"/>
     </row>
   </sheetData>
   <mergeCells count="137">
@@ -7575,7 +7564,7 @@
     <mergeCell ref="A108:A124"/>
     <mergeCell ref="A126:A131"/>
     <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A135:A167"/>
+    <mergeCell ref="A135:A166"/>
     <mergeCell ref="B135:B136"/>
     <mergeCell ref="C135:C136"/>
     <mergeCell ref="D135:D136"/>

--- a/raw/time_tables/B.Tech (btech)/2/1.xlsx
+++ b/raw/time_tables/B.Tech (btech)/2/1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="576">
   <si>
     <t>B.TECH II SEMESTER EVEN 2025</t>
   </si>
@@ -68,16 +68,13 @@
     <t>LB1,B2(PH211)-G1/MKC</t>
   </si>
   <si>
-    <t>LA10,B14(B11HS111)-G1/IC</t>
-  </si>
-  <si>
     <t>LB11,B12(B11HS111)-CS8/GA</t>
   </si>
   <si>
     <t xml:space="preserve">LA7,A8(PH211)-G2/MTR </t>
   </si>
   <si>
-    <t>LA7,A8(CI121)- G2/SMT</t>
+    <t>LA7,A8(CI121)- G2/LM</t>
   </si>
   <si>
     <t>LC1,C2,C3(MA212)- G2/RSH</t>
@@ -128,7 +125,7 @@
     <t>LA15,A16(MA211)- FF1/NSK</t>
   </si>
   <si>
-    <t>TA17(CI121)-TS6/SMT</t>
+    <t>TA17(CI121)-TS6/LM</t>
   </si>
   <si>
     <t>LB5,B6(MA211)- FF4/RSC</t>
@@ -188,6 +185,9 @@
     <t>TB1(B11HS111)-TS7/IJ</t>
   </si>
   <si>
+    <t>LA7,A8(B11HS111)-CS2/SGL</t>
+  </si>
+  <si>
     <t>TA3(MA211)-TS7/AN</t>
   </si>
   <si>
@@ -221,7 +221,7 @@
     <t>TB10(MA211)-TS11/MPA</t>
   </si>
   <si>
-    <t>PB14(CI271)- CL02/SUD,SAA,DSI</t>
+    <t>PB14(CI271)- CL02/SUD,SAA,DSR</t>
   </si>
   <si>
     <t>PA16(CI271)- CL02/BS,ANP,DCH</t>
@@ -347,7 +347,7 @@
     <t>LB3,B4(CI121)-G3/AJS</t>
   </si>
   <si>
-    <t>LA7,A8(CI121)-G3 /SMT</t>
+    <t>LA7,A8(CI121)-G3 /LM</t>
   </si>
   <si>
     <t>LB9,B10(CI121)- G3/MEE</t>
@@ -380,12 +380,18 @@
     <t xml:space="preserve">LB11,B12(PH211)-G7/RKD </t>
   </si>
   <si>
+    <t>TA15(B11HS111)-TS8/IJ</t>
+  </si>
+  <si>
     <t>LA15,A16(MA211)- FF2/NSK</t>
   </si>
   <si>
     <t>LA17,A18(B11HS111)-FF2/VRT</t>
   </si>
   <si>
+    <t>LA10,B14(B11HS111)-CS8/IC</t>
+  </si>
+  <si>
     <t>TG1(MA211)-TS6/PAT</t>
   </si>
   <si>
@@ -455,7 +461,7 @@
     <t>TB9(MA211)-TS8/SP</t>
   </si>
   <si>
-    <t>TB5(CI121)-TS6/SMT</t>
+    <t>TB5(CI121)-TS6/LM</t>
   </si>
   <si>
     <t>TA3(B11HS111)-TS10/VSE</t>
@@ -476,7 +482,7 @@
     <t>TA17(MA211)-TS8/RSC</t>
   </si>
   <si>
-    <t>PB7(CI271)-CL21 /APR,MSH,SOS</t>
+    <t>PB7(CI271)-CL21 /MS1,MSH,SOS</t>
   </si>
   <si>
     <t>PB12(CI271)-CL06 /ASK,KP,NSA</t>
@@ -608,7 +614,7 @@
     <t>LG1,G2(B11HS111)-FF2/SDA</t>
   </si>
   <si>
-    <t>LA7,A8(CI121)-FF2/SMT</t>
+    <t>LA7,A8(CI121)-FF2/LM</t>
   </si>
   <si>
     <t>LB9,B10(B11HS111)-FF2/SDA</t>
@@ -677,7 +683,7 @@
     <t>PA3(CI271)- CL21/MSH,MSI,DCH</t>
   </si>
   <si>
-    <t>PA7(CI271)-CL01 /SHP,NIY,SMT</t>
+    <t>PA7(CI271)-CL01 /SHP,NIY,LM</t>
   </si>
   <si>
     <t>TA5(CI121)-TS6/AM</t>
@@ -737,6 +743,9 @@
     <t xml:space="preserve">LB5,B6(PH211)-G9/ABH </t>
   </si>
   <si>
+    <t>LA17,A18(MA211)- FF8/AKK</t>
+  </si>
+  <si>
     <t>PB3(CI271)-CL02/HN,TAJ,AA</t>
   </si>
   <si>
@@ -770,459 +779,444 @@
     <t>LB5,B6(CI121)- G7/SUD</t>
   </si>
   <si>
+    <t xml:space="preserve">LA17,A18(PH211)-G1/INC </t>
+  </si>
+  <si>
+    <t>LA7,A8(MA211)- G1/MPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LC1,C2,C3(PH212)-G1/SPP </t>
+  </si>
+  <si>
+    <t>LA5,A6(PH211)-G2/GPK</t>
+  </si>
+  <si>
+    <t>LA5,A6(CI121)- G2/DSR</t>
+  </si>
+  <si>
+    <t>LA5,A6(MA211)-G2 /YG</t>
+  </si>
+  <si>
+    <t>LB3,B4(B11HS111)-G2/SHB</t>
+  </si>
+  <si>
+    <t>TA3(CI121)-TS6/TAJ</t>
+  </si>
+  <si>
+    <t>LA17,A18(CI121)-G3/SLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA7,A8(PH211)-G3/MTR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA1,A2(PH211)-G3/RKG </t>
+  </si>
+  <si>
+    <t>LA1,A2(MA211)- G3/MPA</t>
+  </si>
+  <si>
+    <t>LB7,B8(MA211)- G3/RSC</t>
+  </si>
+  <si>
+    <t>TA4(CI121)-TS7/MEE</t>
+  </si>
+  <si>
+    <t>LB3,B4(MA211)-G6/PAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LB11,B12(PH211)-FF4/RKD </t>
+  </si>
+  <si>
+    <t>LB9,B10(CI121)- FF1/MEE</t>
+  </si>
+  <si>
+    <t>LA3,A4(B11HS111)-FF1/CKJ</t>
+  </si>
+  <si>
+    <t>TB11(PH211)-TS11/DIN</t>
+  </si>
+  <si>
+    <t>LG1,G2(CI121)- FF2/APJ</t>
+  </si>
+  <si>
+    <t>LG1,G2(MA211)- FF2/AT</t>
+  </si>
+  <si>
+    <t>LB11,B12(MA211)-FF2 /NS</t>
+  </si>
+  <si>
+    <t>TC3(MA212)-TS6/RSH</t>
+  </si>
+  <si>
+    <t>TB1(MA211)-TS6/BPC</t>
+  </si>
+  <si>
+    <t>LA1,A2(CI121)-FF4/AJS</t>
+  </si>
+  <si>
+    <t>TB11(B11HS111)-TS7/AMN</t>
+  </si>
+  <si>
+    <t>TG2(MA211)-TS6/PAT</t>
+  </si>
+  <si>
+    <t>TA7(CI121)-TS7/SHP</t>
+  </si>
+  <si>
+    <t>TB4(B11HS111)-TS7/AMN</t>
+  </si>
+  <si>
+    <t>TC3(PH212)-TS6/RKG</t>
+  </si>
+  <si>
+    <t>TB12(B11HS111)-TS8/VSE</t>
+  </si>
+  <si>
+    <t>TC1(B11CI121)-TS7/SJA</t>
+  </si>
+  <si>
+    <t>TA6(MA201)-TS12/PSI</t>
+  </si>
+  <si>
+    <t>TA10(CI121)-TS8/SOS,VS</t>
+  </si>
+  <si>
+    <t>TB2(MA211)-TS10/SG</t>
+  </si>
+  <si>
+    <t>TB9(CI121)-TS10/DSR</t>
+  </si>
+  <si>
+    <t>TA8(CI121)-TS8/MEE</t>
+  </si>
+  <si>
+    <t>TB14(CI121)-TS10/NEH</t>
+  </si>
+  <si>
+    <t>TA8(PH211)-TS11/GPK</t>
+  </si>
+  <si>
+    <t>TB10(CI121)-TS11/SOS</t>
+  </si>
+  <si>
+    <t>TA17(B11HS111)-TS10/IJ</t>
+  </si>
+  <si>
+    <t>PB6(PH271)- PL1/PC</t>
+  </si>
+  <si>
+    <t>TB6(MA211)-TS12/PSI</t>
+  </si>
+  <si>
+    <t>TA18(B11HS111)-TS11/VSE</t>
+  </si>
+  <si>
+    <t>PB5(PH271)- PL2/MKC/NKS</t>
+  </si>
+  <si>
+    <t>PA18(PH271)- PL1/INC</t>
+  </si>
+  <si>
+    <t>PB9(PH271)- PL1/NG/SDC</t>
+  </si>
+  <si>
+    <t>PC2(CI121)- CL06/ALK,PK,PKU</t>
+  </si>
+  <si>
+    <t>PA17(PH271)- PL2/NKS</t>
+  </si>
+  <si>
+    <t>PB10(PH271)- PL2/SND</t>
+  </si>
+  <si>
+    <t>PB10(CI271)- CL01/SHP,NIY,LM</t>
+  </si>
+  <si>
+    <t>PB7 (HS111)-LL / NAM</t>
+  </si>
+  <si>
+    <t>PB14 (HS111)-LL / SKU</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>PB9(CI271)- CL05/KP,SYN,MAY</t>
+  </si>
+  <si>
+    <t>TA16(B11HS111)-TS8/VSE</t>
+  </si>
+  <si>
+    <t>PB8 (HS111)- TR326/ KMB</t>
+  </si>
+  <si>
+    <t>PA10 (HS111)- CL12/ NES</t>
+  </si>
+  <si>
+    <t>PA1 (HS111)- LL/ NAM</t>
+  </si>
+  <si>
+    <t>PB1(GE111)- CAD1/ NKR</t>
+  </si>
+  <si>
+    <t>PA2(HS111)- CL12/ MRB</t>
+  </si>
+  <si>
+    <t>PB2(GE111)- CAD2/ GGL</t>
+  </si>
+  <si>
+    <t>LG1,G2(PH211)-G9/DIN</t>
+  </si>
+  <si>
+    <t>PB7(GE111)- CAD1/ SWET</t>
+  </si>
+  <si>
+    <t>PB8(GE111)- CAD2/ CDN</t>
+  </si>
+  <si>
+    <t>FRI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LB3,B4(PH211)-G1/VRT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LB11,B12(PH211)-G1/RKD </t>
+  </si>
+  <si>
+    <t>LB11,B12(MA211)- G1/NS</t>
+  </si>
+  <si>
+    <t>LA7,A8(MA211)-G1 /MPA</t>
+  </si>
+  <si>
+    <t>ALL BATCH FREE FOR MEETING</t>
+  </si>
+  <si>
+    <t>LA5,A6(CI121)-G2/DSR</t>
+  </si>
+  <si>
+    <t>LA5,A6(MA211)- G2/YG</t>
+  </si>
+  <si>
+    <t>LB9,B10(MA211)- G2/HPT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA1,A2(PH211)-G2/RKG </t>
+  </si>
+  <si>
+    <t>LB9,B10(CI121)- G1/MEE</t>
+  </si>
+  <si>
+    <t>LB1,B2(PH211)-G3/MKC</t>
+  </si>
+  <si>
+    <t>LB1,B2(B11HS111)-G3/PRV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA3,A4(PH211)-G3/MKC </t>
+  </si>
+  <si>
+    <t>LA17,A18(MA211)- FF1/AKK</t>
+  </si>
+  <si>
+    <t>LB7,B8(MA211)- G2/RSC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA10,B14(PH211)-FF2/NG </t>
+  </si>
+  <si>
+    <t>LB5,B6(CI121)-FF3/SUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA17,A18(PH211)-FF1/INC </t>
+  </si>
+  <si>
+    <t>TA16(PH211)-TS11/GPK</t>
+  </si>
+  <si>
+    <t>LB1,B2(CI121)- G3/PSO</t>
+  </si>
+  <si>
+    <t>TA1(CI121)-TS6/NEH</t>
+  </si>
+  <si>
+    <t>LA1,A2(CI121)-FF2 /AJS</t>
+  </si>
+  <si>
+    <t>LA1,A2(MA211)- FF2/MPA</t>
+  </si>
+  <si>
+    <t>TB3(PH211)-TS12/VRT</t>
+  </si>
+  <si>
+    <t>TA15(MA211)-TS6/AT</t>
+  </si>
+  <si>
+    <t>TA2(CI121)-TS7/AM</t>
+  </si>
+  <si>
+    <t>LB5,B6(B11HS111)-FF4/PU</t>
+  </si>
+  <si>
+    <t>TG1(B11HS111)-TS7/IJ</t>
+  </si>
+  <si>
+    <t>TA16(MA211)-TS7/AN</t>
+  </si>
+  <si>
+    <t>TB4(CI121)-TS6/TAJ,VS</t>
+  </si>
+  <si>
+    <t>TA18(PH211)-TS7/SND</t>
+  </si>
+  <si>
+    <t>TG2(B11HS111)-TS8/VSE</t>
+  </si>
+  <si>
+    <t>TB3(MA211)-TS8/BPC</t>
+  </si>
+  <si>
+    <t>TB8(B11HS111)-TS7/AMN</t>
+  </si>
+  <si>
+    <t>TA15(PH211)-TS11/BCJ</t>
+  </si>
+  <si>
+    <t>LB11,B12(CI121)-G8/NEH</t>
+  </si>
+  <si>
+    <t>TB4(MA211)-TS10/PAT</t>
+  </si>
+  <si>
+    <t>TA4(PH211)-TS11/BCJ</t>
+  </si>
+  <si>
+    <t>TA5(PH211)-TS12/ABH</t>
+  </si>
+  <si>
+    <t>TB6(CI121)-TS10/SUD</t>
+  </si>
+  <si>
+    <t>TB14(PH211)-TS11/RKG</t>
+  </si>
+  <si>
+    <t>TA3(PH211)-TS12/RAV</t>
+  </si>
+  <si>
+    <t>TC1(B11HS111)-TS12/BB</t>
+  </si>
+  <si>
+    <t>PC1(CI121)- CL05/ALK,SON,PK</t>
+  </si>
+  <si>
+    <t>TC2(B11HS111)- TS13/IJ</t>
+  </si>
+  <si>
+    <t>PC2(B15BT111)- BT3/EKT, PMG,SHD,AKT</t>
+  </si>
+  <si>
+    <t>TC3(B11HS111)- TS20/PRI</t>
+  </si>
+  <si>
+    <t>TA7(B11HS111)-TS16/PRI</t>
+  </si>
+  <si>
+    <t>PG1(CI271)-CL05/GZL,DEP,AMS</t>
+  </si>
+  <si>
+    <t>PB9(HS111)- LL/ HK</t>
+  </si>
+  <si>
+    <t>PG2(CI271)-CL06 /NSA,APR,PAG</t>
+  </si>
+  <si>
+    <t>PB10(HS111)- CL12/ EKS</t>
+  </si>
+  <si>
+    <t>PA5(PH271)-PL1 /MKC/SDC</t>
+  </si>
+  <si>
+    <t>PG1(PH271)- PL1/NG</t>
+  </si>
+  <si>
+    <t>PA6(PH271)- PL2/ABH/DIN</t>
+  </si>
+  <si>
+    <t>PG2(PH271)- PL2/VRT</t>
+  </si>
+  <si>
+    <t>PA17(CI271)-CL21 /HN,PKU,AA</t>
+  </si>
+  <si>
+    <t>PA18(CI271)- CL22/AJS,MSH,ASK</t>
+  </si>
+  <si>
+    <t>PA10(GE111)- CAD1/ NKR</t>
+  </si>
+  <si>
+    <t>PA3 (HS111)-LL / EKS</t>
+  </si>
+  <si>
+    <t>PC3(GE111)- CAD2/ SWET</t>
+  </si>
+  <si>
+    <t>PB12(GE111)- CAD1/ NKR</t>
+  </si>
+  <si>
+    <t>PA4 (HS111)- CL12/ YN</t>
+  </si>
+  <si>
+    <t>PB14(GE111)- CAD3/ GGL</t>
+  </si>
+  <si>
+    <t>PA7(GE111)- CAD2/ SNP</t>
+  </si>
+  <si>
+    <t>PA8(GE111)- CAD3/ CDN</t>
+  </si>
+  <si>
+    <t>SAT</t>
+  </si>
+  <si>
+    <t>LA17,A18(CI121)- G1/SLK</t>
+  </si>
+  <si>
+    <t>TA15(CI121)-TS6/NEH</t>
+  </si>
+  <si>
+    <t>LA10,B14(MA211)-G2 /AN</t>
+  </si>
+  <si>
+    <t>LA10,B14(CI121)- G2/DEP</t>
+  </si>
+  <si>
+    <t>LA5,A6(B11HS111)-G2/MKB</t>
+  </si>
+  <si>
+    <t>LB1,B2(CI121)-G3/PSO</t>
+  </si>
+  <si>
+    <t>TC2(B11CI121)-TS6/SJA</t>
+  </si>
+  <si>
+    <t>PB5 (HS111)- LL/ MDU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA1,A2(PH211)-FF2/RKG </t>
+  </si>
+  <si>
+    <t>TB8(MA211)-TS7/AN</t>
+  </si>
+  <si>
+    <t>PB6(HS111)- CL12/ SKU</t>
+  </si>
+  <si>
+    <t>LA7,A8(MA211)- CS6/MPA</t>
+  </si>
+  <si>
     <t>TA16(CI121)-TS11/SUD</t>
   </si>
   <si>
-    <t xml:space="preserve">LA17,A18(PH211)-G1/INC </t>
-  </si>
-  <si>
-    <t>LA7,A8(MA211)- G1/MPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LC1,C2,C3(PH212)-G1/SPP </t>
-  </si>
-  <si>
-    <t>LA5,A6(PH211)-G2/GPK</t>
-  </si>
-  <si>
-    <t>LA5,A6(CI121)- G2/DSR</t>
-  </si>
-  <si>
-    <t>LA5,A6(MA211)-G2 /YG</t>
-  </si>
-  <si>
-    <t>LB3,B4(B11HS111)-G2/SHB</t>
-  </si>
-  <si>
-    <t>TA3(CI121)-TS6/TAJ</t>
-  </si>
-  <si>
-    <t>LA17,A18(CI121)-G3/SLK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA7,A8(PH211)-G3/MTR </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA1,A2(PH211)-G3/RKG </t>
-  </si>
-  <si>
-    <t>LA1,A2(MA211)- G3/MPA</t>
-  </si>
-  <si>
-    <t>LB7,B8(MA211)- G3/RSC</t>
-  </si>
-  <si>
-    <t>TA4(CI121)-TS7/MEE</t>
-  </si>
-  <si>
-    <t>LB3,B4(MA211)-G6/PAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LB11,B12(PH211)-FF4/RKD </t>
-  </si>
-  <si>
-    <t>LB9,B10(CI121)- FF1/MEE</t>
-  </si>
-  <si>
-    <t>LA3,A4(B11HS111)-FF1/CKJ</t>
-  </si>
-  <si>
-    <t>TB11(PH211)-TS11/DIN</t>
-  </si>
-  <si>
-    <t>LG1,G2(PH211)-G7/DIN</t>
-  </si>
-  <si>
-    <t>LG1,G2(CI121)- FF2/APJ</t>
-  </si>
-  <si>
-    <t>LG1,G2(MA211)- FF2/AT</t>
-  </si>
-  <si>
-    <t>LG1,G2(B11HS111)-/SDA</t>
-  </si>
-  <si>
-    <t>LB11,B12(MA211)-FF2 /NS</t>
-  </si>
-  <si>
-    <t>TC3(MA212)-TS6/RSH</t>
-  </si>
-  <si>
-    <t>TB1(MA211)-TS6/BPC</t>
-  </si>
-  <si>
-    <t>LA1,A2(CI121)-FF4/AJS</t>
-  </si>
-  <si>
-    <t>TB11(B11HS111)-TS7/AMN</t>
-  </si>
-  <si>
-    <t>TG2(MA211)-TS6/PAT</t>
-  </si>
-  <si>
-    <t>TA7(CI121)-TS7/SHP</t>
-  </si>
-  <si>
-    <t>TB4(B11HS111)-TS7/AMN</t>
-  </si>
-  <si>
-    <t>TC3(PH212)-TS6/RKG</t>
-  </si>
-  <si>
-    <t>TB12(B11HS111)-TS8/VSE</t>
-  </si>
-  <si>
-    <t>TC1(B11CI121)-TS7/SJA</t>
-  </si>
-  <si>
-    <t>TA6(MA201)-TS12/PSI</t>
-  </si>
-  <si>
-    <t>TA10(CI121)-TS8/SOS,VS</t>
-  </si>
-  <si>
-    <t>TB2(MA211)-TS10/SG</t>
-  </si>
-  <si>
-    <t>TB9(CI121)-TS10/DSR</t>
-  </si>
-  <si>
-    <t>TA8(CI121)-TS8/MEE</t>
-  </si>
-  <si>
-    <t>TB14(CI121)-TS10/NEH</t>
-  </si>
-  <si>
-    <t>TA8(PH211)-TS11/GPK</t>
-  </si>
-  <si>
-    <t>TB10(CI121)-TS11/SOS</t>
-  </si>
-  <si>
-    <t>TA17(B11HS111)-TS10/IJ</t>
-  </si>
-  <si>
-    <t>PB6(PH271)- PL1/PC</t>
-  </si>
-  <si>
-    <t>TB6(MA211)-TS12/PSI</t>
-  </si>
-  <si>
-    <t>TA18(B11HS111)-TS11/VSE</t>
-  </si>
-  <si>
-    <t>PB5(PH271)- PL2/MKC/NKS</t>
-  </si>
-  <si>
-    <t>PA18(PH271)- PL1/INC</t>
-  </si>
-  <si>
-    <t>PB9(PH271)- PL1/NG/SDC</t>
-  </si>
-  <si>
-    <t>PC2(CI121)- CL06/ALK,PK,PKU</t>
-  </si>
-  <si>
-    <t>PA17(PH271)- PL2/NKS</t>
-  </si>
-  <si>
-    <t>PB10(PH271)- PL2/SND</t>
-  </si>
-  <si>
-    <t>PB10(CI271)- CL01/SHP,NIY,SMT</t>
-  </si>
-  <si>
-    <t>TA15(B11HS111)-TS7/IJ</t>
-  </si>
-  <si>
-    <t>PB7 (HS111)-LL / NAM</t>
-  </si>
-  <si>
-    <t>PB14 (HS111)-LL / SKU</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>PB9(CI271)- CL05/KP,SYN,MAY</t>
-  </si>
-  <si>
-    <t>TA16(B11HS111)-TS8/VSE</t>
-  </si>
-  <si>
-    <t>PB8 (HS111)- TR326/ KMB</t>
-  </si>
-  <si>
-    <t>PA10 (HS111)- CL12/ NES</t>
-  </si>
-  <si>
-    <t>PA1 (HS111)- LL/ NAM</t>
-  </si>
-  <si>
-    <t>PB1(GE111)- CAD1/ NKR</t>
-  </si>
-  <si>
-    <t>PA2(HS111)- CL12/ MRB</t>
-  </si>
-  <si>
-    <t>PB2(GE111)- CAD2/ GGL</t>
-  </si>
-  <si>
-    <t>LG1,G2(PH211)-G9/DIN</t>
-  </si>
-  <si>
-    <t>PB7(GE111)- CAD1/ SWET</t>
-  </si>
-  <si>
-    <t>PB8(GE111)- CAD2/ CDN</t>
-  </si>
-  <si>
-    <t>FRI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LB3,B4(PH211)-G1/VRT </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LB11,B12(PH211)-G1/RKD </t>
-  </si>
-  <si>
-    <t>LB11,B12(MA211)- G1/NS</t>
-  </si>
-  <si>
-    <t>LA7,A8(MA211)-G1 /MPA</t>
-  </si>
-  <si>
-    <t>ALL BATCH FREE FOR MEETING</t>
-  </si>
-  <si>
-    <t>LA5,A6(CI121)-G2/DSR</t>
-  </si>
-  <si>
-    <t>LA5,A6(MA211)- G2/YG</t>
-  </si>
-  <si>
-    <t>LB9,B10(MA211)- G2/HPT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA1,A2(PH211)-G2/RKG </t>
-  </si>
-  <si>
-    <t>LB9,B10(CI121)- G1/MEE</t>
-  </si>
-  <si>
-    <t>LB1,B2(PH211)-G3/MKC</t>
-  </si>
-  <si>
-    <t>LB1,B2(B11HS111)-G3/PRV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA3,A4(PH211)-G3/MKC </t>
-  </si>
-  <si>
-    <t>LA17,A18(MA211)- FF1/AKK</t>
-  </si>
-  <si>
-    <t>LB7,B8(MA211)- G2/RSC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA10,B14(PH211)-FF2/NG </t>
-  </si>
-  <si>
-    <t>LB5,B6(CI121)-FF1/SUD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA17,A18(PH211)-FF1/INC </t>
-  </si>
-  <si>
-    <t>LA7,A8(B11HS111)-FF1/SGL</t>
-  </si>
-  <si>
-    <t>TA16(PH211)-TS11/GPK</t>
-  </si>
-  <si>
-    <t>LB1,B2(CI121)- G3/PSO</t>
-  </si>
-  <si>
-    <t>TA1(CI121)-TS6/NEH</t>
-  </si>
-  <si>
-    <t>LA1,A2(CI121)-FF2 /AJS</t>
-  </si>
-  <si>
-    <t>LA1,A2(MA211)- FF2/MPA</t>
-  </si>
-  <si>
-    <t>TB3(PH211)-TS12/VRT</t>
-  </si>
-  <si>
-    <t>TA15(MA211)-TS6/AT</t>
-  </si>
-  <si>
-    <t>TA2(CI121)-TS7/AM</t>
-  </si>
-  <si>
-    <t>LB5,B6(B11HS111)-FF4/PU</t>
-  </si>
-  <si>
-    <t>TG1(B11HS111)-TS7/IJ</t>
-  </si>
-  <si>
-    <t>TA16(MA211)-TS7/AN</t>
-  </si>
-  <si>
-    <t>LA17,A18(MA211)- G9/AKK</t>
-  </si>
-  <si>
-    <t>TB4(CI121)-TS6/TAJ,VS</t>
-  </si>
-  <si>
-    <t>TA18(PH211)-TS7/SND</t>
-  </si>
-  <si>
-    <t>TG2(B11HS111)-TS8/VSE</t>
-  </si>
-  <si>
-    <t>TB3(MA211)-TS8/BPC</t>
-  </si>
-  <si>
-    <t>TB8(B11HS111)-TS7/AMN</t>
-  </si>
-  <si>
-    <t>TA15(PH211)-TS11/BCJ</t>
-  </si>
-  <si>
-    <t>LB11,B12(CI121)-G8/NEH</t>
-  </si>
-  <si>
-    <t>TB4(MA211)-TS10/PAT</t>
-  </si>
-  <si>
-    <t>TA4(PH211)-TS11/BCJ</t>
-  </si>
-  <si>
-    <t>TA5(PH211)-TS12/ABH</t>
-  </si>
-  <si>
-    <t>TB6(CI121)-TS10/SUD</t>
-  </si>
-  <si>
-    <t>TB14(PH211)-TS11/RKG</t>
-  </si>
-  <si>
-    <t>TA3(PH211)-TS12/RAV</t>
-  </si>
-  <si>
-    <t>TC1(B11HS111)-TS12/BB</t>
-  </si>
-  <si>
-    <t>PC1(CI121)- CL05/ALK,SON,PK</t>
-  </si>
-  <si>
-    <t>TC2(B11HS111)- TS13/IJ</t>
-  </si>
-  <si>
-    <t>PC2(B15BT111)- BT3/EKT, PMG,SHD,AKT</t>
-  </si>
-  <si>
-    <t>TC3(B11HS111)- TS14/PRI</t>
-  </si>
-  <si>
-    <t>TA7(B11HS111)-TS16/PRI</t>
-  </si>
-  <si>
-    <t>PG1(CI271)-CL05/GZL,DEP,AMS</t>
-  </si>
-  <si>
-    <t>PB9(HS111)- LL/ HK</t>
-  </si>
-  <si>
-    <t>PG2(CI271)-CL06 /NSA,APR,PAG</t>
-  </si>
-  <si>
-    <t>PB10(HS111)- CL12/ EKS</t>
-  </si>
-  <si>
-    <t>PA5(PH271)-PL1 /MKC/SDC</t>
-  </si>
-  <si>
-    <t>PG1(PH271)- PL1/NG</t>
-  </si>
-  <si>
-    <t>PA6(PH271)- PL2/ABH/DIN</t>
-  </si>
-  <si>
-    <t>PG2(PH271)- PL2/VRT</t>
-  </si>
-  <si>
-    <t>PA17(CI271)-CL21 /HN,PKU,AA</t>
-  </si>
-  <si>
-    <t>PA18(CI271)- CL22/AJS,MSH,ASK</t>
-  </si>
-  <si>
-    <t>PA10(GE111)- CAD1/ NKR</t>
-  </si>
-  <si>
-    <t>PA3 (HS111)-LL / EKS</t>
-  </si>
-  <si>
-    <t>PC3(GE111)- CAD2/ SWET</t>
-  </si>
-  <si>
-    <t>PB12(GE111)- CAD1/ NKR</t>
-  </si>
-  <si>
-    <t>PA4 (HS111)- CL12/ YN</t>
-  </si>
-  <si>
-    <t>PB14(GE111)- CAD3/ GGL</t>
-  </si>
-  <si>
-    <t>PA7(GE111)- CAD2/ SNP</t>
-  </si>
-  <si>
-    <t>PA8(GE111)- CAD3/ CDN</t>
-  </si>
-  <si>
-    <t>SAT</t>
-  </si>
-  <si>
-    <t>LA17,A18(CI121)- G1/SLK</t>
-  </si>
-  <si>
-    <t>TA15(CI121)-TS6/NEH</t>
-  </si>
-  <si>
-    <t>LA10,B14(MA211)-G2 /AN</t>
-  </si>
-  <si>
-    <t>LA10,B14(CI121)- G2/DEP</t>
-  </si>
-  <si>
-    <t>LA5,A6(B11HS111)-G2/MKB</t>
-  </si>
-  <si>
-    <t>LB1,B2(CI121)-G3/PSO</t>
-  </si>
-  <si>
-    <t>LA7,A8(MA211)- FF2/MPA</t>
-  </si>
-  <si>
-    <t>TC2(B11CI121)-TS6/SJA</t>
-  </si>
-  <si>
-    <t>PB5 (HS111)- LL/ MDU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA1,A2(PH211)-FF2/RKG </t>
-  </si>
-  <si>
-    <t>TB8(MA211)-TS7/AN</t>
-  </si>
-  <si>
-    <t>PB6(HS111)- CL12/ SKU</t>
-  </si>
-  <si>
     <t>PA1(PH271)- PL1/INC</t>
   </si>
   <si>
@@ -1238,16 +1232,16 @@
     <t>PC1(B15BT111)- BT3/EKT, PMG,SHD,AKT</t>
   </si>
   <si>
-    <t>PA6(CI271)-CL02 /SYN,DSR,KP</t>
-  </si>
-  <si>
-    <t>PB1(CI271)- CL01/DEP,PSO,MSI</t>
+    <t>PA6(CI271)-CL02 /SYN,DSI,KP</t>
+  </si>
+  <si>
+    <t>PB1(CI271)- CL01/DEP,PSO,TNV</t>
   </si>
   <si>
     <t>PB5(CI271)- CL05/AJP,SHB,ASK</t>
   </si>
   <si>
-    <t>PB2(CI271)- CL02/SLK,TNV,PKU</t>
+    <t>PB2(CI271)- CL02/SLK,APR,PKU</t>
   </si>
   <si>
     <t>PB6(CI271)- CL06/ANP,AA,GZL</t>
@@ -1743,6 +1737,9 @@
   </si>
   <si>
     <t xml:space="preserve">SNP: Satyanarayan Patel </t>
+  </si>
+  <si>
+    <t>LM: Dr Lalita Mishra</t>
   </si>
   <si>
     <t xml:space="preserve">SWET: Shwetabh Singh </t>
@@ -1753,8 +1750,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -1882,13 +1879,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1896,39 +1886,31 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1942,10 +1924,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1954,13 +1945,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -1979,38 +1963,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -2018,7 +1972,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2035,6 +1989,49 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="40">
@@ -2088,25 +2085,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2124,7 +2109,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2136,7 +2127,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2148,31 +2199,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2184,13 +2211,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2202,73 +2253,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2511,6 +2508,19 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2641,19 +2651,6 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2937,6 +2934,21 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2946,6 +2958,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2961,21 +2982,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3006,26 +3012,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3045,154 +3042,154 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="54" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="58" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3320,6 +3317,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3356,322 +3356,322 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3680,7 +3680,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3698,16 +3698,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3716,19 +3716,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3746,19 +3749,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3818,14 +3827,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3895,11 +3904,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3919,7 +3936,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3928,15 +3945,10 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4111,7 +4123,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4146,7 +4157,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4326,11 +4336,11 @@
   <dimension ref="A1:L203"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B124" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I134" sqref="I134:I147"/>
+      <selection pane="bottomRight" activeCell="L141" sqref="L141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
@@ -4390,7 +4400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="51.75" customHeight="1" spans="1:9">
+    <row r="3" ht="51.75" customHeight="1" spans="1:8">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -4414,168 +4424,167 @@
       </c>
       <c r="H3" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="I3" s="112" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" ht="32.25" customHeight="1" spans="1:9">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="74"/>
       <c r="F4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="112" t="s">
         <v>23</v>
-      </c>
-      <c r="I4" s="113" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" ht="31.5" customHeight="1" spans="1:9">
       <c r="A5" s="11"/>
       <c r="B5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="E5" s="74"/>
       <c r="F5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="H5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="114"/>
+      <c r="I5" s="113"/>
     </row>
     <row r="6" ht="33.75" customHeight="1" spans="1:9">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="E6" s="74"/>
       <c r="F6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="114" t="s">
         <v>36</v>
-      </c>
-      <c r="I6" s="115" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="7" ht="64.5" customHeight="1" spans="1:9">
       <c r="A7" s="11"/>
       <c r="B7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="E7" s="74"/>
       <c r="F7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="115" t="s">
-        <v>42</v>
+      <c r="I7" s="114" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:9">
       <c r="A8" s="11"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>44</v>
       </c>
       <c r="E8" s="74"/>
       <c r="F8" s="75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8" s="18"/>
       <c r="H8" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="114" t="s">
         <v>46</v>
-      </c>
-      <c r="I8" s="115" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1" spans="1:9">
       <c r="A9" s="11"/>
       <c r="B9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="E9" s="74"/>
       <c r="F9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="H9" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="76" t="s">
+      <c r="I9" s="114" t="s">
         <v>52</v>
-      </c>
-      <c r="I9" s="115" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1" spans="1:9">
       <c r="A10" s="11"/>
       <c r="B10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="D10" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="74"/>
+      <c r="F10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="1"/>
       <c r="G10" s="76" t="s">
         <v>57</v>
       </c>
       <c r="H10" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="114" t="s">
+      <c r="I10" s="113" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4594,7 +4603,7 @@
       <c r="H11" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="114"/>
+      <c r="I11" s="113"/>
     </row>
     <row r="12" ht="33.75" customHeight="1" spans="1:9">
       <c r="A12" s="11"/>
@@ -4611,7 +4620,7 @@
         <v>65</v>
       </c>
       <c r="H12" s="77"/>
-      <c r="I12" s="114"/>
+      <c r="I12" s="113"/>
     </row>
     <row r="13" ht="33.75" customHeight="1" spans="1:9">
       <c r="A13" s="11"/>
@@ -4628,7 +4637,7 @@
         <v>68</v>
       </c>
       <c r="H13" s="77"/>
-      <c r="I13" s="114"/>
+      <c r="I13" s="113"/>
     </row>
     <row r="14" ht="36" customHeight="1" spans="1:9">
       <c r="A14" s="11"/>
@@ -4640,12 +4649,12 @@
         <v>70</v>
       </c>
       <c r="E14" s="74"/>
-      <c r="F14" s="46"/>
+      <c r="F14" s="47"/>
       <c r="G14" s="78" t="s">
         <v>71</v>
       </c>
       <c r="H14" s="78"/>
-      <c r="I14" s="114"/>
+      <c r="I14" s="113"/>
     </row>
     <row r="15" ht="32.25" customHeight="1" spans="1:9">
       <c r="A15" s="11"/>
@@ -4662,7 +4671,7 @@
       <c r="H15" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="116"/>
+      <c r="I15" s="115"/>
     </row>
     <row r="16" ht="19.5" customHeight="1" spans="1:9">
       <c r="A16" s="11"/>
@@ -4679,7 +4688,7 @@
       <c r="H16" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="117"/>
+      <c r="I16" s="116"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="11"/>
@@ -4696,7 +4705,7 @@
       <c r="H17" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="116"/>
+      <c r="I17" s="115"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="11"/>
@@ -4713,7 +4722,7 @@
       <c r="H18" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="116"/>
+      <c r="I18" s="115"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="11"/>
@@ -4726,7 +4735,7 @@
       <c r="H19" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="118"/>
+      <c r="I19" s="117"/>
     </row>
     <row r="20" ht="29.25" customHeight="1" spans="1:9">
       <c r="A20" s="11"/>
@@ -4741,7 +4750,7 @@
       <c r="H20" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="118"/>
+      <c r="I20" s="117"/>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:9">
       <c r="A21" s="35"/>
@@ -4756,7 +4765,7 @@
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="34"/>
-      <c r="I21" s="119"/>
+      <c r="I21" s="118"/>
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:9">
       <c r="A22" s="37"/>
@@ -4771,17 +4780,17 @@
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
-      <c r="I22" s="119"/>
+      <c r="I22" s="118"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:9">
       <c r="A23" s="39"/>
       <c r="E23" s="74"/>
-      <c r="F23" s="50" t="s">
+      <c r="F23" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="51"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="120"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="119"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="8.25" customHeight="1" spans="1:9">
       <c r="A24" s="40"/>
@@ -4792,7 +4801,7 @@
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="121"/>
+      <c r="I24" s="120"/>
     </row>
     <row r="25" ht="34.5" customHeight="1" spans="1:9">
       <c r="A25" s="8" t="s">
@@ -4845,7 +4854,7 @@
         <v>104</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="28.5" customHeight="1" spans="1:9">
@@ -4891,7 +4900,7 @@
       <c r="G28" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="46" t="s">
+      <c r="H28" s="47" t="s">
         <v>117</v>
       </c>
       <c r="I28" s="64"/>
@@ -4908,519 +4917,520 @@
         <v>120</v>
       </c>
       <c r="E29" s="74"/>
-      <c r="F29" s="82"/>
+      <c r="F29" s="13" t="s">
+        <v>121</v>
+      </c>
       <c r="G29" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="I29" s="115"/>
+        <v>123</v>
+      </c>
+      <c r="I29" s="114"/>
     </row>
     <row r="30" ht="36" customHeight="1" spans="1:9">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="14"/>
+      <c r="C30" s="43" t="s">
+        <v>124</v>
+      </c>
       <c r="D30" s="13"/>
       <c r="E30" s="74"/>
-      <c r="F30" s="83"/>
+      <c r="F30" s="82"/>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
-      <c r="I30" s="115"/>
+      <c r="I30" s="114"/>
     </row>
     <row r="31" ht="39.75" customHeight="1" spans="1:9">
       <c r="A31" s="11"/>
-      <c r="B31" s="43" t="s">
-        <v>123</v>
+      <c r="B31" s="44" t="s">
+        <v>125</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="44" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>127</v>
       </c>
       <c r="E31" s="74"/>
-      <c r="F31" s="84" t="s">
-        <v>126</v>
+      <c r="F31" s="83" t="s">
+        <v>128</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="I31" s="114" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I31" s="113" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="32" ht="39.75" customHeight="1" spans="1:9">
       <c r="A32" s="11"/>
-      <c r="B32" s="45" t="s">
-        <v>130</v>
+      <c r="B32" s="46" t="s">
+        <v>132</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E32" s="74"/>
       <c r="F32" s="76" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G32" s="18"/>
-      <c r="H32" s="85" t="s">
-        <v>134</v>
-      </c>
-      <c r="I32" s="122"/>
+      <c r="H32" s="84" t="s">
+        <v>136</v>
+      </c>
+      <c r="I32" s="121"/>
     </row>
     <row r="33" ht="39.75" customHeight="1" spans="1:9">
       <c r="A33" s="11"/>
-      <c r="B33" s="45" t="s">
-        <v>135</v>
+      <c r="B33" s="46" t="s">
+        <v>137</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>139</v>
       </c>
       <c r="E33" s="74"/>
-      <c r="F33" s="86" t="s">
-        <v>138</v>
+      <c r="F33" s="85" t="s">
+        <v>140</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="H33" s="87"/>
-      <c r="I33" s="122" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="H33" s="86"/>
+      <c r="I33" s="121" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="34" ht="39.75" customHeight="1" spans="1:9">
       <c r="A34" s="11"/>
-      <c r="B34" s="45" t="s">
-        <v>141</v>
+      <c r="B34" s="46" t="s">
+        <v>143</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="46" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>145</v>
       </c>
       <c r="E34" s="74"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="46" t="s">
-        <v>144</v>
+      <c r="G34" s="47" t="s">
+        <v>146</v>
       </c>
       <c r="H34" s="76" t="s">
-        <v>145</v>
-      </c>
-      <c r="I34" s="115" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="I34" s="114" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1" spans="1:9">
       <c r="A35" s="11"/>
-      <c r="B35" s="45" t="s">
-        <v>147</v>
+      <c r="B35" s="46" t="s">
+        <v>149</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="74"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="89" t="s">
-        <v>149</v>
+      <c r="F35" s="87"/>
+      <c r="G35" s="88" t="s">
+        <v>151</v>
       </c>
       <c r="H35" s="76" t="s">
-        <v>150</v>
-      </c>
-      <c r="I35" s="114"/>
+        <v>152</v>
+      </c>
+      <c r="I35" s="113"/>
     </row>
     <row r="36" ht="33" customHeight="1" spans="1:9">
       <c r="A36" s="11"/>
-      <c r="B36" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="C36" s="48"/>
+      <c r="B36" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="49"/>
       <c r="D36" s="13"/>
       <c r="E36" s="74"/>
       <c r="F36" s="18"/>
       <c r="G36" s="76" t="s">
-        <v>152</v>
-      </c>
-      <c r="H36" s="90" t="s">
-        <v>153</v>
-      </c>
-      <c r="I36" s="123"/>
+        <v>154</v>
+      </c>
+      <c r="H36" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" s="122"/>
     </row>
     <row r="37" ht="29.25" customHeight="1" spans="1:9">
       <c r="A37" s="11"/>
       <c r="B37" s="27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C37" s="31"/>
       <c r="D37" s="18"/>
       <c r="E37" s="74"/>
       <c r="F37" s="31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G37" s="31"/>
-      <c r="H37" s="91" t="s">
-        <v>156</v>
-      </c>
-      <c r="I37" s="124"/>
+      <c r="H37" s="90" t="s">
+        <v>158</v>
+      </c>
+      <c r="I37" s="123"/>
     </row>
     <row r="38" customHeight="1" spans="1:9">
       <c r="A38" s="11"/>
       <c r="B38" s="27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C38" s="31"/>
       <c r="D38" s="18"/>
       <c r="E38" s="74"/>
       <c r="F38" s="31" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G38" s="31"/>
-      <c r="H38" s="92" t="s">
-        <v>159</v>
-      </c>
-      <c r="I38" s="125"/>
+      <c r="H38" s="91" t="s">
+        <v>161</v>
+      </c>
+      <c r="I38" s="124"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="11"/>
       <c r="B39" s="27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C39" s="31"/>
       <c r="D39" s="18"/>
       <c r="E39" s="74"/>
       <c r="F39" s="30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G39" s="30"/>
-      <c r="H39" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="I39" s="126"/>
+      <c r="H39" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="I39" s="125"/>
     </row>
     <row r="40" ht="21.75" customHeight="1" spans="1:9">
       <c r="A40" s="11"/>
-      <c r="B40" s="49"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="74"/>
       <c r="F40" s="30" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G40" s="30"/>
-      <c r="H40" s="94" t="s">
-        <v>165</v>
-      </c>
-      <c r="I40" s="127"/>
+      <c r="H40" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="I40" s="126"/>
     </row>
     <row r="41" ht="28.5" customHeight="1" spans="1:9">
       <c r="A41" s="11"/>
       <c r="B41" s="32" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="34"/>
       <c r="E41" s="74"/>
       <c r="F41" s="32" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G41" s="33"/>
       <c r="H41" s="34"/>
-      <c r="I41" s="128"/>
+      <c r="I41" s="127"/>
     </row>
     <row r="42" ht="30" customHeight="1" spans="1:9">
       <c r="A42" s="11"/>
       <c r="B42" s="36" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
       <c r="E42" s="74"/>
       <c r="F42" s="36" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="36"/>
-      <c r="I42" s="120"/>
+      <c r="I42" s="119"/>
     </row>
     <row r="43" ht="26.25" customHeight="1" spans="1:9">
       <c r="A43" s="39"/>
-      <c r="B43" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="G43" s="51"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="119"/>
+      <c r="B43" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="52"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="94"/>
+      <c r="F43" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="52"/>
+      <c r="H43" s="53"/>
+      <c r="I43" s="118"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="7.5" customHeight="1" spans="1:9">
-      <c r="A44" s="53"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="129"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="56"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="128"/>
     </row>
     <row r="45" ht="26.25" customHeight="1" spans="1:9">
       <c r="A45" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="B45" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="C45" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="E45" s="98" t="s">
+      <c r="D45" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="99" t="s">
+      <c r="F45" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="57" t="s">
-        <v>175</v>
-      </c>
-      <c r="H45" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="I45" s="130" t="s">
+      <c r="G45" s="58" t="s">
         <v>177</v>
+      </c>
+      <c r="H45" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="I45" s="129" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="46" ht="33" customHeight="1" spans="1:8">
       <c r="A46" s="11"/>
-      <c r="B46" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="C46" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="D46" s="58" t="s">
+      <c r="B46" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="E46" s="98"/>
+      <c r="C46" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46" s="97"/>
       <c r="F46" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="G46" s="100"/>
-      <c r="H46" s="57" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="G46" s="99"/>
+      <c r="H46" s="58" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="47" ht="32.25" customHeight="1" spans="1:9">
       <c r="A47" s="11"/>
       <c r="B47" s="12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D47" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="E47" s="98"/>
-      <c r="F47" s="101" t="s">
         <v>186</v>
       </c>
+      <c r="D47" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="E47" s="97"/>
+      <c r="F47" s="100" t="s">
+        <v>188</v>
+      </c>
       <c r="G47" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="H47" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="I47" s="131" t="s">
         <v>189</v>
+      </c>
+      <c r="H47" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="I47" s="130" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="48" ht="39" customHeight="1" spans="1:9">
       <c r="A48" s="11"/>
       <c r="B48" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="E48" s="98"/>
+        <v>194</v>
+      </c>
+      <c r="E48" s="97"/>
       <c r="F48" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="G48" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="H48" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="I48" s="113" t="s">
-        <v>194</v>
+      <c r="G48" s="58" t="s">
+        <v>195</v>
+      </c>
+      <c r="H48" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="I48" s="112" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:9">
       <c r="A49" s="11"/>
       <c r="B49" s="12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="E49" s="98"/>
+        <v>199</v>
+      </c>
+      <c r="E49" s="97"/>
       <c r="F49" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="G49" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="H49" s="60" t="s">
         <v>200</v>
       </c>
-      <c r="I49" s="113" t="s">
+      <c r="G49" s="47" t="s">
         <v>201</v>
+      </c>
+      <c r="H49" s="61" t="s">
+        <v>202</v>
+      </c>
+      <c r="I49" s="112" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="50" ht="29.25" customHeight="1" spans="1:9">
       <c r="A50" s="11"/>
-      <c r="B50" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="C50" s="60" t="s">
-        <v>203</v>
-      </c>
-      <c r="D50" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="E50" s="98"/>
-      <c r="F50" s="60" t="s">
+      <c r="B50" s="60" t="s">
         <v>204</v>
       </c>
+      <c r="C50" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="97"/>
+      <c r="F50" s="61" t="s">
+        <v>206</v>
+      </c>
       <c r="G50" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="H50" s="102" t="s">
-        <v>206</v>
-      </c>
-      <c r="I50" s="128"/>
+        <v>207</v>
+      </c>
+      <c r="H50" s="101" t="s">
+        <v>208</v>
+      </c>
+      <c r="I50" s="127"/>
     </row>
     <row r="51" ht="41.25" customHeight="1" spans="1:9">
       <c r="A51" s="11"/>
       <c r="B51" s="62" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C51" s="63"/>
-      <c r="D51" s="46" t="s">
-        <v>208</v>
-      </c>
-      <c r="E51" s="98"/>
-      <c r="F51" s="101" t="s">
-        <v>209</v>
+      <c r="D51" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="97"/>
+      <c r="F51" s="100" t="s">
+        <v>211</v>
       </c>
       <c r="G51" s="66" t="s">
-        <v>210</v>
-      </c>
-      <c r="H51" s="102" t="s">
-        <v>211</v>
-      </c>
-      <c r="I51" s="132"/>
+        <v>212</v>
+      </c>
+      <c r="H51" s="101" t="s">
+        <v>213</v>
+      </c>
+      <c r="I51" s="131"/>
     </row>
     <row r="52" ht="41.25" customHeight="1" spans="1:9">
       <c r="A52" s="35"/>
       <c r="B52" s="64"/>
       <c r="C52" s="18" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="E52" s="98"/>
-      <c r="F52" s="58" t="s">
-        <v>214</v>
-      </c>
-      <c r="G52" s="103" t="s">
         <v>215</v>
       </c>
+      <c r="E52" s="97"/>
+      <c r="F52" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="G52" s="102" t="s">
+        <v>217</v>
+      </c>
       <c r="H52" s="64"/>
-      <c r="I52" s="132"/>
+      <c r="I52" s="131"/>
     </row>
     <row r="53" ht="41.25" customHeight="1" spans="1:9">
       <c r="A53" s="35"/>
       <c r="B53" s="64"/>
       <c r="C53" s="20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D53" s="65" t="s">
-        <v>217</v>
-      </c>
-      <c r="E53" s="98"/>
+        <v>219</v>
+      </c>
+      <c r="E53" s="97"/>
       <c r="F53" s="64"/>
       <c r="G53" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="H53" s="104" t="s">
-        <v>219</v>
-      </c>
-      <c r="I53" s="104"/>
+        <v>220</v>
+      </c>
+      <c r="H53" s="103" t="s">
+        <v>221</v>
+      </c>
+      <c r="I53" s="103"/>
     </row>
     <row r="54" ht="27.75" customHeight="1" spans="1:9">
       <c r="A54" s="11"/>
-      <c r="B54" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="C54" s="48"/>
+      <c r="B54" s="48" t="s">
+        <v>222</v>
+      </c>
+      <c r="C54" s="49"/>
       <c r="D54" s="66" t="s">
-        <v>221</v>
-      </c>
-      <c r="E54" s="98"/>
+        <v>223</v>
+      </c>
+      <c r="E54" s="97"/>
       <c r="F54" s="64"/>
       <c r="G54" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="H54" s="104" t="s">
-        <v>223</v>
-      </c>
-      <c r="I54" s="104"/>
+        <v>224</v>
+      </c>
+      <c r="H54" s="103" t="s">
+        <v>225</v>
+      </c>
+      <c r="I54" s="103"/>
     </row>
     <row r="55" ht="26.25" customHeight="1" spans="1:9">
       <c r="A55" s="11"/>
       <c r="B55" s="27" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C55" s="31"/>
       <c r="D55" s="66" t="s">
-        <v>225</v>
-      </c>
-      <c r="E55" s="98"/>
+        <v>227</v>
+      </c>
+      <c r="E55" s="97"/>
       <c r="F55" s="64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G55" s="64"/>
       <c r="H55" s="64" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I55" s="64"/>
     </row>
@@ -5428,16 +5438,16 @@
       <c r="A56" s="11"/>
       <c r="B56" s="17"/>
       <c r="C56" s="64" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D56" s="64"/>
-      <c r="E56" s="98"/>
+      <c r="E56" s="97"/>
       <c r="F56" s="31" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G56" s="31"/>
       <c r="H56" s="64" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I56" s="64"/>
     </row>
@@ -5445,82 +5455,84 @@
       <c r="A57" s="11"/>
       <c r="B57" s="67"/>
       <c r="C57" s="64" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D57" s="64"/>
-      <c r="E57" s="98"/>
+      <c r="E57" s="97"/>
       <c r="F57" s="31" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G57" s="31"/>
       <c r="H57" s="31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I57" s="31"/>
-      <c r="L57" s="133"/>
+      <c r="L57" s="132"/>
     </row>
     <row r="58" ht="33.75" customHeight="1" spans="1:12">
       <c r="A58" s="11"/>
       <c r="B58" s="27" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C58" s="31"/>
       <c r="D58" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="E58" s="98"/>
+        <v>237</v>
+      </c>
+      <c r="E58" s="97"/>
       <c r="F58" s="64"/>
       <c r="G58" s="38" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H58" s="31" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I58" s="31"/>
-      <c r="L58" s="133"/>
+      <c r="L58" s="132"/>
     </row>
     <row r="59" ht="26.25" customHeight="1" spans="1:12">
       <c r="A59" s="11"/>
       <c r="B59" s="27" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C59" s="31"/>
       <c r="D59" s="69" t="s">
-        <v>239</v>
-      </c>
-      <c r="E59" s="98"/>
+        <v>241</v>
+      </c>
+      <c r="E59" s="97"/>
       <c r="F59" s="64"/>
-      <c r="G59" s="64"/>
+      <c r="G59" s="104" t="s">
+        <v>242</v>
+      </c>
       <c r="H59" s="105" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I59" s="105"/>
-      <c r="L59" s="134"/>
+      <c r="L59" s="133"/>
     </row>
     <row r="60" ht="20.25" customHeight="1" spans="1:9">
       <c r="A60" s="11"/>
       <c r="B60" s="70"/>
       <c r="C60" s="64"/>
       <c r="D60" s="64"/>
-      <c r="E60" s="98"/>
+      <c r="E60" s="97"/>
       <c r="F60" s="64"/>
       <c r="G60" s="64"/>
       <c r="H60" s="105" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I60" s="105"/>
     </row>
     <row r="61" ht="17.25" customHeight="1" spans="1:9">
       <c r="A61" s="11"/>
       <c r="B61" s="32" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C61" s="33"/>
       <c r="D61" s="34"/>
-      <c r="E61" s="98"/>
+      <c r="E61" s="97"/>
       <c r="F61" s="64"/>
       <c r="G61" s="64" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H61" s="64"/>
       <c r="I61" s="64"/>
@@ -5528,168 +5540,163 @@
     <row r="62" ht="22.5" customHeight="1" spans="1:9">
       <c r="A62" s="11"/>
       <c r="B62" s="36" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C62" s="36"/>
       <c r="D62" s="36"/>
-      <c r="E62" s="98"/>
+      <c r="E62" s="97"/>
       <c r="G62" s="106" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H62" s="107"/>
-      <c r="I62" s="135"/>
+      <c r="I62" s="134"/>
     </row>
     <row r="63" ht="22.5" customHeight="1" spans="1:9">
       <c r="A63" s="37"/>
       <c r="B63" s="38" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C63" s="38"/>
       <c r="D63" s="38"/>
-      <c r="E63" s="98"/>
+      <c r="E63" s="97"/>
       <c r="F63" s="108"/>
       <c r="G63" s="38" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H63" s="38"/>
       <c r="I63" s="38"/>
     </row>
     <row r="64" ht="24.75" customHeight="1" spans="1:9">
       <c r="A64" s="39"/>
-      <c r="E64" s="98"/>
+      <c r="E64" s="97"/>
       <c r="F64" s="109"/>
       <c r="G64" s="36" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="H64" s="36"/>
       <c r="I64" s="36"/>
     </row>
     <row r="65" ht="16.5" customHeight="1" spans="1:9">
       <c r="A65" s="40"/>
-      <c r="B65" s="136"/>
-      <c r="C65" s="137"/>
-      <c r="D65" s="137"/>
-      <c r="E65" s="169"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="170"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="190"/>
+      <c r="B65" s="135"/>
+      <c r="C65" s="136"/>
+      <c r="D65" s="136"/>
+      <c r="E65" s="170"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="171"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="194"/>
     </row>
     <row r="66" ht="42.75" customHeight="1" spans="1:10">
       <c r="A66" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B66" s="61" t="s">
-        <v>250</v>
-      </c>
-      <c r="C66" s="138" t="s">
-        <v>251</v>
-      </c>
-      <c r="D66" s="84" t="s">
         <v>252</v>
       </c>
-      <c r="E66" s="171" t="s">
+      <c r="B66" s="137" t="s">
+        <v>253</v>
+      </c>
+      <c r="D66" s="138" t="s">
+        <v>254</v>
+      </c>
+      <c r="E66" s="172" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="84" t="s">
-        <v>253</v>
+      <c r="F66" s="138" t="s">
+        <v>255</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H66" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="I66" s="113" t="s">
-        <v>254</v>
+      <c r="I66" s="112" t="s">
+        <v>256</v>
       </c>
       <c r="J66" s="1"/>
     </row>
     <row r="67" ht="38.25" customHeight="1" spans="1:10">
       <c r="A67" s="11"/>
       <c r="B67" s="12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="D67" s="84" t="s">
-        <v>257</v>
-      </c>
-      <c r="E67" s="172"/>
+        <v>258</v>
+      </c>
+      <c r="D67" s="138" t="s">
+        <v>259</v>
+      </c>
+      <c r="E67" s="173"/>
       <c r="F67" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="I67" s="115" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="I67" s="114" t="s">
+        <v>261</v>
       </c>
       <c r="J67" s="1"/>
     </row>
     <row r="68" ht="33" customHeight="1" spans="1:10">
       <c r="A68" s="11"/>
       <c r="B68" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C68" s="88" t="s">
-        <v>261</v>
+        <v>262</v>
+      </c>
+      <c r="C68" s="87" t="s">
+        <v>263</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E68" s="172"/>
+        <v>26</v>
+      </c>
+      <c r="E68" s="173"/>
       <c r="F68" s="14" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="I68" s="115" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="I68" s="114" t="s">
+        <v>267</v>
       </c>
       <c r="J68" s="1"/>
     </row>
     <row r="69" ht="37.5" customHeight="1" spans="1:10">
       <c r="A69" s="11"/>
       <c r="B69" s="139" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="E69" s="172"/>
+        <v>270</v>
+      </c>
+      <c r="E69" s="173"/>
       <c r="F69" s="14"/>
       <c r="G69" s="14" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H69" s="14"/>
-      <c r="I69" s="191" t="s">
-        <v>270</v>
+      <c r="I69" s="195" t="s">
+        <v>272</v>
       </c>
       <c r="J69" s="1"/>
     </row>
     <row r="70" ht="36.75" customHeight="1" spans="1:10">
       <c r="A70" s="11"/>
-      <c r="B70" s="140" t="s">
-        <v>271</v>
-      </c>
+      <c r="B70" s="140"/>
       <c r="C70" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="E70" s="172"/>
+        <v>274</v>
+      </c>
+      <c r="E70" s="173"/>
       <c r="F70" s="14" t="s">
-        <v>274</v>
+        <v>198</v>
       </c>
       <c r="G70" s="18" t="s">
         <v>275</v>
@@ -5697,29 +5704,29 @@
       <c r="H70" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="I70" s="114"/>
+      <c r="I70" s="113"/>
       <c r="J70" s="1"/>
     </row>
     <row r="71" ht="30.75" customHeight="1" spans="1:10">
       <c r="A71" s="11"/>
-      <c r="B71" s="88"/>
+      <c r="B71" s="87"/>
       <c r="C71" s="76" t="s">
         <v>277</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>278</v>
       </c>
-      <c r="E71" s="172"/>
+      <c r="E71" s="173"/>
       <c r="F71" s="18" t="s">
         <v>279</v>
       </c>
       <c r="G71" s="76" t="s">
         <v>280</v>
       </c>
-      <c r="H71" s="85" t="s">
+      <c r="H71" s="84" t="s">
         <v>281</v>
       </c>
-      <c r="I71" s="115"/>
+      <c r="I71" s="114"/>
       <c r="J71" s="1"/>
     </row>
     <row r="72" ht="28.5" customHeight="1" spans="1:10">
@@ -5728,60 +5735,60 @@
       <c r="C72" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="D72" s="85" t="s">
+      <c r="D72" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="E72" s="172"/>
+      <c r="E72" s="173"/>
       <c r="F72" s="18" t="s">
         <v>284</v>
       </c>
       <c r="G72" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="H72" s="173" t="s">
+      <c r="H72" s="174" t="s">
         <v>286</v>
       </c>
-      <c r="I72" s="114"/>
+      <c r="I72" s="113"/>
       <c r="J72" s="1"/>
     </row>
     <row r="73" ht="31.5" customHeight="1" spans="1:10">
       <c r="A73" s="11"/>
       <c r="B73" s="141"/>
-      <c r="C73" s="85" t="s">
+      <c r="C73" s="84" t="s">
         <v>287</v>
       </c>
       <c r="D73" s="76" t="s">
         <v>288</v>
       </c>
-      <c r="E73" s="172"/>
-      <c r="F73" s="85" t="s">
+      <c r="E73" s="173"/>
+      <c r="F73" s="84" t="s">
         <v>289</v>
       </c>
       <c r="G73" s="13"/>
-      <c r="H73" s="85" t="s">
+      <c r="H73" s="84" t="s">
         <v>290</v>
       </c>
-      <c r="I73" s="114"/>
+      <c r="I73" s="113"/>
       <c r="J73" s="1"/>
     </row>
     <row r="74" ht="36.75" customHeight="1" spans="1:10">
       <c r="A74" s="11"/>
-      <c r="B74" s="88"/>
-      <c r="C74" s="85" t="s">
+      <c r="B74" s="87"/>
+      <c r="C74" s="84" t="s">
         <v>291</v>
       </c>
       <c r="D74" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="E74" s="172"/>
-      <c r="F74" s="85" t="s">
+      <c r="E74" s="173"/>
+      <c r="F74" s="84" t="s">
         <v>293</v>
       </c>
       <c r="G74" s="29"/>
       <c r="H74" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="I74" s="115"/>
+      <c r="I74" s="114"/>
       <c r="J74" s="1"/>
     </row>
     <row r="75" ht="27.75" customHeight="1" spans="1:10">
@@ -5791,7 +5798,7 @@
         <v>295</v>
       </c>
       <c r="D75" s="30"/>
-      <c r="E75" s="172"/>
+      <c r="E75" s="173"/>
       <c r="F75" s="76" t="s">
         <v>296</v>
       </c>
@@ -5799,7 +5806,7 @@
       <c r="H75" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="I75" s="132"/>
+      <c r="I75" s="131"/>
       <c r="J75" s="1"/>
     </row>
     <row r="76" ht="21" customHeight="1" spans="1:10">
@@ -5809,7 +5816,7 @@
         <v>298</v>
       </c>
       <c r="D76" s="30"/>
-      <c r="E76" s="172"/>
+      <c r="E76" s="173"/>
       <c r="F76" s="64" t="s">
         <v>299</v>
       </c>
@@ -5817,7 +5824,7 @@
       <c r="H76" s="64" t="s">
         <v>300</v>
       </c>
-      <c r="I76" s="132"/>
+      <c r="I76" s="131"/>
       <c r="J76" s="1"/>
     </row>
     <row r="77" ht="33" customHeight="1" spans="1:10">
@@ -5827,7 +5834,7 @@
         <v>301</v>
       </c>
       <c r="D77" s="30"/>
-      <c r="E77" s="172"/>
+      <c r="E77" s="173"/>
       <c r="F77" s="64" t="s">
         <v>302</v>
       </c>
@@ -5835,7 +5842,7 @@
       <c r="H77" s="64" t="s">
         <v>303</v>
       </c>
-      <c r="I77" s="192"/>
+      <c r="I77" s="196"/>
       <c r="J77" s="1"/>
     </row>
     <row r="78" ht="27.75" customHeight="1" spans="1:10">
@@ -5844,428 +5851,421 @@
         <v>304</v>
       </c>
       <c r="C78" s="31"/>
-      <c r="D78" s="13" t="s">
+      <c r="E78" s="173"/>
+      <c r="F78" s="175" t="s">
         <v>305</v>
       </c>
-      <c r="E78" s="172"/>
-      <c r="F78" s="174" t="s">
+      <c r="G78" s="175"/>
+      <c r="H78" s="176" t="s">
         <v>306</v>
       </c>
-      <c r="G78" s="174"/>
-      <c r="H78" s="175" t="s">
+      <c r="I78" s="197"/>
+      <c r="J78" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="I78" s="193"/>
-      <c r="J78" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="79" ht="33" customHeight="1" spans="1:10">
       <c r="A79" s="11"/>
       <c r="B79" s="142" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C79" s="79"/>
       <c r="D79" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E79" s="173"/>
+      <c r="F79" s="175" t="s">
         <v>310</v>
       </c>
-      <c r="E79" s="172"/>
-      <c r="F79" s="174" t="s">
+      <c r="G79" s="175"/>
+      <c r="H79" s="176" t="s">
         <v>311</v>
       </c>
-      <c r="G79" s="174"/>
-      <c r="H79" s="175" t="s">
-        <v>312</v>
-      </c>
-      <c r="I79" s="193"/>
+      <c r="I79" s="197"/>
       <c r="J79" s="1"/>
     </row>
     <row r="80" ht="28.5" customHeight="1" spans="1:10">
       <c r="A80" s="11"/>
       <c r="B80" s="143" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C80" s="144"/>
       <c r="D80" s="29"/>
-      <c r="E80" s="172"/>
+      <c r="E80" s="173"/>
       <c r="F80" s="32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G80" s="33"/>
       <c r="H80" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="I80" s="119"/>
+      <c r="I80" s="118"/>
       <c r="J80" s="1"/>
     </row>
     <row r="81" ht="18" customHeight="1" spans="1:10">
       <c r="A81" s="11"/>
       <c r="B81" s="143" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C81" s="144"/>
       <c r="D81" s="14"/>
-      <c r="E81" s="172"/>
+      <c r="E81" s="173"/>
       <c r="F81" s="36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G81" s="36"/>
       <c r="H81" s="140" t="s">
-        <v>317</v>
-      </c>
-      <c r="I81" s="194"/>
+        <v>316</v>
+      </c>
+      <c r="I81" s="198"/>
       <c r="J81" s="1"/>
     </row>
     <row r="82" ht="27.75" customHeight="1" spans="1:10">
       <c r="A82" s="11"/>
       <c r="B82" s="32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C82" s="33"/>
       <c r="D82" s="34"/>
-      <c r="E82" s="176"/>
+      <c r="E82" s="177"/>
       <c r="H82" s="36"/>
-      <c r="I82" s="195"/>
+      <c r="I82" s="199"/>
       <c r="J82" s="1"/>
     </row>
     <row r="83" ht="15" spans="1:10">
       <c r="A83" s="39"/>
       <c r="B83" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C83" s="36"/>
       <c r="D83" s="36"/>
-      <c r="E83" s="172"/>
+      <c r="E83" s="173"/>
       <c r="F83" s="29"/>
       <c r="G83" s="29"/>
-      <c r="I83" s="128"/>
+      <c r="I83" s="127"/>
       <c r="J83" s="1"/>
     </row>
     <row r="84" ht="9" customHeight="1" spans="1:9">
       <c r="A84" s="145"/>
-      <c r="B84" s="136"/>
-      <c r="C84" s="137"/>
-      <c r="D84" s="137"/>
-      <c r="E84" s="177"/>
-      <c r="F84" s="137"/>
-      <c r="G84" s="137"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="196"/>
+      <c r="B84" s="135"/>
+      <c r="C84" s="136"/>
+      <c r="D84" s="136"/>
+      <c r="E84" s="178"/>
+      <c r="F84" s="136"/>
+      <c r="G84" s="136"/>
+      <c r="H84" s="179"/>
+      <c r="I84" s="200"/>
     </row>
     <row r="85" ht="37.5" customHeight="1" spans="1:9">
       <c r="A85" s="146" t="s">
+        <v>319</v>
+      </c>
+      <c r="B85" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="C85" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="D85" s="47" t="s">
         <v>322</v>
-      </c>
-      <c r="D85" s="46" t="s">
-        <v>323</v>
       </c>
       <c r="E85" s="81" t="s">
         <v>13</v>
       </c>
       <c r="F85" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G85" s="180" t="s">
         <v>324</v>
       </c>
-      <c r="G85" s="178" t="s">
-        <v>325</v>
-      </c>
-      <c r="H85" s="137"/>
-      <c r="I85" s="113" t="s">
-        <v>254</v>
+      <c r="H85" s="137" t="s">
+        <v>127</v>
+      </c>
+      <c r="I85" s="112" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="86" ht="44.25" customHeight="1" spans="1:9">
       <c r="A86" s="147"/>
       <c r="B86" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C86" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="D86" s="14" t="s">
         <v>327</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>328</v>
       </c>
       <c r="E86" s="74"/>
       <c r="F86" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="G86" s="181"/>
+      <c r="H86" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="G86" s="179"/>
-      <c r="H86" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="I86" s="113" t="s">
+      <c r="I86" s="112" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="87" ht="36" customHeight="1" spans="1:9">
       <c r="A87" s="147"/>
       <c r="B87" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C87" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="D87" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="E87" s="74"/>
+      <c r="F87" s="137" t="s">
         <v>333</v>
       </c>
-      <c r="E87" s="74"/>
-      <c r="F87" s="14" t="s">
+      <c r="G87" s="181"/>
+      <c r="H87" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="G87" s="179"/>
-      <c r="H87" s="14" t="s">
+      <c r="I87" s="112" t="s">
         <v>335</v>
-      </c>
-      <c r="I87" s="113" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="88" ht="30" customHeight="1" spans="1:9">
       <c r="A88" s="147"/>
       <c r="B88" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C88" s="14" t="s">
         <v>337</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>339</v>
       </c>
       <c r="E88" s="74"/>
       <c r="F88" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="G88" s="179"/>
+        <v>338</v>
+      </c>
+      <c r="G88" s="181"/>
       <c r="H88" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="I88" s="114"/>
+        <v>339</v>
+      </c>
+      <c r="I88" s="113"/>
     </row>
     <row r="89" ht="26.25" customHeight="1" spans="1:9">
       <c r="A89" s="147"/>
       <c r="B89" s="141" t="s">
+        <v>340</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="D89" s="14" t="s">
         <v>342</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>344</v>
       </c>
       <c r="E89" s="74"/>
       <c r="F89" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="G89" s="179"/>
+        <v>343</v>
+      </c>
+      <c r="G89" s="181"/>
       <c r="H89" s="76" t="s">
-        <v>346</v>
-      </c>
-      <c r="I89" s="114"/>
+        <v>344</v>
+      </c>
+      <c r="I89" s="113"/>
     </row>
     <row r="90" ht="36" customHeight="1" spans="1:9">
       <c r="A90" s="147"/>
       <c r="B90" s="141" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E90" s="74"/>
       <c r="F90" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="G90" s="179"/>
+        <v>347</v>
+      </c>
+      <c r="G90" s="181"/>
       <c r="H90" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="I90" s="114"/>
+        <v>348</v>
+      </c>
+      <c r="I90" s="113"/>
     </row>
     <row r="91" ht="39.75" customHeight="1" spans="1:9">
       <c r="A91" s="147"/>
-      <c r="B91" s="57" t="s">
-        <v>351</v>
-      </c>
-      <c r="C91" s="85" t="s">
-        <v>352</v>
+      <c r="C91" s="84" t="s">
+        <v>349</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E91" s="74"/>
       <c r="F91" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="G91" s="179"/>
+        <v>351</v>
+      </c>
+      <c r="G91" s="181"/>
       <c r="H91" s="76" t="s">
-        <v>355</v>
-      </c>
-      <c r="I91" s="114"/>
+        <v>352</v>
+      </c>
+      <c r="I91" s="113"/>
     </row>
     <row r="92" ht="33.75" customHeight="1" spans="1:9">
       <c r="A92" s="147"/>
       <c r="B92" s="29"/>
       <c r="C92" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="E92" s="74"/>
+      <c r="F92" s="182" t="s">
+        <v>355</v>
+      </c>
+      <c r="G92" s="181"/>
+      <c r="H92" s="76" t="s">
         <v>356</v>
       </c>
-      <c r="D92" s="18" t="s">
-        <v>357</v>
-      </c>
-      <c r="E92" s="74"/>
-      <c r="F92" s="180" t="s">
-        <v>358</v>
-      </c>
-      <c r="G92" s="179"/>
-      <c r="H92" s="76" t="s">
-        <v>359</v>
-      </c>
-      <c r="I92" s="114"/>
+      <c r="I92" s="113"/>
     </row>
     <row r="93" ht="39" customHeight="1" spans="1:9">
       <c r="A93" s="147"/>
       <c r="B93" s="29"/>
       <c r="C93" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="D93" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="E93" s="74"/>
+      <c r="F93" s="183" t="s">
+        <v>359</v>
+      </c>
+      <c r="G93" s="181"/>
+      <c r="H93" s="84" t="s">
         <v>360</v>
       </c>
-      <c r="D93" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="E93" s="74"/>
-      <c r="F93" s="181" t="s">
-        <v>362</v>
-      </c>
-      <c r="G93" s="179"/>
-      <c r="H93" s="85" t="s">
-        <v>363</v>
-      </c>
-      <c r="I93" s="114"/>
+      <c r="I93" s="113"/>
     </row>
     <row r="94" ht="32.25" customHeight="1" spans="1:9">
       <c r="A94" s="147"/>
       <c r="B94" s="17"/>
       <c r="C94" s="18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D94" s="18"/>
       <c r="E94" s="74"/>
-      <c r="F94" s="182"/>
-      <c r="G94" s="179"/>
+      <c r="F94" s="184"/>
+      <c r="G94" s="181"/>
       <c r="H94" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="I94" s="114"/>
+        <v>362</v>
+      </c>
+      <c r="I94" s="113"/>
     </row>
     <row r="95" ht="40.5" customHeight="1" spans="1:9">
       <c r="A95" s="147"/>
       <c r="B95" s="148" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C95" s="149"/>
       <c r="D95" s="18"/>
       <c r="E95" s="74"/>
       <c r="F95" s="18"/>
-      <c r="G95" s="179"/>
+      <c r="G95" s="181"/>
       <c r="H95" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="I95" s="114"/>
+        <v>364</v>
+      </c>
+      <c r="I95" s="113"/>
     </row>
     <row r="96" ht="32.25" customHeight="1" spans="1:9">
       <c r="A96" s="147"/>
       <c r="B96" s="17"/>
       <c r="C96" s="150" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D96" s="149"/>
       <c r="E96" s="74"/>
-      <c r="F96" s="46"/>
-      <c r="G96" s="179"/>
+      <c r="F96" s="47"/>
+      <c r="G96" s="181"/>
       <c r="H96" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="I96" s="192"/>
+        <v>366</v>
+      </c>
+      <c r="I96" s="196"/>
     </row>
     <row r="97" ht="27.75" customHeight="1" spans="1:9">
       <c r="A97" s="147"/>
       <c r="B97" s="12"/>
       <c r="C97" s="151" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="74"/>
       <c r="F97" s="18"/>
-      <c r="G97" s="179"/>
-      <c r="H97" s="174" t="s">
-        <v>371</v>
-      </c>
-      <c r="I97" s="192"/>
+      <c r="G97" s="181"/>
+      <c r="H97" s="176" t="s">
+        <v>368</v>
+      </c>
+      <c r="I97" s="197"/>
     </row>
     <row r="98" ht="23.25" customHeight="1" spans="1:9">
       <c r="A98" s="147"/>
       <c r="B98" s="152" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C98" s="153"/>
       <c r="D98" s="14"/>
       <c r="E98" s="74"/>
       <c r="F98" s="18"/>
-      <c r="G98" s="179"/>
-      <c r="H98" s="174" t="s">
-        <v>373</v>
-      </c>
-      <c r="I98" s="132"/>
+      <c r="G98" s="181"/>
+      <c r="H98" s="176" t="s">
+        <v>370</v>
+      </c>
+      <c r="I98" s="197"/>
     </row>
     <row r="99" ht="20.25" customHeight="1" spans="1:9">
       <c r="A99" s="147"/>
       <c r="B99" s="152" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C99" s="153"/>
       <c r="D99" s="14"/>
       <c r="E99" s="74"/>
       <c r="F99" s="14"/>
-      <c r="G99" s="179"/>
-      <c r="H99" s="64" t="s">
-        <v>375</v>
-      </c>
-      <c r="I99" s="132"/>
+      <c r="G99" s="181"/>
+      <c r="H99" s="91" t="s">
+        <v>372</v>
+      </c>
+      <c r="I99" s="124"/>
     </row>
     <row r="100" ht="24" customHeight="1" spans="1:9">
       <c r="A100" s="147"/>
       <c r="B100" s="70"/>
       <c r="C100" s="30" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D100" s="30"/>
       <c r="E100" s="74"/>
       <c r="F100" s="18"/>
-      <c r="G100" s="179"/>
-      <c r="H100" s="64" t="s">
-        <v>377</v>
-      </c>
-      <c r="I100" s="192"/>
+      <c r="G100" s="181"/>
+      <c r="H100" s="91" t="s">
+        <v>374</v>
+      </c>
+      <c r="I100" s="124"/>
     </row>
     <row r="101" ht="37.5" customHeight="1" spans="1:9">
       <c r="A101" s="147"/>
       <c r="B101" s="12"/>
       <c r="C101" s="30" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D101" s="30"/>
       <c r="E101" s="74"/>
-      <c r="F101" s="182"/>
-      <c r="G101" s="179"/>
-      <c r="H101" s="174" t="s">
-        <v>379</v>
-      </c>
-      <c r="I101" s="192"/>
+      <c r="F101" s="184"/>
+      <c r="G101" s="181"/>
+      <c r="H101" s="176" t="s">
+        <v>376</v>
+      </c>
+      <c r="I101" s="197"/>
     </row>
     <row r="102" ht="18.75" customHeight="1" spans="1:9">
       <c r="A102" s="147"/>
@@ -6273,55 +6273,55 @@
       <c r="C102" s="64"/>
       <c r="D102" s="64"/>
       <c r="E102" s="74"/>
-      <c r="F102" s="182"/>
-      <c r="G102" s="179"/>
-      <c r="H102" s="174" t="s">
-        <v>380</v>
-      </c>
-      <c r="I102" s="116"/>
+      <c r="F102" s="184"/>
+      <c r="G102" s="181"/>
+      <c r="H102" s="176" t="s">
+        <v>377</v>
+      </c>
+      <c r="I102" s="197"/>
     </row>
     <row r="103" ht="19.5" customHeight="1" spans="1:9">
       <c r="A103" s="147"/>
       <c r="B103" s="32" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C103" s="33"/>
       <c r="D103" s="34"/>
       <c r="E103" s="74"/>
-      <c r="F103" s="182"/>
-      <c r="G103" s="183"/>
+      <c r="F103" s="184"/>
+      <c r="G103" s="185"/>
       <c r="H103" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="I103" s="116"/>
+        <v>379</v>
+      </c>
+      <c r="I103" s="115"/>
     </row>
     <row r="104" ht="17.25" customHeight="1" spans="1:9">
       <c r="A104" s="147"/>
       <c r="B104" s="36" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C104" s="36"/>
       <c r="D104" s="36"/>
-      <c r="E104" s="184"/>
-      <c r="G104" s="185" t="s">
-        <v>384</v>
+      <c r="E104" s="186"/>
+      <c r="G104" s="187" t="s">
+        <v>381</v>
       </c>
       <c r="H104" s="31" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I104" s="107"/>
     </row>
     <row r="105" ht="19.5" customHeight="1" spans="1:9">
       <c r="A105" s="154"/>
       <c r="B105" s="38" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C105" s="38"/>
       <c r="D105" s="38"/>
       <c r="E105" s="74"/>
       <c r="F105" s="10"/>
       <c r="G105" s="36" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H105" s="107"/>
       <c r="I105" s="36"/>
@@ -6331,234 +6331,235 @@
       <c r="B106" s="18"/>
       <c r="C106" s="31"/>
       <c r="D106" s="31"/>
-      <c r="E106" s="95"/>
+      <c r="E106" s="94"/>
       <c r="F106" s="14"/>
       <c r="G106" s="36" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H106" s="36"/>
       <c r="I106" s="36"/>
     </row>
     <row r="107" ht="11.25" customHeight="1" spans="1:9">
       <c r="A107" s="156"/>
-      <c r="B107" s="136"/>
-      <c r="C107" s="137"/>
-      <c r="D107" s="137"/>
-      <c r="E107" s="186"/>
-      <c r="F107" s="137"/>
-      <c r="G107" s="137"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="196"/>
+      <c r="B107" s="135"/>
+      <c r="C107" s="136"/>
+      <c r="D107" s="136"/>
+      <c r="E107" s="188"/>
+      <c r="F107" s="136"/>
+      <c r="G107" s="136"/>
+      <c r="H107" s="189"/>
+      <c r="I107" s="200"/>
     </row>
     <row r="108" ht="33.75" customHeight="1" spans="1:9">
       <c r="A108" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B108" s="17" t="s">
         <v>93</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E108" s="46" t="s">
-        <v>391</v>
+      <c r="E108" s="47" t="s">
+        <v>388</v>
       </c>
       <c r="F108" s="70"/>
-      <c r="G108" s="187"/>
-      <c r="H108" s="137"/>
-      <c r="I108" s="197"/>
+      <c r="G108" s="190"/>
+      <c r="H108" s="191"/>
+      <c r="I108" s="201"/>
     </row>
     <row r="109" ht="33.75" customHeight="1" spans="1:9">
       <c r="A109" s="157"/>
       <c r="B109" s="12" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="E109" s="46"/>
+        <v>391</v>
+      </c>
+      <c r="E109" s="47"/>
       <c r="F109" s="70"/>
-      <c r="G109" s="188"/>
-      <c r="H109" s="187"/>
-      <c r="I109" s="112"/>
+      <c r="G109" s="192"/>
+      <c r="H109" s="190"/>
+      <c r="I109" s="43"/>
     </row>
     <row r="110" ht="33.75" customHeight="1" spans="1:9">
       <c r="A110" s="157"/>
       <c r="B110" s="12" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="D110" s="75" t="s">
-        <v>396</v>
+        <v>330</v>
       </c>
       <c r="E110" s="64"/>
       <c r="F110" s="70"/>
-      <c r="G110" s="188"/>
-      <c r="H110" s="188"/>
-      <c r="I110" s="112"/>
+      <c r="G110" s="192"/>
+      <c r="H110" s="192"/>
+      <c r="I110" s="43"/>
     </row>
     <row r="111" ht="33.75" customHeight="1" spans="1:9">
       <c r="A111" s="11"/>
       <c r="B111" s="12"/>
       <c r="C111" s="18" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D111" s="105" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E111" s="105"/>
       <c r="F111" s="17"/>
       <c r="G111" s="18"/>
-      <c r="H111" s="188"/>
-      <c r="I111" s="113"/>
+      <c r="H111" s="192"/>
+      <c r="I111" s="112"/>
     </row>
     <row r="112" ht="33.75" customHeight="1" spans="1:9">
       <c r="A112" s="11"/>
       <c r="B112" s="17" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D112" s="105" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E112" s="105"/>
       <c r="F112" s="17"/>
       <c r="G112" s="18"/>
       <c r="H112" s="18"/>
-      <c r="I112" s="113"/>
+      <c r="I112" s="112"/>
     </row>
     <row r="113" ht="33.75" customHeight="1" spans="1:9">
       <c r="A113" s="11"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="1"/>
+      <c r="B113" s="75" t="s">
+        <v>398</v>
+      </c>
+      <c r="C113" s="158" t="s">
+        <v>399</v>
+      </c>
       <c r="D113" s="18"/>
       <c r="E113" s="18"/>
       <c r="F113" s="17"/>
       <c r="G113" s="18"/>
       <c r="H113" s="18"/>
-      <c r="I113" s="113"/>
+      <c r="I113" s="112"/>
     </row>
     <row r="114" ht="25.5" customHeight="1" spans="1:9">
       <c r="A114" s="11"/>
       <c r="B114" s="17"/>
       <c r="C114" s="30" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D114" s="30"/>
       <c r="E114" s="18"/>
       <c r="F114" s="17"/>
       <c r="G114" s="18"/>
       <c r="H114" s="18"/>
-      <c r="I114" s="113"/>
+      <c r="I114" s="112"/>
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:9">
       <c r="A115" s="11"/>
       <c r="B115" s="17"/>
       <c r="C115" s="30" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D115" s="30"/>
       <c r="E115" s="18"/>
       <c r="F115" s="17"/>
       <c r="G115" s="18"/>
       <c r="H115" s="18"/>
-      <c r="I115" s="113"/>
+      <c r="I115" s="112"/>
     </row>
     <row r="116" ht="24.75" customHeight="1" spans="1:9">
       <c r="A116" s="11"/>
       <c r="B116" s="17"/>
       <c r="C116" s="105" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D116" s="105"/>
       <c r="E116" s="18"/>
       <c r="F116" s="17"/>
       <c r="G116" s="18"/>
       <c r="H116" s="18"/>
-      <c r="I116" s="113"/>
+      <c r="I116" s="112"/>
     </row>
     <row r="117" ht="36.75" customHeight="1" spans="1:9">
       <c r="A117" s="11"/>
       <c r="B117" s="27" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C117" s="31"/>
       <c r="D117" s="30" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E117" s="30"/>
       <c r="F117" s="17"/>
       <c r="G117" s="18"/>
       <c r="H117" s="18"/>
-      <c r="I117" s="113"/>
+      <c r="I117" s="112"/>
     </row>
     <row r="118" ht="27" customHeight="1" spans="1:9">
       <c r="A118" s="11"/>
       <c r="B118" s="27" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C118" s="31"/>
       <c r="D118" s="31" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E118" s="31"/>
       <c r="F118" s="70"/>
       <c r="G118" s="18"/>
       <c r="H118" s="18"/>
-      <c r="I118" s="113"/>
+      <c r="I118" s="112"/>
     </row>
     <row r="119" ht="21.75" customHeight="1" spans="1:9">
       <c r="A119" s="11"/>
       <c r="B119" s="27" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C119" s="31"/>
       <c r="D119" s="79" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E119" s="79"/>
       <c r="F119" s="29"/>
       <c r="G119" s="18"/>
       <c r="H119" s="18"/>
-      <c r="I119" s="113"/>
+      <c r="I119" s="112"/>
     </row>
     <row r="120" ht="22.5" customHeight="1" spans="1:9">
       <c r="A120" s="11"/>
       <c r="B120" s="142" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C120" s="79"/>
       <c r="F120" s="12"/>
       <c r="G120" s="18"/>
       <c r="H120" s="18"/>
-      <c r="I120" s="113"/>
+      <c r="I120" s="112"/>
     </row>
     <row r="121" ht="26.25" customHeight="1" spans="1:9">
       <c r="A121" s="11"/>
       <c r="B121" s="32" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C121" s="33"/>
       <c r="D121" s="34"/>
       <c r="F121" s="12"/>
       <c r="G121" s="18"/>
       <c r="H121" s="18"/>
-      <c r="I121" s="113"/>
+      <c r="I121" s="112"/>
     </row>
     <row r="122" customHeight="1" spans="1:9">
       <c r="A122" s="11"/>
       <c r="B122" s="36" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C122" s="36"/>
       <c r="D122" s="36"/>
@@ -6566,12 +6567,12 @@
       <c r="F122" s="17"/>
       <c r="G122" s="18"/>
       <c r="H122" s="18"/>
-      <c r="I122" s="113"/>
+      <c r="I122" s="112"/>
     </row>
     <row r="123" ht="17.25" customHeight="1" spans="1:9">
       <c r="A123" s="11"/>
       <c r="B123" s="38" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C123" s="38"/>
       <c r="D123" s="38"/>
@@ -6579,7 +6580,7 @@
       <c r="F123" s="12"/>
       <c r="G123" s="18"/>
       <c r="H123" s="18"/>
-      <c r="I123" s="113"/>
+      <c r="I123" s="112"/>
     </row>
     <row r="124" ht="15" spans="1:9">
       <c r="A124" s="39"/>
@@ -6590,856 +6591,877 @@
       <c r="F124" s="12"/>
       <c r="G124" s="18"/>
       <c r="H124" s="18"/>
-      <c r="I124" s="113"/>
+      <c r="I124" s="112"/>
     </row>
     <row r="125" s="1" customFormat="1" ht="6.75" customHeight="1" spans="1:9">
-      <c r="A125" s="158"/>
-      <c r="B125" s="159"/>
-      <c r="C125" s="160"/>
-      <c r="D125" s="160"/>
-      <c r="E125" s="189"/>
-      <c r="F125" s="160"/>
-      <c r="G125" s="160"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="198"/>
+      <c r="A125" s="159"/>
+      <c r="B125" s="160"/>
+      <c r="C125" s="161"/>
+      <c r="D125" s="161"/>
+      <c r="E125" s="193"/>
+      <c r="F125" s="161"/>
+      <c r="G125" s="161"/>
+      <c r="H125" s="161"/>
+      <c r="I125" s="202"/>
     </row>
     <row r="126" ht="15" spans="1:9">
-      <c r="A126" s="161">
+      <c r="A126" s="162">
         <v>1</v>
       </c>
-      <c r="B126" s="162" t="s">
+      <c r="B126" s="163" t="s">
+        <v>413</v>
+      </c>
+      <c r="C126" s="164"/>
+      <c r="D126" s="164"/>
+      <c r="E126" s="164"/>
+      <c r="F126" s="164"/>
+      <c r="G126" s="164"/>
+      <c r="I126" s="203"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="165"/>
+      <c r="B127" s="166" t="s">
+        <v>414</v>
+      </c>
+      <c r="C127" s="167"/>
+      <c r="D127" s="167"/>
+      <c r="E127" s="167"/>
+      <c r="F127" s="167"/>
+      <c r="G127" s="167"/>
+      <c r="H127" s="164"/>
+      <c r="I127" s="204"/>
+    </row>
+    <row r="128" customHeight="1" spans="1:9">
+      <c r="A128" s="165"/>
+      <c r="B128" s="168" t="s">
         <v>415</v>
       </c>
-      <c r="C126" s="163"/>
-      <c r="D126" s="163"/>
-      <c r="E126" s="163"/>
-      <c r="F126" s="163"/>
-      <c r="G126" s="163"/>
-      <c r="H126" s="160"/>
-      <c r="I126" s="199"/>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="164"/>
-      <c r="B127" s="165" t="s">
+      <c r="C128" s="169"/>
+      <c r="D128" s="169"/>
+      <c r="E128" s="169"/>
+      <c r="F128" s="169"/>
+      <c r="G128" s="169"/>
+      <c r="H128" s="167"/>
+      <c r="I128" s="205"/>
+    </row>
+    <row r="129" customHeight="1" spans="1:9">
+      <c r="A129" s="165"/>
+      <c r="B129" s="168" t="s">
         <v>416</v>
       </c>
-      <c r="C127" s="166"/>
-      <c r="D127" s="166"/>
-      <c r="E127" s="166"/>
-      <c r="F127" s="166"/>
-      <c r="G127" s="166"/>
-      <c r="H127" s="163"/>
-      <c r="I127" s="200"/>
-    </row>
-    <row r="128" customHeight="1" spans="1:9">
-      <c r="A128" s="164"/>
-      <c r="B128" s="167" t="s">
+      <c r="C129" s="169"/>
+      <c r="D129" s="169"/>
+      <c r="E129" s="169"/>
+      <c r="F129" s="169"/>
+      <c r="G129" s="169"/>
+      <c r="H129" s="169"/>
+      <c r="I129" s="205"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="165"/>
+      <c r="B130" s="168" t="s">
         <v>417</v>
       </c>
-      <c r="C128" s="168"/>
-      <c r="D128" s="168"/>
-      <c r="E128" s="168"/>
-      <c r="F128" s="168"/>
-      <c r="G128" s="168"/>
-      <c r="H128" s="166"/>
-      <c r="I128" s="201"/>
-    </row>
-    <row r="129" customHeight="1" spans="1:9">
-      <c r="A129" s="164"/>
-      <c r="B129" s="167" t="s">
+      <c r="C130" s="169"/>
+      <c r="D130" s="169"/>
+      <c r="E130" s="169"/>
+      <c r="F130" s="169"/>
+      <c r="G130" s="169"/>
+      <c r="H130" s="169"/>
+      <c r="I130" s="205"/>
+    </row>
+    <row r="131" ht="15" spans="1:9">
+      <c r="A131" s="206"/>
+      <c r="B131" s="207" t="s">
         <v>418</v>
       </c>
-      <c r="C129" s="168"/>
-      <c r="D129" s="168"/>
-      <c r="E129" s="168"/>
-      <c r="F129" s="168"/>
-      <c r="G129" s="168"/>
-      <c r="H129" s="168"/>
-      <c r="I129" s="201"/>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="164"/>
-      <c r="B130" s="167" t="s">
+      <c r="C131" s="208"/>
+      <c r="D131" s="208"/>
+      <c r="E131" s="208"/>
+      <c r="F131" s="208"/>
+      <c r="G131" s="208"/>
+      <c r="H131" s="169"/>
+      <c r="I131" s="257"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="209">
+        <v>2</v>
+      </c>
+      <c r="B132" s="163" t="s">
         <v>419</v>
       </c>
-      <c r="C130" s="168"/>
-      <c r="D130" s="168"/>
-      <c r="E130" s="168"/>
-      <c r="F130" s="168"/>
-      <c r="G130" s="168"/>
-      <c r="H130" s="168"/>
-      <c r="I130" s="201"/>
-    </row>
-    <row r="131" ht="15" spans="1:9">
-      <c r="A131" s="202"/>
-      <c r="B131" s="203" t="s">
+      <c r="C132" s="164"/>
+      <c r="D132" s="164"/>
+      <c r="E132" s="164"/>
+      <c r="F132" s="164"/>
+      <c r="G132" s="164"/>
+      <c r="H132" s="208"/>
+      <c r="I132" s="258"/>
+    </row>
+    <row r="133" customHeight="1" spans="1:8">
+      <c r="A133" s="210"/>
+      <c r="B133" s="211" t="s">
         <v>420</v>
       </c>
-      <c r="C131" s="204"/>
-      <c r="D131" s="204"/>
-      <c r="E131" s="204"/>
-      <c r="F131" s="204"/>
-      <c r="G131" s="204"/>
-      <c r="H131" s="168"/>
-      <c r="I131" s="252"/>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="205">
-        <v>2</v>
-      </c>
-      <c r="B132" s="162" t="s">
+      <c r="C133" s="212" t="s">
         <v>421</v>
       </c>
-      <c r="C132" s="163"/>
-      <c r="D132" s="163"/>
-      <c r="E132" s="163"/>
-      <c r="F132" s="163"/>
-      <c r="G132" s="163"/>
-      <c r="H132" s="204"/>
-      <c r="I132" s="253"/>
-    </row>
-    <row r="133" customHeight="1" spans="1:8">
-      <c r="A133" s="206"/>
-      <c r="B133" s="207" t="s">
+      <c r="D133" s="213" t="s">
         <v>422</v>
       </c>
-      <c r="C133" s="208" t="s">
+      <c r="E133" s="249" t="s">
         <v>423</v>
       </c>
-      <c r="D133" s="209" t="s">
+      <c r="F133" s="249" t="s">
         <v>424</v>
       </c>
-      <c r="E133" s="241" t="s">
+      <c r="G133" s="249"/>
+      <c r="H133" s="250"/>
+    </row>
+    <row r="134" ht="32.25" customHeight="1" spans="1:9">
+      <c r="A134" s="214"/>
+      <c r="B134" s="215"/>
+      <c r="C134" s="216" t="s">
         <v>425</v>
       </c>
-      <c r="F133" s="241" t="s">
+      <c r="D134" s="217" t="s">
         <v>426</v>
       </c>
-      <c r="G133" s="241"/>
-      <c r="H133" s="242"/>
-    </row>
-    <row r="134" ht="32.25" customHeight="1" spans="1:9">
-      <c r="A134" s="210"/>
-      <c r="B134" s="211"/>
-      <c r="C134" s="212" t="s">
+      <c r="E134" s="251"/>
+      <c r="F134" s="251"/>
+      <c r="G134" s="251"/>
+      <c r="H134" s="252" t="s">
         <v>427</v>
       </c>
-      <c r="D134" s="213" t="s">
+      <c r="I134" s="259" t="s">
         <v>428</v>
       </c>
-      <c r="E134" s="243"/>
-      <c r="F134" s="243"/>
-      <c r="G134" s="243"/>
-      <c r="H134" s="244" t="s">
+    </row>
+    <row r="135" ht="30.75" spans="1:9">
+      <c r="A135" s="218">
+        <v>3</v>
+      </c>
+      <c r="B135" s="219" t="s">
         <v>429</v>
       </c>
-      <c r="I134" s="254" t="s">
+      <c r="C135" s="164" t="s">
+        <v>429</v>
+      </c>
+      <c r="D135" s="164" t="s">
+        <v>429</v>
+      </c>
+      <c r="E135" s="164" t="s">
+        <v>429</v>
+      </c>
+      <c r="F135" s="164" t="s">
+        <v>429</v>
+      </c>
+      <c r="G135" s="164" t="s">
+        <v>429</v>
+      </c>
+      <c r="H135" s="253" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="135" ht="30.75" spans="1:9">
-      <c r="A135" s="214">
-        <v>3</v>
-      </c>
-      <c r="B135" s="215" t="s">
+      <c r="I135" s="260" t="s">
         <v>431</v>
       </c>
-      <c r="C135" s="163" t="s">
-        <v>431</v>
-      </c>
-      <c r="D135" s="163" t="s">
-        <v>431</v>
-      </c>
-      <c r="E135" s="163" t="s">
-        <v>431</v>
-      </c>
-      <c r="F135" s="163" t="s">
-        <v>431</v>
-      </c>
-      <c r="G135" s="163" t="s">
-        <v>431</v>
-      </c>
-      <c r="H135" s="245" t="s">
+    </row>
+    <row r="136" ht="15" customHeight="1" spans="1:9">
+      <c r="A136" s="220"/>
+      <c r="B136" s="221"/>
+      <c r="C136" s="169"/>
+      <c r="D136" s="169"/>
+      <c r="E136" s="169"/>
+      <c r="F136" s="169"/>
+      <c r="G136" s="169"/>
+      <c r="H136" s="254" t="s">
         <v>432</v>
       </c>
-      <c r="I135" s="255" t="s">
+      <c r="I136" s="261" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="136" ht="15" customHeight="1" spans="1:9">
-      <c r="A136" s="216"/>
-      <c r="B136" s="217"/>
-      <c r="C136" s="168"/>
-      <c r="D136" s="168"/>
-      <c r="E136" s="168"/>
-      <c r="F136" s="168"/>
-      <c r="G136" s="168"/>
-      <c r="H136" s="246" t="s">
+    <row r="137" ht="15" customHeight="1" spans="1:9">
+      <c r="A137" s="220"/>
+      <c r="B137" s="222" t="s">
         <v>434</v>
       </c>
-      <c r="I136" s="256" t="s">
+      <c r="C137" s="223" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="137" ht="15" customHeight="1" spans="1:9">
-      <c r="A137" s="216"/>
-      <c r="B137" s="218" t="s">
+      <c r="D137" s="224" t="s">
         <v>436</v>
       </c>
-      <c r="C137" s="219" t="s">
+      <c r="E137" s="224" t="s">
         <v>437</v>
       </c>
-      <c r="D137" s="220" t="s">
+      <c r="F137" s="235" t="s">
         <v>438</v>
       </c>
-      <c r="E137" s="220" t="s">
+      <c r="G137" s="233" t="s">
         <v>439</v>
       </c>
-      <c r="F137" s="231" t="s">
+      <c r="H137" s="255" t="s">
         <v>440</v>
       </c>
-      <c r="G137" s="229" t="s">
+      <c r="I137" s="262" t="s">
         <v>441</v>
       </c>
-      <c r="H137" s="247" t="s">
+    </row>
+    <row r="138" ht="28.5" spans="1:9">
+      <c r="A138" s="220"/>
+      <c r="B138" s="225" t="s">
         <v>442</v>
       </c>
-      <c r="I137" s="257" t="s">
+      <c r="C138" s="226" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="138" ht="28.5" spans="1:9">
-      <c r="A138" s="216"/>
-      <c r="B138" s="221" t="s">
+      <c r="D138" s="227" t="s">
         <v>444</v>
       </c>
-      <c r="C138" s="222" t="s">
+      <c r="E138" s="227" t="s">
         <v>445</v>
       </c>
-      <c r="D138" s="223" t="s">
+      <c r="F138" s="245" t="s">
         <v>446</v>
       </c>
-      <c r="E138" s="223" t="s">
+      <c r="G138" s="245" t="s">
         <v>447</v>
       </c>
-      <c r="F138" s="237" t="s">
+      <c r="H138" s="255" t="s">
         <v>448</v>
       </c>
-      <c r="G138" s="237" t="s">
+      <c r="I138" s="262" t="s">
         <v>449</v>
       </c>
-      <c r="H138" s="247" t="s">
+    </row>
+    <row r="139" ht="16.5" spans="1:9">
+      <c r="A139" s="220"/>
+      <c r="B139" s="228" t="s">
         <v>450</v>
       </c>
-      <c r="I138" s="257" t="s">
+      <c r="C139" s="229" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="139" ht="16.5" spans="1:9">
-      <c r="A139" s="216"/>
-      <c r="B139" s="224" t="s">
+      <c r="D139" s="230" t="s">
         <v>452</v>
       </c>
-      <c r="C139" s="225" t="s">
+      <c r="E139" s="230" t="s">
         <v>453</v>
       </c>
-      <c r="D139" s="226" t="s">
+      <c r="F139" s="235" t="s">
         <v>454</v>
       </c>
-      <c r="E139" s="226" t="s">
+      <c r="G139" s="235" t="s">
         <v>455</v>
       </c>
-      <c r="F139" s="231" t="s">
+      <c r="H139" s="255" t="s">
         <v>456</v>
       </c>
-      <c r="G139" s="231" t="s">
+      <c r="I139" s="263" t="s">
         <v>457</v>
       </c>
-      <c r="H139" s="247" t="s">
+    </row>
+    <row r="140" ht="16.5" spans="1:9">
+      <c r="A140" s="220"/>
+      <c r="B140" s="228" t="s">
         <v>458</v>
       </c>
-      <c r="I139" s="258" t="s">
+      <c r="C140" s="229" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="140" ht="16.5" spans="1:9">
-      <c r="A140" s="216"/>
-      <c r="B140" s="224" t="s">
+      <c r="D140" s="230" t="s">
+        <v>451</v>
+      </c>
+      <c r="E140" s="230" t="s">
         <v>460</v>
       </c>
-      <c r="C140" s="225" t="s">
+      <c r="F140" s="235" t="s">
         <v>461</v>
       </c>
-      <c r="D140" s="226" t="s">
-        <v>453</v>
-      </c>
-      <c r="E140" s="226" t="s">
+      <c r="G140" s="235" t="s">
         <v>462</v>
       </c>
-      <c r="F140" s="231" t="s">
+      <c r="H140" s="256" t="s">
         <v>463</v>
       </c>
-      <c r="G140" s="231" t="s">
+      <c r="I140" s="262" t="s">
         <v>464</v>
       </c>
-      <c r="H140" s="248" t="s">
+    </row>
+    <row r="141" ht="15" spans="1:9">
+      <c r="A141" s="220"/>
+      <c r="B141" s="231" t="s">
         <v>465</v>
       </c>
-      <c r="I140" s="257" t="s">
+      <c r="C141" s="229" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="141" ht="15" spans="1:9">
-      <c r="A141" s="216"/>
-      <c r="B141" s="227" t="s">
+      <c r="D141" s="230" t="s">
         <v>467</v>
       </c>
-      <c r="C141" s="225" t="s">
+      <c r="E141" s="235" t="s">
         <v>468</v>
       </c>
-      <c r="D141" s="226" t="s">
+      <c r="F141" s="235" t="s">
         <v>469</v>
       </c>
-      <c r="E141" s="231" t="s">
+      <c r="G141" s="235" t="s">
         <v>470</v>
       </c>
-      <c r="F141" s="231" t="s">
+      <c r="H141" s="255" t="s">
         <v>471</v>
       </c>
-      <c r="G141" s="231" t="s">
+      <c r="I141" s="263" t="s">
         <v>472</v>
       </c>
-      <c r="H141" s="247" t="s">
+    </row>
+    <row r="142" ht="15" spans="1:9">
+      <c r="A142" s="220"/>
+      <c r="B142" s="231" t="s">
         <v>473</v>
       </c>
-      <c r="I141" s="258" t="s">
+      <c r="C142" s="229" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="142" ht="15" spans="1:9">
-      <c r="A142" s="216"/>
-      <c r="B142" s="227" t="s">
+      <c r="D142" s="230" t="s">
         <v>475</v>
       </c>
-      <c r="C142" s="225" t="s">
+      <c r="E142" s="235" t="s">
         <v>476</v>
       </c>
-      <c r="D142" s="226" t="s">
+      <c r="F142" s="235" t="s">
         <v>477</v>
       </c>
-      <c r="E142" s="231" t="s">
+      <c r="G142" s="235" t="s">
         <v>478</v>
       </c>
-      <c r="F142" s="231" t="s">
+      <c r="H142" s="255" t="s">
         <v>479</v>
       </c>
-      <c r="G142" s="231" t="s">
+      <c r="I142" s="263" t="s">
         <v>480</v>
       </c>
-      <c r="H142" s="247" t="s">
+    </row>
+    <row r="143" ht="25.5" spans="1:9">
+      <c r="A143" s="220"/>
+      <c r="B143" s="231" t="s">
         <v>481</v>
       </c>
-      <c r="I142" s="258" t="s">
+      <c r="C143" s="229" t="s">
+        <v>443</v>
+      </c>
+      <c r="D143" s="230" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="143" ht="25.5" spans="1:9">
-      <c r="A143" s="216"/>
-      <c r="B143" s="227" t="s">
+      <c r="E143" s="235" t="s">
         <v>483</v>
       </c>
-      <c r="C143" s="225" t="s">
-        <v>445</v>
-      </c>
-      <c r="D143" s="226" t="s">
+      <c r="F143" s="235" t="s">
         <v>484</v>
       </c>
-      <c r="E143" s="231" t="s">
+      <c r="G143" s="235" t="s">
         <v>485</v>
       </c>
-      <c r="F143" s="231" t="s">
+      <c r="H143" s="255" t="s">
         <v>486</v>
       </c>
-      <c r="G143" s="231" t="s">
+      <c r="I143" s="264" t="s">
         <v>487</v>
       </c>
-      <c r="H143" s="247" t="s">
+    </row>
+    <row r="144" ht="15" spans="1:9">
+      <c r="A144" s="220"/>
+      <c r="B144" s="231" t="s">
         <v>488</v>
       </c>
-      <c r="I143" s="259" t="s">
+      <c r="C144" s="229" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="144" ht="15" spans="1:9">
-      <c r="A144" s="216"/>
-      <c r="B144" s="227" t="s">
+      <c r="D144" s="230" t="s">
         <v>490</v>
       </c>
-      <c r="C144" s="225" t="s">
+      <c r="E144" s="235" t="s">
         <v>491</v>
       </c>
-      <c r="D144" s="226" t="s">
+      <c r="F144" s="235" t="s">
         <v>492</v>
       </c>
-      <c r="E144" s="231" t="s">
+      <c r="G144" s="235" t="s">
         <v>493</v>
       </c>
-      <c r="F144" s="231" t="s">
+      <c r="H144" s="255" t="s">
         <v>494</v>
       </c>
-      <c r="G144" s="231" t="s">
+      <c r="I144" s="263" t="s">
         <v>495</v>
       </c>
-      <c r="H144" s="247" t="s">
+    </row>
+    <row r="145" ht="15" spans="1:9">
+      <c r="A145" s="220"/>
+      <c r="B145" s="231" t="s">
         <v>496</v>
       </c>
-      <c r="I144" s="258" t="s">
+      <c r="C145" s="229" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="145" ht="15" spans="1:9">
-      <c r="A145" s="216"/>
-      <c r="B145" s="227" t="s">
+      <c r="D145" s="230" t="s">
         <v>498</v>
       </c>
-      <c r="C145" s="225" t="s">
+      <c r="E145" s="235" t="s">
         <v>499</v>
       </c>
-      <c r="D145" s="226" t="s">
+      <c r="F145" s="235" t="s">
         <v>500</v>
       </c>
-      <c r="E145" s="231" t="s">
+      <c r="G145" s="235" t="s">
         <v>501</v>
       </c>
-      <c r="F145" s="231" t="s">
+      <c r="H145" s="255" t="s">
         <v>502</v>
       </c>
-      <c r="G145" s="231" t="s">
+      <c r="I145" s="263" t="s">
         <v>503</v>
       </c>
-      <c r="H145" s="247" t="s">
+    </row>
+    <row r="146" ht="21.75" customHeight="1" spans="1:9">
+      <c r="A146" s="220"/>
+      <c r="B146" s="231" t="s">
         <v>504</v>
       </c>
-      <c r="I145" s="258" t="s">
+      <c r="C146" s="229" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="146" ht="21.75" customHeight="1" spans="1:9">
-      <c r="A146" s="216"/>
-      <c r="B146" s="227" t="s">
+      <c r="D146" s="230" t="s">
+        <v>474</v>
+      </c>
+      <c r="E146" s="235" t="s">
         <v>506</v>
       </c>
-      <c r="C146" s="225" t="s">
+      <c r="F146" s="235" t="s">
         <v>507</v>
       </c>
-      <c r="D146" s="226" t="s">
+      <c r="G146" s="235" t="s">
+        <v>508</v>
+      </c>
+      <c r="H146" s="255" t="s">
+        <v>509</v>
+      </c>
+      <c r="I146" s="263" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="147" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A147" s="220"/>
+      <c r="B147" s="231" t="s">
+        <v>511</v>
+      </c>
+      <c r="C147" s="229" t="s">
+        <v>459</v>
+      </c>
+      <c r="D147" s="230" t="s">
+        <v>512</v>
+      </c>
+      <c r="E147" s="235" t="s">
+        <v>513</v>
+      </c>
+      <c r="F147" s="235" t="s">
+        <v>514</v>
+      </c>
+      <c r="G147" s="235" t="s">
+        <v>515</v>
+      </c>
+      <c r="H147" s="255" t="s">
+        <v>516</v>
+      </c>
+      <c r="I147" s="265" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="220"/>
+      <c r="B148" s="231" t="s">
+        <v>518</v>
+      </c>
+      <c r="C148" s="229" t="s">
+        <v>519</v>
+      </c>
+      <c r="D148" s="230" t="s">
+        <v>520</v>
+      </c>
+      <c r="E148" s="235" t="s">
+        <v>521</v>
+      </c>
+      <c r="F148" s="235" t="s">
+        <v>522</v>
+      </c>
+      <c r="G148" s="235" t="s">
+        <v>436</v>
+      </c>
+      <c r="H148" s="230" t="s">
+        <v>523</v>
+      </c>
+      <c r="I148" s="240" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="220"/>
+      <c r="B149" s="232" t="s">
+        <v>525</v>
+      </c>
+      <c r="C149" s="229" t="s">
+        <v>526</v>
+      </c>
+      <c r="D149" s="230" t="s">
+        <v>527</v>
+      </c>
+      <c r="E149" s="235" t="s">
+        <v>528</v>
+      </c>
+      <c r="F149" s="235" t="s">
+        <v>529</v>
+      </c>
+      <c r="G149" s="235" t="s">
+        <v>530</v>
+      </c>
+      <c r="H149" s="230" t="s">
+        <v>531</v>
+      </c>
+      <c r="I149" s="240" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="220"/>
+      <c r="B150" s="232" t="s">
         <v>476</v>
       </c>
-      <c r="E146" s="231" t="s">
-        <v>508</v>
-      </c>
-      <c r="F146" s="231" t="s">
-        <v>509</v>
-      </c>
-      <c r="G146" s="231" t="s">
-        <v>510</v>
-      </c>
-      <c r="H146" s="247" t="s">
-        <v>511</v>
-      </c>
-      <c r="I146" s="258" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="147" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A147" s="216"/>
-      <c r="B147" s="227" t="s">
-        <v>513</v>
-      </c>
-      <c r="C147" s="225" t="s">
-        <v>461</v>
-      </c>
-      <c r="D147" s="226" t="s">
-        <v>514</v>
-      </c>
-      <c r="E147" s="231" t="s">
-        <v>515</v>
-      </c>
-      <c r="F147" s="231" t="s">
-        <v>516</v>
-      </c>
-      <c r="G147" s="231" t="s">
-        <v>517</v>
-      </c>
-      <c r="H147" s="247" t="s">
-        <v>518</v>
-      </c>
-      <c r="I147" s="260" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="216"/>
-      <c r="B148" s="227" t="s">
-        <v>520</v>
-      </c>
-      <c r="C148" s="225" t="s">
-        <v>521</v>
-      </c>
-      <c r="D148" s="226" t="s">
+      <c r="C150" s="229" t="s">
+        <v>533</v>
+      </c>
+      <c r="D150" s="230" t="s">
+        <v>534</v>
+      </c>
+      <c r="E150" s="235" t="s">
+        <v>535</v>
+      </c>
+      <c r="F150" s="235" t="s">
+        <v>536</v>
+      </c>
+      <c r="G150" s="235" t="s">
+        <v>537</v>
+      </c>
+      <c r="H150" s="230" t="s">
+        <v>538</v>
+      </c>
+      <c r="I150" s="240" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="220"/>
+      <c r="B151" s="232" t="s">
+        <v>540</v>
+      </c>
+      <c r="C151" s="229" t="s">
+        <v>541</v>
+      </c>
+      <c r="D151" s="230" t="s">
+        <v>542</v>
+      </c>
+      <c r="E151" s="235" t="s">
+        <v>543</v>
+      </c>
+      <c r="F151" s="235" t="s">
+        <v>544</v>
+      </c>
+      <c r="G151" s="235" t="s">
+        <v>545</v>
+      </c>
+      <c r="H151" s="230" t="s">
+        <v>546</v>
+      </c>
+      <c r="I151" s="240" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="152" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A152" s="220"/>
+      <c r="B152" s="232" t="s">
+        <v>548</v>
+      </c>
+      <c r="C152" s="233" t="s">
+        <v>549</v>
+      </c>
+      <c r="D152" s="234" t="s">
+        <v>550</v>
+      </c>
+      <c r="E152" s="235" t="s">
+        <v>551</v>
+      </c>
+      <c r="F152" s="235" t="s">
+        <v>552</v>
+      </c>
+      <c r="G152" s="235" t="s">
+        <v>553</v>
+      </c>
+      <c r="H152" s="230" t="s">
+        <v>554</v>
+      </c>
+      <c r="I152" s="242" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="220"/>
+      <c r="B153" s="232" t="s">
+        <v>556</v>
+      </c>
+      <c r="C153" s="235" t="s">
+        <v>557</v>
+      </c>
+      <c r="D153" s="235" t="s">
+        <v>558</v>
+      </c>
+      <c r="E153" s="235" t="s">
+        <v>559</v>
+      </c>
+      <c r="F153" s="235" t="s">
         <v>522</v>
       </c>
-      <c r="E148" s="231" t="s">
+      <c r="G153" s="235" t="s">
+        <v>560</v>
+      </c>
+      <c r="H153" s="230" t="s">
+        <v>561</v>
+      </c>
+      <c r="I153" s="244" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="154" ht="28.5" spans="1:9">
+      <c r="A154" s="220"/>
+      <c r="B154" s="236" t="s">
+        <v>563</v>
+      </c>
+      <c r="C154" s="237" t="s">
+        <v>564</v>
+      </c>
+      <c r="D154" s="230" t="s">
+        <v>565</v>
+      </c>
+      <c r="E154" s="230" t="s">
+        <v>566</v>
+      </c>
+      <c r="F154" s="245" t="s">
+        <v>567</v>
+      </c>
+      <c r="G154" s="245" t="s">
+        <v>568</v>
+      </c>
+      <c r="H154" s="243" t="s">
+        <v>569</v>
+      </c>
+      <c r="I154" s="244" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="155" ht="15" spans="1:9">
+      <c r="A155" s="238"/>
+      <c r="B155" s="239" t="s">
+        <v>571</v>
+      </c>
+      <c r="C155" s="230" t="s">
         <v>523</v>
       </c>
-      <c r="F148" s="231" t="s">
+      <c r="D155" s="240" t="s">
+        <v>572</v>
+      </c>
+      <c r="E155" s="246"/>
+      <c r="F155" s="246"/>
+      <c r="G155" s="246"/>
+      <c r="H155" s="245"/>
+      <c r="I155" s="266"/>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="238"/>
+      <c r="B156" s="241"/>
+      <c r="C156" s="230" t="s">
+        <v>531</v>
+      </c>
+      <c r="D156" s="240" t="s">
         <v>524</v>
       </c>
-      <c r="G148" s="231" t="s">
-        <v>438</v>
-      </c>
-      <c r="H148" s="226" t="s">
-        <v>525</v>
-      </c>
-      <c r="I148" s="250" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="216"/>
-      <c r="B149" s="228" t="s">
-        <v>527</v>
-      </c>
-      <c r="C149" s="225" t="s">
-        <v>528</v>
-      </c>
-      <c r="D149" s="226" t="s">
-        <v>529</v>
-      </c>
-      <c r="E149" s="231" t="s">
-        <v>530</v>
-      </c>
-      <c r="F149" s="231" t="s">
-        <v>531</v>
-      </c>
-      <c r="G149" s="231" t="s">
+      <c r="E156" s="246"/>
+      <c r="F156" s="246"/>
+      <c r="G156" s="246"/>
+      <c r="H156" s="245"/>
+      <c r="I156" s="266"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="238"/>
+      <c r="B157" s="241"/>
+      <c r="C157" s="230" t="s">
+        <v>538</v>
+      </c>
+      <c r="D157" s="240" t="s">
         <v>532</v>
       </c>
-      <c r="H149" s="226" t="s">
-        <v>533</v>
-      </c>
-      <c r="I149" s="250" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="216"/>
-      <c r="B150" s="228" t="s">
-        <v>478</v>
-      </c>
-      <c r="C150" s="225" t="s">
-        <v>535</v>
-      </c>
-      <c r="D150" s="226" t="s">
-        <v>536</v>
-      </c>
-      <c r="E150" s="231" t="s">
-        <v>537</v>
-      </c>
-      <c r="F150" s="231" t="s">
-        <v>538</v>
-      </c>
-      <c r="G150" s="231" t="s">
+      <c r="E157" s="246"/>
+      <c r="F157" s="246"/>
+      <c r="G157" s="246"/>
+      <c r="H157" s="245"/>
+      <c r="I157" s="266"/>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" s="238"/>
+      <c r="B158" s="241"/>
+      <c r="C158" s="230" t="s">
+        <v>546</v>
+      </c>
+      <c r="D158" s="240" t="s">
         <v>539</v>
       </c>
-      <c r="H150" s="226" t="s">
-        <v>540</v>
-      </c>
-      <c r="I150" s="250" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="216"/>
-      <c r="B151" s="228" t="s">
-        <v>542</v>
-      </c>
-      <c r="C151" s="225" t="s">
-        <v>543</v>
-      </c>
-      <c r="D151" s="226" t="s">
-        <v>544</v>
-      </c>
-      <c r="E151" s="231" t="s">
-        <v>545</v>
-      </c>
-      <c r="F151" s="231" t="s">
-        <v>546</v>
-      </c>
-      <c r="G151" s="231" t="s">
+      <c r="E158" s="246"/>
+      <c r="F158" s="246"/>
+      <c r="G158" s="246"/>
+      <c r="H158" s="245"/>
+      <c r="I158" s="266"/>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" s="238"/>
+      <c r="B159" s="241"/>
+      <c r="C159" s="230" t="s">
+        <v>554</v>
+      </c>
+      <c r="D159" s="240" t="s">
         <v>547</v>
       </c>
-      <c r="H151" s="226" t="s">
-        <v>548</v>
-      </c>
-      <c r="I151" s="250" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="152" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A152" s="216"/>
-      <c r="B152" s="228" t="s">
-        <v>550</v>
-      </c>
-      <c r="C152" s="229" t="s">
-        <v>551</v>
-      </c>
-      <c r="D152" s="230" t="s">
-        <v>552</v>
-      </c>
-      <c r="E152" s="231" t="s">
-        <v>553</v>
-      </c>
-      <c r="F152" s="231" t="s">
-        <v>554</v>
-      </c>
-      <c r="G152" s="231" t="s">
+      <c r="E159" s="246"/>
+      <c r="F159" s="246"/>
+      <c r="G159" s="246"/>
+      <c r="H159" s="245"/>
+      <c r="I159" s="266"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="238"/>
+      <c r="B160" s="241"/>
+      <c r="C160" s="230" t="s">
+        <v>561</v>
+      </c>
+      <c r="D160" s="242" t="s">
         <v>555</v>
       </c>
-      <c r="H152" s="226" t="s">
-        <v>556</v>
-      </c>
-      <c r="I152" s="250" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" s="216"/>
-      <c r="B153" s="228" t="s">
-        <v>558</v>
-      </c>
-      <c r="C153" s="231" t="s">
-        <v>559</v>
-      </c>
-      <c r="D153" s="231" t="s">
-        <v>560</v>
-      </c>
-      <c r="E153" s="231" t="s">
-        <v>561</v>
-      </c>
-      <c r="F153" s="231" t="s">
-        <v>524</v>
-      </c>
-      <c r="G153" s="231" t="s">
+      <c r="E160" s="246"/>
+      <c r="F160" s="246"/>
+      <c r="G160" s="246"/>
+      <c r="H160" s="245"/>
+      <c r="I160" s="266"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="238"/>
+      <c r="B161" s="241"/>
+      <c r="C161" s="243" t="s">
+        <v>569</v>
+      </c>
+      <c r="D161" s="244" t="s">
         <v>562</v>
       </c>
-      <c r="H153" s="226" t="s">
-        <v>563</v>
-      </c>
-      <c r="I153" s="251" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="154" ht="28.5" spans="1:9">
-      <c r="A154" s="216"/>
-      <c r="B154" s="232" t="s">
-        <v>565</v>
-      </c>
-      <c r="C154" s="233" t="s">
-        <v>566</v>
-      </c>
-      <c r="D154" s="226" t="s">
-        <v>567</v>
-      </c>
-      <c r="E154" s="226" t="s">
-        <v>568</v>
-      </c>
-      <c r="F154" s="237" t="s">
-        <v>569</v>
-      </c>
-      <c r="G154" s="237" t="s">
+      <c r="E161" s="246"/>
+      <c r="F161" s="246"/>
+      <c r="G161" s="246"/>
+      <c r="H161" s="245"/>
+      <c r="I161" s="266"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="238"/>
+      <c r="B162" s="241"/>
+      <c r="C162" s="245" t="s">
+        <v>573</v>
+      </c>
+      <c r="D162" s="244" t="s">
         <v>570</v>
       </c>
-      <c r="H154" s="249" t="s">
-        <v>571</v>
-      </c>
-      <c r="I154" s="251" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="155" ht="29.25" spans="1:9">
-      <c r="A155" s="234"/>
-      <c r="B155" s="235" t="s">
+      <c r="E162" s="246"/>
+      <c r="F162" s="246"/>
+      <c r="G162" s="246"/>
+      <c r="H162" s="245"/>
+      <c r="I162" s="266"/>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="238"/>
+      <c r="B163" s="241"/>
+      <c r="C163" s="243" t="s">
+        <v>574</v>
+      </c>
+      <c r="D163" s="246"/>
+      <c r="E163" s="246"/>
+      <c r="F163" s="246"/>
+      <c r="G163" s="246"/>
+      <c r="H163" s="245"/>
+      <c r="I163" s="266"/>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="238"/>
+      <c r="B164" s="241"/>
+      <c r="C164" s="245"/>
+      <c r="D164" s="246"/>
+      <c r="E164" s="246"/>
+      <c r="F164" s="246"/>
+      <c r="G164" s="246"/>
+      <c r="H164" s="245"/>
+      <c r="I164" s="266"/>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="238"/>
+      <c r="B165" s="241"/>
+      <c r="C165" s="245"/>
+      <c r="D165" s="246"/>
+      <c r="E165" s="246"/>
+      <c r="F165" s="246"/>
+      <c r="G165" s="246"/>
+      <c r="H165" s="245"/>
+      <c r="I165" s="266"/>
+    </row>
+    <row r="166" ht="15" spans="1:9">
+      <c r="A166" s="247"/>
+      <c r="C166" s="245"/>
+      <c r="D166" s="248"/>
+      <c r="E166" s="248"/>
+      <c r="F166" s="248"/>
+      <c r="G166" s="248"/>
+      <c r="H166" s="245" t="s">
         <v>573</v>
       </c>
-      <c r="C155" s="236"/>
-      <c r="D155" s="236"/>
-      <c r="E155" s="250" t="s">
+      <c r="I166" s="267"/>
+    </row>
+    <row r="167" spans="3:8">
+      <c r="C167" s="245"/>
+      <c r="H167" s="243" t="s">
         <v>574</v>
       </c>
-      <c r="F155" s="226" t="s">
-        <v>525</v>
-      </c>
-      <c r="G155" s="236"/>
-      <c r="H155" s="237"/>
-      <c r="I155" s="261"/>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="234"/>
-      <c r="B156" s="237" t="s">
-        <v>575</v>
-      </c>
-      <c r="C156" s="236"/>
-      <c r="D156" s="236"/>
-      <c r="E156" s="250" t="s">
-        <v>526</v>
-      </c>
-      <c r="F156" s="226" t="s">
-        <v>533</v>
-      </c>
-      <c r="G156" s="236"/>
-      <c r="H156" s="237"/>
-      <c r="I156" s="261"/>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="234"/>
-      <c r="B157" s="238"/>
-      <c r="C157" s="236"/>
-      <c r="D157" s="236"/>
-      <c r="E157" s="250" t="s">
-        <v>534</v>
-      </c>
-      <c r="F157" s="226" t="s">
-        <v>540</v>
-      </c>
-      <c r="G157" s="236"/>
-      <c r="H157" s="237"/>
-      <c r="I157" s="261"/>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="234"/>
-      <c r="B158" s="238"/>
-      <c r="C158" s="236"/>
-      <c r="D158" s="236"/>
-      <c r="E158" s="250" t="s">
-        <v>541</v>
-      </c>
-      <c r="F158" s="226" t="s">
-        <v>548</v>
-      </c>
-      <c r="G158" s="236"/>
-      <c r="H158" s="237"/>
-      <c r="I158" s="261"/>
-    </row>
-    <row r="159" ht="28.5" spans="1:9">
-      <c r="A159" s="234"/>
-      <c r="B159" s="238"/>
-      <c r="C159" s="236"/>
-      <c r="D159" s="236"/>
-      <c r="E159" s="250" t="s">
-        <v>549</v>
-      </c>
-      <c r="F159" s="226" t="s">
-        <v>556</v>
-      </c>
-      <c r="G159" s="236"/>
-      <c r="H159" s="237"/>
-      <c r="I159" s="261"/>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="234"/>
-      <c r="B160" s="238"/>
-      <c r="C160" s="236"/>
-      <c r="D160" s="236"/>
-      <c r="E160" s="250" t="s">
-        <v>557</v>
-      </c>
-      <c r="F160" s="226" t="s">
-        <v>563</v>
-      </c>
-      <c r="G160" s="236"/>
-      <c r="H160" s="237"/>
-      <c r="I160" s="261"/>
-    </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="234"/>
-      <c r="B161" s="238"/>
-      <c r="C161" s="236"/>
-      <c r="D161" s="236"/>
-      <c r="E161" s="251" t="s">
-        <v>564</v>
-      </c>
-      <c r="F161" s="249" t="s">
-        <v>571</v>
-      </c>
-      <c r="G161" s="236"/>
-      <c r="H161" s="237"/>
-      <c r="I161" s="261"/>
-    </row>
-    <row r="162" spans="1:9">
-      <c r="A162" s="234"/>
-      <c r="B162" s="238"/>
-      <c r="C162" s="236"/>
-      <c r="D162" s="236"/>
-      <c r="E162" s="251" t="s">
-        <v>572</v>
-      </c>
-      <c r="F162" s="236"/>
-      <c r="G162" s="236"/>
-      <c r="H162" s="237"/>
-      <c r="I162" s="261"/>
-    </row>
-    <row r="163" spans="1:9">
-      <c r="A163" s="234"/>
-      <c r="B163" s="238"/>
-      <c r="C163" s="236"/>
-      <c r="D163" s="236"/>
-      <c r="E163" s="236"/>
-      <c r="F163" s="236"/>
-      <c r="G163" s="236"/>
-      <c r="H163" s="237"/>
-      <c r="I163" s="261"/>
-    </row>
-    <row r="164" spans="1:9">
-      <c r="A164" s="234"/>
-      <c r="B164" s="238"/>
-      <c r="C164" s="236"/>
-      <c r="D164" s="236"/>
-      <c r="E164" s="236"/>
-      <c r="F164" s="236"/>
-      <c r="G164" s="236"/>
-      <c r="H164" s="237"/>
-      <c r="I164" s="261"/>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="A165" s="234"/>
-      <c r="B165" s="238"/>
-      <c r="C165" s="236"/>
-      <c r="D165" s="236"/>
-      <c r="E165" s="236"/>
-      <c r="F165" s="236"/>
-      <c r="G165" s="236"/>
-      <c r="H165" s="237"/>
-      <c r="I165" s="261"/>
-    </row>
-    <row r="166" ht="15" spans="1:9">
-      <c r="A166" s="239"/>
-      <c r="C166" s="240"/>
-      <c r="D166" s="240"/>
-      <c r="E166" s="240"/>
-      <c r="F166" s="240"/>
-      <c r="G166" s="240"/>
-      <c r="H166" s="237"/>
-      <c r="I166" s="262"/>
-    </row>
-    <row r="167" spans="8:8">
-      <c r="H167" s="240"/>
+    </row>
+    <row r="168" spans="3:3">
+      <c r="C168" s="245"/>
+    </row>
+    <row r="169" spans="3:3">
+      <c r="C169" s="245"/>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170" s="245"/>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171" s="245"/>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172" s="245"/>
     </row>
     <row r="203" spans="5:5">
       <c r="E203"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="143">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="B13:C13"/>
@@ -7529,10 +7551,16 @@
     <mergeCell ref="B83:D83"/>
     <mergeCell ref="B95:C95"/>
     <mergeCell ref="C96:D96"/>
+    <mergeCell ref="H97:I97"/>
     <mergeCell ref="B98:C98"/>
+    <mergeCell ref="H98:I98"/>
     <mergeCell ref="B99:C99"/>
+    <mergeCell ref="H99:I99"/>
     <mergeCell ref="C100:D100"/>
+    <mergeCell ref="H100:I100"/>
     <mergeCell ref="C101:D101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H102:I102"/>
     <mergeCell ref="B103:D103"/>
     <mergeCell ref="B104:D104"/>
     <mergeCell ref="B105:D105"/>
@@ -7600,32 +7628,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/raw/time_tables/B.Tech (btech)/2/1.xlsx
+++ b/raw/time_tables/B.Tech (btech)/2/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="18432" windowHeight="17068"/>
   </bookViews>
   <sheets>
     <sheet name="Phase 1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="576">
   <si>
     <t>B.TECH II SEMESTER EVEN 2025</t>
   </si>
@@ -125,9 +125,6 @@
     <t>LA15,A16(MA211)- FF1/NSK</t>
   </si>
   <si>
-    <t>TA17(CI121)-TS6/LM</t>
-  </si>
-  <si>
     <t>LB5,B6(MA211)- FF4/RSC</t>
   </si>
   <si>
@@ -203,6 +200,9 @@
     <t>TB5(PH211)-TS8/NKS</t>
   </si>
   <si>
+    <t>TA17(CI121)-TR307/LM</t>
+  </si>
+  <si>
     <t>TG2(PH211)-TS12/RKG</t>
   </si>
   <si>
@@ -392,6 +392,12 @@
     <t>LA10,B14(B11HS111)-CS8/IC</t>
   </si>
   <si>
+    <t>TB5(CI121)-TS12/LM</t>
+  </si>
+  <si>
+    <t>TA16(B11HS111)-TS10/VSE</t>
+  </si>
+  <si>
     <t>TG1(MA211)-TS6/PAT</t>
   </si>
   <si>
@@ -833,6 +839,9 @@
     <t>LA3,A4(B11HS111)-FF1/CKJ</t>
   </si>
   <si>
+    <t>TC2(B11CI121)-FF2/SJA</t>
+  </si>
+  <si>
     <t>TB11(PH211)-TS11/DIN</t>
   </si>
   <si>
@@ -944,9 +953,6 @@
     <t>PB9(CI271)- CL05/KP,SYN,MAY</t>
   </si>
   <si>
-    <t>TA16(B11HS111)-TS8/VSE</t>
-  </si>
-  <si>
     <t>PB8 (HS111)- TR326/ KMB</t>
   </si>
   <si>
@@ -1196,9 +1202,6 @@
     <t>LB1,B2(CI121)-G3/PSO</t>
   </si>
   <si>
-    <t>TC2(B11CI121)-TS6/SJA</t>
-  </si>
-  <si>
     <t>PB5 (HS111)- LL/ MDU</t>
   </si>
   <si>
@@ -1731,9 +1734,6 @@
   </si>
   <si>
     <t xml:space="preserve"> NEJ :Neetu Joshi</t>
-  </si>
-  <si>
-    <t>BPC:Prof. B. P. Chamola</t>
   </si>
   <si>
     <t xml:space="preserve">SNP: Satyanarayan Patel </t>
@@ -1750,10 +1750,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -1894,41 +1894,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1947,9 +1916,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1957,17 +1954,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1978,14 +1967,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1999,32 +2005,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <i/>
@@ -2032,6 +2024,14 @@
       <color indexed="23"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="40">
@@ -2091,25 +2091,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2121,7 +2139,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2151,7 +2175,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2163,85 +2241,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2253,19 +2253,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2518,6 +2518,21 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -2640,21 +2655,6 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -2962,11 +2962,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3003,26 +3009,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3030,8 +3019,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3042,111 +3042,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="58" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="54" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3155,31 +3176,10 @@
     <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3189,7 +3189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="268">
+  <cellXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3320,6 +3320,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3356,418 +3359,412 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3776,7 +3773,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3800,10 +3797,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3827,14 +3824,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3900,26 +3897,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3936,19 +3917,21 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3960,21 +3943,25 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4123,6 +4110,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4157,6 +4145,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4333,34 +4322,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L203"/>
+  <dimension ref="A1:L192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B124" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L141" sqref="L141"/>
+      <selection pane="bottomRight" activeCell="I134" sqref="I134:I147"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.13913043478261" defaultRowHeight="13.4"/>
   <cols>
-    <col min="1" max="1" width="5.70833333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.1416666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.2833333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.425" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.8583333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.425" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.8583333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.5666666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.2833333333333" style="2" customWidth="1"/>
-    <col min="10" max="10" width="1.70833333333333" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.14166666666667" style="2"/>
-    <col min="12" max="12" width="25.8583333333333" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.14166666666667" style="2"/>
+    <col min="1" max="1" width="5.71304347826087" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.1391304347826" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.2869565217391" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.4260869565217" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.8521739130435" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.4260869565217" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.8521739130435" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.5739130434783" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.2869565217391" style="2" customWidth="1"/>
+    <col min="10" max="10" width="1.71304347826087" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.13913043478261" style="2"/>
+    <col min="12" max="12" width="25.8521739130435" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.13913043478261" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" spans="1:9">
+    <row r="1" ht="23.75" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4373,7 +4362,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="110"/>
     </row>
-    <row r="2" ht="15" spans="1:9">
+    <row r="2" ht="14.2" spans="1:9">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>1</v>
@@ -4384,10 +4373,10 @@
       <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="73" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="7" t="s">
@@ -4413,7 +4402,7 @@
       <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="74" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -4437,7 +4426,7 @@
       <c r="D4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="74"/>
+      <c r="E4" s="75"/>
       <c r="F4" s="14" t="s">
         <v>20</v>
       </c>
@@ -4462,7 +4451,7 @@
       <c r="D5" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="74"/>
+      <c r="E5" s="75"/>
       <c r="F5" s="18" t="s">
         <v>27</v>
       </c>
@@ -4474,7 +4463,7 @@
       </c>
       <c r="I5" s="113"/>
     </row>
-    <row r="6" ht="33.75" customHeight="1" spans="1:9">
+    <row r="6" ht="33.75" customHeight="1" spans="1:8">
       <c r="A6" s="11"/>
       <c r="B6" s="12" t="s">
         <v>30</v>
@@ -4485,7 +4474,7 @@
       <c r="D6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="74"/>
+      <c r="E6" s="75"/>
       <c r="F6" s="14" t="s">
         <v>33</v>
       </c>
@@ -4494,111 +4483,110 @@
       </c>
       <c r="H6" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="I6" s="114" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" ht="64.5" customHeight="1" spans="1:9">
       <c r="A7" s="11"/>
       <c r="B7" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="75"/>
+      <c r="F7" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="G7" s="18"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="114" t="s">
-        <v>41</v>
+      <c r="I7" s="44" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:9">
       <c r="A8" s="11"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E8" s="75"/>
+      <c r="F8" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="75" t="s">
+      <c r="G8" s="18"/>
+      <c r="H8" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="76" t="s">
+      <c r="I8" s="44" t="s">
         <v>45</v>
-      </c>
-      <c r="I8" s="114" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" ht="30.75" customHeight="1" spans="1:9">
       <c r="A9" s="11"/>
       <c r="B9" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="E9" s="75"/>
+      <c r="F9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="18" t="s">
+      <c r="G9" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="H9" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="76" t="s">
+      <c r="I9" s="44" t="s">
         <v>51</v>
-      </c>
-      <c r="I9" s="114" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="10" ht="30.75" customHeight="1" spans="1:9">
       <c r="A10" s="11"/>
       <c r="B10" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="D10" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="75"/>
+      <c r="F10" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="14" t="s">
+      <c r="G10" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="76" t="s">
+      <c r="H10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="I10" s="113" t="s">
         <v>58</v>
-      </c>
-      <c r="I10" s="113" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" ht="33.75" customHeight="1" spans="1:9">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="E11" s="75"/>
+      <c r="F11" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18" t="s">
         <v>62</v>
@@ -4614,12 +4602,12 @@
       <c r="D12" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="74"/>
+      <c r="E12" s="75"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="77" t="s">
+      <c r="G12" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="77"/>
+      <c r="H12" s="78"/>
       <c r="I12" s="113"/>
     </row>
     <row r="13" ht="33.75" customHeight="1" spans="1:9">
@@ -4631,12 +4619,12 @@
       <c r="D13" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="74"/>
+      <c r="E13" s="75"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="77" t="s">
+      <c r="G13" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="77"/>
+      <c r="H13" s="78"/>
       <c r="I13" s="113"/>
     </row>
     <row r="14" ht="36" customHeight="1" spans="1:9">
@@ -4648,12 +4636,12 @@
       <c r="D14" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="78" t="s">
+      <c r="E14" s="75"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="78"/>
+      <c r="H14" s="79"/>
       <c r="I14" s="113"/>
     </row>
     <row r="15" ht="32.25" customHeight="1" spans="1:9">
@@ -4663,7 +4651,7 @@
         <v>72</v>
       </c>
       <c r="D15" s="30"/>
-      <c r="E15" s="74"/>
+      <c r="E15" s="75"/>
       <c r="F15" s="18" t="s">
         <v>73</v>
       </c>
@@ -4671,7 +4659,7 @@
       <c r="H15" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="115"/>
+      <c r="I15" s="114"/>
     </row>
     <row r="16" ht="19.5" customHeight="1" spans="1:9">
       <c r="A16" s="11"/>
@@ -4680,15 +4668,15 @@
         <v>75</v>
       </c>
       <c r="D16" s="30"/>
-      <c r="E16" s="74"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="18" t="s">
         <v>76</v>
       </c>
       <c r="G16" s="18"/>
-      <c r="H16" s="79" t="s">
+      <c r="H16" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="I16" s="116"/>
+      <c r="I16" s="115"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="11"/>
@@ -4697,7 +4685,7 @@
       </c>
       <c r="C17" s="31"/>
       <c r="D17" s="29"/>
-      <c r="E17" s="74"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="14" t="s">
         <v>79</v>
       </c>
@@ -4705,7 +4693,7 @@
       <c r="H17" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="I17" s="115"/>
+      <c r="I17" s="114"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="11"/>
@@ -4714,7 +4702,7 @@
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="18"/>
-      <c r="E18" s="74"/>
+      <c r="E18" s="75"/>
       <c r="F18" s="14" t="s">
         <v>82</v>
       </c>
@@ -4722,20 +4710,20 @@
       <c r="H18" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="I18" s="115"/>
+      <c r="I18" s="114"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="11"/>
       <c r="B19" s="17"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
-      <c r="E19" s="74"/>
+      <c r="E19" s="75"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="117"/>
+      <c r="I19" s="116"/>
     </row>
     <row r="20" ht="29.25" customHeight="1" spans="1:9">
       <c r="A20" s="11"/>
@@ -4744,13 +4732,13 @@
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="34"/>
-      <c r="E20" s="74"/>
+      <c r="E20" s="75"/>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
       <c r="H20" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="I20" s="117"/>
+      <c r="I20" s="116"/>
     </row>
     <row r="21" ht="24" customHeight="1" spans="1:9">
       <c r="A21" s="35"/>
@@ -4759,13 +4747,13 @@
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
-      <c r="E21" s="74"/>
+      <c r="E21" s="75"/>
       <c r="F21" s="32" t="s">
         <v>88</v>
       </c>
       <c r="G21" s="33"/>
       <c r="H21" s="34"/>
-      <c r="I21" s="118"/>
+      <c r="I21" s="117"/>
     </row>
     <row r="22" ht="24" customHeight="1" spans="1:9">
       <c r="A22" s="37"/>
@@ -4774,34 +4762,34 @@
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="74"/>
+      <c r="E22" s="75"/>
       <c r="F22" s="36" t="s">
         <v>90</v>
       </c>
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
-      <c r="I22" s="118"/>
+      <c r="I22" s="117"/>
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:9">
       <c r="A23" s="39"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="51" t="s">
+      <c r="E23" s="75"/>
+      <c r="F23" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="119"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="118"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="8.25" customHeight="1" spans="1:9">
       <c r="A24" s="40"/>
       <c r="B24" s="41"/>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
-      <c r="E24" s="80"/>
+      <c r="E24" s="81"/>
       <c r="F24" s="42"/>
       <c r="G24" s="42"/>
       <c r="H24" s="42"/>
-      <c r="I24" s="120"/>
+      <c r="I24" s="119"/>
     </row>
     <row r="25" ht="34.5" customHeight="1" spans="1:9">
       <c r="A25" s="8" t="s">
@@ -4816,7 +4804,7 @@
       <c r="D25" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="81" t="s">
+      <c r="E25" s="82" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="14" t="s">
@@ -4843,7 +4831,7 @@
       <c r="D26" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E26" s="74"/>
+      <c r="E26" s="75"/>
       <c r="F26" s="14" t="s">
         <v>102</v>
       </c>
@@ -4868,7 +4856,7 @@
       <c r="D27" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="74"/>
+      <c r="E27" s="75"/>
       <c r="F27" s="14" t="s">
         <v>108</v>
       </c>
@@ -4893,17 +4881,17 @@
       <c r="D28" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="74"/>
+      <c r="E28" s="75"/>
       <c r="F28" s="14" t="s">
         <v>115</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H28" s="47" t="s">
+      <c r="H28" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="I28" s="64"/>
+      <c r="I28" s="65"/>
     </row>
     <row r="29" ht="36" customHeight="1" spans="1:9">
       <c r="A29" s="11"/>
@@ -4916,7 +4904,7 @@
       <c r="D29" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E29" s="74"/>
+      <c r="E29" s="75"/>
       <c r="F29" s="13" t="s">
         <v>121</v>
       </c>
@@ -4926,7 +4914,7 @@
       <c r="H29" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="I29" s="114"/>
+      <c r="I29" s="44"/>
     </row>
     <row r="30" ht="36" customHeight="1" spans="1:9">
       <c r="A30" s="11"/>
@@ -4934,277 +4922,281 @@
       <c r="C30" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="82"/>
+      <c r="D30" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="75"/>
+      <c r="F30" s="13" t="s">
+        <v>126</v>
+      </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
-      <c r="I30" s="114"/>
+      <c r="I30" s="44"/>
     </row>
     <row r="31" ht="39.75" customHeight="1" spans="1:9">
       <c r="A31" s="11"/>
-      <c r="B31" s="44" t="s">
-        <v>125</v>
+      <c r="B31" s="45" t="s">
+        <v>127</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" s="74"/>
+        <v>128</v>
+      </c>
+      <c r="D31" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="75"/>
       <c r="F31" s="83" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I31" s="113" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" ht="39.75" customHeight="1" spans="1:9">
       <c r="A32" s="11"/>
-      <c r="B32" s="46" t="s">
-        <v>132</v>
+      <c r="B32" s="47" t="s">
+        <v>134</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="74"/>
-      <c r="F32" s="76" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="E32" s="75"/>
+      <c r="F32" s="77" t="s">
+        <v>137</v>
       </c>
       <c r="G32" s="18"/>
       <c r="H32" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="I32" s="121"/>
+        <v>138</v>
+      </c>
+      <c r="I32" s="120"/>
     </row>
     <row r="33" ht="39.75" customHeight="1" spans="1:9">
       <c r="A33" s="11"/>
-      <c r="B33" s="46" t="s">
-        <v>137</v>
+      <c r="B33" s="47" t="s">
+        <v>139</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" s="74"/>
+        <v>140</v>
+      </c>
+      <c r="D33" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="75"/>
       <c r="F33" s="85" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H33" s="86"/>
-      <c r="I33" s="121" t="s">
-        <v>142</v>
+      <c r="I33" s="120" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="34" ht="39.75" customHeight="1" spans="1:9">
       <c r="A34" s="11"/>
-      <c r="B34" s="46" t="s">
-        <v>143</v>
+      <c r="B34" s="47" t="s">
+        <v>145</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="E34" s="74"/>
+        <v>146</v>
+      </c>
+      <c r="D34" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="75"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="H34" s="76" t="s">
-        <v>147</v>
-      </c>
-      <c r="I34" s="114" t="s">
+      <c r="G34" s="48" t="s">
         <v>148</v>
+      </c>
+      <c r="H34" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="I34" s="44" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1" spans="1:9">
       <c r="A35" s="11"/>
-      <c r="B35" s="46" t="s">
-        <v>149</v>
+      <c r="B35" s="47" t="s">
+        <v>151</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D35" s="30"/>
-      <c r="E35" s="74"/>
+      <c r="E35" s="75"/>
       <c r="F35" s="87"/>
       <c r="G35" s="88" t="s">
-        <v>151</v>
-      </c>
-      <c r="H35" s="76" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="H35" s="77" t="s">
+        <v>154</v>
       </c>
       <c r="I35" s="113"/>
     </row>
     <row r="36" ht="33" customHeight="1" spans="1:9">
       <c r="A36" s="11"/>
-      <c r="B36" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" s="49"/>
+      <c r="B36" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="50"/>
       <c r="D36" s="13"/>
-      <c r="E36" s="74"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="18"/>
-      <c r="G36" s="76" t="s">
-        <v>154</v>
+      <c r="G36" s="77" t="s">
+        <v>156</v>
       </c>
       <c r="H36" s="89" t="s">
-        <v>155</v>
-      </c>
-      <c r="I36" s="122"/>
+        <v>157</v>
+      </c>
+      <c r="I36" s="121"/>
     </row>
     <row r="37" ht="29.25" customHeight="1" spans="1:9">
       <c r="A37" s="11"/>
       <c r="B37" s="27" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C37" s="31"/>
       <c r="D37" s="18"/>
-      <c r="E37" s="74"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G37" s="31"/>
       <c r="H37" s="90" t="s">
-        <v>158</v>
-      </c>
-      <c r="I37" s="123"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="I37" s="122"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1" spans="1:9">
       <c r="A38" s="11"/>
       <c r="B38" s="27" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C38" s="31"/>
       <c r="D38" s="18"/>
-      <c r="E38" s="74"/>
+      <c r="E38" s="75"/>
       <c r="F38" s="31" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G38" s="31"/>
       <c r="H38" s="91" t="s">
-        <v>161</v>
-      </c>
-      <c r="I38" s="124"/>
+        <v>163</v>
+      </c>
+      <c r="I38" s="123"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="11"/>
       <c r="B39" s="27" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C39" s="31"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="74"/>
+      <c r="E39" s="75"/>
       <c r="F39" s="30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G39" s="30"/>
       <c r="H39" s="92" t="s">
-        <v>164</v>
-      </c>
-      <c r="I39" s="125"/>
+        <v>166</v>
+      </c>
+      <c r="I39" s="124"/>
     </row>
     <row r="40" ht="21.75" customHeight="1" spans="1:9">
       <c r="A40" s="11"/>
-      <c r="B40" s="50"/>
+      <c r="B40" s="51"/>
       <c r="C40" s="30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D40" s="30"/>
-      <c r="E40" s="74"/>
+      <c r="E40" s="75"/>
       <c r="F40" s="30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G40" s="30"/>
       <c r="H40" s="93" t="s">
-        <v>167</v>
-      </c>
-      <c r="I40" s="126"/>
+        <v>169</v>
+      </c>
+      <c r="I40" s="125"/>
     </row>
     <row r="41" ht="28.5" customHeight="1" spans="1:9">
       <c r="A41" s="11"/>
       <c r="B41" s="32" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="74"/>
+      <c r="E41" s="75"/>
       <c r="F41" s="32" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G41" s="33"/>
       <c r="H41" s="34"/>
-      <c r="I41" s="127"/>
+      <c r="I41" s="126"/>
     </row>
     <row r="42" ht="30" customHeight="1" spans="1:9">
       <c r="A42" s="11"/>
       <c r="B42" s="36" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
-      <c r="E42" s="74"/>
+      <c r="E42" s="75"/>
       <c r="F42" s="36" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="36"/>
-      <c r="I42" s="119"/>
+      <c r="I42" s="118"/>
     </row>
     <row r="43" ht="26.25" customHeight="1" spans="1:9">
       <c r="A43" s="39"/>
-      <c r="B43" s="51" t="s">
-        <v>172</v>
-      </c>
-      <c r="C43" s="52"/>
-      <c r="D43" s="53"/>
+      <c r="B43" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="C43" s="53"/>
+      <c r="D43" s="54"/>
       <c r="E43" s="94"/>
-      <c r="F43" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="G43" s="52"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="118"/>
+      <c r="F43" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="G43" s="53"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="117"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="7.5" customHeight="1" spans="1:9">
-      <c r="A44" s="54"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
       <c r="E44" s="95"/>
       <c r="F44" s="96"/>
       <c r="G44" s="96"/>
       <c r="H44" s="96"/>
-      <c r="I44" s="128"/>
+      <c r="I44" s="127"/>
     </row>
     <row r="45" ht="26.25" customHeight="1" spans="1:9">
       <c r="A45" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="57" t="s">
-        <v>175</v>
-      </c>
-      <c r="C45" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="B45" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="D45" s="58" t="s">
-        <v>176</v>
+      <c r="D45" s="59" t="s">
+        <v>178</v>
       </c>
       <c r="E45" s="97" t="s">
         <v>13</v>
@@ -5212,356 +5204,356 @@
       <c r="F45" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="H45" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="I45" s="129" t="s">
+      <c r="G45" s="59" t="s">
         <v>179</v>
+      </c>
+      <c r="H45" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="I45" s="128" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="46" ht="33" customHeight="1" spans="1:8">
       <c r="A46" s="11"/>
-      <c r="B46" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>181</v>
-      </c>
-      <c r="D46" s="59" t="s">
+      <c r="B46" s="58" t="s">
         <v>182</v>
+      </c>
+      <c r="C46" s="59" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="60" t="s">
+        <v>184</v>
       </c>
       <c r="E46" s="97"/>
       <c r="F46" s="14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G46" s="99"/>
-      <c r="H46" s="58" t="s">
-        <v>184</v>
+      <c r="H46" s="59" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="47" ht="32.25" customHeight="1" spans="1:9">
       <c r="A47" s="11"/>
       <c r="B47" s="12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D47" s="58" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="D47" s="59" t="s">
+        <v>189</v>
       </c>
       <c r="E47" s="97"/>
       <c r="F47" s="100" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="H47" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="I47" s="130" t="s">
         <v>191</v>
+      </c>
+      <c r="H47" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="I47" s="129" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="48" ht="39" customHeight="1" spans="1:9">
       <c r="A48" s="11"/>
       <c r="B48" s="12" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E48" s="97"/>
-      <c r="F48" s="65" t="s">
+      <c r="F48" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="G48" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="H48" s="58" t="s">
+      <c r="G48" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="H48" s="59" t="s">
         <v>32</v>
       </c>
       <c r="I48" s="112" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:9">
       <c r="A49" s="11"/>
       <c r="B49" s="12" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E49" s="97"/>
       <c r="F49" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="G49" s="47" t="s">
-        <v>201</v>
-      </c>
-      <c r="H49" s="61" t="s">
         <v>202</v>
       </c>
+      <c r="G49" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="H49" s="62" t="s">
+        <v>204</v>
+      </c>
       <c r="I49" s="112" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" ht="29.25" customHeight="1" spans="1:9">
       <c r="A50" s="11"/>
-      <c r="B50" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="C50" s="61" t="s">
-        <v>205</v>
+      <c r="B50" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>207</v>
       </c>
       <c r="E50" s="97"/>
-      <c r="F50" s="61" t="s">
-        <v>206</v>
+      <c r="F50" s="62" t="s">
+        <v>208</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H50" s="101" t="s">
-        <v>208</v>
-      </c>
-      <c r="I50" s="127"/>
+        <v>210</v>
+      </c>
+      <c r="I50" s="126"/>
     </row>
     <row r="51" ht="41.25" customHeight="1" spans="1:9">
       <c r="A51" s="11"/>
-      <c r="B51" s="62" t="s">
-        <v>209</v>
-      </c>
-      <c r="C51" s="63"/>
-      <c r="D51" s="47" t="s">
-        <v>210</v>
+      <c r="B51" s="63" t="s">
+        <v>211</v>
+      </c>
+      <c r="C51" s="64"/>
+      <c r="D51" s="48" t="s">
+        <v>212</v>
       </c>
       <c r="E51" s="97"/>
       <c r="F51" s="100" t="s">
-        <v>211</v>
-      </c>
-      <c r="G51" s="66" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="G51" s="67" t="s">
+        <v>214</v>
       </c>
       <c r="H51" s="101" t="s">
-        <v>213</v>
-      </c>
-      <c r="I51" s="131"/>
+        <v>215</v>
+      </c>
+      <c r="I51" s="130"/>
     </row>
     <row r="52" ht="41.25" customHeight="1" spans="1:9">
       <c r="A52" s="35"/>
-      <c r="B52" s="64"/>
+      <c r="B52" s="65"/>
       <c r="C52" s="18" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E52" s="97"/>
-      <c r="F52" s="59" t="s">
-        <v>216</v>
+      <c r="F52" s="60" t="s">
+        <v>218</v>
       </c>
       <c r="G52" s="102" t="s">
-        <v>217</v>
-      </c>
-      <c r="H52" s="64"/>
-      <c r="I52" s="131"/>
+        <v>219</v>
+      </c>
+      <c r="H52" s="65"/>
+      <c r="I52" s="130"/>
     </row>
     <row r="53" ht="41.25" customHeight="1" spans="1:9">
       <c r="A53" s="35"/>
-      <c r="B53" s="64"/>
+      <c r="B53" s="65"/>
       <c r="C53" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="D53" s="65" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="D53" s="66" t="s">
+        <v>221</v>
       </c>
       <c r="E53" s="97"/>
-      <c r="F53" s="64"/>
+      <c r="F53" s="65"/>
       <c r="G53" s="13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H53" s="103" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I53" s="103"/>
     </row>
     <row r="54" ht="27.75" customHeight="1" spans="1:9">
       <c r="A54" s="11"/>
-      <c r="B54" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="C54" s="49"/>
-      <c r="D54" s="66" t="s">
-        <v>223</v>
+      <c r="B54" s="49" t="s">
+        <v>224</v>
+      </c>
+      <c r="C54" s="50"/>
+      <c r="D54" s="67" t="s">
+        <v>225</v>
       </c>
       <c r="E54" s="97"/>
-      <c r="F54" s="64"/>
+      <c r="F54" s="65"/>
       <c r="G54" s="18" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H54" s="103" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="I54" s="103"/>
     </row>
     <row r="55" ht="26.25" customHeight="1" spans="1:9">
       <c r="A55" s="11"/>
       <c r="B55" s="27" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C55" s="31"/>
-      <c r="D55" s="66" t="s">
-        <v>227</v>
+      <c r="D55" s="67" t="s">
+        <v>229</v>
       </c>
       <c r="E55" s="97"/>
-      <c r="F55" s="64" t="s">
-        <v>228</v>
-      </c>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64" t="s">
-        <v>229</v>
-      </c>
-      <c r="I55" s="64"/>
+      <c r="F55" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65" t="s">
+        <v>231</v>
+      </c>
+      <c r="I55" s="65"/>
     </row>
     <row r="56" ht="21.75" customHeight="1" spans="1:9">
       <c r="A56" s="11"/>
       <c r="B56" s="17"/>
-      <c r="C56" s="64" t="s">
-        <v>230</v>
-      </c>
-      <c r="D56" s="64"/>
+      <c r="C56" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="D56" s="65"/>
       <c r="E56" s="97"/>
       <c r="F56" s="31" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G56" s="31"/>
-      <c r="H56" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="I56" s="64"/>
+      <c r="H56" s="65" t="s">
+        <v>234</v>
+      </c>
+      <c r="I56" s="65"/>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="11"/>
-      <c r="B57" s="67"/>
-      <c r="C57" s="64" t="s">
-        <v>233</v>
-      </c>
-      <c r="D57" s="64"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="D57" s="65"/>
       <c r="E57" s="97"/>
       <c r="F57" s="31" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G57" s="31"/>
       <c r="H57" s="31" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I57" s="31"/>
-      <c r="L57" s="132"/>
+      <c r="L57" s="131"/>
     </row>
     <row r="58" ht="33.75" customHeight="1" spans="1:12">
       <c r="A58" s="11"/>
       <c r="B58" s="27" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C58" s="31"/>
-      <c r="D58" s="68" t="s">
-        <v>237</v>
+      <c r="D58" s="69" t="s">
+        <v>239</v>
       </c>
       <c r="E58" s="97"/>
-      <c r="F58" s="64"/>
+      <c r="F58" s="65"/>
       <c r="G58" s="38" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H58" s="31" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="I58" s="31"/>
-      <c r="L58" s="132"/>
+      <c r="L58" s="131"/>
     </row>
     <row r="59" ht="26.25" customHeight="1" spans="1:12">
       <c r="A59" s="11"/>
       <c r="B59" s="27" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C59" s="31"/>
-      <c r="D59" s="69" t="s">
-        <v>241</v>
+      <c r="D59" s="70" t="s">
+        <v>243</v>
       </c>
       <c r="E59" s="97"/>
-      <c r="F59" s="64"/>
+      <c r="F59" s="65"/>
       <c r="G59" s="104" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H59" s="105" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="I59" s="105"/>
-      <c r="L59" s="133"/>
+      <c r="L59" s="132"/>
     </row>
     <row r="60" ht="20.25" customHeight="1" spans="1:9">
       <c r="A60" s="11"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
       <c r="E60" s="97"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
       <c r="H60" s="105" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="I60" s="105"/>
     </row>
     <row r="61" ht="17.25" customHeight="1" spans="1:9">
       <c r="A61" s="11"/>
       <c r="B61" s="32" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C61" s="33"/>
       <c r="D61" s="34"/>
       <c r="E61" s="97"/>
-      <c r="F61" s="64"/>
-      <c r="G61" s="64" t="s">
-        <v>246</v>
-      </c>
-      <c r="H61" s="64"/>
-      <c r="I61" s="64"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
     </row>
     <row r="62" ht="22.5" customHeight="1" spans="1:9">
       <c r="A62" s="11"/>
       <c r="B62" s="36" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C62" s="36"/>
       <c r="D62" s="36"/>
       <c r="E62" s="97"/>
       <c r="G62" s="106" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H62" s="107"/>
-      <c r="I62" s="134"/>
+      <c r="I62" s="133"/>
     </row>
     <row r="63" ht="22.5" customHeight="1" spans="1:9">
       <c r="A63" s="37"/>
       <c r="B63" s="38" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C63" s="38"/>
       <c r="D63" s="38"/>
       <c r="E63" s="97"/>
       <c r="F63" s="108"/>
       <c r="G63" s="38" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H63" s="38"/>
       <c r="I63" s="38"/>
@@ -5571,138 +5563,140 @@
       <c r="E64" s="97"/>
       <c r="F64" s="109"/>
       <c r="G64" s="36" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H64" s="36"/>
       <c r="I64" s="36"/>
     </row>
     <row r="65" ht="16.5" customHeight="1" spans="1:9">
       <c r="A65" s="40"/>
-      <c r="B65" s="135"/>
-      <c r="C65" s="136"/>
-      <c r="D65" s="136"/>
-      <c r="E65" s="170"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="171"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="194"/>
+      <c r="B65" s="134"/>
+      <c r="C65" s="135"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="169"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="170"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="193"/>
     </row>
     <row r="66" ht="42.75" customHeight="1" spans="1:10">
       <c r="A66" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B66" s="137" t="s">
-        <v>253</v>
-      </c>
-      <c r="D66" s="138" t="s">
         <v>254</v>
       </c>
-      <c r="E66" s="172" t="s">
+      <c r="B66" s="136" t="s">
+        <v>255</v>
+      </c>
+      <c r="D66" s="137" t="s">
+        <v>256</v>
+      </c>
+      <c r="E66" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="138" t="s">
-        <v>255</v>
+      <c r="F66" s="137" t="s">
+        <v>257</v>
       </c>
       <c r="G66" s="14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H66" s="18" t="s">
         <v>96</v>
       </c>
       <c r="I66" s="112" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J66" s="1"/>
     </row>
     <row r="67" ht="38.25" customHeight="1" spans="1:10">
       <c r="A67" s="11"/>
       <c r="B67" s="12" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="D67" s="138" t="s">
-        <v>259</v>
-      </c>
-      <c r="E67" s="173"/>
+        <v>260</v>
+      </c>
+      <c r="D67" s="137" t="s">
+        <v>261</v>
+      </c>
+      <c r="E67" s="172"/>
       <c r="F67" s="14" t="s">
         <v>20</v>
       </c>
       <c r="H67" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="I67" s="114" t="s">
-        <v>261</v>
+        <v>262</v>
+      </c>
+      <c r="I67" s="44" t="s">
+        <v>263</v>
       </c>
       <c r="J67" s="1"/>
     </row>
     <row r="68" ht="33" customHeight="1" spans="1:10">
       <c r="A68" s="11"/>
       <c r="B68" s="12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C68" s="87" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E68" s="173"/>
+      <c r="E68" s="172"/>
       <c r="F68" s="14" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G68" s="14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H68" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="I68" s="114" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="I68" s="44" t="s">
+        <v>269</v>
       </c>
       <c r="J68" s="1"/>
     </row>
     <row r="69" ht="37.5" customHeight="1" spans="1:10">
       <c r="A69" s="11"/>
-      <c r="B69" s="139" t="s">
-        <v>268</v>
+      <c r="B69" s="138" t="s">
+        <v>270</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="E69" s="173"/>
+        <v>272</v>
+      </c>
+      <c r="E69" s="172"/>
       <c r="F69" s="14"/>
       <c r="G69" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="H69" s="14"/>
-      <c r="I69" s="195" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="I69" s="194" t="s">
+        <v>275</v>
       </c>
       <c r="J69" s="1"/>
     </row>
     <row r="70" ht="36.75" customHeight="1" spans="1:10">
       <c r="A70" s="11"/>
-      <c r="B70" s="140"/>
+      <c r="B70" s="139"/>
       <c r="C70" s="14" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="E70" s="173"/>
+        <v>277</v>
+      </c>
+      <c r="E70" s="172"/>
       <c r="F70" s="14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="I70" s="113"/>
       <c r="J70" s="1"/>
@@ -5710,63 +5704,63 @@
     <row r="71" ht="30.75" customHeight="1" spans="1:10">
       <c r="A71" s="11"/>
       <c r="B71" s="87"/>
-      <c r="C71" s="76" t="s">
-        <v>277</v>
+      <c r="C71" s="77" t="s">
+        <v>280</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>278</v>
-      </c>
-      <c r="E71" s="173"/>
+        <v>281</v>
+      </c>
+      <c r="E71" s="172"/>
       <c r="F71" s="18" t="s">
-        <v>279</v>
-      </c>
-      <c r="G71" s="76" t="s">
-        <v>280</v>
+        <v>282</v>
+      </c>
+      <c r="G71" s="77" t="s">
+        <v>283</v>
       </c>
       <c r="H71" s="84" t="s">
-        <v>281</v>
-      </c>
-      <c r="I71" s="114"/>
+        <v>284</v>
+      </c>
+      <c r="I71" s="44"/>
       <c r="J71" s="1"/>
     </row>
     <row r="72" ht="28.5" customHeight="1" spans="1:10">
       <c r="A72" s="11"/>
       <c r="B72" s="17"/>
       <c r="C72" s="18" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D72" s="84" t="s">
-        <v>283</v>
-      </c>
-      <c r="E72" s="173"/>
+        <v>286</v>
+      </c>
+      <c r="E72" s="172"/>
       <c r="F72" s="18" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>285</v>
-      </c>
-      <c r="H72" s="174" t="s">
-        <v>286</v>
+        <v>288</v>
+      </c>
+      <c r="H72" s="173" t="s">
+        <v>289</v>
       </c>
       <c r="I72" s="113"/>
       <c r="J72" s="1"/>
     </row>
     <row r="73" ht="31.5" customHeight="1" spans="1:10">
       <c r="A73" s="11"/>
-      <c r="B73" s="141"/>
+      <c r="B73" s="140"/>
       <c r="C73" s="84" t="s">
-        <v>287</v>
-      </c>
-      <c r="D73" s="76" t="s">
-        <v>288</v>
-      </c>
-      <c r="E73" s="173"/>
+        <v>290</v>
+      </c>
+      <c r="D73" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="E73" s="172"/>
       <c r="F73" s="84" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G73" s="13"/>
       <c r="H73" s="84" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="I73" s="113"/>
       <c r="J73" s="1"/>
@@ -5775,658 +5769,652 @@
       <c r="A74" s="11"/>
       <c r="B74" s="87"/>
       <c r="C74" s="84" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="E74" s="173"/>
+        <v>295</v>
+      </c>
+      <c r="E74" s="172"/>
       <c r="F74" s="84" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G74" s="29"/>
       <c r="H74" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I74" s="114"/>
+        <v>297</v>
+      </c>
+      <c r="I74" s="44"/>
       <c r="J74" s="1"/>
     </row>
     <row r="75" ht="27.75" customHeight="1" spans="1:10">
       <c r="A75" s="11"/>
       <c r="B75" s="18"/>
       <c r="C75" s="30" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D75" s="30"/>
-      <c r="E75" s="173"/>
-      <c r="F75" s="76" t="s">
-        <v>296</v>
+      <c r="E75" s="172"/>
+      <c r="F75" s="77" t="s">
+        <v>299</v>
       </c>
       <c r="G75" s="18"/>
       <c r="H75" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="I75" s="131"/>
+        <v>300</v>
+      </c>
+      <c r="I75" s="130"/>
       <c r="J75" s="1"/>
     </row>
     <row r="76" ht="21" customHeight="1" spans="1:10">
       <c r="A76" s="11"/>
       <c r="B76" s="18"/>
       <c r="C76" s="30" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D76" s="30"/>
-      <c r="E76" s="173"/>
-      <c r="F76" s="64" t="s">
-        <v>299</v>
-      </c>
-      <c r="G76" s="64"/>
-      <c r="H76" s="64" t="s">
-        <v>300</v>
-      </c>
-      <c r="I76" s="131"/>
+      <c r="E76" s="172"/>
+      <c r="F76" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65" t="s">
+        <v>303</v>
+      </c>
+      <c r="I76" s="130"/>
       <c r="J76" s="1"/>
     </row>
     <row r="77" ht="33" customHeight="1" spans="1:10">
       <c r="A77" s="11"/>
       <c r="B77" s="18"/>
       <c r="C77" s="30" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D77" s="30"/>
-      <c r="E77" s="173"/>
-      <c r="F77" s="64" t="s">
-        <v>302</v>
-      </c>
-      <c r="G77" s="64"/>
-      <c r="H77" s="64" t="s">
-        <v>303</v>
-      </c>
-      <c r="I77" s="196"/>
+      <c r="E77" s="172"/>
+      <c r="F77" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="I77" s="195"/>
       <c r="J77" s="1"/>
     </row>
     <row r="78" ht="27.75" customHeight="1" spans="1:10">
       <c r="A78" s="11"/>
       <c r="B78" s="31" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C78" s="31"/>
-      <c r="E78" s="173"/>
-      <c r="F78" s="175" t="s">
-        <v>305</v>
-      </c>
-      <c r="G78" s="175"/>
-      <c r="H78" s="176" t="s">
-        <v>306</v>
-      </c>
-      <c r="I78" s="197"/>
+      <c r="E78" s="172"/>
+      <c r="F78" s="174" t="s">
+        <v>308</v>
+      </c>
+      <c r="G78" s="174"/>
+      <c r="H78" s="175" t="s">
+        <v>309</v>
+      </c>
+      <c r="I78" s="196"/>
       <c r="J78" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79" ht="33" customHeight="1" spans="1:10">
       <c r="A79" s="11"/>
-      <c r="B79" s="142" t="s">
-        <v>308</v>
-      </c>
-      <c r="C79" s="79"/>
-      <c r="D79" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="E79" s="173"/>
-      <c r="F79" s="175" t="s">
-        <v>310</v>
-      </c>
-      <c r="G79" s="175"/>
-      <c r="H79" s="176" t="s">
+      <c r="B79" s="141" t="s">
         <v>311</v>
       </c>
-      <c r="I79" s="197"/>
+      <c r="C79" s="80"/>
+      <c r="E79" s="172"/>
+      <c r="F79" s="174" t="s">
+        <v>312</v>
+      </c>
+      <c r="G79" s="174"/>
+      <c r="H79" s="175" t="s">
+        <v>313</v>
+      </c>
+      <c r="I79" s="196"/>
       <c r="J79" s="1"/>
     </row>
     <row r="80" ht="28.5" customHeight="1" spans="1:10">
       <c r="A80" s="11"/>
-      <c r="B80" s="143" t="s">
-        <v>312</v>
-      </c>
-      <c r="C80" s="144"/>
+      <c r="B80" s="142" t="s">
+        <v>314</v>
+      </c>
+      <c r="C80" s="143"/>
       <c r="D80" s="29"/>
-      <c r="E80" s="173"/>
+      <c r="E80" s="172"/>
       <c r="F80" s="32" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G80" s="33"/>
       <c r="H80" s="29" t="s">
-        <v>286</v>
-      </c>
-      <c r="I80" s="118"/>
+        <v>289</v>
+      </c>
+      <c r="I80" s="117"/>
       <c r="J80" s="1"/>
     </row>
     <row r="81" ht="18" customHeight="1" spans="1:10">
       <c r="A81" s="11"/>
-      <c r="B81" s="143" t="s">
-        <v>314</v>
-      </c>
-      <c r="C81" s="144"/>
+      <c r="B81" s="142" t="s">
+        <v>316</v>
+      </c>
+      <c r="C81" s="143"/>
       <c r="D81" s="14"/>
-      <c r="E81" s="173"/>
+      <c r="E81" s="172"/>
       <c r="F81" s="36" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G81" s="36"/>
-      <c r="H81" s="140" t="s">
-        <v>316</v>
-      </c>
-      <c r="I81" s="198"/>
+      <c r="H81" s="139" t="s">
+        <v>318</v>
+      </c>
+      <c r="I81" s="197"/>
       <c r="J81" s="1"/>
     </row>
     <row r="82" ht="27.75" customHeight="1" spans="1:10">
       <c r="A82" s="11"/>
       <c r="B82" s="32" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C82" s="33"/>
       <c r="D82" s="34"/>
-      <c r="E82" s="177"/>
+      <c r="E82" s="176"/>
       <c r="H82" s="36"/>
-      <c r="I82" s="199"/>
+      <c r="I82" s="198"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" ht="15" spans="1:10">
+    <row r="83" ht="14.15" spans="1:10">
       <c r="A83" s="39"/>
       <c r="B83" s="36" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C83" s="36"/>
       <c r="D83" s="36"/>
-      <c r="E83" s="173"/>
+      <c r="E83" s="172"/>
       <c r="F83" s="29"/>
       <c r="G83" s="29"/>
-      <c r="I83" s="127"/>
+      <c r="I83" s="126"/>
       <c r="J83" s="1"/>
     </row>
     <row r="84" ht="9" customHeight="1" spans="1:9">
-      <c r="A84" s="145"/>
-      <c r="B84" s="135"/>
-      <c r="C84" s="136"/>
-      <c r="D84" s="136"/>
-      <c r="E84" s="178"/>
-      <c r="F84" s="136"/>
-      <c r="G84" s="136"/>
-      <c r="H84" s="179"/>
-      <c r="I84" s="200"/>
+      <c r="A84" s="144"/>
+      <c r="B84" s="134"/>
+      <c r="C84" s="135"/>
+      <c r="D84" s="135"/>
+      <c r="E84" s="177"/>
+      <c r="F84" s="135"/>
+      <c r="G84" s="135"/>
+      <c r="H84" s="178"/>
+      <c r="I84" s="199"/>
     </row>
     <row r="85" ht="37.5" customHeight="1" spans="1:9">
-      <c r="A85" s="146" t="s">
-        <v>319</v>
+      <c r="A85" s="145" t="s">
+        <v>321</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="D85" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="E85" s="81" t="s">
+        <v>323</v>
+      </c>
+      <c r="D85" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="E85" s="82" t="s">
         <v>13</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="G85" s="180" t="s">
-        <v>324</v>
-      </c>
-      <c r="H85" s="137" t="s">
-        <v>127</v>
+        <v>325</v>
+      </c>
+      <c r="G85" s="179" t="s">
+        <v>326</v>
+      </c>
+      <c r="H85" s="136" t="s">
+        <v>129</v>
       </c>
       <c r="I85" s="112" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="86" ht="44.25" customHeight="1" spans="1:9">
-      <c r="A86" s="147"/>
+      <c r="A86" s="146"/>
       <c r="B86" s="12" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="E86" s="74"/>
+        <v>329</v>
+      </c>
+      <c r="E86" s="75"/>
       <c r="F86" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="G86" s="181"/>
+        <v>330</v>
+      </c>
+      <c r="G86" s="180"/>
       <c r="H86" s="14" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="I86" s="112" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="87" ht="36" customHeight="1" spans="1:9">
-      <c r="A87" s="147"/>
+      <c r="A87" s="146"/>
       <c r="B87" s="12" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="E87" s="74"/>
-      <c r="F87" s="137" t="s">
-        <v>333</v>
-      </c>
-      <c r="G87" s="181"/>
+        <v>334</v>
+      </c>
+      <c r="E87" s="75"/>
+      <c r="F87" s="136" t="s">
+        <v>335</v>
+      </c>
+      <c r="G87" s="180"/>
       <c r="H87" s="14" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="I87" s="112" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="88" ht="30" customHeight="1" spans="1:9">
-      <c r="A88" s="147"/>
+      <c r="A88" s="146"/>
       <c r="B88" s="12" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="E88" s="74"/>
+        <v>339</v>
+      </c>
+      <c r="E88" s="75"/>
       <c r="F88" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="G88" s="181"/>
+        <v>340</v>
+      </c>
+      <c r="G88" s="180"/>
       <c r="H88" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="I88" s="113"/>
     </row>
     <row r="89" ht="26.25" customHeight="1" spans="1:9">
-      <c r="A89" s="147"/>
-      <c r="B89" s="141" t="s">
-        <v>340</v>
+      <c r="A89" s="146"/>
+      <c r="B89" s="140" t="s">
+        <v>342</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="E89" s="74"/>
+        <v>344</v>
+      </c>
+      <c r="E89" s="75"/>
       <c r="F89" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="G89" s="181"/>
-      <c r="H89" s="76" t="s">
-        <v>344</v>
+        <v>345</v>
+      </c>
+      <c r="G89" s="180"/>
+      <c r="H89" s="77" t="s">
+        <v>346</v>
       </c>
       <c r="I89" s="113"/>
     </row>
     <row r="90" ht="36" customHeight="1" spans="1:9">
-      <c r="A90" s="147"/>
-      <c r="B90" s="141" t="s">
-        <v>345</v>
+      <c r="A90" s="146"/>
+      <c r="B90" s="140" t="s">
+        <v>347</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="E90" s="74"/>
+        <v>348</v>
+      </c>
+      <c r="E90" s="75"/>
       <c r="F90" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="G90" s="181"/>
+        <v>349</v>
+      </c>
+      <c r="G90" s="180"/>
       <c r="H90" s="22" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I90" s="113"/>
     </row>
     <row r="91" ht="39.75" customHeight="1" spans="1:9">
-      <c r="A91" s="147"/>
+      <c r="A91" s="146"/>
       <c r="C91" s="84" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="E91" s="74"/>
+        <v>352</v>
+      </c>
+      <c r="E91" s="75"/>
       <c r="F91" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G91" s="181"/>
-      <c r="H91" s="76" t="s">
-        <v>352</v>
+        <v>353</v>
+      </c>
+      <c r="G91" s="180"/>
+      <c r="H91" s="77" t="s">
+        <v>354</v>
       </c>
       <c r="I91" s="113"/>
     </row>
     <row r="92" ht="33.75" customHeight="1" spans="1:9">
-      <c r="A92" s="147"/>
+      <c r="A92" s="146"/>
       <c r="B92" s="29"/>
       <c r="C92" s="20" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="E92" s="74"/>
-      <c r="F92" s="182" t="s">
-        <v>355</v>
-      </c>
-      <c r="G92" s="181"/>
-      <c r="H92" s="76" t="s">
         <v>356</v>
       </c>
+      <c r="E92" s="75"/>
+      <c r="F92" s="181" t="s">
+        <v>357</v>
+      </c>
+      <c r="G92" s="180"/>
+      <c r="H92" s="77" t="s">
+        <v>358</v>
+      </c>
       <c r="I92" s="113"/>
     </row>
     <row r="93" ht="39" customHeight="1" spans="1:9">
-      <c r="A93" s="147"/>
+      <c r="A93" s="146"/>
       <c r="B93" s="29"/>
       <c r="C93" s="18" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="E93" s="74"/>
-      <c r="F93" s="183" t="s">
-        <v>359</v>
-      </c>
-      <c r="G93" s="181"/>
+        <v>360</v>
+      </c>
+      <c r="E93" s="75"/>
+      <c r="F93" s="182" t="s">
+        <v>361</v>
+      </c>
+      <c r="G93" s="180"/>
       <c r="H93" s="84" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I93" s="113"/>
     </row>
     <row r="94" ht="32.25" customHeight="1" spans="1:9">
-      <c r="A94" s="147"/>
+      <c r="A94" s="146"/>
       <c r="B94" s="17"/>
       <c r="C94" s="18" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D94" s="18"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="184"/>
-      <c r="G94" s="181"/>
+      <c r="E94" s="75"/>
+      <c r="F94" s="183"/>
+      <c r="G94" s="180"/>
       <c r="H94" s="20" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="I94" s="113"/>
     </row>
     <row r="95" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A95" s="147"/>
-      <c r="B95" s="148" t="s">
-        <v>363</v>
-      </c>
-      <c r="C95" s="149"/>
+      <c r="A95" s="146"/>
+      <c r="B95" s="147" t="s">
+        <v>365</v>
+      </c>
+      <c r="C95" s="148"/>
       <c r="D95" s="18"/>
-      <c r="E95" s="74"/>
+      <c r="E95" s="75"/>
       <c r="F95" s="18"/>
-      <c r="G95" s="181"/>
+      <c r="G95" s="180"/>
       <c r="H95" s="20" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="I95" s="113"/>
     </row>
     <row r="96" ht="32.25" customHeight="1" spans="1:9">
-      <c r="A96" s="147"/>
+      <c r="A96" s="146"/>
       <c r="B96" s="17"/>
-      <c r="C96" s="150" t="s">
-        <v>365</v>
-      </c>
-      <c r="D96" s="149"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="47"/>
-      <c r="G96" s="181"/>
+      <c r="C96" s="149" t="s">
+        <v>367</v>
+      </c>
+      <c r="D96" s="148"/>
+      <c r="E96" s="75"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="180"/>
       <c r="H96" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="I96" s="196"/>
+        <v>368</v>
+      </c>
+      <c r="I96" s="195"/>
     </row>
     <row r="97" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A97" s="147"/>
+      <c r="A97" s="146"/>
       <c r="B97" s="12"/>
-      <c r="C97" s="151" t="s">
-        <v>367</v>
+      <c r="C97" s="150" t="s">
+        <v>369</v>
       </c>
       <c r="D97" s="18"/>
-      <c r="E97" s="74"/>
+      <c r="E97" s="75"/>
       <c r="F97" s="18"/>
-      <c r="G97" s="181"/>
-      <c r="H97" s="176" t="s">
-        <v>368</v>
-      </c>
-      <c r="I97" s="197"/>
+      <c r="G97" s="180"/>
+      <c r="H97" s="175" t="s">
+        <v>370</v>
+      </c>
+      <c r="I97" s="196"/>
     </row>
     <row r="98" ht="23.25" customHeight="1" spans="1:9">
-      <c r="A98" s="147"/>
-      <c r="B98" s="152" t="s">
-        <v>369</v>
-      </c>
-      <c r="C98" s="153"/>
+      <c r="A98" s="146"/>
+      <c r="B98" s="151" t="s">
+        <v>371</v>
+      </c>
+      <c r="C98" s="152"/>
       <c r="D98" s="14"/>
-      <c r="E98" s="74"/>
+      <c r="E98" s="75"/>
       <c r="F98" s="18"/>
-      <c r="G98" s="181"/>
-      <c r="H98" s="176" t="s">
-        <v>370</v>
-      </c>
-      <c r="I98" s="197"/>
+      <c r="G98" s="180"/>
+      <c r="H98" s="175" t="s">
+        <v>372</v>
+      </c>
+      <c r="I98" s="196"/>
     </row>
     <row r="99" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A99" s="147"/>
-      <c r="B99" s="152" t="s">
-        <v>371</v>
-      </c>
-      <c r="C99" s="153"/>
+      <c r="A99" s="146"/>
+      <c r="B99" s="151" t="s">
+        <v>373</v>
+      </c>
+      <c r="C99" s="152"/>
       <c r="D99" s="14"/>
-      <c r="E99" s="74"/>
+      <c r="E99" s="75"/>
       <c r="F99" s="14"/>
-      <c r="G99" s="181"/>
+      <c r="G99" s="180"/>
       <c r="H99" s="91" t="s">
-        <v>372</v>
-      </c>
-      <c r="I99" s="124"/>
+        <v>374</v>
+      </c>
+      <c r="I99" s="123"/>
     </row>
     <row r="100" ht="24" customHeight="1" spans="1:9">
-      <c r="A100" s="147"/>
-      <c r="B100" s="70"/>
+      <c r="A100" s="146"/>
+      <c r="B100" s="71"/>
       <c r="C100" s="30" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D100" s="30"/>
-      <c r="E100" s="74"/>
+      <c r="E100" s="75"/>
       <c r="F100" s="18"/>
-      <c r="G100" s="181"/>
+      <c r="G100" s="180"/>
       <c r="H100" s="91" t="s">
-        <v>374</v>
-      </c>
-      <c r="I100" s="124"/>
+        <v>376</v>
+      </c>
+      <c r="I100" s="123"/>
     </row>
     <row r="101" ht="37.5" customHeight="1" spans="1:9">
-      <c r="A101" s="147"/>
+      <c r="A101" s="146"/>
       <c r="B101" s="12"/>
       <c r="C101" s="30" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D101" s="30"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="184"/>
-      <c r="G101" s="181"/>
-      <c r="H101" s="176" t="s">
-        <v>376</v>
-      </c>
-      <c r="I101" s="197"/>
+      <c r="E101" s="75"/>
+      <c r="F101" s="183"/>
+      <c r="G101" s="180"/>
+      <c r="H101" s="175" t="s">
+        <v>378</v>
+      </c>
+      <c r="I101" s="196"/>
     </row>
     <row r="102" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A102" s="147"/>
-      <c r="B102" s="70"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="184"/>
-      <c r="G102" s="181"/>
-      <c r="H102" s="176" t="s">
-        <v>377</v>
-      </c>
-      <c r="I102" s="197"/>
+      <c r="A102" s="146"/>
+      <c r="B102" s="71"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="75"/>
+      <c r="F102" s="183"/>
+      <c r="G102" s="180"/>
+      <c r="H102" s="175" t="s">
+        <v>379</v>
+      </c>
+      <c r="I102" s="196"/>
     </row>
     <row r="103" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A103" s="147"/>
+      <c r="A103" s="146"/>
       <c r="B103" s="32" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C103" s="33"/>
       <c r="D103" s="34"/>
-      <c r="E103" s="74"/>
-      <c r="F103" s="184"/>
-      <c r="G103" s="185"/>
+      <c r="E103" s="75"/>
+      <c r="F103" s="183"/>
+      <c r="G103" s="184"/>
       <c r="H103" s="31" t="s">
-        <v>379</v>
-      </c>
-      <c r="I103" s="115"/>
+        <v>381</v>
+      </c>
+      <c r="I103" s="114"/>
     </row>
     <row r="104" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A104" s="147"/>
+      <c r="A104" s="146"/>
       <c r="B104" s="36" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C104" s="36"/>
       <c r="D104" s="36"/>
-      <c r="E104" s="186"/>
-      <c r="G104" s="187" t="s">
-        <v>381</v>
+      <c r="E104" s="185"/>
+      <c r="G104" s="186" t="s">
+        <v>383</v>
       </c>
       <c r="H104" s="31" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="I104" s="107"/>
     </row>
     <row r="105" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A105" s="154"/>
+      <c r="A105" s="153"/>
       <c r="B105" s="38" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C105" s="38"/>
       <c r="D105" s="38"/>
-      <c r="E105" s="74"/>
+      <c r="E105" s="75"/>
       <c r="F105" s="10"/>
       <c r="G105" s="36" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H105" s="107"/>
       <c r="I105" s="36"/>
     </row>
     <row r="106" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A106" s="155"/>
+      <c r="A106" s="154"/>
       <c r="B106" s="18"/>
       <c r="C106" s="31"/>
       <c r="D106" s="31"/>
       <c r="E106" s="94"/>
       <c r="F106" s="14"/>
       <c r="G106" s="36" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H106" s="36"/>
       <c r="I106" s="36"/>
     </row>
     <row r="107" ht="11.25" customHeight="1" spans="1:9">
-      <c r="A107" s="156"/>
-      <c r="B107" s="135"/>
-      <c r="C107" s="136"/>
-      <c r="D107" s="136"/>
-      <c r="E107" s="188"/>
-      <c r="F107" s="136"/>
-      <c r="G107" s="136"/>
-      <c r="H107" s="189"/>
-      <c r="I107" s="200"/>
+      <c r="A107" s="155"/>
+      <c r="B107" s="134"/>
+      <c r="C107" s="135"/>
+      <c r="D107" s="135"/>
+      <c r="E107" s="187"/>
+      <c r="F107" s="135"/>
+      <c r="G107" s="135"/>
+      <c r="H107" s="188"/>
+      <c r="I107" s="199"/>
     </row>
     <row r="108" ht="33.75" customHeight="1" spans="1:9">
       <c r="A108" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B108" s="17" t="s">
         <v>93</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D108" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E108" s="47" t="s">
-        <v>388</v>
-      </c>
-      <c r="F108" s="70"/>
-      <c r="G108" s="190"/>
-      <c r="H108" s="191"/>
-      <c r="I108" s="201"/>
+      <c r="E108" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="F108" s="71"/>
+      <c r="G108" s="189"/>
+      <c r="H108" s="190"/>
+      <c r="I108" s="200"/>
     </row>
     <row r="109" ht="33.75" customHeight="1" spans="1:9">
-      <c r="A109" s="157"/>
+      <c r="A109" s="156"/>
       <c r="B109" s="12" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="E109" s="47"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="192"/>
-      <c r="H109" s="190"/>
+        <v>393</v>
+      </c>
+      <c r="E109" s="48"/>
+      <c r="F109" s="71"/>
+      <c r="G109" s="191"/>
+      <c r="H109" s="189"/>
       <c r="I109" s="43"/>
     </row>
     <row r="110" ht="33.75" customHeight="1" spans="1:9">
-      <c r="A110" s="157"/>
+      <c r="A110" s="156"/>
       <c r="B110" s="12" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="E110" s="64"/>
-      <c r="F110" s="70"/>
-      <c r="G110" s="192"/>
-      <c r="H110" s="192"/>
+        <v>332</v>
+      </c>
+      <c r="E110" s="65"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="191"/>
+      <c r="H110" s="191"/>
       <c r="I110" s="43"/>
     </row>
     <row r="111" ht="33.75" customHeight="1" spans="1:9">
       <c r="A111" s="11"/>
       <c r="B111" s="12"/>
-      <c r="C111" s="18" t="s">
-        <v>393</v>
-      </c>
       <c r="D111" s="105" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E111" s="105"/>
       <c r="F111" s="17"/>
       <c r="G111" s="18"/>
-      <c r="H111" s="192"/>
+      <c r="H111" s="191"/>
       <c r="I111" s="112"/>
     </row>
     <row r="112" ht="33.75" customHeight="1" spans="1:9">
       <c r="A112" s="11"/>
       <c r="B112" s="17" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C112" s="25" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D112" s="105" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E112" s="105"/>
       <c r="F112" s="17"/>
@@ -6436,11 +6424,11 @@
     </row>
     <row r="113" ht="33.75" customHeight="1" spans="1:9">
       <c r="A113" s="11"/>
-      <c r="B113" s="75" t="s">
-        <v>398</v>
-      </c>
-      <c r="C113" s="158" t="s">
+      <c r="B113" s="76" t="s">
         <v>399</v>
+      </c>
+      <c r="C113" s="157" t="s">
+        <v>400</v>
       </c>
       <c r="D113" s="18"/>
       <c r="E113" s="18"/>
@@ -6453,7 +6441,7 @@
       <c r="A114" s="11"/>
       <c r="B114" s="17"/>
       <c r="C114" s="30" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D114" s="30"/>
       <c r="E114" s="18"/>
@@ -6466,7 +6454,7 @@
       <c r="A115" s="11"/>
       <c r="B115" s="17"/>
       <c r="C115" s="30" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D115" s="30"/>
       <c r="E115" s="18"/>
@@ -6479,7 +6467,7 @@
       <c r="A116" s="11"/>
       <c r="B116" s="17"/>
       <c r="C116" s="105" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D116" s="105"/>
       <c r="E116" s="18"/>
@@ -6491,11 +6479,11 @@
     <row r="117" ht="36.75" customHeight="1" spans="1:9">
       <c r="A117" s="11"/>
       <c r="B117" s="27" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C117" s="31"/>
       <c r="D117" s="30" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E117" s="30"/>
       <c r="F117" s="17"/>
@@ -6506,14 +6494,14 @@
     <row r="118" ht="27" customHeight="1" spans="1:9">
       <c r="A118" s="11"/>
       <c r="B118" s="27" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C118" s="31"/>
       <c r="D118" s="31" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E118" s="31"/>
-      <c r="F118" s="70"/>
+      <c r="F118" s="71"/>
       <c r="G118" s="18"/>
       <c r="H118" s="18"/>
       <c r="I118" s="112"/>
@@ -6521,13 +6509,13 @@
     <row r="119" ht="21.75" customHeight="1" spans="1:9">
       <c r="A119" s="11"/>
       <c r="B119" s="27" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C119" s="31"/>
-      <c r="D119" s="79" t="s">
-        <v>408</v>
-      </c>
-      <c r="E119" s="79"/>
+      <c r="D119" s="80" t="s">
+        <v>409</v>
+      </c>
+      <c r="E119" s="80"/>
       <c r="F119" s="29"/>
       <c r="G119" s="18"/>
       <c r="H119" s="18"/>
@@ -6535,10 +6523,10 @@
     </row>
     <row r="120" ht="22.5" customHeight="1" spans="1:9">
       <c r="A120" s="11"/>
-      <c r="B120" s="142" t="s">
-        <v>409</v>
-      </c>
-      <c r="C120" s="79"/>
+      <c r="B120" s="141" t="s">
+        <v>410</v>
+      </c>
+      <c r="C120" s="80"/>
       <c r="F120" s="12"/>
       <c r="G120" s="18"/>
       <c r="H120" s="18"/>
@@ -6547,7 +6535,7 @@
     <row r="121" ht="26.25" customHeight="1" spans="1:9">
       <c r="A121" s="11"/>
       <c r="B121" s="32" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C121" s="33"/>
       <c r="D121" s="34"/>
@@ -6556,10 +6544,10 @@
       <c r="H121" s="18"/>
       <c r="I121" s="112"/>
     </row>
-    <row r="122" customHeight="1" spans="1:9">
+    <row r="122" ht="14.25" customHeight="1" spans="1:9">
       <c r="A122" s="11"/>
       <c r="B122" s="36" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C122" s="36"/>
       <c r="D122" s="36"/>
@@ -6572,7 +6560,7 @@
     <row r="123" ht="17.25" customHeight="1" spans="1:9">
       <c r="A123" s="11"/>
       <c r="B123" s="38" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C123" s="38"/>
       <c r="D123" s="38"/>
@@ -6582,7 +6570,7 @@
       <c r="H123" s="18"/>
       <c r="I123" s="112"/>
     </row>
-    <row r="124" ht="15" spans="1:9">
+    <row r="124" ht="14.15" spans="1:9">
       <c r="A124" s="39"/>
       <c r="B124" s="27"/>
       <c r="C124" s="31"/>
@@ -6594,871 +6582,701 @@
       <c r="I124" s="112"/>
     </row>
     <row r="125" s="1" customFormat="1" ht="6.75" customHeight="1" spans="1:9">
-      <c r="A125" s="159"/>
-      <c r="B125" s="160"/>
-      <c r="C125" s="161"/>
-      <c r="D125" s="161"/>
-      <c r="E125" s="193"/>
-      <c r="F125" s="161"/>
-      <c r="G125" s="161"/>
-      <c r="H125" s="161"/>
-      <c r="I125" s="202"/>
-    </row>
-    <row r="126" ht="15" spans="1:9">
-      <c r="A126" s="162">
+      <c r="A125" s="158"/>
+      <c r="B125" s="159"/>
+      <c r="C125" s="160"/>
+      <c r="D125" s="160"/>
+      <c r="E125" s="192"/>
+      <c r="F125" s="160"/>
+      <c r="G125" s="160"/>
+      <c r="H125" s="160"/>
+      <c r="I125" s="201"/>
+    </row>
+    <row r="126" ht="14.15" spans="1:9">
+      <c r="A126" s="161">
         <v>1</v>
       </c>
-      <c r="B126" s="163" t="s">
-        <v>413</v>
-      </c>
-      <c r="C126" s="164"/>
-      <c r="D126" s="164"/>
-      <c r="E126" s="164"/>
-      <c r="F126" s="164"/>
-      <c r="G126" s="164"/>
-      <c r="I126" s="203"/>
+      <c r="B126" s="162" t="s">
+        <v>414</v>
+      </c>
+      <c r="C126" s="163"/>
+      <c r="D126" s="163"/>
+      <c r="E126" s="163"/>
+      <c r="F126" s="163"/>
+      <c r="G126" s="163"/>
+      <c r="I126" s="202"/>
     </row>
     <row r="127" spans="1:9">
-      <c r="A127" s="165"/>
-      <c r="B127" s="166" t="s">
-        <v>414</v>
-      </c>
-      <c r="C127" s="167"/>
-      <c r="D127" s="167"/>
-      <c r="E127" s="167"/>
-      <c r="F127" s="167"/>
-      <c r="G127" s="167"/>
-      <c r="H127" s="164"/>
-      <c r="I127" s="204"/>
-    </row>
-    <row r="128" customHeight="1" spans="1:9">
-      <c r="A128" s="165"/>
-      <c r="B128" s="168" t="s">
+      <c r="A127" s="164"/>
+      <c r="B127" s="165" t="s">
         <v>415</v>
       </c>
-      <c r="C128" s="169"/>
-      <c r="D128" s="169"/>
-      <c r="E128" s="169"/>
-      <c r="F128" s="169"/>
-      <c r="G128" s="169"/>
-      <c r="H128" s="167"/>
-      <c r="I128" s="205"/>
-    </row>
-    <row r="129" customHeight="1" spans="1:9">
-      <c r="A129" s="165"/>
-      <c r="B129" s="168" t="s">
+      <c r="C127" s="166"/>
+      <c r="D127" s="166"/>
+      <c r="E127" s="166"/>
+      <c r="F127" s="166"/>
+      <c r="G127" s="166"/>
+      <c r="H127" s="163"/>
+      <c r="I127" s="203"/>
+    </row>
+    <row r="128" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A128" s="164"/>
+      <c r="B128" s="167" t="s">
         <v>416</v>
       </c>
-      <c r="C129" s="169"/>
-      <c r="D129" s="169"/>
-      <c r="E129" s="169"/>
-      <c r="F129" s="169"/>
-      <c r="G129" s="169"/>
-      <c r="H129" s="169"/>
-      <c r="I129" s="205"/>
+      <c r="C128" s="168"/>
+      <c r="D128" s="168"/>
+      <c r="E128" s="168"/>
+      <c r="F128" s="168"/>
+      <c r="G128" s="168"/>
+      <c r="H128" s="166"/>
+      <c r="I128" s="204"/>
+    </row>
+    <row r="129" ht="14.25" customHeight="1" spans="1:9">
+      <c r="A129" s="164"/>
+      <c r="B129" s="167" t="s">
+        <v>417</v>
+      </c>
+      <c r="C129" s="168"/>
+      <c r="D129" s="168"/>
+      <c r="E129" s="168"/>
+      <c r="F129" s="168"/>
+      <c r="G129" s="168"/>
+      <c r="H129" s="168"/>
+      <c r="I129" s="204"/>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="165"/>
-      <c r="B130" s="168" t="s">
-        <v>417</v>
-      </c>
-      <c r="C130" s="169"/>
-      <c r="D130" s="169"/>
-      <c r="E130" s="169"/>
-      <c r="F130" s="169"/>
-      <c r="G130" s="169"/>
-      <c r="H130" s="169"/>
-      <c r="I130" s="205"/>
-    </row>
-    <row r="131" ht="15" spans="1:9">
-      <c r="A131" s="206"/>
-      <c r="B131" s="207" t="s">
+      <c r="A130" s="164"/>
+      <c r="B130" s="167" t="s">
         <v>418</v>
       </c>
-      <c r="C131" s="208"/>
-      <c r="D131" s="208"/>
-      <c r="E131" s="208"/>
-      <c r="F131" s="208"/>
-      <c r="G131" s="208"/>
-      <c r="H131" s="169"/>
-      <c r="I131" s="257"/>
+      <c r="C130" s="168"/>
+      <c r="D130" s="168"/>
+      <c r="E130" s="168"/>
+      <c r="F130" s="168"/>
+      <c r="G130" s="168"/>
+      <c r="H130" s="168"/>
+      <c r="I130" s="204"/>
+    </row>
+    <row r="131" ht="14.15" spans="1:9">
+      <c r="A131" s="205"/>
+      <c r="B131" s="206" t="s">
+        <v>419</v>
+      </c>
+      <c r="C131" s="207"/>
+      <c r="D131" s="207"/>
+      <c r="E131" s="207"/>
+      <c r="F131" s="207"/>
+      <c r="G131" s="207"/>
+      <c r="H131" s="168"/>
+      <c r="I131" s="250"/>
     </row>
     <row r="132" spans="1:9">
-      <c r="A132" s="209">
+      <c r="A132" s="208">
         <v>2</v>
       </c>
-      <c r="B132" s="163" t="s">
-        <v>419</v>
-      </c>
-      <c r="C132" s="164"/>
-      <c r="D132" s="164"/>
-      <c r="E132" s="164"/>
-      <c r="F132" s="164"/>
-      <c r="G132" s="164"/>
-      <c r="H132" s="208"/>
-      <c r="I132" s="258"/>
-    </row>
-    <row r="133" customHeight="1" spans="1:8">
-      <c r="A133" s="210"/>
-      <c r="B133" s="211" t="s">
+      <c r="B132" s="162" t="s">
         <v>420</v>
       </c>
-      <c r="C133" s="212" t="s">
+      <c r="C132" s="163"/>
+      <c r="D132" s="163"/>
+      <c r="E132" s="163"/>
+      <c r="F132" s="163"/>
+      <c r="G132" s="163"/>
+      <c r="H132" s="207"/>
+      <c r="I132" s="251"/>
+    </row>
+    <row r="133" ht="14.25" customHeight="1" spans="1:8">
+      <c r="A133" s="209"/>
+      <c r="B133" s="210" t="s">
         <v>421</v>
       </c>
-      <c r="D133" s="213" t="s">
+      <c r="C133" s="211" t="s">
         <v>422</v>
       </c>
-      <c r="E133" s="249" t="s">
+      <c r="D133" s="212" t="s">
         <v>423</v>
       </c>
-      <c r="F133" s="249" t="s">
+      <c r="E133" s="240" t="s">
         <v>424</v>
       </c>
-      <c r="G133" s="249"/>
-      <c r="H133" s="250"/>
+      <c r="F133" s="240" t="s">
+        <v>425</v>
+      </c>
+      <c r="G133" s="240"/>
+      <c r="H133" s="241"/>
     </row>
     <row r="134" ht="32.25" customHeight="1" spans="1:9">
-      <c r="A134" s="214"/>
-      <c r="B134" s="215"/>
-      <c r="C134" s="216" t="s">
-        <v>425</v>
-      </c>
-      <c r="D134" s="217" t="s">
+      <c r="A134" s="213"/>
+      <c r="B134" s="214"/>
+      <c r="C134" s="215" t="s">
         <v>426</v>
       </c>
-      <c r="E134" s="251"/>
-      <c r="F134" s="251"/>
-      <c r="G134" s="251"/>
-      <c r="H134" s="252" t="s">
+      <c r="D134" s="216" t="s">
         <v>427</v>
       </c>
-      <c r="I134" s="259" t="s">
+      <c r="E134" s="242"/>
+      <c r="F134" s="242"/>
+      <c r="G134" s="242"/>
+      <c r="H134" s="243" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="135" ht="30.75" spans="1:9">
-      <c r="A135" s="218">
+      <c r="I134" s="252" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="135" ht="33.4" spans="1:9">
+      <c r="A135" s="217">
         <v>3</v>
       </c>
-      <c r="B135" s="219" t="s">
-        <v>429</v>
-      </c>
-      <c r="C135" s="164" t="s">
-        <v>429</v>
-      </c>
-      <c r="D135" s="164" t="s">
-        <v>429</v>
-      </c>
-      <c r="E135" s="164" t="s">
-        <v>429</v>
-      </c>
-      <c r="F135" s="164" t="s">
-        <v>429</v>
-      </c>
-      <c r="G135" s="164" t="s">
-        <v>429</v>
-      </c>
-      <c r="H135" s="253" t="s">
+      <c r="B135" s="218" t="s">
         <v>430</v>
       </c>
-      <c r="I135" s="260" t="s">
+      <c r="C135" s="163" t="s">
+        <v>430</v>
+      </c>
+      <c r="D135" s="163" t="s">
+        <v>430</v>
+      </c>
+      <c r="E135" s="163" t="s">
+        <v>430</v>
+      </c>
+      <c r="F135" s="163" t="s">
+        <v>430</v>
+      </c>
+      <c r="G135" s="163" t="s">
+        <v>430</v>
+      </c>
+      <c r="H135" s="244" t="s">
         <v>431</v>
       </c>
+      <c r="I135" s="253" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="136" ht="15" customHeight="1" spans="1:9">
-      <c r="A136" s="220"/>
-      <c r="B136" s="221"/>
-      <c r="C136" s="169"/>
-      <c r="D136" s="169"/>
-      <c r="E136" s="169"/>
-      <c r="F136" s="169"/>
-      <c r="G136" s="169"/>
-      <c r="H136" s="254" t="s">
-        <v>432</v>
-      </c>
-      <c r="I136" s="261" t="s">
+      <c r="A136" s="219"/>
+      <c r="B136" s="220"/>
+      <c r="C136" s="168"/>
+      <c r="D136" s="168"/>
+      <c r="E136" s="168"/>
+      <c r="F136" s="168"/>
+      <c r="G136" s="168"/>
+      <c r="H136" s="245" t="s">
         <v>433</v>
       </c>
+      <c r="I136" s="254" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="137" ht="15" customHeight="1" spans="1:9">
-      <c r="A137" s="220"/>
-      <c r="B137" s="222" t="s">
-        <v>434</v>
-      </c>
-      <c r="C137" s="223" t="s">
+      <c r="A137" s="219"/>
+      <c r="B137" s="221" t="s">
         <v>435</v>
       </c>
-      <c r="D137" s="224" t="s">
+      <c r="C137" s="222" t="s">
         <v>436</v>
       </c>
-      <c r="E137" s="224" t="s">
+      <c r="D137" s="223" t="s">
         <v>437</v>
       </c>
-      <c r="F137" s="235" t="s">
+      <c r="E137" s="223" t="s">
         <v>438</v>
       </c>
-      <c r="G137" s="233" t="s">
+      <c r="F137" s="234" t="s">
         <v>439</v>
       </c>
-      <c r="H137" s="255" t="s">
+      <c r="G137" s="232" t="s">
         <v>440</v>
       </c>
-      <c r="I137" s="262" t="s">
+      <c r="H137" s="246" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="138" ht="28.5" spans="1:9">
-      <c r="A138" s="220"/>
-      <c r="B138" s="225" t="s">
+      <c r="I137" s="255" t="s">
         <v>442</v>
       </c>
-      <c r="C138" s="226" t="s">
+    </row>
+    <row r="138" ht="26.9" spans="1:9">
+      <c r="A138" s="219"/>
+      <c r="B138" s="224" t="s">
         <v>443</v>
       </c>
-      <c r="D138" s="227" t="s">
+      <c r="C138" s="225" t="s">
         <v>444</v>
       </c>
-      <c r="E138" s="227" t="s">
+      <c r="D138" s="226" t="s">
         <v>445</v>
       </c>
-      <c r="F138" s="245" t="s">
+      <c r="E138" s="226" t="s">
         <v>446</v>
       </c>
-      <c r="G138" s="245" t="s">
+      <c r="F138" s="247" t="s">
         <v>447</v>
       </c>
-      <c r="H138" s="255" t="s">
+      <c r="G138" s="247" t="s">
         <v>448</v>
       </c>
-      <c r="I138" s="262" t="s">
+      <c r="H138" s="246" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="139" ht="16.5" spans="1:9">
-      <c r="A139" s="220"/>
-      <c r="B139" s="228" t="s">
+      <c r="I138" s="255" t="s">
         <v>450</v>
       </c>
-      <c r="C139" s="229" t="s">
+    </row>
+    <row r="139" ht="17.3" spans="1:9">
+      <c r="A139" s="219"/>
+      <c r="B139" s="227" t="s">
         <v>451</v>
       </c>
-      <c r="D139" s="230" t="s">
+      <c r="C139" s="228" t="s">
         <v>452</v>
       </c>
-      <c r="E139" s="230" t="s">
+      <c r="D139" s="229" t="s">
         <v>453</v>
       </c>
-      <c r="F139" s="235" t="s">
+      <c r="E139" s="229" t="s">
         <v>454</v>
       </c>
-      <c r="G139" s="235" t="s">
+      <c r="F139" s="234" t="s">
         <v>455</v>
       </c>
-      <c r="H139" s="255" t="s">
+      <c r="G139" s="234" t="s">
         <v>456</v>
       </c>
-      <c r="I139" s="263" t="s">
+      <c r="H139" s="246" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="140" ht="16.5" spans="1:9">
-      <c r="A140" s="220"/>
-      <c r="B140" s="228" t="s">
+      <c r="I139" s="256" t="s">
         <v>458</v>
       </c>
-      <c r="C140" s="229" t="s">
+    </row>
+    <row r="140" ht="17.3" spans="1:9">
+      <c r="A140" s="219"/>
+      <c r="B140" s="227" t="s">
         <v>459</v>
       </c>
-      <c r="D140" s="230" t="s">
-        <v>451</v>
-      </c>
-      <c r="E140" s="230" t="s">
+      <c r="C140" s="228" t="s">
         <v>460</v>
       </c>
-      <c r="F140" s="235" t="s">
+      <c r="D140" s="229" t="s">
+        <v>452</v>
+      </c>
+      <c r="E140" s="229" t="s">
         <v>461</v>
       </c>
-      <c r="G140" s="235" t="s">
+      <c r="F140" s="234" t="s">
         <v>462</v>
       </c>
-      <c r="H140" s="256" t="s">
+      <c r="G140" s="234" t="s">
         <v>463</v>
       </c>
-      <c r="I140" s="262" t="s">
+      <c r="H140" s="248" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="141" ht="15" spans="1:9">
-      <c r="A141" s="220"/>
-      <c r="B141" s="231" t="s">
+      <c r="I140" s="255" t="s">
         <v>465</v>
       </c>
-      <c r="C141" s="229" t="s">
+    </row>
+    <row r="141" ht="16.3" spans="1:9">
+      <c r="A141" s="219"/>
+      <c r="B141" s="230" t="s">
         <v>466</v>
       </c>
-      <c r="D141" s="230" t="s">
+      <c r="C141" s="228" t="s">
         <v>467</v>
       </c>
-      <c r="E141" s="235" t="s">
+      <c r="D141" s="229" t="s">
         <v>468</v>
       </c>
-      <c r="F141" s="235" t="s">
+      <c r="E141" s="234" t="s">
         <v>469</v>
       </c>
-      <c r="G141" s="235" t="s">
+      <c r="F141" s="234" t="s">
         <v>470</v>
       </c>
-      <c r="H141" s="255" t="s">
+      <c r="G141" s="234" t="s">
         <v>471</v>
       </c>
-      <c r="I141" s="263" t="s">
+      <c r="H141" s="246" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="142" ht="15" spans="1:9">
-      <c r="A142" s="220"/>
-      <c r="B142" s="231" t="s">
+      <c r="I141" s="256" t="s">
         <v>473</v>
       </c>
-      <c r="C142" s="229" t="s">
+    </row>
+    <row r="142" ht="16.3" spans="1:9">
+      <c r="A142" s="219"/>
+      <c r="B142" s="230" t="s">
         <v>474</v>
       </c>
-      <c r="D142" s="230" t="s">
+      <c r="C142" s="228" t="s">
         <v>475</v>
       </c>
-      <c r="E142" s="235" t="s">
+      <c r="D142" s="229" t="s">
         <v>476</v>
       </c>
-      <c r="F142" s="235" t="s">
+      <c r="E142" s="234" t="s">
         <v>477</v>
       </c>
-      <c r="G142" s="235" t="s">
+      <c r="F142" s="234" t="s">
         <v>478</v>
       </c>
-      <c r="H142" s="255" t="s">
+      <c r="G142" s="234" t="s">
         <v>479</v>
       </c>
-      <c r="I142" s="263" t="s">
+      <c r="H142" s="246" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="143" ht="25.5" spans="1:9">
-      <c r="A143" s="220"/>
-      <c r="B143" s="231" t="s">
+      <c r="I142" s="256" t="s">
         <v>481</v>
       </c>
-      <c r="C143" s="229" t="s">
-        <v>443</v>
-      </c>
-      <c r="D143" s="230" t="s">
+    </row>
+    <row r="143" ht="24.95" spans="1:9">
+      <c r="A143" s="219"/>
+      <c r="B143" s="230" t="s">
         <v>482</v>
       </c>
-      <c r="E143" s="235" t="s">
+      <c r="C143" s="228" t="s">
+        <v>444</v>
+      </c>
+      <c r="D143" s="229" t="s">
         <v>483</v>
       </c>
-      <c r="F143" s="235" t="s">
+      <c r="E143" s="234" t="s">
         <v>484</v>
       </c>
-      <c r="G143" s="235" t="s">
+      <c r="F143" s="234" t="s">
         <v>485</v>
       </c>
-      <c r="H143" s="255" t="s">
+      <c r="G143" s="234" t="s">
         <v>486</v>
       </c>
-      <c r="I143" s="264" t="s">
+      <c r="H143" s="246" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="144" ht="15" spans="1:9">
-      <c r="A144" s="220"/>
-      <c r="B144" s="231" t="s">
+      <c r="I143" s="257" t="s">
         <v>488</v>
       </c>
-      <c r="C144" s="229" t="s">
+    </row>
+    <row r="144" ht="16.3" spans="1:9">
+      <c r="A144" s="219"/>
+      <c r="B144" s="230" t="s">
         <v>489</v>
       </c>
-      <c r="D144" s="230" t="s">
+      <c r="C144" s="228" t="s">
         <v>490</v>
       </c>
-      <c r="E144" s="235" t="s">
+      <c r="D144" s="229" t="s">
         <v>491</v>
       </c>
-      <c r="F144" s="235" t="s">
+      <c r="E144" s="234" t="s">
         <v>492</v>
       </c>
-      <c r="G144" s="235" t="s">
+      <c r="F144" s="234" t="s">
         <v>493</v>
       </c>
-      <c r="H144" s="255" t="s">
+      <c r="G144" s="234" t="s">
         <v>494</v>
       </c>
-      <c r="I144" s="263" t="s">
+      <c r="H144" s="246" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="145" ht="15" spans="1:9">
-      <c r="A145" s="220"/>
-      <c r="B145" s="231" t="s">
+      <c r="I144" s="256" t="s">
         <v>496</v>
       </c>
-      <c r="C145" s="229" t="s">
+    </row>
+    <row r="145" ht="16.3" spans="1:9">
+      <c r="A145" s="219"/>
+      <c r="B145" s="230" t="s">
         <v>497</v>
       </c>
-      <c r="D145" s="230" t="s">
+      <c r="C145" s="228" t="s">
         <v>498</v>
       </c>
-      <c r="E145" s="235" t="s">
+      <c r="D145" s="229" t="s">
         <v>499</v>
       </c>
-      <c r="F145" s="235" t="s">
+      <c r="E145" s="234" t="s">
         <v>500</v>
       </c>
-      <c r="G145" s="235" t="s">
+      <c r="F145" s="234" t="s">
         <v>501</v>
       </c>
-      <c r="H145" s="255" t="s">
+      <c r="G145" s="234" t="s">
         <v>502</v>
       </c>
-      <c r="I145" s="263" t="s">
+      <c r="H145" s="246" t="s">
         <v>503</v>
       </c>
+      <c r="I145" s="256" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="146" ht="21.75" customHeight="1" spans="1:9">
-      <c r="A146" s="220"/>
-      <c r="B146" s="231" t="s">
-        <v>504</v>
-      </c>
-      <c r="C146" s="229" t="s">
+      <c r="A146" s="219"/>
+      <c r="B146" s="230" t="s">
         <v>505</v>
       </c>
-      <c r="D146" s="230" t="s">
-        <v>474</v>
-      </c>
-      <c r="E146" s="235" t="s">
+      <c r="C146" s="228" t="s">
         <v>506</v>
       </c>
-      <c r="F146" s="235" t="s">
+      <c r="D146" s="229" t="s">
+        <v>475</v>
+      </c>
+      <c r="E146" s="234" t="s">
         <v>507</v>
       </c>
-      <c r="G146" s="235" t="s">
+      <c r="F146" s="234" t="s">
         <v>508</v>
       </c>
-      <c r="H146" s="255" t="s">
+      <c r="G146" s="234" t="s">
         <v>509</v>
       </c>
-      <c r="I146" s="263" t="s">
+      <c r="H146" s="246" t="s">
         <v>510</v>
       </c>
+      <c r="I146" s="256" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="147" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A147" s="220"/>
-      <c r="B147" s="231" t="s">
-        <v>511</v>
-      </c>
-      <c r="C147" s="229" t="s">
-        <v>459</v>
-      </c>
-      <c r="D147" s="230" t="s">
+      <c r="A147" s="219"/>
+      <c r="B147" s="230" t="s">
         <v>512</v>
       </c>
-      <c r="E147" s="235" t="s">
+      <c r="C147" s="228" t="s">
+        <v>460</v>
+      </c>
+      <c r="D147" s="229" t="s">
         <v>513</v>
       </c>
-      <c r="F147" s="235" t="s">
+      <c r="E147" s="234" t="s">
         <v>514</v>
       </c>
-      <c r="G147" s="235" t="s">
+      <c r="F147" s="234" t="s">
         <v>515</v>
       </c>
-      <c r="H147" s="255" t="s">
+      <c r="G147" s="234" t="s">
         <v>516</v>
       </c>
-      <c r="I147" s="265" t="s">
+      <c r="H147" s="246" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="148" spans="1:9">
-      <c r="A148" s="220"/>
-      <c r="B148" s="231" t="s">
+      <c r="I147" s="258" t="s">
         <v>518</v>
       </c>
-      <c r="C148" s="229" t="s">
+    </row>
+    <row r="148" ht="13.45" spans="1:9">
+      <c r="A148" s="219"/>
+      <c r="B148" s="230" t="s">
         <v>519</v>
       </c>
-      <c r="D148" s="230" t="s">
+      <c r="C148" s="228" t="s">
         <v>520</v>
       </c>
-      <c r="E148" s="235" t="s">
+      <c r="D148" s="229" t="s">
         <v>521</v>
       </c>
-      <c r="F148" s="235" t="s">
+      <c r="E148" s="234" t="s">
         <v>522</v>
       </c>
-      <c r="G148" s="235" t="s">
-        <v>436</v>
-      </c>
-      <c r="H148" s="230" t="s">
+      <c r="F148" s="234" t="s">
         <v>523</v>
       </c>
-      <c r="I148" s="240" t="s">
+      <c r="G148" s="234" t="s">
+        <v>437</v>
+      </c>
+      <c r="H148" s="229" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="149" spans="1:9">
-      <c r="A149" s="220"/>
-      <c r="B149" s="232" t="s">
+      <c r="I148" s="259" t="s">
         <v>525</v>
       </c>
-      <c r="C149" s="229" t="s">
+    </row>
+    <row r="149" ht="13.45" spans="1:9">
+      <c r="A149" s="219"/>
+      <c r="B149" s="231" t="s">
         <v>526</v>
       </c>
-      <c r="D149" s="230" t="s">
+      <c r="C149" s="228" t="s">
         <v>527</v>
       </c>
-      <c r="E149" s="235" t="s">
+      <c r="D149" s="229" t="s">
         <v>528</v>
       </c>
-      <c r="F149" s="235" t="s">
+      <c r="E149" s="234" t="s">
         <v>529</v>
       </c>
-      <c r="G149" s="235" t="s">
+      <c r="F149" s="234" t="s">
         <v>530</v>
       </c>
-      <c r="H149" s="230" t="s">
+      <c r="G149" s="234" t="s">
         <v>531</v>
       </c>
-      <c r="I149" s="240" t="s">
+      <c r="H149" s="229" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="150" spans="1:9">
-      <c r="A150" s="220"/>
-      <c r="B150" s="232" t="s">
-        <v>476</v>
-      </c>
-      <c r="C150" s="229" t="s">
+      <c r="I149" s="259" t="s">
         <v>533</v>
       </c>
-      <c r="D150" s="230" t="s">
+    </row>
+    <row r="150" ht="13.45" spans="1:9">
+      <c r="A150" s="219"/>
+      <c r="B150" s="231" t="s">
+        <v>477</v>
+      </c>
+      <c r="C150" s="228" t="s">
         <v>534</v>
       </c>
-      <c r="E150" s="235" t="s">
+      <c r="D150" s="229" t="s">
         <v>535</v>
       </c>
-      <c r="F150" s="235" t="s">
+      <c r="E150" s="234" t="s">
         <v>536</v>
       </c>
-      <c r="G150" s="235" t="s">
+      <c r="F150" s="234" t="s">
         <v>537</v>
       </c>
-      <c r="H150" s="230" t="s">
+      <c r="G150" s="234" t="s">
         <v>538</v>
       </c>
-      <c r="I150" s="240" t="s">
+      <c r="H150" s="229" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="151" spans="1:9">
-      <c r="A151" s="220"/>
-      <c r="B151" s="232" t="s">
+      <c r="I150" s="259" t="s">
         <v>540</v>
       </c>
-      <c r="C151" s="229" t="s">
+    </row>
+    <row r="151" ht="13.45" spans="1:9">
+      <c r="A151" s="219"/>
+      <c r="B151" s="231" t="s">
         <v>541</v>
       </c>
-      <c r="D151" s="230" t="s">
+      <c r="C151" s="228" t="s">
         <v>542</v>
       </c>
-      <c r="E151" s="235" t="s">
+      <c r="D151" s="229" t="s">
         <v>543</v>
       </c>
-      <c r="F151" s="235" t="s">
+      <c r="E151" s="234" t="s">
         <v>544</v>
       </c>
-      <c r="G151" s="235" t="s">
+      <c r="F151" s="234" t="s">
         <v>545</v>
       </c>
-      <c r="H151" s="230" t="s">
+      <c r="G151" s="234" t="s">
         <v>546</v>
       </c>
-      <c r="I151" s="240" t="s">
+      <c r="H151" s="229" t="s">
         <v>547</v>
       </c>
+      <c r="I151" s="259" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="152" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A152" s="220"/>
-      <c r="B152" s="232" t="s">
-        <v>548</v>
-      </c>
-      <c r="C152" s="233" t="s">
+      <c r="A152" s="219"/>
+      <c r="B152" s="231" t="s">
         <v>549</v>
       </c>
-      <c r="D152" s="234" t="s">
+      <c r="C152" s="232" t="s">
         <v>550</v>
       </c>
-      <c r="E152" s="235" t="s">
+      <c r="D152" s="233" t="s">
         <v>551</v>
       </c>
-      <c r="F152" s="235" t="s">
+      <c r="E152" s="234" t="s">
         <v>552</v>
       </c>
-      <c r="G152" s="235" t="s">
+      <c r="F152" s="234" t="s">
         <v>553</v>
       </c>
-      <c r="H152" s="230" t="s">
+      <c r="G152" s="234" t="s">
         <v>554</v>
       </c>
-      <c r="I152" s="242" t="s">
+      <c r="H152" s="229" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="153" spans="1:9">
-      <c r="A153" s="220"/>
-      <c r="B153" s="232" t="s">
+      <c r="I152" s="260" t="s">
         <v>556</v>
       </c>
-      <c r="C153" s="235" t="s">
+    </row>
+    <row r="153" ht="13.45" spans="1:9">
+      <c r="A153" s="219"/>
+      <c r="B153" s="231" t="s">
         <v>557</v>
       </c>
-      <c r="D153" s="235" t="s">
+      <c r="C153" s="234" t="s">
         <v>558</v>
       </c>
-      <c r="E153" s="235" t="s">
+      <c r="D153" s="234" t="s">
         <v>559</v>
       </c>
-      <c r="F153" s="235" t="s">
-        <v>522</v>
-      </c>
-      <c r="G153" s="235" t="s">
+      <c r="E153" s="234" t="s">
         <v>560</v>
       </c>
-      <c r="H153" s="230" t="s">
+      <c r="F153" s="234" t="s">
+        <v>523</v>
+      </c>
+      <c r="G153" s="234" t="s">
         <v>561</v>
       </c>
-      <c r="I153" s="244" t="s">
+      <c r="H153" s="229" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="154" ht="28.5" spans="1:9">
-      <c r="A154" s="220"/>
-      <c r="B154" s="236" t="s">
+      <c r="I153" s="261" t="s">
         <v>563</v>
       </c>
-      <c r="C154" s="237" t="s">
+    </row>
+    <row r="154" ht="26.9" spans="1:9">
+      <c r="A154" s="219"/>
+      <c r="B154" s="235" t="s">
         <v>564</v>
       </c>
-      <c r="D154" s="230" t="s">
+      <c r="C154" s="236" t="s">
         <v>565</v>
       </c>
-      <c r="E154" s="230" t="s">
+      <c r="D154" s="229" t="s">
         <v>566</v>
       </c>
-      <c r="F154" s="245" t="s">
+      <c r="E154" s="229" t="s">
         <v>567</v>
       </c>
-      <c r="G154" s="245" t="s">
+      <c r="F154" s="247" t="s">
         <v>568</v>
       </c>
-      <c r="H154" s="243" t="s">
+      <c r="G154" s="247" t="s">
         <v>569</v>
       </c>
-      <c r="I154" s="244" t="s">
+      <c r="H154" s="249" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="155" ht="15" spans="1:9">
-      <c r="A155" s="238"/>
-      <c r="B155" s="239" t="s">
+      <c r="I154" s="261" t="s">
         <v>571</v>
       </c>
-      <c r="C155" s="230" t="s">
-        <v>523</v>
-      </c>
-      <c r="D155" s="240" t="s">
+    </row>
+    <row r="155" ht="14.15" spans="1:9">
+      <c r="A155" s="237"/>
+      <c r="B155" s="238" t="s">
         <v>572</v>
       </c>
-      <c r="E155" s="246"/>
-      <c r="F155" s="246"/>
-      <c r="G155" s="246"/>
-      <c r="H155" s="245"/>
-      <c r="I155" s="266"/>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="238"/>
-      <c r="B156" s="241"/>
-      <c r="C156" s="230" t="s">
-        <v>531</v>
-      </c>
-      <c r="D156" s="240" t="s">
-        <v>524</v>
-      </c>
-      <c r="E156" s="246"/>
-      <c r="F156" s="246"/>
-      <c r="G156" s="246"/>
-      <c r="H156" s="245"/>
-      <c r="I156" s="266"/>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="238"/>
-      <c r="B157" s="241"/>
-      <c r="C157" s="230" t="s">
-        <v>538</v>
-      </c>
-      <c r="D157" s="240" t="s">
-        <v>532</v>
-      </c>
-      <c r="E157" s="246"/>
-      <c r="F157" s="246"/>
-      <c r="G157" s="246"/>
-      <c r="H157" s="245"/>
-      <c r="I157" s="266"/>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="238"/>
-      <c r="B158" s="241"/>
-      <c r="C158" s="230" t="s">
-        <v>546</v>
-      </c>
-      <c r="D158" s="240" t="s">
-        <v>539</v>
-      </c>
-      <c r="E158" s="246"/>
-      <c r="F158" s="246"/>
-      <c r="G158" s="246"/>
-      <c r="H158" s="245"/>
-      <c r="I158" s="266"/>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="238"/>
-      <c r="B159" s="241"/>
-      <c r="C159" s="230" t="s">
-        <v>554</v>
-      </c>
-      <c r="D159" s="240" t="s">
-        <v>547</v>
-      </c>
-      <c r="E159" s="246"/>
-      <c r="F159" s="246"/>
-      <c r="G159" s="246"/>
-      <c r="H159" s="245"/>
-      <c r="I159" s="266"/>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="238"/>
-      <c r="B160" s="241"/>
-      <c r="C160" s="230" t="s">
-        <v>561</v>
-      </c>
-      <c r="D160" s="242" t="s">
-        <v>555</v>
-      </c>
-      <c r="E160" s="246"/>
-      <c r="F160" s="246"/>
-      <c r="G160" s="246"/>
-      <c r="H160" s="245"/>
-      <c r="I160" s="266"/>
-    </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="238"/>
-      <c r="B161" s="241"/>
-      <c r="C161" s="243" t="s">
-        <v>569</v>
-      </c>
-      <c r="D161" s="244" t="s">
-        <v>562</v>
-      </c>
-      <c r="E161" s="246"/>
-      <c r="F161" s="246"/>
-      <c r="G161" s="246"/>
-      <c r="H161" s="245"/>
-      <c r="I161" s="266"/>
-    </row>
-    <row r="162" spans="1:9">
-      <c r="A162" s="238"/>
-      <c r="B162" s="241"/>
-      <c r="C162" s="245" t="s">
+      <c r="C155" s="239"/>
+      <c r="D155" s="239"/>
+      <c r="E155" s="239"/>
+      <c r="F155" s="239"/>
+      <c r="G155" s="239"/>
+      <c r="H155" s="247" t="s">
         <v>573</v>
       </c>
-      <c r="D162" s="244" t="s">
-        <v>570</v>
-      </c>
-      <c r="E162" s="246"/>
-      <c r="F162" s="246"/>
-      <c r="G162" s="246"/>
-      <c r="H162" s="245"/>
-      <c r="I162" s="266"/>
-    </row>
-    <row r="163" spans="1:9">
-      <c r="A163" s="238"/>
-      <c r="B163" s="241"/>
-      <c r="C163" s="243" t="s">
+      <c r="I155" s="262"/>
+    </row>
+    <row r="156" spans="8:8">
+      <c r="H156" s="249" t="s">
         <v>574</v>
       </c>
-      <c r="D163" s="246"/>
-      <c r="E163" s="246"/>
-      <c r="F163" s="246"/>
-      <c r="G163" s="246"/>
-      <c r="H163" s="245"/>
-      <c r="I163" s="266"/>
-    </row>
-    <row r="164" spans="1:9">
-      <c r="A164" s="238"/>
-      <c r="B164" s="241"/>
-      <c r="C164" s="245"/>
-      <c r="D164" s="246"/>
-      <c r="E164" s="246"/>
-      <c r="F164" s="246"/>
-      <c r="G164" s="246"/>
-      <c r="H164" s="245"/>
-      <c r="I164" s="266"/>
-    </row>
-    <row r="165" spans="1:9">
-      <c r="A165" s="238"/>
-      <c r="B165" s="241"/>
-      <c r="C165" s="245"/>
-      <c r="D165" s="246"/>
-      <c r="E165" s="246"/>
-      <c r="F165" s="246"/>
-      <c r="G165" s="246"/>
-      <c r="H165" s="245"/>
-      <c r="I165" s="266"/>
-    </row>
-    <row r="166" ht="15" spans="1:9">
-      <c r="A166" s="247"/>
-      <c r="C166" s="245"/>
-      <c r="D166" s="248"/>
-      <c r="E166" s="248"/>
-      <c r="F166" s="248"/>
-      <c r="G166" s="248"/>
-      <c r="H166" s="245" t="s">
-        <v>573</v>
-      </c>
-      <c r="I166" s="267"/>
-    </row>
-    <row r="167" spans="3:8">
-      <c r="C167" s="245"/>
-      <c r="H167" s="243" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="168" spans="3:3">
-      <c r="C168" s="245"/>
-    </row>
-    <row r="169" spans="3:3">
-      <c r="C169" s="245"/>
-    </row>
-    <row r="170" spans="3:3">
-      <c r="C170" s="245"/>
-    </row>
-    <row r="171" spans="3:3">
-      <c r="C171" s="245"/>
-    </row>
-    <row r="172" spans="3:3">
-      <c r="C172" s="245"/>
-    </row>
-    <row r="203" spans="5:5">
-      <c r="E203"/>
+    </row>
+    <row r="192" spans="5:5">
+      <c r="E192"/>
     </row>
   </sheetData>
   <mergeCells count="143">
@@ -7592,7 +7410,7 @@
     <mergeCell ref="A108:A124"/>
     <mergeCell ref="A126:A131"/>
     <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A135:A166"/>
+    <mergeCell ref="A135:A155"/>
     <mergeCell ref="B135:B136"/>
     <mergeCell ref="C135:C136"/>
     <mergeCell ref="D135:D136"/>
@@ -7621,19 +7439,19 @@
       <selection activeCell="A1" sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.4" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="35.2833333333333" customWidth="1"/>
+    <col min="1" max="1" width="35.2869565217391" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -7643,7 +7461,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -7653,7 +7471,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/raw/time_tables/B.Tech (btech)/2/1.xlsx
+++ b/raw/time_tables/B.Tech (btech)/2/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18432" windowHeight="17068"/>
+    <workbookView windowHeight="17414"/>
   </bookViews>
   <sheets>
     <sheet name="Phase 1" sheetId="2" r:id="rId1"/>
@@ -1031,7 +1031,7 @@
     <t xml:space="preserve">LA10,B14(PH211)-FF2/NG </t>
   </si>
   <si>
-    <t>LB5,B6(CI121)-FF3/SUD</t>
+    <t>LB5,B6(CI121)-CS3/SUD</t>
   </si>
   <si>
     <t xml:space="preserve">LA17,A18(PH211)-FF1/INC </t>
@@ -1752,8 +1752,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -1870,9 +1870,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1886,8 +1893,126 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1902,133 +2027,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2085,19 +2085,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2109,43 +2103,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2163,13 +2127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2181,7 +2139,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2193,7 +2163,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2205,19 +2205,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2235,37 +2247,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2962,17 +2962,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2988,6 +2982,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3015,26 +3035,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3042,150 +3042,150 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="57" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="26" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="54" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4324,12 +4324,12 @@
   <sheetPr/>
   <dimension ref="A1:L192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I134" sqref="I134:I147"/>
+      <selection pane="bottomRight" activeCell="K137" sqref="K137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13913043478261" defaultRowHeight="13.4"/>

--- a/raw/time_tables/B.Tech (btech)/2/1.xlsx
+++ b/raw/time_tables/B.Tech (btech)/2/1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17414"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Phase 1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="576">
   <si>
     <t>B.TECH II SEMESTER EVEN 2025</t>
   </si>
@@ -239,7 +239,7 @@
     <t>PB11(PH271)- PL1/RAV/BCJ</t>
   </si>
   <si>
-    <t>PA1(CI271)-CL05 /MGR.SOS,SLK,MAY</t>
+    <t>PA1(CI271)-CL05 /MGR.ASK,SLK</t>
   </si>
   <si>
     <t>PA3(PH271)- PL2/AP/RKD</t>
@@ -467,9 +467,6 @@
     <t>TB9(MA211)-TS8/SP</t>
   </si>
   <si>
-    <t>TB5(CI121)-TS6/LM</t>
-  </si>
-  <si>
     <t>TA3(B11HS111)-TS10/VSE</t>
   </si>
   <si>
@@ -950,7 +947,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>PB9(CI271)- CL05/KP,SYN,MAY</t>
+    <t>PB9(CI271)- CL05/KP,SYN,DEP</t>
   </si>
   <si>
     <t>PB8 (HS111)- TR326/ KMB</t>
@@ -959,6 +956,9 @@
     <t>PA10 (HS111)- CL12/ NES</t>
   </si>
   <si>
+    <t>LG1,G2(PH211)-G9/DIN</t>
+  </si>
+  <si>
     <t>PA1 (HS111)- LL/ NAM</t>
   </si>
   <si>
@@ -971,9 +971,6 @@
     <t>PB2(GE111)- CAD2/ GGL</t>
   </si>
   <si>
-    <t>LG1,G2(PH211)-G9/DIN</t>
-  </si>
-  <si>
     <t>PB7(GE111)- CAD1/ SWET</t>
   </si>
   <si>
@@ -1127,7 +1124,7 @@
     <t>TA7(B11HS111)-TS16/PRI</t>
   </si>
   <si>
-    <t>PG1(CI271)-CL05/GZL,DEP,AMS</t>
+    <t>PG1(CI271)-CL05/GZL,SOS,AMS</t>
   </si>
   <si>
     <t>PB9(HS111)- LL/ HK</t>
@@ -1136,7 +1133,7 @@
     <t>PG2(CI271)-CL06 /NSA,APR,PAG</t>
   </si>
   <si>
-    <t>PB10(HS111)- CL12/ EKS</t>
+    <t>PB10(HS111)- CL17/ EKS</t>
   </si>
   <si>
     <t>PA5(PH271)-PL1 /MKC/SDC</t>
@@ -1157,10 +1154,13 @@
     <t>PA18(CI271)- CL22/AJS,MSH,ASK</t>
   </si>
   <si>
+    <t>PA3 (HS111)-LL / EKS</t>
+  </si>
+  <si>
     <t>PA10(GE111)- CAD1/ NKR</t>
   </si>
   <si>
-    <t>PA3 (HS111)-LL / EKS</t>
+    <t>PA4 (HS111)- CL12/ YN</t>
   </si>
   <si>
     <t>PC3(GE111)- CAD2/ SWET</t>
@@ -1169,9 +1169,6 @@
     <t>PB12(GE111)- CAD1/ NKR</t>
   </si>
   <si>
-    <t>PA4 (HS111)- CL12/ YN</t>
-  </si>
-  <si>
     <t>PB14(GE111)- CAD3/ GGL</t>
   </si>
   <si>
@@ -1734,6 +1731,9 @@
   </si>
   <si>
     <t xml:space="preserve"> NEJ :Neetu Joshi</t>
+  </si>
+  <si>
+    <t>BPC:Prof. B. P. Chamola</t>
   </si>
   <si>
     <t xml:space="preserve">SNP: Satyanarayan Patel </t>
@@ -1750,12 +1750,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1878,25 +1878,40 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1922,36 +1937,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1967,13 +1952,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1984,12 +1962,34 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2003,8 +2003,9 @@
       <charset val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2012,7 +2013,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2025,16 +2026,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2091,12 +2084,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2109,7 +2096,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2127,13 +2180,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2145,43 +2222,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2193,67 +2240,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2265,7 +2252,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2752,16 +2739,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2830,6 +2815,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2851,17 +2849,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2934,21 +2921,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2957,6 +2929,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2986,17 +2969,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3008,6 +2980,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3026,170 +3022,161 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="58" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="59" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="59" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="56" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="58" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="57" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="280">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3614,6 +3601,9 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3647,6 +3637,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -3662,6 +3658,132 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -3674,7 +3796,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3695,121 +3817,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3834,7 +3848,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3897,12 +3911,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3927,7 +3956,18 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3955,23 +3995,19 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 30" xfId="1"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Excel Built-in Normal" xfId="3"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="4"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="3"/>
+    <cellStyle name="Normal 2 30" xfId="4"/>
     <cellStyle name="60% - Accent6" xfId="5" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="6" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="7" builtinId="48"/>
@@ -4322,34 +4358,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L192"/>
+  <dimension ref="A1:L208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B114" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K137" sqref="K137"/>
+      <selection pane="bottomRight" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13913043478261" defaultRowHeight="13.4"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="5.71304347826087" style="2" customWidth="1"/>
-    <col min="2" max="2" width="27.1391304347826" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.2869565217391" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.4260869565217" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.8521739130435" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.4260869565217" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.8521739130435" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.5739130434783" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.2869565217391" style="2" customWidth="1"/>
-    <col min="10" max="10" width="1.71304347826087" style="2" customWidth="1"/>
-    <col min="11" max="11" width="9.13913043478261" style="2"/>
-    <col min="12" max="12" width="25.8521739130435" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9.13913043478261" style="2"/>
+    <col min="1" max="1" width="5.70833333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.1416666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.2833333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.425" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.8583333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.425" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.8583333333333" style="2" customWidth="1"/>
+    <col min="8" max="8" width="25.5666666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.2833333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="1.70833333333333" style="2" customWidth="1"/>
+    <col min="11" max="11" width="9.14166666666667" style="2"/>
+    <col min="12" max="12" width="25.8583333333333" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.14166666666667" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.75" spans="1:9">
+    <row r="1" ht="23.25" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4362,7 +4398,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="110"/>
     </row>
-    <row r="2" ht="14.2" spans="1:9">
+    <row r="2" ht="15" spans="1:9">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>1</v>
@@ -5021,94 +5057,92 @@
       <c r="H34" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="I34" s="44" t="s">
-        <v>150</v>
-      </c>
+      <c r="I34" s="44"/>
     </row>
     <row r="35" ht="25.5" customHeight="1" spans="1:9">
       <c r="A35" s="11"/>
       <c r="B35" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="30" t="s">
         <v>151</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>152</v>
       </c>
       <c r="D35" s="30"/>
       <c r="E35" s="75"/>
       <c r="F35" s="87"/>
       <c r="G35" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="H35" s="77" t="s">
         <v>153</v>
-      </c>
-      <c r="H35" s="77" t="s">
-        <v>154</v>
       </c>
       <c r="I35" s="113"/>
     </row>
     <row r="36" ht="33" customHeight="1" spans="1:9">
       <c r="A36" s="11"/>
       <c r="B36" s="49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C36" s="50"/>
       <c r="D36" s="13"/>
       <c r="E36" s="75"/>
       <c r="F36" s="18"/>
       <c r="G36" s="77" t="s">
+        <v>155</v>
+      </c>
+      <c r="H36" s="89" t="s">
         <v>156</v>
-      </c>
-      <c r="H36" s="89" t="s">
-        <v>157</v>
       </c>
       <c r="I36" s="121"/>
     </row>
     <row r="37" ht="29.25" customHeight="1" spans="1:9">
       <c r="A37" s="11"/>
       <c r="B37" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C37" s="31"/>
       <c r="D37" s="18"/>
       <c r="E37" s="75"/>
       <c r="F37" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G37" s="31"/>
       <c r="H37" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I37" s="122"/>
     </row>
-    <row r="38" ht="14.25" customHeight="1" spans="1:9">
+    <row r="38" customHeight="1" spans="1:9">
       <c r="A38" s="11"/>
       <c r="B38" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C38" s="31"/>
       <c r="D38" s="18"/>
       <c r="E38" s="75"/>
       <c r="F38" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G38" s="31"/>
       <c r="H38" s="91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I38" s="123"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="11"/>
       <c r="B39" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C39" s="31"/>
       <c r="D39" s="18"/>
       <c r="E39" s="75"/>
       <c r="F39" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G39" s="30"/>
       <c r="H39" s="92" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I39" s="124"/>
     </row>
@@ -5116,29 +5150,29 @@
       <c r="A40" s="11"/>
       <c r="B40" s="51"/>
       <c r="C40" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D40" s="30"/>
       <c r="E40" s="75"/>
       <c r="F40" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G40" s="30"/>
       <c r="H40" s="93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I40" s="125"/>
     </row>
     <row r="41" ht="28.5" customHeight="1" spans="1:9">
       <c r="A41" s="11"/>
       <c r="B41" s="32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C41" s="33"/>
       <c r="D41" s="34"/>
       <c r="E41" s="75"/>
       <c r="F41" s="32" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G41" s="33"/>
       <c r="H41" s="34"/>
@@ -5147,13 +5181,13 @@
     <row r="42" ht="30" customHeight="1" spans="1:9">
       <c r="A42" s="11"/>
       <c r="B42" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C42" s="36"/>
       <c r="D42" s="36"/>
       <c r="E42" s="75"/>
       <c r="F42" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G42" s="36"/>
       <c r="H42" s="36"/>
@@ -5162,13 +5196,13 @@
     <row r="43" ht="26.25" customHeight="1" spans="1:9">
       <c r="A43" s="39"/>
       <c r="B43" s="52" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C43" s="53"/>
       <c r="D43" s="54"/>
       <c r="E43" s="94"/>
       <c r="F43" s="52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G43" s="53"/>
       <c r="H43" s="54"/>
@@ -5187,16 +5221,16 @@
     </row>
     <row r="45" ht="26.25" customHeight="1" spans="1:9">
       <c r="A45" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" s="58" t="s">
         <v>176</v>
-      </c>
-      <c r="B45" s="58" t="s">
-        <v>177</v>
       </c>
       <c r="C45" s="59" t="s">
         <v>96</v>
       </c>
       <c r="D45" s="59" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E45" s="97" t="s">
         <v>13</v>
@@ -5205,148 +5239,148 @@
         <v>14</v>
       </c>
       <c r="G45" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="H45" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="H45" s="59" t="s">
+      <c r="I45" s="128" t="s">
         <v>180</v>
-      </c>
-      <c r="I45" s="128" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="46" ht="33" customHeight="1" spans="1:8">
       <c r="A46" s="11"/>
       <c r="B46" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="D46" s="60" t="s">
         <v>183</v>
-      </c>
-      <c r="D46" s="60" t="s">
-        <v>184</v>
       </c>
       <c r="E46" s="97"/>
       <c r="F46" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G46" s="99"/>
       <c r="H46" s="59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" ht="32.25" customHeight="1" spans="1:9">
       <c r="A47" s="11"/>
       <c r="B47" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C47" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="D47" s="59" t="s">
         <v>188</v>
-      </c>
-      <c r="D47" s="59" t="s">
-        <v>189</v>
       </c>
       <c r="E47" s="97"/>
       <c r="F47" s="100" t="s">
+        <v>189</v>
+      </c>
+      <c r="G47" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="H47" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="H47" s="59" t="s">
+      <c r="I47" s="129" t="s">
         <v>192</v>
-      </c>
-      <c r="I47" s="129" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="48" ht="39" customHeight="1" spans="1:9">
       <c r="A48" s="11"/>
       <c r="B48" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C48" s="18" t="s">
+      <c r="D48" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>196</v>
       </c>
       <c r="E48" s="97"/>
       <c r="F48" s="66" t="s">
         <v>117</v>
       </c>
       <c r="G48" s="59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H48" s="59" t="s">
         <v>32</v>
       </c>
       <c r="I48" s="112" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:9">
       <c r="A49" s="11"/>
       <c r="B49" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="D49" s="14" t="s">
         <v>200</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>201</v>
       </c>
       <c r="E49" s="97"/>
       <c r="F49" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="G49" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="G49" s="48" t="s">
+      <c r="H49" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="H49" s="62" t="s">
+      <c r="I49" s="112" t="s">
         <v>204</v>
-      </c>
-      <c r="I49" s="112" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="50" ht="29.25" customHeight="1" spans="1:9">
       <c r="A50" s="11"/>
       <c r="B50" s="61" t="s">
+        <v>205</v>
+      </c>
+      <c r="C50" s="62" t="s">
         <v>206</v>
-      </c>
-      <c r="C50" s="62" t="s">
-        <v>207</v>
       </c>
       <c r="E50" s="97"/>
       <c r="F50" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="G50" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="H50" s="101" t="s">
         <v>209</v>
-      </c>
-      <c r="H50" s="101" t="s">
-        <v>210</v>
       </c>
       <c r="I50" s="126"/>
     </row>
     <row r="51" ht="41.25" customHeight="1" spans="1:9">
       <c r="A51" s="11"/>
       <c r="B51" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C51" s="64"/>
       <c r="D51" s="48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E51" s="97"/>
       <c r="F51" s="100" t="s">
+        <v>212</v>
+      </c>
+      <c r="G51" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="G51" s="67" t="s">
+      <c r="H51" s="101" t="s">
         <v>214</v>
-      </c>
-      <c r="H51" s="101" t="s">
-        <v>215</v>
       </c>
       <c r="I51" s="130"/>
     </row>
@@ -5354,17 +5388,17 @@
       <c r="A52" s="35"/>
       <c r="B52" s="65"/>
       <c r="C52" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D52" s="18" t="s">
         <v>216</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>217</v>
       </c>
       <c r="E52" s="97"/>
       <c r="F52" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="G52" s="102" t="s">
         <v>218</v>
-      </c>
-      <c r="G52" s="102" t="s">
-        <v>219</v>
       </c>
       <c r="H52" s="65"/>
       <c r="I52" s="130"/>
@@ -5373,56 +5407,56 @@
       <c r="A53" s="35"/>
       <c r="B53" s="65"/>
       <c r="C53" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" s="66" t="s">
         <v>220</v>
-      </c>
-      <c r="D53" s="66" t="s">
-        <v>221</v>
       </c>
       <c r="E53" s="97"/>
       <c r="F53" s="65"/>
       <c r="G53" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H53" s="103" t="s">
         <v>222</v>
-      </c>
-      <c r="H53" s="103" t="s">
-        <v>223</v>
       </c>
       <c r="I53" s="103"/>
     </row>
     <row r="54" ht="27.75" customHeight="1" spans="1:9">
       <c r="A54" s="11"/>
       <c r="B54" s="49" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C54" s="50"/>
       <c r="D54" s="67" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E54" s="97"/>
       <c r="F54" s="65"/>
       <c r="G54" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="H54" s="103" t="s">
         <v>226</v>
-      </c>
-      <c r="H54" s="103" t="s">
-        <v>227</v>
       </c>
       <c r="I54" s="103"/>
     </row>
     <row r="55" ht="26.25" customHeight="1" spans="1:9">
       <c r="A55" s="11"/>
       <c r="B55" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C55" s="31"/>
       <c r="D55" s="67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E55" s="97"/>
       <c r="F55" s="65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G55" s="65"/>
       <c r="H55" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I55" s="65"/>
     </row>
@@ -5430,16 +5464,16 @@
       <c r="A56" s="11"/>
       <c r="B56" s="17"/>
       <c r="C56" s="65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D56" s="65"/>
       <c r="E56" s="97"/>
       <c r="F56" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G56" s="31"/>
       <c r="H56" s="65" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I56" s="65"/>
     </row>
@@ -5447,16 +5481,16 @@
       <c r="A57" s="11"/>
       <c r="B57" s="68"/>
       <c r="C57" s="65" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D57" s="65"/>
       <c r="E57" s="97"/>
       <c r="F57" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G57" s="31"/>
       <c r="H57" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I57" s="31"/>
       <c r="L57" s="131"/>
@@ -5464,19 +5498,19 @@
     <row r="58" ht="33.75" customHeight="1" spans="1:12">
       <c r="A58" s="11"/>
       <c r="B58" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C58" s="31"/>
       <c r="D58" s="69" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E58" s="97"/>
       <c r="F58" s="65"/>
       <c r="G58" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="H58" s="31" t="s">
         <v>240</v>
-      </c>
-      <c r="H58" s="31" t="s">
-        <v>241</v>
       </c>
       <c r="I58" s="31"/>
       <c r="L58" s="131"/>
@@ -5484,19 +5518,19 @@
     <row r="59" ht="26.25" customHeight="1" spans="1:12">
       <c r="A59" s="11"/>
       <c r="B59" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C59" s="31"/>
       <c r="D59" s="70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E59" s="97"/>
       <c r="F59" s="65"/>
       <c r="G59" s="104" t="s">
+        <v>243</v>
+      </c>
+      <c r="H59" s="105" t="s">
         <v>244</v>
-      </c>
-      <c r="H59" s="105" t="s">
-        <v>245</v>
       </c>
       <c r="I59" s="105"/>
       <c r="L59" s="132"/>
@@ -5510,21 +5544,21 @@
       <c r="F60" s="65"/>
       <c r="G60" s="65"/>
       <c r="H60" s="105" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I60" s="105"/>
     </row>
     <row r="61" ht="17.25" customHeight="1" spans="1:9">
       <c r="A61" s="11"/>
       <c r="B61" s="32" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C61" s="33"/>
       <c r="D61" s="34"/>
       <c r="E61" s="97"/>
       <c r="F61" s="65"/>
       <c r="G61" s="65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H61" s="65"/>
       <c r="I61" s="65"/>
@@ -5532,13 +5566,13 @@
     <row r="62" ht="22.5" customHeight="1" spans="1:9">
       <c r="A62" s="11"/>
       <c r="B62" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C62" s="36"/>
       <c r="D62" s="36"/>
       <c r="E62" s="97"/>
       <c r="G62" s="106" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H62" s="107"/>
       <c r="I62" s="133"/>
@@ -5546,14 +5580,14 @@
     <row r="63" ht="22.5" customHeight="1" spans="1:9">
       <c r="A63" s="37"/>
       <c r="B63" s="38" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C63" s="38"/>
       <c r="D63" s="38"/>
       <c r="E63" s="97"/>
       <c r="F63" s="108"/>
       <c r="G63" s="38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H63" s="38"/>
       <c r="I63" s="38"/>
@@ -5563,7 +5597,7 @@
       <c r="E64" s="97"/>
       <c r="F64" s="109"/>
       <c r="G64" s="36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H64" s="36"/>
       <c r="I64" s="36"/>
@@ -5573,109 +5607,109 @@
       <c r="B65" s="134"/>
       <c r="C65" s="135"/>
       <c r="D65" s="135"/>
-      <c r="E65" s="169"/>
+      <c r="E65" s="161"/>
       <c r="F65" s="57"/>
-      <c r="G65" s="170"/>
+      <c r="G65" s="162"/>
       <c r="H65" s="57"/>
       <c r="I65" s="193"/>
     </row>
     <row r="66" ht="42.75" customHeight="1" spans="1:10">
       <c r="A66" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B66" s="136" t="s">
         <v>254</v>
       </c>
-      <c r="B66" s="136" t="s">
+      <c r="D66" s="137" t="s">
         <v>255</v>
       </c>
-      <c r="D66" s="137" t="s">
+      <c r="E66" s="163" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="137" t="s">
         <v>256</v>
       </c>
-      <c r="E66" s="171" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="137" t="s">
-        <v>257</v>
-      </c>
       <c r="G66" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H66" s="18" t="s">
         <v>96</v>
       </c>
       <c r="I66" s="112" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J66" s="1"/>
     </row>
     <row r="67" ht="38.25" customHeight="1" spans="1:10">
       <c r="A67" s="11"/>
       <c r="B67" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C67" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="D67" s="137" t="s">
         <v>260</v>
       </c>
-      <c r="D67" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="E67" s="172"/>
+      <c r="E67" s="164"/>
       <c r="F67" s="14" t="s">
         <v>20</v>
       </c>
       <c r="H67" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="I67" s="44" t="s">
         <v>262</v>
-      </c>
-      <c r="I67" s="44" t="s">
-        <v>263</v>
       </c>
       <c r="J67" s="1"/>
     </row>
     <row r="68" ht="33" customHeight="1" spans="1:10">
       <c r="A68" s="11"/>
       <c r="B68" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C68" s="87" t="s">
         <v>264</v>
-      </c>
-      <c r="C68" s="87" t="s">
-        <v>265</v>
       </c>
       <c r="D68" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E68" s="172"/>
+      <c r="E68" s="164"/>
       <c r="F68" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="G68" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="H68" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="H68" s="13" t="s">
+      <c r="I68" s="44" t="s">
         <v>268</v>
-      </c>
-      <c r="I68" s="44" t="s">
-        <v>269</v>
       </c>
       <c r="J68" s="1"/>
     </row>
     <row r="69" ht="37.5" customHeight="1" spans="1:10">
       <c r="A69" s="11"/>
       <c r="B69" s="138" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="D69" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="D69" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="E69" s="172"/>
+      <c r="E69" s="164"/>
       <c r="F69" s="14"/>
       <c r="G69" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="H69" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="H69" s="18" t="s">
+      <c r="I69" s="194" t="s">
         <v>274</v>
-      </c>
-      <c r="I69" s="194" t="s">
-        <v>275</v>
       </c>
       <c r="J69" s="1"/>
     </row>
@@ -5683,20 +5717,20 @@
       <c r="A70" s="11"/>
       <c r="B70" s="139"/>
       <c r="C70" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D70" s="14" t="s">
         <v>276</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="E70" s="164"/>
+      <c r="F70" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="G70" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="E70" s="172"/>
-      <c r="F70" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="G70" s="18" t="s">
+      <c r="H70" s="28" t="s">
         <v>278</v>
-      </c>
-      <c r="H70" s="28" t="s">
-        <v>279</v>
       </c>
       <c r="I70" s="113"/>
       <c r="J70" s="1"/>
@@ -5705,20 +5739,20 @@
       <c r="A71" s="11"/>
       <c r="B71" s="87"/>
       <c r="C71" s="77" t="s">
+        <v>279</v>
+      </c>
+      <c r="D71" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="D71" s="18" t="s">
+      <c r="E71" s="164"/>
+      <c r="F71" s="18" t="s">
         <v>281</v>
       </c>
-      <c r="E71" s="172"/>
-      <c r="F71" s="18" t="s">
+      <c r="G71" s="77" t="s">
         <v>282</v>
       </c>
-      <c r="G71" s="77" t="s">
+      <c r="H71" s="84" t="s">
         <v>283</v>
-      </c>
-      <c r="H71" s="84" t="s">
-        <v>284</v>
       </c>
       <c r="I71" s="44"/>
       <c r="J71" s="1"/>
@@ -5727,20 +5761,20 @@
       <c r="A72" s="11"/>
       <c r="B72" s="17"/>
       <c r="C72" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D72" s="84" t="s">
         <v>285</v>
       </c>
-      <c r="D72" s="84" t="s">
+      <c r="E72" s="164"/>
+      <c r="F72" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="E72" s="172"/>
-      <c r="F72" s="18" t="s">
+      <c r="G72" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="G72" s="18" t="s">
+      <c r="H72" s="165" t="s">
         <v>288</v>
-      </c>
-      <c r="H72" s="173" t="s">
-        <v>289</v>
       </c>
       <c r="I72" s="113"/>
       <c r="J72" s="1"/>
@@ -5749,18 +5783,18 @@
       <c r="A73" s="11"/>
       <c r="B73" s="140"/>
       <c r="C73" s="84" t="s">
+        <v>289</v>
+      </c>
+      <c r="D73" s="77" t="s">
         <v>290</v>
       </c>
-      <c r="D73" s="77" t="s">
+      <c r="E73" s="164"/>
+      <c r="F73" s="84" t="s">
         <v>291</v>
-      </c>
-      <c r="E73" s="172"/>
-      <c r="F73" s="84" t="s">
-        <v>292</v>
       </c>
       <c r="G73" s="13"/>
       <c r="H73" s="84" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I73" s="113"/>
       <c r="J73" s="1"/>
@@ -5769,18 +5803,18 @@
       <c r="A74" s="11"/>
       <c r="B74" s="87"/>
       <c r="C74" s="84" t="s">
+        <v>293</v>
+      </c>
+      <c r="D74" s="18" t="s">
         <v>294</v>
       </c>
-      <c r="D74" s="18" t="s">
+      <c r="E74" s="164"/>
+      <c r="F74" s="84" t="s">
         <v>295</v>
-      </c>
-      <c r="E74" s="172"/>
-      <c r="F74" s="84" t="s">
-        <v>296</v>
       </c>
       <c r="G74" s="29"/>
       <c r="H74" s="20" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I74" s="44"/>
       <c r="J74" s="1"/>
@@ -5789,16 +5823,16 @@
       <c r="A75" s="11"/>
       <c r="B75" s="18"/>
       <c r="C75" s="30" t="s">
+        <v>297</v>
+      </c>
+      <c r="D75" s="30"/>
+      <c r="E75" s="164"/>
+      <c r="F75" s="77" t="s">
         <v>298</v>
-      </c>
-      <c r="D75" s="30"/>
-      <c r="E75" s="172"/>
-      <c r="F75" s="77" t="s">
-        <v>299</v>
       </c>
       <c r="G75" s="18"/>
       <c r="H75" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I75" s="130"/>
       <c r="J75" s="1"/>
@@ -5807,16 +5841,16 @@
       <c r="A76" s="11"/>
       <c r="B76" s="18"/>
       <c r="C76" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="D76" s="30"/>
+      <c r="E76" s="164"/>
+      <c r="F76" s="65" t="s">
         <v>301</v>
-      </c>
-      <c r="D76" s="30"/>
-      <c r="E76" s="172"/>
-      <c r="F76" s="65" t="s">
-        <v>302</v>
       </c>
       <c r="G76" s="65"/>
       <c r="H76" s="65" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I76" s="130"/>
       <c r="J76" s="1"/>
@@ -5825,16 +5859,16 @@
       <c r="A77" s="11"/>
       <c r="B77" s="18"/>
       <c r="C77" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="D77" s="30"/>
+      <c r="E77" s="164"/>
+      <c r="F77" s="65" t="s">
         <v>304</v>
-      </c>
-      <c r="D77" s="30"/>
-      <c r="E77" s="172"/>
-      <c r="F77" s="65" t="s">
-        <v>305</v>
       </c>
       <c r="G77" s="65"/>
       <c r="H77" s="65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I77" s="195"/>
       <c r="J77" s="1"/>
@@ -5842,1444 +5876,1656 @@
     <row r="78" ht="27.75" customHeight="1" spans="1:10">
       <c r="A78" s="11"/>
       <c r="B78" s="31" t="s">
+        <v>306</v>
+      </c>
+      <c r="C78" s="31"/>
+      <c r="E78" s="164"/>
+      <c r="F78" s="166" t="s">
         <v>307</v>
       </c>
-      <c r="C78" s="31"/>
-      <c r="E78" s="172"/>
-      <c r="F78" s="174" t="s">
+      <c r="G78" s="166"/>
+      <c r="H78" s="167" t="s">
         <v>308</v>
-      </c>
-      <c r="G78" s="174"/>
-      <c r="H78" s="175" t="s">
-        <v>309</v>
       </c>
       <c r="I78" s="196"/>
       <c r="J78" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="79" ht="33" customHeight="1" spans="1:10">
       <c r="A79" s="11"/>
       <c r="B79" s="141" t="s">
+        <v>310</v>
+      </c>
+      <c r="C79" s="80"/>
+      <c r="E79" s="164"/>
+      <c r="F79" s="166" t="s">
         <v>311</v>
       </c>
-      <c r="C79" s="80"/>
-      <c r="E79" s="172"/>
-      <c r="F79" s="174" t="s">
+      <c r="G79" s="166"/>
+      <c r="H79" s="167" t="s">
         <v>312</v>
-      </c>
-      <c r="G79" s="174"/>
-      <c r="H79" s="175" t="s">
-        <v>313</v>
       </c>
       <c r="I79" s="196"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" ht="28.5" customHeight="1" spans="1:10">
+    <row r="80" ht="33" customHeight="1" spans="1:10">
       <c r="A80" s="11"/>
-      <c r="B80" s="142" t="s">
+      <c r="B80" s="142"/>
+      <c r="C80" s="141"/>
+      <c r="E80" s="164"/>
+      <c r="F80" s="168"/>
+      <c r="G80" s="168"/>
+      <c r="H80" s="169"/>
+      <c r="I80" s="196"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" ht="33" customHeight="1" spans="1:10">
+      <c r="A81" s="11"/>
+      <c r="B81" s="142"/>
+      <c r="C81" s="141"/>
+      <c r="E81" s="164"/>
+      <c r="F81" s="168"/>
+      <c r="G81" s="168"/>
+      <c r="H81" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="I81" s="196"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" ht="33" customHeight="1" spans="1:10">
+      <c r="A82" s="11"/>
+      <c r="B82" s="142"/>
+      <c r="C82" s="141"/>
+      <c r="E82" s="164"/>
+      <c r="F82" s="168"/>
+      <c r="G82" s="168"/>
+      <c r="H82" s="170" t="s">
+        <v>313</v>
+      </c>
+      <c r="I82" s="196"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" ht="28.5" customHeight="1" spans="1:10">
+      <c r="A83" s="11"/>
+      <c r="B83" s="143" t="s">
         <v>314</v>
       </c>
-      <c r="C80" s="143"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="172"/>
-      <c r="F80" s="32" t="s">
+      <c r="C83" s="144"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="164"/>
+      <c r="F83" s="171" t="s">
         <v>315</v>
       </c>
-      <c r="G80" s="33"/>
-      <c r="H80" s="29" t="s">
-        <v>289</v>
-      </c>
-      <c r="I80" s="117"/>
-      <c r="J80" s="1"/>
-    </row>
-    <row r="81" ht="18" customHeight="1" spans="1:10">
-      <c r="A81" s="11"/>
-      <c r="B81" s="142" t="s">
+      <c r="G83" s="172"/>
+      <c r="H83" s="172"/>
+      <c r="I83" s="117"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" ht="18" customHeight="1" spans="1:10">
+      <c r="A84" s="11"/>
+      <c r="B84" s="143" t="s">
         <v>316</v>
       </c>
-      <c r="C81" s="143"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="172"/>
-      <c r="F81" s="36" t="s">
+      <c r="C84" s="144"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="164"/>
+      <c r="F84" s="173" t="s">
         <v>317</v>
       </c>
-      <c r="G81" s="36"/>
-      <c r="H81" s="139" t="s">
+      <c r="G84" s="172"/>
+      <c r="H84" s="172"/>
+      <c r="I84" s="197"/>
+      <c r="J84" s="1"/>
+    </row>
+    <row r="85" ht="27.75" customHeight="1" spans="1:10">
+      <c r="A85" s="11"/>
+      <c r="B85" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="I81" s="197"/>
-      <c r="J81" s="1"/>
-    </row>
-    <row r="82" ht="27.75" customHeight="1" spans="1:10">
-      <c r="A82" s="11"/>
-      <c r="B82" s="32" t="s">
+      <c r="C85" s="33"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="174"/>
+      <c r="H85" s="175"/>
+      <c r="I85" s="198"/>
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" ht="15" spans="1:10">
+      <c r="A86" s="39"/>
+      <c r="B86" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="176"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="198"/>
-      <c r="J82" s="1"/>
-    </row>
-    <row r="83" ht="14.15" spans="1:10">
-      <c r="A83" s="39"/>
-      <c r="B83" s="36" t="s">
+      <c r="C86" s="36"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="164"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="I86" s="126"/>
+      <c r="J86" s="1"/>
+    </row>
+    <row r="87" ht="9" customHeight="1" spans="1:9">
+      <c r="A87" s="145"/>
+      <c r="B87" s="134"/>
+      <c r="C87" s="135"/>
+      <c r="D87" s="135"/>
+      <c r="E87" s="176"/>
+      <c r="F87" s="135"/>
+      <c r="G87" s="135"/>
+      <c r="H87" s="177"/>
+      <c r="I87" s="199"/>
+    </row>
+    <row r="88" ht="37.5" customHeight="1" spans="1:9">
+      <c r="A88" s="146" t="s">
         <v>320</v>
       </c>
-      <c r="C83" s="36"/>
-      <c r="D83" s="36"/>
-      <c r="E83" s="172"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="29"/>
-      <c r="I83" s="126"/>
-      <c r="J83" s="1"/>
-    </row>
-    <row r="84" ht="9" customHeight="1" spans="1:9">
-      <c r="A84" s="144"/>
-      <c r="B84" s="134"/>
-      <c r="C84" s="135"/>
-      <c r="D84" s="135"/>
-      <c r="E84" s="177"/>
-      <c r="F84" s="135"/>
-      <c r="G84" s="135"/>
-      <c r="H84" s="178"/>
-      <c r="I84" s="199"/>
-    </row>
-    <row r="85" ht="37.5" customHeight="1" spans="1:9">
-      <c r="A85" s="145" t="s">
+      <c r="B88" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="C88" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="D88" s="48" t="s">
         <v>323</v>
       </c>
-      <c r="D85" s="48" t="s">
+      <c r="E88" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="E85" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="14" t="s">
+      <c r="G88" s="178" t="s">
         <v>325</v>
       </c>
-      <c r="G85" s="179" t="s">
+      <c r="H88" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="I88" s="112" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="89" ht="44.25" customHeight="1" spans="1:9">
+      <c r="A89" s="147"/>
+      <c r="B89" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="H85" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="I85" s="112" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="86" ht="44.25" customHeight="1" spans="1:9">
-      <c r="A86" s="146"/>
-      <c r="B86" s="12" t="s">
+      <c r="C89" s="14" t="s">
         <v>327</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="D89" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="D86" s="14" t="s">
+      <c r="E89" s="75"/>
+      <c r="F89" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="E86" s="75"/>
-      <c r="F86" s="14" t="s">
+      <c r="G89" s="179"/>
+      <c r="H89" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="G86" s="180"/>
-      <c r="H86" s="14" t="s">
+      <c r="I89" s="112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" ht="36" customHeight="1" spans="1:9">
+      <c r="A90" s="147"/>
+      <c r="B90" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="I86" s="112" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" ht="36" customHeight="1" spans="1:9">
-      <c r="A87" s="146"/>
-      <c r="B87" s="12" t="s">
+      <c r="C90" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="D90" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="D87" s="14" t="s">
+      <c r="E90" s="75"/>
+      <c r="F90" s="136" t="s">
         <v>334</v>
       </c>
-      <c r="E87" s="75"/>
-      <c r="F87" s="136" t="s">
+      <c r="G90" s="179"/>
+      <c r="H90" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="G87" s="180"/>
-      <c r="H87" s="14" t="s">
+      <c r="I90" s="112" t="s">
         <v>336</v>
       </c>
-      <c r="I87" s="112" t="s">
+    </row>
+    <row r="91" ht="30" customHeight="1" spans="1:9">
+      <c r="A91" s="147"/>
+      <c r="B91" s="12" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="88" ht="30" customHeight="1" spans="1:9">
-      <c r="A88" s="146"/>
-      <c r="B88" s="12" t="s">
+      <c r="C91" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="C88" s="14" t="s">
+      <c r="E91" s="75"/>
+      <c r="F91" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="E88" s="75"/>
-      <c r="F88" s="14" t="s">
+      <c r="G91" s="179"/>
+      <c r="H91" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="G88" s="180"/>
-      <c r="H88" s="14" t="s">
+      <c r="I91" s="113"/>
+    </row>
+    <row r="92" ht="26.25" customHeight="1" spans="1:9">
+      <c r="A92" s="147"/>
+      <c r="B92" s="140" t="s">
         <v>341</v>
       </c>
-      <c r="I88" s="113"/>
-    </row>
-    <row r="89" ht="26.25" customHeight="1" spans="1:9">
-      <c r="A89" s="146"/>
-      <c r="B89" s="140" t="s">
+      <c r="C92" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="D92" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="D89" s="14" t="s">
+      <c r="E92" s="75"/>
+      <c r="F92" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="E89" s="75"/>
-      <c r="F89" s="18" t="s">
+      <c r="G92" s="179"/>
+      <c r="H92" s="77" t="s">
         <v>345</v>
       </c>
-      <c r="G89" s="180"/>
-      <c r="H89" s="77" t="s">
+      <c r="I92" s="113"/>
+    </row>
+    <row r="93" ht="36" customHeight="1" spans="1:9">
+      <c r="A93" s="147"/>
+      <c r="B93" s="140" t="s">
         <v>346</v>
       </c>
-      <c r="I89" s="113"/>
-    </row>
-    <row r="90" ht="36" customHeight="1" spans="1:9">
-      <c r="A90" s="146"/>
-      <c r="B90" s="140" t="s">
+      <c r="C93" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D93" s="14" t="s">
         <v>347</v>
       </c>
-      <c r="C90" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="D90" s="14" t="s">
+      <c r="E93" s="75"/>
+      <c r="F93" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="E90" s="75"/>
-      <c r="F90" s="13" t="s">
+      <c r="G93" s="179"/>
+      <c r="H93" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="G90" s="180"/>
-      <c r="H90" s="22" t="s">
+      <c r="I93" s="113"/>
+    </row>
+    <row r="94" ht="39.75" customHeight="1" spans="1:9">
+      <c r="A94" s="147"/>
+      <c r="C94" s="84" t="s">
         <v>350</v>
       </c>
-      <c r="I90" s="113"/>
-    </row>
-    <row r="91" ht="39.75" customHeight="1" spans="1:9">
-      <c r="A91" s="146"/>
-      <c r="C91" s="84" t="s">
+      <c r="D94" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="E94" s="75"/>
+      <c r="F94" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="E91" s="75"/>
-      <c r="F91" s="13" t="s">
+      <c r="G94" s="179"/>
+      <c r="H94" s="77" t="s">
         <v>353</v>
       </c>
-      <c r="G91" s="180"/>
-      <c r="H91" s="77" t="s">
+      <c r="I94" s="113"/>
+    </row>
+    <row r="95" ht="33.75" customHeight="1" spans="1:9">
+      <c r="A95" s="147"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="I91" s="113"/>
-    </row>
-    <row r="92" ht="33.75" customHeight="1" spans="1:9">
-      <c r="A92" s="146"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="20" t="s">
+      <c r="D95" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="E95" s="75"/>
+      <c r="F95" s="180" t="s">
         <v>356</v>
       </c>
-      <c r="E92" s="75"/>
-      <c r="F92" s="181" t="s">
+      <c r="G95" s="179"/>
+      <c r="H95" s="77" t="s">
         <v>357</v>
       </c>
-      <c r="G92" s="180"/>
-      <c r="H92" s="77" t="s">
+      <c r="I95" s="113"/>
+    </row>
+    <row r="96" ht="39" customHeight="1" spans="1:9">
+      <c r="A96" s="147"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="I92" s="113"/>
-    </row>
-    <row r="93" ht="39" customHeight="1" spans="1:9">
-      <c r="A93" s="146"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="18" t="s">
+      <c r="D96" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="D93" s="18" t="s">
+      <c r="E96" s="75"/>
+      <c r="F96" s="181" t="s">
         <v>360</v>
       </c>
-      <c r="E93" s="75"/>
-      <c r="F93" s="182" t="s">
+      <c r="G96" s="179"/>
+      <c r="H96" s="84" t="s">
         <v>361</v>
       </c>
-      <c r="G93" s="180"/>
-      <c r="H93" s="84" t="s">
+      <c r="I96" s="113"/>
+    </row>
+    <row r="97" ht="32.25" customHeight="1" spans="1:9">
+      <c r="A97" s="147"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="18" t="s">
         <v>362</v>
-      </c>
-      <c r="I93" s="113"/>
-    </row>
-    <row r="94" ht="32.25" customHeight="1" spans="1:9">
-      <c r="A94" s="146"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="75"/>
-      <c r="F94" s="183"/>
-      <c r="G94" s="180"/>
-      <c r="H94" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="I94" s="113"/>
-    </row>
-    <row r="95" ht="40.5" customHeight="1" spans="1:9">
-      <c r="A95" s="146"/>
-      <c r="B95" s="147" t="s">
-        <v>365</v>
-      </c>
-      <c r="C95" s="148"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="75"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="180"/>
-      <c r="H95" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="I95" s="113"/>
-    </row>
-    <row r="96" ht="32.25" customHeight="1" spans="1:9">
-      <c r="A96" s="146"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="149" t="s">
-        <v>367</v>
-      </c>
-      <c r="D96" s="148"/>
-      <c r="E96" s="75"/>
-      <c r="F96" s="48"/>
-      <c r="G96" s="180"/>
-      <c r="H96" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="I96" s="195"/>
-    </row>
-    <row r="97" ht="27.75" customHeight="1" spans="1:9">
-      <c r="A97" s="146"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="150" t="s">
-        <v>369</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="75"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="180"/>
-      <c r="H97" s="175" t="s">
-        <v>370</v>
-      </c>
-      <c r="I97" s="196"/>
-    </row>
-    <row r="98" ht="23.25" customHeight="1" spans="1:9">
-      <c r="A98" s="146"/>
-      <c r="B98" s="151" t="s">
-        <v>371</v>
-      </c>
-      <c r="C98" s="152"/>
-      <c r="D98" s="14"/>
+      <c r="F97" s="182"/>
+      <c r="G97" s="179"/>
+      <c r="H97" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="I97" s="113"/>
+    </row>
+    <row r="98" ht="40.5" customHeight="1" spans="1:9">
+      <c r="A98" s="147"/>
+      <c r="B98" s="148" t="s">
+        <v>364</v>
+      </c>
+      <c r="C98" s="149"/>
+      <c r="D98" s="18"/>
       <c r="E98" s="75"/>
       <c r="F98" s="18"/>
-      <c r="G98" s="180"/>
-      <c r="H98" s="175" t="s">
-        <v>372</v>
-      </c>
-      <c r="I98" s="196"/>
-    </row>
-    <row r="99" ht="20.25" customHeight="1" spans="1:9">
-      <c r="A99" s="146"/>
-      <c r="B99" s="151" t="s">
-        <v>373</v>
-      </c>
-      <c r="C99" s="152"/>
-      <c r="D99" s="14"/>
+      <c r="G98" s="179"/>
+      <c r="H98" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="I98" s="113"/>
+    </row>
+    <row r="99" ht="32.25" customHeight="1" spans="1:9">
+      <c r="A99" s="147"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="150" t="s">
+        <v>366</v>
+      </c>
+      <c r="D99" s="149"/>
       <c r="E99" s="75"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="180"/>
-      <c r="H99" s="91" t="s">
-        <v>374</v>
-      </c>
-      <c r="I99" s="123"/>
-    </row>
-    <row r="100" ht="24" customHeight="1" spans="1:9">
-      <c r="A100" s="146"/>
-      <c r="B100" s="71"/>
-      <c r="C100" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="D100" s="30"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="179"/>
+      <c r="H99" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="I99" s="195"/>
+    </row>
+    <row r="100" ht="27.75" customHeight="1" spans="1:9">
+      <c r="A100" s="147"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="151" t="s">
+        <v>368</v>
+      </c>
+      <c r="D100" s="18"/>
       <c r="E100" s="75"/>
       <c r="F100" s="18"/>
-      <c r="G100" s="180"/>
-      <c r="H100" s="91" t="s">
+      <c r="G100" s="179"/>
+      <c r="H100" s="167" t="s">
+        <v>369</v>
+      </c>
+      <c r="I100" s="196"/>
+    </row>
+    <row r="101" ht="23.25" customHeight="1" spans="1:9">
+      <c r="A101" s="147"/>
+      <c r="B101" s="152" t="s">
+        <v>370</v>
+      </c>
+      <c r="C101" s="153"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="75"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="179"/>
+      <c r="H101" s="167" t="s">
+        <v>371</v>
+      </c>
+      <c r="I101" s="196"/>
+    </row>
+    <row r="102" ht="20.25" customHeight="1" spans="1:9">
+      <c r="A102" s="147"/>
+      <c r="B102" s="152" t="s">
+        <v>372</v>
+      </c>
+      <c r="C102" s="153"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="75"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="179"/>
+      <c r="H102" s="91" t="s">
+        <v>373</v>
+      </c>
+      <c r="I102" s="123"/>
+    </row>
+    <row r="103" ht="24" customHeight="1" spans="1:9">
+      <c r="A103" s="147"/>
+      <c r="B103" s="71"/>
+      <c r="C103" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="D103" s="30"/>
+      <c r="E103" s="75"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="179"/>
+      <c r="H103" s="91" t="s">
+        <v>375</v>
+      </c>
+      <c r="I103" s="123"/>
+    </row>
+    <row r="104" ht="37.5" customHeight="1" spans="1:9">
+      <c r="A104" s="147"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="30" t="s">
         <v>376</v>
       </c>
-      <c r="I100" s="123"/>
-    </row>
-    <row r="101" ht="37.5" customHeight="1" spans="1:9">
-      <c r="A101" s="146"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="30" t="s">
+      <c r="D104" s="30"/>
+      <c r="E104" s="75"/>
+      <c r="F104" s="182"/>
+      <c r="G104" s="179"/>
+      <c r="H104" s="167" t="s">
         <v>377</v>
       </c>
-      <c r="D101" s="30"/>
-      <c r="E101" s="75"/>
-      <c r="F101" s="183"/>
-      <c r="G101" s="180"/>
-      <c r="H101" s="175" t="s">
+      <c r="I104" s="196"/>
+    </row>
+    <row r="105" ht="18.75" customHeight="1" spans="1:9">
+      <c r="A105" s="147"/>
+      <c r="B105" s="71"/>
+      <c r="C105" s="65"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="75"/>
+      <c r="F105" s="182"/>
+      <c r="G105" s="179"/>
+      <c r="H105" s="167" t="s">
         <v>378</v>
       </c>
-      <c r="I101" s="196"/>
-    </row>
-    <row r="102" ht="18.75" customHeight="1" spans="1:9">
-      <c r="A102" s="146"/>
-      <c r="B102" s="71"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="75"/>
-      <c r="F102" s="183"/>
-      <c r="G102" s="180"/>
-      <c r="H102" s="175" t="s">
+      <c r="I105" s="196"/>
+    </row>
+    <row r="106" ht="18.75" customHeight="1" spans="1:9">
+      <c r="A106" s="147"/>
+      <c r="B106" s="154"/>
+      <c r="C106" s="154"/>
+      <c r="D106" s="155"/>
+      <c r="E106" s="75"/>
+      <c r="F106" s="182"/>
+      <c r="G106" s="179"/>
+      <c r="H106" s="93" t="s">
         <v>379</v>
       </c>
-      <c r="I102" s="196"/>
-    </row>
-    <row r="103" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A103" s="146"/>
-      <c r="B103" s="32" t="s">
+      <c r="I106" s="125"/>
+    </row>
+    <row r="107" ht="19.5" customHeight="1" spans="1:9">
+      <c r="A107" s="147"/>
+      <c r="B107" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="C103" s="33"/>
-      <c r="D103" s="34"/>
-      <c r="E103" s="75"/>
-      <c r="F103" s="183"/>
-      <c r="G103" s="184"/>
-      <c r="H103" s="31" t="s">
+      <c r="C107" s="33"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="75"/>
+      <c r="F107" s="182"/>
+      <c r="G107" s="183"/>
+      <c r="H107" s="93" t="s">
         <v>381</v>
       </c>
-      <c r="I103" s="114"/>
-    </row>
-    <row r="104" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A104" s="146"/>
-      <c r="B104" s="36" t="s">
+      <c r="I107" s="125"/>
+    </row>
+    <row r="108" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A108" s="147"/>
+      <c r="B108" s="36" t="s">
         <v>382</v>
       </c>
-      <c r="C104" s="36"/>
-      <c r="D104" s="36"/>
-      <c r="E104" s="185"/>
-      <c r="G104" s="186" t="s">
+      <c r="C108" s="36"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="184"/>
+      <c r="G108" s="185" t="s">
         <v>383</v>
       </c>
-      <c r="H104" s="31" t="s">
+      <c r="H108" s="107"/>
+      <c r="I108" s="107"/>
+    </row>
+    <row r="109" ht="19.5" customHeight="1" spans="1:9">
+      <c r="A109" s="156"/>
+      <c r="B109" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="I104" s="107"/>
-    </row>
-    <row r="105" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A105" s="153"/>
-      <c r="B105" s="38" t="s">
+      <c r="C109" s="38"/>
+      <c r="D109" s="38"/>
+      <c r="E109" s="75"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="186" t="s">
         <v>385</v>
       </c>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="75"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="36" t="s">
+      <c r="H109" s="187"/>
+      <c r="I109" s="200"/>
+    </row>
+    <row r="110" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A110" s="157"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="31"/>
+      <c r="D110" s="31"/>
+      <c r="E110" s="94"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="185" t="s">
         <v>386</v>
       </c>
-      <c r="H105" s="107"/>
-      <c r="I105" s="36"/>
-    </row>
-    <row r="106" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A106" s="154"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="94"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="36" t="s">
+      <c r="H110" s="107"/>
+      <c r="I110" s="201"/>
+    </row>
+    <row r="111" ht="11.25" customHeight="1" spans="1:9">
+      <c r="A111" s="158"/>
+      <c r="B111" s="134"/>
+      <c r="C111" s="135"/>
+      <c r="D111" s="135"/>
+      <c r="E111" s="188"/>
+      <c r="F111" s="135"/>
+      <c r="G111" s="135"/>
+      <c r="H111" s="189"/>
+      <c r="I111" s="199"/>
+    </row>
+    <row r="112" ht="33.75" customHeight="1" spans="1:9">
+      <c r="A112" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-    </row>
-    <row r="107" ht="11.25" customHeight="1" spans="1:9">
-      <c r="A107" s="155"/>
-      <c r="B107" s="134"/>
-      <c r="C107" s="135"/>
-      <c r="D107" s="135"/>
-      <c r="E107" s="187"/>
-      <c r="F107" s="135"/>
-      <c r="G107" s="135"/>
-      <c r="H107" s="188"/>
-      <c r="I107" s="199"/>
-    </row>
-    <row r="108" ht="33.75" customHeight="1" spans="1:9">
-      <c r="A108" s="8" t="s">
+      <c r="B112" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C112" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="B108" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="C108" s="14" t="s">
+      <c r="D112" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E112" s="48" t="s">
         <v>389</v>
       </c>
-      <c r="D108" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E108" s="48" t="s">
+      <c r="F112" s="71"/>
+      <c r="G112" s="190"/>
+      <c r="H112" s="191"/>
+      <c r="I112" s="202"/>
+    </row>
+    <row r="113" ht="33.75" customHeight="1" spans="1:9">
+      <c r="A113" s="159"/>
+      <c r="B113" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="F108" s="71"/>
-      <c r="G108" s="189"/>
-      <c r="H108" s="190"/>
-      <c r="I108" s="200"/>
-    </row>
-    <row r="109" ht="33.75" customHeight="1" spans="1:9">
-      <c r="A109" s="156"/>
-      <c r="B109" s="12" t="s">
+      <c r="C113" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="C109" s="14" t="s">
+      <c r="D113" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="D109" s="14" t="s">
+      <c r="E113" s="48"/>
+      <c r="F113" s="71"/>
+      <c r="G113" s="192"/>
+      <c r="H113" s="190"/>
+      <c r="I113" s="43"/>
+    </row>
+    <row r="114" ht="33.75" customHeight="1" spans="1:9">
+      <c r="A114" s="159"/>
+      <c r="B114" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="E109" s="48"/>
-      <c r="F109" s="71"/>
-      <c r="G109" s="191"/>
-      <c r="H109" s="189"/>
-      <c r="I109" s="43"/>
-    </row>
-    <row r="110" ht="33.75" customHeight="1" spans="1:9">
-      <c r="A110" s="156"/>
-      <c r="B110" s="12" t="s">
+      <c r="C114" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="E114" s="65"/>
+      <c r="F114" s="71"/>
+      <c r="G114" s="192"/>
+      <c r="H114" s="192"/>
+      <c r="I114" s="43"/>
+    </row>
+    <row r="115" ht="33.75" customHeight="1" spans="1:9">
+      <c r="A115" s="11"/>
+      <c r="B115" s="12"/>
+      <c r="D115" s="105" t="s">
         <v>394</v>
       </c>
-      <c r="C110" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="E110" s="65"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="191"/>
-      <c r="H110" s="191"/>
-      <c r="I110" s="43"/>
-    </row>
-    <row r="111" ht="33.75" customHeight="1" spans="1:9">
-      <c r="A111" s="11"/>
-      <c r="B111" s="12"/>
-      <c r="D111" s="105" t="s">
-        <v>395</v>
-      </c>
-      <c r="E111" s="105"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="18"/>
-      <c r="H111" s="191"/>
-      <c r="I111" s="112"/>
-    </row>
-    <row r="112" ht="33.75" customHeight="1" spans="1:9">
-      <c r="A112" s="11"/>
-      <c r="B112" s="17" t="s">
-        <v>396</v>
-      </c>
-      <c r="C112" s="25" t="s">
-        <v>397</v>
-      </c>
-      <c r="D112" s="105" t="s">
-        <v>398</v>
-      </c>
-      <c r="E112" s="105"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="18"/>
-      <c r="H112" s="18"/>
-      <c r="I112" s="112"/>
-    </row>
-    <row r="113" ht="33.75" customHeight="1" spans="1:9">
-      <c r="A113" s="11"/>
-      <c r="B113" s="76" t="s">
-        <v>399</v>
-      </c>
-      <c r="C113" s="157" t="s">
-        <v>400</v>
-      </c>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="17"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="112"/>
-    </row>
-    <row r="114" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A114" s="11"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="D114" s="30"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="18"/>
-      <c r="H114" s="18"/>
-      <c r="I114" s="112"/>
-    </row>
-    <row r="115" ht="24.75" customHeight="1" spans="1:9">
-      <c r="A115" s="11"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="30" t="s">
-        <v>402</v>
-      </c>
-      <c r="D115" s="30"/>
-      <c r="E115" s="18"/>
+      <c r="E115" s="105"/>
       <c r="F115" s="17"/>
       <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
+      <c r="H115" s="192"/>
       <c r="I115" s="112"/>
     </row>
-    <row r="116" ht="24.75" customHeight="1" spans="1:9">
+    <row r="116" ht="33.75" customHeight="1" spans="1:9">
       <c r="A116" s="11"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="105" t="s">
-        <v>403</v>
-      </c>
-      <c r="D116" s="105"/>
-      <c r="E116" s="18"/>
+      <c r="B116" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="D116" s="105" t="s">
+        <v>397</v>
+      </c>
+      <c r="E116" s="105"/>
       <c r="F116" s="17"/>
       <c r="G116" s="18"/>
       <c r="H116" s="18"/>
       <c r="I116" s="112"/>
     </row>
-    <row r="117" ht="36.75" customHeight="1" spans="1:9">
+    <row r="117" ht="33.75" customHeight="1" spans="1:9">
       <c r="A117" s="11"/>
-      <c r="B117" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="C117" s="31"/>
-      <c r="D117" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="E117" s="30"/>
+      <c r="B117" s="76" t="s">
+        <v>398</v>
+      </c>
+      <c r="C117" s="160" t="s">
+        <v>399</v>
+      </c>
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
       <c r="F117" s="17"/>
       <c r="G117" s="18"/>
       <c r="H117" s="18"/>
       <c r="I117" s="112"/>
     </row>
-    <row r="118" ht="27" customHeight="1" spans="1:9">
+    <row r="118" ht="25.5" customHeight="1" spans="1:9">
       <c r="A118" s="11"/>
-      <c r="B118" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="C118" s="31"/>
-      <c r="D118" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="E118" s="31"/>
-      <c r="F118" s="71"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="D118" s="30"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="17"/>
       <c r="G118" s="18"/>
       <c r="H118" s="18"/>
       <c r="I118" s="112"/>
     </row>
-    <row r="119" ht="21.75" customHeight="1" spans="1:9">
+    <row r="119" ht="24.75" customHeight="1" spans="1:9">
       <c r="A119" s="11"/>
-      <c r="B119" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="C119" s="31"/>
-      <c r="D119" s="80" t="s">
-        <v>409</v>
-      </c>
-      <c r="E119" s="80"/>
-      <c r="F119" s="29"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="30" t="s">
+        <v>401</v>
+      </c>
+      <c r="D119" s="30"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="17"/>
       <c r="G119" s="18"/>
       <c r="H119" s="18"/>
       <c r="I119" s="112"/>
     </row>
-    <row r="120" ht="22.5" customHeight="1" spans="1:9">
+    <row r="120" ht="24.75" customHeight="1" spans="1:9">
       <c r="A120" s="11"/>
-      <c r="B120" s="141" t="s">
-        <v>410</v>
-      </c>
-      <c r="C120" s="80"/>
-      <c r="F120" s="12"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="105" t="s">
+        <v>402</v>
+      </c>
+      <c r="D120" s="105"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="17"/>
       <c r="G120" s="18"/>
       <c r="H120" s="18"/>
       <c r="I120" s="112"/>
     </row>
-    <row r="121" ht="26.25" customHeight="1" spans="1:9">
+    <row r="121" ht="36.75" customHeight="1" spans="1:9">
       <c r="A121" s="11"/>
-      <c r="B121" s="32" t="s">
-        <v>411</v>
-      </c>
-      <c r="C121" s="33"/>
-      <c r="D121" s="34"/>
-      <c r="F121" s="12"/>
+      <c r="B121" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="C121" s="31"/>
+      <c r="D121" s="30" t="s">
+        <v>404</v>
+      </c>
+      <c r="E121" s="30"/>
+      <c r="F121" s="17"/>
       <c r="G121" s="18"/>
       <c r="H121" s="18"/>
       <c r="I121" s="112"/>
     </row>
-    <row r="122" ht="14.25" customHeight="1" spans="1:9">
+    <row r="122" ht="27" customHeight="1" spans="1:9">
       <c r="A122" s="11"/>
-      <c r="B122" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="C122" s="36"/>
-      <c r="D122" s="36"/>
-      <c r="E122" s="29"/>
-      <c r="F122" s="17"/>
+      <c r="B122" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="C122" s="31"/>
+      <c r="D122" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="E122" s="31"/>
+      <c r="F122" s="71"/>
       <c r="G122" s="18"/>
       <c r="H122" s="18"/>
       <c r="I122" s="112"/>
     </row>
-    <row r="123" ht="17.25" customHeight="1" spans="1:9">
+    <row r="123" ht="21.75" customHeight="1" spans="1:9">
       <c r="A123" s="11"/>
-      <c r="B123" s="38" t="s">
-        <v>413</v>
-      </c>
-      <c r="C123" s="38"/>
-      <c r="D123" s="38"/>
-      <c r="E123" s="1"/>
-      <c r="F123" s="12"/>
+      <c r="B123" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="C123" s="31"/>
+      <c r="D123" s="80" t="s">
+        <v>408</v>
+      </c>
+      <c r="E123" s="80"/>
+      <c r="F123" s="29"/>
       <c r="G123" s="18"/>
       <c r="H123" s="18"/>
       <c r="I123" s="112"/>
     </row>
-    <row r="124" ht="14.15" spans="1:9">
-      <c r="A124" s="39"/>
-      <c r="B124" s="27"/>
-      <c r="C124" s="31"/>
-      <c r="D124" s="30"/>
-      <c r="E124" s="30"/>
+    <row r="124" ht="22.5" customHeight="1" spans="1:9">
+      <c r="A124" s="11"/>
+      <c r="B124" s="141" t="s">
+        <v>409</v>
+      </c>
+      <c r="C124" s="80"/>
       <c r="F124" s="12"/>
       <c r="G124" s="18"/>
       <c r="H124" s="18"/>
       <c r="I124" s="112"/>
     </row>
-    <row r="125" s="1" customFormat="1" ht="6.75" customHeight="1" spans="1:9">
-      <c r="A125" s="158"/>
-      <c r="B125" s="159"/>
-      <c r="C125" s="160"/>
-      <c r="D125" s="160"/>
-      <c r="E125" s="192"/>
-      <c r="F125" s="160"/>
-      <c r="G125" s="160"/>
-      <c r="H125" s="160"/>
-      <c r="I125" s="201"/>
-    </row>
-    <row r="126" ht="14.15" spans="1:9">
-      <c r="A126" s="161">
+    <row r="125" ht="26.25" customHeight="1" spans="1:9">
+      <c r="A125" s="11"/>
+      <c r="B125" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="C125" s="33"/>
+      <c r="D125" s="34"/>
+      <c r="F125" s="12"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="112"/>
+    </row>
+    <row r="126" customHeight="1" spans="1:9">
+      <c r="A126" s="11"/>
+      <c r="B126" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="C126" s="36"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="18"/>
+      <c r="H126" s="18"/>
+      <c r="I126" s="112"/>
+    </row>
+    <row r="127" ht="17.25" customHeight="1" spans="1:9">
+      <c r="A127" s="11"/>
+      <c r="B127" s="38" t="s">
+        <v>412</v>
+      </c>
+      <c r="C127" s="38"/>
+      <c r="D127" s="38"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="18"/>
+      <c r="H127" s="18"/>
+      <c r="I127" s="112"/>
+    </row>
+    <row r="128" ht="15" spans="1:9">
+      <c r="A128" s="39"/>
+      <c r="B128" s="27"/>
+      <c r="C128" s="31"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="12"/>
+      <c r="G128" s="18"/>
+      <c r="H128" s="18"/>
+      <c r="I128" s="112"/>
+    </row>
+    <row r="129" s="1" customFormat="1" ht="6.75" customHeight="1" spans="1:9">
+      <c r="A129" s="203"/>
+      <c r="B129" s="204"/>
+      <c r="C129" s="205"/>
+      <c r="D129" s="205"/>
+      <c r="E129" s="255"/>
+      <c r="F129" s="205"/>
+      <c r="G129" s="205"/>
+      <c r="H129" s="205"/>
+      <c r="I129" s="265"/>
+    </row>
+    <row r="130" ht="15" spans="1:9">
+      <c r="A130" s="206">
         <v>1</v>
       </c>
-      <c r="B126" s="162" t="s">
+      <c r="B130" s="207" t="s">
+        <v>413</v>
+      </c>
+      <c r="C130" s="208"/>
+      <c r="D130" s="208"/>
+      <c r="E130" s="208"/>
+      <c r="F130" s="208"/>
+      <c r="G130" s="208"/>
+      <c r="I130" s="266"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="209"/>
+      <c r="B131" s="210" t="s">
         <v>414</v>
       </c>
-      <c r="C126" s="163"/>
-      <c r="D126" s="163"/>
-      <c r="E126" s="163"/>
-      <c r="F126" s="163"/>
-      <c r="G126" s="163"/>
-      <c r="I126" s="202"/>
-    </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="164"/>
-      <c r="B127" s="165" t="s">
+      <c r="C131" s="211"/>
+      <c r="D131" s="211"/>
+      <c r="E131" s="211"/>
+      <c r="F131" s="211"/>
+      <c r="G131" s="211"/>
+      <c r="H131" s="208"/>
+      <c r="I131" s="267"/>
+    </row>
+    <row r="132" customHeight="1" spans="1:9">
+      <c r="A132" s="209"/>
+      <c r="B132" s="212" t="s">
         <v>415</v>
       </c>
-      <c r="C127" s="166"/>
-      <c r="D127" s="166"/>
-      <c r="E127" s="166"/>
-      <c r="F127" s="166"/>
-      <c r="G127" s="166"/>
-      <c r="H127" s="163"/>
-      <c r="I127" s="203"/>
-    </row>
-    <row r="128" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A128" s="164"/>
-      <c r="B128" s="167" t="s">
+      <c r="C132" s="213"/>
+      <c r="D132" s="213"/>
+      <c r="E132" s="213"/>
+      <c r="F132" s="213"/>
+      <c r="G132" s="213"/>
+      <c r="H132" s="211"/>
+      <c r="I132" s="268"/>
+    </row>
+    <row r="133" customHeight="1" spans="1:9">
+      <c r="A133" s="209"/>
+      <c r="B133" s="212" t="s">
         <v>416</v>
       </c>
-      <c r="C128" s="168"/>
-      <c r="D128" s="168"/>
-      <c r="E128" s="168"/>
-      <c r="F128" s="168"/>
-      <c r="G128" s="168"/>
-      <c r="H128" s="166"/>
-      <c r="I128" s="204"/>
-    </row>
-    <row r="129" ht="14.25" customHeight="1" spans="1:9">
-      <c r="A129" s="164"/>
-      <c r="B129" s="167" t="s">
+      <c r="C133" s="213"/>
+      <c r="D133" s="213"/>
+      <c r="E133" s="213"/>
+      <c r="F133" s="213"/>
+      <c r="G133" s="213"/>
+      <c r="H133" s="213"/>
+      <c r="I133" s="268"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="209"/>
+      <c r="B134" s="212" t="s">
         <v>417</v>
       </c>
-      <c r="C129" s="168"/>
-      <c r="D129" s="168"/>
-      <c r="E129" s="168"/>
-      <c r="F129" s="168"/>
-      <c r="G129" s="168"/>
-      <c r="H129" s="168"/>
-      <c r="I129" s="204"/>
-    </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="164"/>
-      <c r="B130" s="167" t="s">
+      <c r="C134" s="213"/>
+      <c r="D134" s="213"/>
+      <c r="E134" s="213"/>
+      <c r="F134" s="213"/>
+      <c r="G134" s="213"/>
+      <c r="H134" s="213"/>
+      <c r="I134" s="268"/>
+    </row>
+    <row r="135" ht="15" spans="1:9">
+      <c r="A135" s="214"/>
+      <c r="B135" s="215" t="s">
         <v>418</v>
       </c>
-      <c r="C130" s="168"/>
-      <c r="D130" s="168"/>
-      <c r="E130" s="168"/>
-      <c r="F130" s="168"/>
-      <c r="G130" s="168"/>
-      <c r="H130" s="168"/>
-      <c r="I130" s="204"/>
-    </row>
-    <row r="131" ht="14.15" spans="1:9">
-      <c r="A131" s="205"/>
-      <c r="B131" s="206" t="s">
+      <c r="C135" s="216"/>
+      <c r="D135" s="216"/>
+      <c r="E135" s="216"/>
+      <c r="F135" s="216"/>
+      <c r="G135" s="216"/>
+      <c r="H135" s="213"/>
+      <c r="I135" s="269"/>
+    </row>
+    <row r="136" ht="15" spans="1:9">
+      <c r="A136" s="217">
+        <v>2</v>
+      </c>
+      <c r="B136" s="207" t="s">
         <v>419</v>
       </c>
-      <c r="C131" s="207"/>
-      <c r="D131" s="207"/>
-      <c r="E131" s="207"/>
-      <c r="F131" s="207"/>
-      <c r="G131" s="207"/>
-      <c r="H131" s="168"/>
-      <c r="I131" s="250"/>
-    </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="208">
-        <v>2</v>
-      </c>
-      <c r="B132" s="162" t="s">
+      <c r="C136" s="208"/>
+      <c r="D136" s="208"/>
+      <c r="E136" s="208"/>
+      <c r="F136" s="208"/>
+      <c r="G136" s="208"/>
+      <c r="H136" s="216"/>
+      <c r="I136" s="270"/>
+    </row>
+    <row r="137" customHeight="1" spans="1:8">
+      <c r="A137" s="218"/>
+      <c r="B137" s="219" t="s">
         <v>420</v>
       </c>
-      <c r="C132" s="163"/>
-      <c r="D132" s="163"/>
-      <c r="E132" s="163"/>
-      <c r="F132" s="163"/>
-      <c r="G132" s="163"/>
-      <c r="H132" s="207"/>
-      <c r="I132" s="251"/>
-    </row>
-    <row r="133" ht="14.25" customHeight="1" spans="1:8">
-      <c r="A133" s="209"/>
-      <c r="B133" s="210" t="s">
+      <c r="C137" s="220" t="s">
         <v>421</v>
       </c>
-      <c r="C133" s="211" t="s">
+      <c r="D137" s="221" t="s">
         <v>422</v>
       </c>
-      <c r="D133" s="212" t="s">
+      <c r="E137" s="256" t="s">
         <v>423</v>
       </c>
-      <c r="E133" s="240" t="s">
+      <c r="F137" s="256" t="s">
         <v>424</v>
       </c>
-      <c r="F133" s="240" t="s">
+      <c r="G137" s="256"/>
+      <c r="H137" s="257"/>
+    </row>
+    <row r="138" ht="32.25" customHeight="1" spans="1:9">
+      <c r="A138" s="222"/>
+      <c r="B138" s="223"/>
+      <c r="C138" s="224" t="s">
         <v>425</v>
       </c>
-      <c r="G133" s="240"/>
-      <c r="H133" s="241"/>
-    </row>
-    <row r="134" ht="32.25" customHeight="1" spans="1:9">
-      <c r="A134" s="213"/>
-      <c r="B134" s="214"/>
-      <c r="C134" s="215" t="s">
+      <c r="D138" s="225" t="s">
         <v>426</v>
       </c>
-      <c r="D134" s="216" t="s">
+      <c r="E138" s="258"/>
+      <c r="F138" s="258"/>
+      <c r="G138" s="258"/>
+      <c r="H138" s="259" t="s">
         <v>427</v>
       </c>
-      <c r="E134" s="242"/>
-      <c r="F134" s="242"/>
-      <c r="G134" s="242"/>
-      <c r="H134" s="243" t="s">
+      <c r="I138" s="271" t="s">
         <v>428</v>
       </c>
-      <c r="I134" s="252" t="s">
+    </row>
+    <row r="139" ht="30.75" spans="1:9">
+      <c r="A139" s="226">
+        <v>3</v>
+      </c>
+      <c r="B139" s="227" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="135" ht="33.4" spans="1:9">
-      <c r="A135" s="217">
-        <v>3</v>
-      </c>
-      <c r="B135" s="218" t="s">
+      <c r="C139" s="208" t="s">
+        <v>429</v>
+      </c>
+      <c r="D139" s="208" t="s">
+        <v>429</v>
+      </c>
+      <c r="E139" s="208" t="s">
+        <v>429</v>
+      </c>
+      <c r="F139" s="208" t="s">
+        <v>429</v>
+      </c>
+      <c r="G139" s="208" t="s">
+        <v>429</v>
+      </c>
+      <c r="H139" s="260" t="s">
         <v>430</v>
       </c>
-      <c r="C135" s="163" t="s">
-        <v>430</v>
-      </c>
-      <c r="D135" s="163" t="s">
-        <v>430</v>
-      </c>
-      <c r="E135" s="163" t="s">
-        <v>430</v>
-      </c>
-      <c r="F135" s="163" t="s">
-        <v>430</v>
-      </c>
-      <c r="G135" s="163" t="s">
-        <v>430</v>
-      </c>
-      <c r="H135" s="244" t="s">
+      <c r="I139" s="272" t="s">
         <v>431</v>
       </c>
-      <c r="I135" s="253" t="s">
+    </row>
+    <row r="140" ht="15" customHeight="1" spans="1:9">
+      <c r="A140" s="228"/>
+      <c r="B140" s="229"/>
+      <c r="C140" s="213"/>
+      <c r="D140" s="213"/>
+      <c r="E140" s="213"/>
+      <c r="F140" s="213"/>
+      <c r="G140" s="213"/>
+      <c r="H140" s="261" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="136" ht="15" customHeight="1" spans="1:9">
-      <c r="A136" s="219"/>
-      <c r="B136" s="220"/>
-      <c r="C136" s="168"/>
-      <c r="D136" s="168"/>
-      <c r="E136" s="168"/>
-      <c r="F136" s="168"/>
-      <c r="G136" s="168"/>
-      <c r="H136" s="245" t="s">
+      <c r="I140" s="273" t="s">
         <v>433</v>
       </c>
-      <c r="I136" s="254" t="s">
+    </row>
+    <row r="141" ht="15" customHeight="1" spans="1:9">
+      <c r="A141" s="228"/>
+      <c r="B141" s="230" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="137" ht="15" customHeight="1" spans="1:9">
-      <c r="A137" s="219"/>
-      <c r="B137" s="221" t="s">
+      <c r="C141" s="231" t="s">
         <v>435</v>
       </c>
-      <c r="C137" s="222" t="s">
+      <c r="D141" s="232" t="s">
         <v>436</v>
       </c>
-      <c r="D137" s="223" t="s">
+      <c r="E141" s="232" t="s">
         <v>437</v>
       </c>
-      <c r="E137" s="223" t="s">
+      <c r="F141" s="243" t="s">
         <v>438</v>
       </c>
-      <c r="F137" s="234" t="s">
+      <c r="G141" s="241" t="s">
         <v>439</v>
       </c>
-      <c r="G137" s="232" t="s">
+      <c r="H141" s="262" t="s">
         <v>440</v>
       </c>
-      <c r="H137" s="246" t="s">
+      <c r="I141" s="274" t="s">
         <v>441</v>
       </c>
-      <c r="I137" s="255" t="s">
+    </row>
+    <row r="142" ht="28.5" spans="1:9">
+      <c r="A142" s="228"/>
+      <c r="B142" s="233" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="138" ht="26.9" spans="1:9">
-      <c r="A138" s="219"/>
-      <c r="B138" s="224" t="s">
+      <c r="C142" s="234" t="s">
         <v>443</v>
       </c>
-      <c r="C138" s="225" t="s">
+      <c r="D142" s="235" t="s">
         <v>444</v>
       </c>
-      <c r="D138" s="226" t="s">
+      <c r="E142" s="235" t="s">
         <v>445</v>
       </c>
-      <c r="E138" s="226" t="s">
+      <c r="F142" s="263" t="s">
         <v>446</v>
       </c>
-      <c r="F138" s="247" t="s">
+      <c r="G142" s="263" t="s">
         <v>447</v>
       </c>
-      <c r="G138" s="247" t="s">
+      <c r="H142" s="262" t="s">
         <v>448</v>
       </c>
-      <c r="H138" s="246" t="s">
+      <c r="I142" s="274" t="s">
         <v>449</v>
       </c>
-      <c r="I138" s="255" t="s">
+    </row>
+    <row r="143" ht="16.5" spans="1:9">
+      <c r="A143" s="228"/>
+      <c r="B143" s="236" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="139" ht="17.3" spans="1:9">
-      <c r="A139" s="219"/>
-      <c r="B139" s="227" t="s">
+      <c r="C143" s="237" t="s">
         <v>451</v>
       </c>
-      <c r="C139" s="228" t="s">
+      <c r="D143" s="238" t="s">
         <v>452</v>
       </c>
-      <c r="D139" s="229" t="s">
+      <c r="E143" s="238" t="s">
         <v>453</v>
       </c>
-      <c r="E139" s="229" t="s">
+      <c r="F143" s="243" t="s">
         <v>454</v>
       </c>
-      <c r="F139" s="234" t="s">
+      <c r="G143" s="243" t="s">
         <v>455</v>
       </c>
-      <c r="G139" s="234" t="s">
+      <c r="H143" s="262" t="s">
         <v>456</v>
       </c>
-      <c r="H139" s="246" t="s">
+      <c r="I143" s="275" t="s">
         <v>457</v>
       </c>
-      <c r="I139" s="256" t="s">
+    </row>
+    <row r="144" ht="16.5" spans="1:9">
+      <c r="A144" s="228"/>
+      <c r="B144" s="236" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="140" ht="17.3" spans="1:9">
-      <c r="A140" s="219"/>
-      <c r="B140" s="227" t="s">
+      <c r="C144" s="237" t="s">
         <v>459</v>
       </c>
-      <c r="C140" s="228" t="s">
+      <c r="D144" s="238" t="s">
+        <v>451</v>
+      </c>
+      <c r="E144" s="238" t="s">
         <v>460</v>
       </c>
-      <c r="D140" s="229" t="s">
-        <v>452</v>
-      </c>
-      <c r="E140" s="229" t="s">
+      <c r="F144" s="243" t="s">
         <v>461</v>
       </c>
-      <c r="F140" s="234" t="s">
+      <c r="G144" s="243" t="s">
         <v>462</v>
       </c>
-      <c r="G140" s="234" t="s">
+      <c r="H144" s="264" t="s">
         <v>463</v>
       </c>
-      <c r="H140" s="248" t="s">
+      <c r="I144" s="274" t="s">
         <v>464</v>
       </c>
-      <c r="I140" s="255" t="s">
+    </row>
+    <row r="145" ht="15" spans="1:9">
+      <c r="A145" s="228"/>
+      <c r="B145" s="239" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="141" ht="16.3" spans="1:9">
-      <c r="A141" s="219"/>
-      <c r="B141" s="230" t="s">
+      <c r="C145" s="237" t="s">
         <v>466</v>
       </c>
-      <c r="C141" s="228" t="s">
+      <c r="D145" s="238" t="s">
         <v>467</v>
       </c>
-      <c r="D141" s="229" t="s">
+      <c r="E145" s="243" t="s">
         <v>468</v>
       </c>
-      <c r="E141" s="234" t="s">
+      <c r="F145" s="243" t="s">
         <v>469</v>
       </c>
-      <c r="F141" s="234" t="s">
+      <c r="G145" s="243" t="s">
         <v>470</v>
       </c>
-      <c r="G141" s="234" t="s">
+      <c r="H145" s="262" t="s">
         <v>471</v>
       </c>
-      <c r="H141" s="246" t="s">
+      <c r="I145" s="275" t="s">
         <v>472</v>
       </c>
-      <c r="I141" s="256" t="s">
+    </row>
+    <row r="146" ht="15" spans="1:9">
+      <c r="A146" s="228"/>
+      <c r="B146" s="239" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="142" ht="16.3" spans="1:9">
-      <c r="A142" s="219"/>
-      <c r="B142" s="230" t="s">
+      <c r="C146" s="237" t="s">
         <v>474</v>
       </c>
-      <c r="C142" s="228" t="s">
+      <c r="D146" s="238" t="s">
         <v>475</v>
       </c>
-      <c r="D142" s="229" t="s">
+      <c r="E146" s="243" t="s">
         <v>476</v>
       </c>
-      <c r="E142" s="234" t="s">
+      <c r="F146" s="243" t="s">
         <v>477</v>
       </c>
-      <c r="F142" s="234" t="s">
+      <c r="G146" s="243" t="s">
         <v>478</v>
       </c>
-      <c r="G142" s="234" t="s">
+      <c r="H146" s="262" t="s">
         <v>479</v>
       </c>
-      <c r="H142" s="246" t="s">
+      <c r="I146" s="275" t="s">
         <v>480</v>
       </c>
-      <c r="I142" s="256" t="s">
+    </row>
+    <row r="147" ht="25.5" spans="1:9">
+      <c r="A147" s="228"/>
+      <c r="B147" s="239" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="143" ht="24.95" spans="1:9">
-      <c r="A143" s="219"/>
-      <c r="B143" s="230" t="s">
+      <c r="C147" s="237" t="s">
+        <v>443</v>
+      </c>
+      <c r="D147" s="238" t="s">
         <v>482</v>
       </c>
-      <c r="C143" s="228" t="s">
-        <v>444</v>
-      </c>
-      <c r="D143" s="229" t="s">
+      <c r="E147" s="243" t="s">
         <v>483</v>
       </c>
-      <c r="E143" s="234" t="s">
+      <c r="F147" s="243" t="s">
         <v>484</v>
       </c>
-      <c r="F143" s="234" t="s">
+      <c r="G147" s="243" t="s">
         <v>485</v>
       </c>
-      <c r="G143" s="234" t="s">
+      <c r="H147" s="262" t="s">
         <v>486</v>
       </c>
-      <c r="H143" s="246" t="s">
+      <c r="I147" s="276" t="s">
         <v>487</v>
       </c>
-      <c r="I143" s="257" t="s">
+    </row>
+    <row r="148" ht="15" spans="1:9">
+      <c r="A148" s="228"/>
+      <c r="B148" s="239" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="144" ht="16.3" spans="1:9">
-      <c r="A144" s="219"/>
-      <c r="B144" s="230" t="s">
+      <c r="C148" s="237" t="s">
         <v>489</v>
       </c>
-      <c r="C144" s="228" t="s">
+      <c r="D148" s="238" t="s">
         <v>490</v>
       </c>
-      <c r="D144" s="229" t="s">
+      <c r="E148" s="243" t="s">
         <v>491</v>
       </c>
-      <c r="E144" s="234" t="s">
+      <c r="F148" s="243" t="s">
         <v>492</v>
       </c>
-      <c r="F144" s="234" t="s">
+      <c r="G148" s="243" t="s">
         <v>493</v>
       </c>
-      <c r="G144" s="234" t="s">
+      <c r="H148" s="262" t="s">
         <v>494</v>
       </c>
-      <c r="H144" s="246" t="s">
+      <c r="I148" s="275" t="s">
         <v>495</v>
       </c>
-      <c r="I144" s="256" t="s">
+    </row>
+    <row r="149" ht="15" spans="1:9">
+      <c r="A149" s="228"/>
+      <c r="B149" s="239" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="145" ht="16.3" spans="1:9">
-      <c r="A145" s="219"/>
-      <c r="B145" s="230" t="s">
+      <c r="C149" s="237" t="s">
         <v>497</v>
       </c>
-      <c r="C145" s="228" t="s">
+      <c r="D149" s="238" t="s">
         <v>498</v>
       </c>
-      <c r="D145" s="229" t="s">
+      <c r="E149" s="243" t="s">
         <v>499</v>
       </c>
-      <c r="E145" s="234" t="s">
+      <c r="F149" s="243" t="s">
         <v>500</v>
       </c>
-      <c r="F145" s="234" t="s">
+      <c r="G149" s="243" t="s">
         <v>501</v>
       </c>
-      <c r="G145" s="234" t="s">
+      <c r="H149" s="262" t="s">
         <v>502</v>
       </c>
-      <c r="H145" s="246" t="s">
+      <c r="I149" s="275" t="s">
         <v>503</v>
       </c>
-      <c r="I145" s="256" t="s">
+    </row>
+    <row r="150" ht="21.75" customHeight="1" spans="1:9">
+      <c r="A150" s="228"/>
+      <c r="B150" s="239" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="146" ht="21.75" customHeight="1" spans="1:9">
-      <c r="A146" s="219"/>
-      <c r="B146" s="230" t="s">
+      <c r="C150" s="237" t="s">
         <v>505</v>
       </c>
-      <c r="C146" s="228" t="s">
+      <c r="D150" s="238" t="s">
+        <v>474</v>
+      </c>
+      <c r="E150" s="243" t="s">
         <v>506</v>
       </c>
-      <c r="D146" s="229" t="s">
-        <v>475</v>
-      </c>
-      <c r="E146" s="234" t="s">
+      <c r="F150" s="243" t="s">
         <v>507</v>
       </c>
-      <c r="F146" s="234" t="s">
+      <c r="G150" s="243" t="s">
         <v>508</v>
       </c>
-      <c r="G146" s="234" t="s">
+      <c r="H150" s="262" t="s">
         <v>509</v>
       </c>
-      <c r="H146" s="246" t="s">
+      <c r="I150" s="275" t="s">
         <v>510</v>
       </c>
-      <c r="I146" s="256" t="s">
+    </row>
+    <row r="151" ht="25.5" customHeight="1" spans="1:9">
+      <c r="A151" s="228"/>
+      <c r="B151" s="239" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="147" ht="25.5" customHeight="1" spans="1:9">
-      <c r="A147" s="219"/>
-      <c r="B147" s="230" t="s">
+      <c r="C151" s="237" t="s">
+        <v>459</v>
+      </c>
+      <c r="D151" s="238" t="s">
         <v>512</v>
       </c>
-      <c r="C147" s="228" t="s">
-        <v>460</v>
-      </c>
-      <c r="D147" s="229" t="s">
+      <c r="E151" s="243" t="s">
         <v>513</v>
       </c>
-      <c r="E147" s="234" t="s">
+      <c r="F151" s="243" t="s">
         <v>514</v>
       </c>
-      <c r="F147" s="234" t="s">
+      <c r="G151" s="243" t="s">
         <v>515</v>
       </c>
-      <c r="G147" s="234" t="s">
+      <c r="H151" s="262" t="s">
         <v>516</v>
       </c>
-      <c r="H147" s="246" t="s">
+      <c r="I151" s="277" t="s">
         <v>517</v>
       </c>
-      <c r="I147" s="258" t="s">
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="228"/>
+      <c r="B152" s="239" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="148" ht="13.45" spans="1:9">
-      <c r="A148" s="219"/>
-      <c r="B148" s="230" t="s">
+      <c r="C152" s="237" t="s">
         <v>519</v>
       </c>
-      <c r="C148" s="228" t="s">
+      <c r="D152" s="238" t="s">
         <v>520</v>
       </c>
-      <c r="D148" s="229" t="s">
+      <c r="E152" s="243" t="s">
         <v>521</v>
       </c>
-      <c r="E148" s="234" t="s">
+      <c r="F152" s="243" t="s">
         <v>522</v>
       </c>
-      <c r="F148" s="234" t="s">
+      <c r="G152" s="243" t="s">
+        <v>436</v>
+      </c>
+      <c r="H152" s="238" t="s">
         <v>523</v>
       </c>
-      <c r="G148" s="234" t="s">
-        <v>437</v>
-      </c>
-      <c r="H148" s="229" t="s">
+      <c r="I152" s="247" t="s">
         <v>524</v>
       </c>
-      <c r="I148" s="259" t="s">
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="228"/>
+      <c r="B153" s="240" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="149" ht="13.45" spans="1:9">
-      <c r="A149" s="219"/>
-      <c r="B149" s="231" t="s">
+      <c r="C153" s="237" t="s">
         <v>526</v>
       </c>
-      <c r="C149" s="228" t="s">
+      <c r="D153" s="238" t="s">
         <v>527</v>
       </c>
-      <c r="D149" s="229" t="s">
+      <c r="E153" s="243" t="s">
         <v>528</v>
       </c>
-      <c r="E149" s="234" t="s">
+      <c r="F153" s="243" t="s">
         <v>529</v>
       </c>
-      <c r="F149" s="234" t="s">
+      <c r="G153" s="243" t="s">
         <v>530</v>
       </c>
-      <c r="G149" s="234" t="s">
+      <c r="H153" s="238" t="s">
         <v>531</v>
       </c>
-      <c r="H149" s="229" t="s">
+      <c r="I153" s="247" t="s">
         <v>532</v>
       </c>
-      <c r="I149" s="259" t="s">
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="228"/>
+      <c r="B154" s="240" t="s">
+        <v>476</v>
+      </c>
+      <c r="C154" s="237" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="150" ht="13.45" spans="1:9">
-      <c r="A150" s="219"/>
-      <c r="B150" s="231" t="s">
-        <v>477</v>
-      </c>
-      <c r="C150" s="228" t="s">
+      <c r="D154" s="238" t="s">
         <v>534</v>
       </c>
-      <c r="D150" s="229" t="s">
+      <c r="E154" s="243" t="s">
         <v>535</v>
       </c>
-      <c r="E150" s="234" t="s">
+      <c r="F154" s="243" t="s">
         <v>536</v>
       </c>
-      <c r="F150" s="234" t="s">
+      <c r="G154" s="243" t="s">
         <v>537</v>
       </c>
-      <c r="G150" s="234" t="s">
+      <c r="H154" s="238" t="s">
         <v>538</v>
       </c>
-      <c r="H150" s="229" t="s">
+      <c r="I154" s="247" t="s">
         <v>539</v>
       </c>
-      <c r="I150" s="259" t="s">
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="228"/>
+      <c r="B155" s="240" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="151" ht="13.45" spans="1:9">
-      <c r="A151" s="219"/>
-      <c r="B151" s="231" t="s">
+      <c r="C155" s="237" t="s">
         <v>541</v>
       </c>
-      <c r="C151" s="228" t="s">
+      <c r="D155" s="238" t="s">
         <v>542</v>
       </c>
-      <c r="D151" s="229" t="s">
+      <c r="E155" s="243" t="s">
         <v>543</v>
       </c>
-      <c r="E151" s="234" t="s">
+      <c r="F155" s="243" t="s">
         <v>544</v>
       </c>
-      <c r="F151" s="234" t="s">
+      <c r="G155" s="243" t="s">
         <v>545</v>
       </c>
-      <c r="G151" s="234" t="s">
+      <c r="H155" s="238" t="s">
         <v>546</v>
       </c>
-      <c r="H151" s="229" t="s">
+      <c r="I155" s="247" t="s">
         <v>547</v>
       </c>
-      <c r="I151" s="259" t="s">
+    </row>
+    <row r="156" ht="15.75" customHeight="1" spans="1:9">
+      <c r="A156" s="228"/>
+      <c r="B156" s="240" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="152" ht="15.75" customHeight="1" spans="1:9">
-      <c r="A152" s="219"/>
-      <c r="B152" s="231" t="s">
+      <c r="C156" s="241" t="s">
         <v>549</v>
       </c>
-      <c r="C152" s="232" t="s">
+      <c r="D156" s="242" t="s">
         <v>550</v>
       </c>
-      <c r="D152" s="233" t="s">
+      <c r="E156" s="243" t="s">
         <v>551</v>
       </c>
-      <c r="E152" s="234" t="s">
+      <c r="F156" s="243" t="s">
         <v>552</v>
       </c>
-      <c r="F152" s="234" t="s">
+      <c r="G156" s="243" t="s">
         <v>553</v>
       </c>
-      <c r="G152" s="234" t="s">
+      <c r="H156" s="238" t="s">
         <v>554</v>
       </c>
-      <c r="H152" s="229" t="s">
+      <c r="I156" s="249" t="s">
         <v>555</v>
       </c>
-      <c r="I152" s="260" t="s">
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="228"/>
+      <c r="B157" s="240" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="153" ht="13.45" spans="1:9">
-      <c r="A153" s="219"/>
-      <c r="B153" s="231" t="s">
+      <c r="C157" s="243" t="s">
         <v>557</v>
       </c>
-      <c r="C153" s="234" t="s">
+      <c r="D157" s="243" t="s">
         <v>558</v>
       </c>
-      <c r="D153" s="234" t="s">
+      <c r="E157" s="243" t="s">
         <v>559</v>
       </c>
-      <c r="E153" s="234" t="s">
+      <c r="F157" s="243" t="s">
+        <v>522</v>
+      </c>
+      <c r="G157" s="243" t="s">
         <v>560</v>
       </c>
-      <c r="F153" s="234" t="s">
+      <c r="H157" s="238" t="s">
+        <v>561</v>
+      </c>
+      <c r="I157" s="251" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="158" ht="28.5" spans="1:9">
+      <c r="A158" s="228"/>
+      <c r="B158" s="244" t="s">
+        <v>563</v>
+      </c>
+      <c r="C158" s="245" t="s">
+        <v>564</v>
+      </c>
+      <c r="D158" s="238" t="s">
+        <v>565</v>
+      </c>
+      <c r="E158" s="238" t="s">
+        <v>566</v>
+      </c>
+      <c r="F158" s="263" t="s">
+        <v>567</v>
+      </c>
+      <c r="G158" s="263" t="s">
+        <v>568</v>
+      </c>
+      <c r="H158" s="250" t="s">
+        <v>569</v>
+      </c>
+      <c r="I158" s="251" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="159" ht="15" spans="1:9">
+      <c r="A159" s="228"/>
+      <c r="B159" s="246" t="s">
+        <v>571</v>
+      </c>
+      <c r="C159" s="238" t="s">
         <v>523</v>
       </c>
-      <c r="G153" s="234" t="s">
+      <c r="D159" s="247" t="s">
+        <v>572</v>
+      </c>
+      <c r="E159" s="263" t="s">
+        <v>573</v>
+      </c>
+      <c r="F159" s="252"/>
+      <c r="G159" s="252"/>
+      <c r="H159" s="263"/>
+      <c r="I159" s="278"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="228"/>
+      <c r="B160" s="248"/>
+      <c r="C160" s="238" t="s">
+        <v>531</v>
+      </c>
+      <c r="D160" s="247" t="s">
+        <v>524</v>
+      </c>
+      <c r="E160" s="250" t="s">
+        <v>574</v>
+      </c>
+      <c r="F160" s="252"/>
+      <c r="G160" s="252"/>
+      <c r="H160" s="263"/>
+      <c r="I160" s="278"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="228"/>
+      <c r="B161" s="248"/>
+      <c r="C161" s="238" t="s">
+        <v>538</v>
+      </c>
+      <c r="D161" s="247" t="s">
+        <v>532</v>
+      </c>
+      <c r="E161" s="252"/>
+      <c r="F161" s="252"/>
+      <c r="G161" s="252"/>
+      <c r="H161" s="263"/>
+      <c r="I161" s="278"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="228"/>
+      <c r="B162" s="248"/>
+      <c r="C162" s="238" t="s">
+        <v>546</v>
+      </c>
+      <c r="D162" s="247" t="s">
+        <v>539</v>
+      </c>
+      <c r="E162" s="252"/>
+      <c r="F162" s="252"/>
+      <c r="G162" s="252"/>
+      <c r="H162" s="263"/>
+      <c r="I162" s="278"/>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="228"/>
+      <c r="B163" s="248"/>
+      <c r="C163" s="238" t="s">
+        <v>554</v>
+      </c>
+      <c r="D163" s="247" t="s">
+        <v>547</v>
+      </c>
+      <c r="E163" s="252"/>
+      <c r="F163" s="252"/>
+      <c r="G163" s="252"/>
+      <c r="H163" s="263"/>
+      <c r="I163" s="278"/>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" s="228"/>
+      <c r="B164" s="248"/>
+      <c r="C164" s="238" t="s">
         <v>561</v>
       </c>
-      <c r="H153" s="229" t="s">
+      <c r="D164" s="249" t="s">
+        <v>555</v>
+      </c>
+      <c r="E164" s="252"/>
+      <c r="F164" s="252"/>
+      <c r="G164" s="252"/>
+      <c r="H164" s="263"/>
+      <c r="I164" s="278"/>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" s="228"/>
+      <c r="B165" s="248"/>
+      <c r="C165" s="250" t="s">
+        <v>569</v>
+      </c>
+      <c r="D165" s="251" t="s">
         <v>562</v>
       </c>
-      <c r="I153" s="261" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="154" ht="26.9" spans="1:9">
-      <c r="A154" s="219"/>
-      <c r="B154" s="235" t="s">
-        <v>564</v>
-      </c>
-      <c r="C154" s="236" t="s">
-        <v>565</v>
-      </c>
-      <c r="D154" s="229" t="s">
-        <v>566</v>
-      </c>
-      <c r="E154" s="229" t="s">
-        <v>567</v>
-      </c>
-      <c r="F154" s="247" t="s">
-        <v>568</v>
-      </c>
-      <c r="G154" s="247" t="s">
-        <v>569</v>
-      </c>
-      <c r="H154" s="249" t="s">
+      <c r="E165" s="252"/>
+      <c r="F165" s="252"/>
+      <c r="G165" s="252"/>
+      <c r="H165" s="263"/>
+      <c r="I165" s="278"/>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="228"/>
+      <c r="B166" s="248"/>
+      <c r="C166" s="252"/>
+      <c r="D166" s="251" t="s">
         <v>570</v>
       </c>
-      <c r="I154" s="261" t="s">
+      <c r="E166" s="252"/>
+      <c r="F166" s="252"/>
+      <c r="G166" s="252"/>
+      <c r="H166" s="263"/>
+      <c r="I166" s="278"/>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="228"/>
+      <c r="B167" s="248"/>
+      <c r="C167" s="252"/>
+      <c r="D167" s="252"/>
+      <c r="E167" s="252"/>
+      <c r="F167" s="252"/>
+      <c r="G167" s="252"/>
+      <c r="H167" s="263"/>
+      <c r="I167" s="278"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="228"/>
+      <c r="B168" s="248"/>
+      <c r="C168" s="252"/>
+      <c r="D168" s="252"/>
+      <c r="E168" s="252"/>
+      <c r="F168" s="252"/>
+      <c r="G168" s="252"/>
+      <c r="H168" s="263"/>
+      <c r="I168" s="278"/>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="228"/>
+      <c r="B169" s="248"/>
+      <c r="C169" s="252"/>
+      <c r="D169" s="252"/>
+      <c r="E169" s="252"/>
+      <c r="F169" s="252"/>
+      <c r="G169" s="252"/>
+      <c r="H169" s="263"/>
+      <c r="I169" s="278"/>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="228"/>
+      <c r="B170" s="248"/>
+      <c r="C170" s="252"/>
+      <c r="D170" s="252"/>
+      <c r="E170" s="252"/>
+      <c r="F170" s="252"/>
+      <c r="G170" s="252"/>
+      <c r="H170" s="263"/>
+      <c r="I170" s="278"/>
+    </row>
+    <row r="171" ht="15" spans="1:9">
+      <c r="A171" s="253"/>
+      <c r="B171" s="246" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="155" ht="14.15" spans="1:9">
-      <c r="A155" s="237"/>
-      <c r="B155" s="238" t="s">
-        <v>572</v>
-      </c>
-      <c r="C155" s="239"/>
-      <c r="D155" s="239"/>
-      <c r="E155" s="239"/>
-      <c r="F155" s="239"/>
-      <c r="G155" s="239"/>
-      <c r="H155" s="247" t="s">
+      <c r="C171" s="254"/>
+      <c r="D171" s="254"/>
+      <c r="E171" s="254"/>
+      <c r="F171" s="254"/>
+      <c r="G171" s="254"/>
+      <c r="H171" s="263" t="s">
         <v>573</v>
       </c>
-      <c r="I155" s="262"/>
-    </row>
-    <row r="156" spans="8:8">
-      <c r="H156" s="249" t="s">
+      <c r="I171" s="279"/>
+    </row>
+    <row r="172" spans="8:8">
+      <c r="H172" s="250" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="192" spans="5:5">
-      <c r="E192"/>
+    <row r="208" spans="5:5">
+      <c r="E208"/>
     </row>
   </sheetData>
-  <mergeCells count="143">
+  <mergeCells count="150">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="B13:C13"/>
@@ -7363,66 +7609,73 @@
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="F79:G79"/>
     <mergeCell ref="H79:I79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B86:D86"/>
     <mergeCell ref="B98:C98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C99:D99"/>
     <mergeCell ref="H100:I100"/>
-    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="B101:C101"/>
     <mergeCell ref="H101:I101"/>
+    <mergeCell ref="B102:C102"/>
     <mergeCell ref="H102:I102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
     <mergeCell ref="B124:C124"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B135:G135"/>
     <mergeCell ref="A3:A23"/>
     <mergeCell ref="A25:A43"/>
     <mergeCell ref="A45:A64"/>
-    <mergeCell ref="A66:A83"/>
-    <mergeCell ref="A85:A105"/>
-    <mergeCell ref="A108:A124"/>
-    <mergeCell ref="A126:A131"/>
-    <mergeCell ref="A132:A134"/>
-    <mergeCell ref="A135:A155"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="C135:C136"/>
-    <mergeCell ref="D135:D136"/>
+    <mergeCell ref="A66:A86"/>
+    <mergeCell ref="A88:A109"/>
+    <mergeCell ref="A112:A128"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="A136:A138"/>
+    <mergeCell ref="A139:A171"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="D139:D140"/>
     <mergeCell ref="E3:E23"/>
     <mergeCell ref="E25:E43"/>
     <mergeCell ref="E45:E64"/>
-    <mergeCell ref="E66:E83"/>
-    <mergeCell ref="E85:E106"/>
-    <mergeCell ref="E135:E136"/>
-    <mergeCell ref="F135:F136"/>
-    <mergeCell ref="G85:G103"/>
-    <mergeCell ref="G135:G136"/>
+    <mergeCell ref="E66:E86"/>
+    <mergeCell ref="E88:E110"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="F139:F140"/>
+    <mergeCell ref="G88:G107"/>
+    <mergeCell ref="G139:G140"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" scale="55" orientation="landscape"/>
@@ -7439,19 +7692,19 @@
       <selection activeCell="A1" sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="35.2869565217391" customWidth="1"/>
+    <col min="1" max="1" width="35.2833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -7461,7 +7714,7 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -7471,7 +7724,7 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
